--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$482</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$482</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="504">
   <si>
     <t>bat</t>
   </si>
@@ -1538,6 +1538,9 @@
   </si>
   <si>
     <t>ClusterQuality</t>
+  </si>
+  <si>
+    <t>stable_ts</t>
   </si>
 </sst>
 </file>
@@ -1862,11 +1865,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R482"/>
+  <dimension ref="A1:S482"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G482"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1875,21 +1878,21 @@
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="7.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
-    <col min="5" max="7" width="7.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="42.125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="5" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="42.125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1912,19 +1915,22 @@
         <v>502</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1946,12 +1952,12 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1973,12 +1979,12 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2000,12 +2006,12 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I4" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2027,12 +2033,12 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I5" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2054,12 +2060,12 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I6" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2081,12 +2087,12 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I7" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2108,12 +2114,12 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I8" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2135,12 +2141,12 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I9" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2162,12 +2168,12 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2189,12 +2195,12 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I11" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2216,12 +2222,12 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I12" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2243,15 +2249,15 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2273,12 +2279,12 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I14" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -2300,12 +2306,12 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I15" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2327,12 +2333,12 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I16" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -2354,12 +2360,12 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I17" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2381,12 +2387,12 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I18" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2408,12 +2414,12 @@
       <c r="G19" s="1">
         <v>0</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I19" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2435,12 +2441,12 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I20" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2462,12 +2468,12 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I21" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2489,12 +2495,12 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I22" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2516,12 +2522,12 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I23" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,12 +2549,12 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I24" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2570,12 +2576,12 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I25" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2597,12 +2603,12 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I26" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,12 +2630,12 @@
       <c r="G27" s="1">
         <v>0</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I27" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2651,15 +2657,15 @@
       <c r="G28" s="1">
         <v>0</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="K28" s="1" t="s">
+      <c r="I28" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2681,12 +2687,12 @@
       <c r="G29" s="1">
         <v>0</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I29" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2708,12 +2714,12 @@
       <c r="G30" s="1">
         <v>0</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I30" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -2735,12 +2741,12 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I31" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -2762,12 +2768,12 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I32" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2789,12 +2795,12 @@
       <c r="G33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I33" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -2816,12 +2822,12 @@
       <c r="G34" s="1">
         <v>0</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I34" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -2843,12 +2849,12 @@
       <c r="G35" s="1">
         <v>0</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I35" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -2870,12 +2876,12 @@
       <c r="G36" s="1">
         <v>0</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I36" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -2897,12 +2903,12 @@
       <c r="G37" s="1">
         <v>0</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I37" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2924,12 +2930,12 @@
       <c r="G38" s="1">
         <v>0</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I38" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -2951,12 +2957,12 @@
       <c r="G39" s="1">
         <v>0</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I39" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -2978,12 +2984,12 @@
       <c r="G40" s="1">
         <v>0</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I40" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -3005,12 +3011,12 @@
       <c r="G41" s="1">
         <v>0</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I41" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -3032,12 +3038,12 @@
       <c r="G42" s="1">
         <v>0</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I42" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -3059,12 +3065,12 @@
       <c r="G43" s="1">
         <v>0</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I43" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -3086,15 +3092,15 @@
       <c r="G44" s="1">
         <v>0</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I44" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -3116,12 +3122,12 @@
       <c r="G45" s="1">
         <v>0</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I45" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -3143,12 +3149,12 @@
       <c r="G46" s="1">
         <v>0</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I46" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -3170,12 +3176,12 @@
       <c r="G47" s="1">
         <v>0</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I47" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -3197,12 +3203,12 @@
       <c r="G48" s="1">
         <v>0</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N48" s="2"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I48" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -3224,12 +3230,12 @@
       <c r="G49" s="1">
         <v>0</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I49" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -3251,12 +3257,12 @@
       <c r="G50" s="1">
         <v>0</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I50" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -3278,12 +3284,12 @@
       <c r="G51" s="1">
         <v>0</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I51" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -3305,12 +3311,12 @@
       <c r="G52" s="1">
         <v>0</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I52" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -3332,12 +3338,12 @@
       <c r="G53" s="1">
         <v>0</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I53" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -3359,12 +3365,12 @@
       <c r="G54" s="1">
         <v>0</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I54" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -3386,12 +3392,12 @@
       <c r="G55" s="1">
         <v>0</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I55" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -3413,12 +3419,12 @@
       <c r="G56" s="1">
         <v>0</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N56" s="2"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I56" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -3440,12 +3446,12 @@
       <c r="G57" s="1">
         <v>0</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N57" s="2"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I57" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -3467,12 +3473,12 @@
       <c r="G58" s="1">
         <v>0</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N58" s="2"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I58" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -3494,12 +3500,12 @@
       <c r="G59" s="1">
         <v>0</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N59" s="2"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I59" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -3521,12 +3527,12 @@
       <c r="G60" s="1">
         <v>0</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="N60" s="2"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -3548,12 +3554,12 @@
       <c r="G61" s="1">
         <v>0</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="N61" s="2"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -3575,12 +3581,12 @@
       <c r="G62" s="1">
         <v>0</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="N62" s="2"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -3602,12 +3608,12 @@
       <c r="G63" s="1">
         <v>0</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="N63" s="2"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -3629,12 +3635,12 @@
       <c r="G64" s="1">
         <v>0</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="N64" s="2"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
@@ -3656,12 +3662,12 @@
       <c r="G65" s="1">
         <v>0</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="N65" s="2"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -3683,12 +3689,12 @@
       <c r="G66" s="1">
         <v>0</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="N66" s="2"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,12 +3716,12 @@
       <c r="G67" s="1">
         <v>0</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="N67" s="2"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -3737,12 +3743,12 @@
       <c r="G68" s="1">
         <v>0</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="N68" s="2"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
@@ -3764,12 +3770,12 @@
       <c r="G69" s="1">
         <v>0</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="I69" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="N69" s="2"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -3791,12 +3797,12 @@
       <c r="G70" s="1">
         <v>0</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="N70" s="2"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -3818,12 +3824,12 @@
       <c r="G71" s="1">
         <v>0</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N71" s="2"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I71" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
@@ -3845,12 +3851,12 @@
       <c r="G72" s="1">
         <v>0</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N72" s="2"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I72" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -3872,12 +3878,12 @@
       <c r="G73" s="1">
         <v>0</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N73" s="2"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I73" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -3899,12 +3905,12 @@
       <c r="G74" s="1">
         <v>0</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N74" s="2"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I74" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -3926,12 +3932,12 @@
       <c r="G75" s="1">
         <v>0</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N75" s="2"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I75" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -3953,9 +3959,9 @@
       <c r="G76" s="1">
         <v>0</v>
       </c>
-      <c r="N76" s="2"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
@@ -3977,9 +3983,9 @@
       <c r="G77" s="1">
         <v>0</v>
       </c>
-      <c r="N77" s="2"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
@@ -4001,9 +4007,9 @@
       <c r="G78" s="1">
         <v>0</v>
       </c>
-      <c r="N78" s="2"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -4025,12 +4031,12 @@
       <c r="G79" s="1">
         <v>0</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N79" s="2"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I79" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
@@ -4052,12 +4058,12 @@
       <c r="G80" s="1">
         <v>0</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I80" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
@@ -4079,12 +4085,12 @@
       <c r="G81" s="1">
         <v>0</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N81" s="2"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I81" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -4106,12 +4112,12 @@
       <c r="G82" s="1">
         <v>0</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N82" s="2"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I82" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
@@ -4133,12 +4139,12 @@
       <c r="G83" s="1">
         <v>0</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="J83" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N83" s="2"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
@@ -4160,9 +4166,9 @@
       <c r="G84" s="1">
         <v>0</v>
       </c>
-      <c r="N84" s="2"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
@@ -4184,12 +4190,12 @@
       <c r="G85" s="1">
         <v>0</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N85" s="2"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I85" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
@@ -4211,12 +4217,12 @@
       <c r="G86" s="1">
         <v>0</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N86" s="2"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I86" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
@@ -4238,9 +4244,9 @@
       <c r="G87" s="1">
         <v>0</v>
       </c>
-      <c r="N87" s="2"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
@@ -4262,9 +4268,9 @@
       <c r="G88" s="1">
         <v>0</v>
       </c>
-      <c r="N88" s="2"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
@@ -4286,12 +4292,12 @@
       <c r="G89" s="1">
         <v>0</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N89" s="2"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I89" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -4313,12 +4319,12 @@
       <c r="G90" s="1">
         <v>0</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N90" s="2"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I90" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O90" s="2"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
@@ -4340,12 +4346,12 @@
       <c r="G91" s="1">
         <v>0</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N91" s="2"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="2"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
@@ -4367,12 +4373,12 @@
       <c r="G92" s="1">
         <v>0</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N92" s="2"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I92" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O92" s="2"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -4394,15 +4400,15 @@
       <c r="G93" s="1">
         <v>0</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I93" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N93" s="2"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="2"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -4424,12 +4430,12 @@
       <c r="G94" s="1">
         <v>0</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N94" s="2"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I94" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O94" s="2"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
@@ -4451,12 +4457,12 @@
       <c r="G95" s="1">
         <v>0</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N95" s="2"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="2"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
@@ -4478,12 +4484,12 @@
       <c r="G96" s="1">
         <v>0</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N96" s="2"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I96" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O96" s="2"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -4505,15 +4511,15 @@
       <c r="G97" s="1">
         <v>0</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I97" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N97" s="2"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="2"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
@@ -4535,12 +4541,12 @@
       <c r="G98" s="1">
         <v>0</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N98" s="2"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I98" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O98" s="2"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
@@ -4562,12 +4568,12 @@
       <c r="G99" s="1">
         <v>0</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N99" s="2"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I99" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O99" s="2"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
@@ -4589,12 +4595,12 @@
       <c r="G100" s="1">
         <v>0</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N100" s="2"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I100" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O100" s="2"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
@@ -4616,12 +4622,12 @@
       <c r="G101" s="1">
         <v>0</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N101" s="2"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I101" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O101" s="2"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
@@ -4643,9 +4649,9 @@
       <c r="G102" s="1">
         <v>0</v>
       </c>
-      <c r="N102" s="2"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O102" s="2"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
@@ -4667,12 +4673,12 @@
       <c r="G103" s="1">
         <v>0</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N103" s="2"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I103" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O103" s="2"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
@@ -4694,12 +4700,12 @@
       <c r="G104" s="1">
         <v>0</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N104" s="2"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I104" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O104" s="2"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
@@ -4721,12 +4727,12 @@
       <c r="G105" s="1">
         <v>0</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N105" s="2"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I105" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O105" s="2"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
@@ -4748,12 +4754,12 @@
       <c r="G106" s="1">
         <v>0</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N106" s="2"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I106" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O106" s="2"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
@@ -4775,12 +4781,12 @@
       <c r="G107" s="1">
         <v>0</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N107" s="2"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I107" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O107" s="2"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
@@ -4802,12 +4808,12 @@
       <c r="G108" s="1">
         <v>0</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N108" s="2"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I108" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O108" s="2"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
@@ -4829,12 +4835,12 @@
       <c r="G109" s="1">
         <v>0</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N109" s="2"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I109" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O109" s="2"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
@@ -4856,12 +4862,12 @@
       <c r="G110" s="1">
         <v>0</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N110" s="2"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I110" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O110" s="2"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
@@ -4883,12 +4889,12 @@
       <c r="G111" s="1">
         <v>0</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N111" s="2"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I111" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O111" s="2"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>114</v>
       </c>
@@ -4910,9 +4916,9 @@
       <c r="G112" s="1">
         <v>0</v>
       </c>
-      <c r="N112" s="2"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O112" s="2"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
@@ -4934,12 +4940,12 @@
       <c r="G113" s="1">
         <v>0</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N113" s="2"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I113" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O113" s="2"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
@@ -4961,12 +4967,12 @@
       <c r="G114" s="1">
         <v>0</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N114" s="2"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I114" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O114" s="2"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>117</v>
       </c>
@@ -4988,12 +4994,12 @@
       <c r="G115" s="1">
         <v>0</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N115" s="2"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I115" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O115" s="2"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
@@ -5015,12 +5021,12 @@
       <c r="G116" s="1">
         <v>0</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N116" s="2"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I116" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O116" s="2"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
@@ -5042,12 +5048,12 @@
       <c r="G117" s="1">
         <v>0</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N117" s="2"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I117" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O117" s="2"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
@@ -5069,12 +5075,12 @@
       <c r="G118" s="1">
         <v>0</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N118" s="2"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I118" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O118" s="2"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
@@ -5096,12 +5102,12 @@
       <c r="G119" s="1">
         <v>0</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N119" s="2"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I119" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O119" s="2"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
@@ -5123,15 +5129,15 @@
       <c r="G120" s="1">
         <v>0</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I120" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J120" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N120" s="2"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O120" s="2"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
@@ -5153,15 +5159,15 @@
       <c r="G121" s="1">
         <v>0</v>
       </c>
-      <c r="H121" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="K121" s="1" t="s">
+      <c r="I121" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="L121" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="N121" s="2"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O121" s="2"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
@@ -5183,12 +5189,12 @@
       <c r="G122" s="1">
         <v>0</v>
       </c>
-      <c r="H122" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N122" s="2"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I122" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O122" s="2"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
@@ -5210,12 +5216,12 @@
       <c r="G123" s="1">
         <v>0</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N123" s="2"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I123" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O123" s="2"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>126</v>
       </c>
@@ -5237,15 +5243,15 @@
       <c r="G124" s="1">
         <v>0</v>
       </c>
-      <c r="H124" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I124" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J124" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N124" s="2"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O124" s="2"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>127</v>
       </c>
@@ -5267,12 +5273,12 @@
       <c r="G125" s="1">
         <v>0</v>
       </c>
-      <c r="H125" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N125" s="2"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I125" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O125" s="2"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
@@ -5294,12 +5300,12 @@
       <c r="G126" s="1">
         <v>0</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N126" s="2"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I126" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O126" s="2"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
@@ -5321,9 +5327,9 @@
       <c r="G127" s="1">
         <v>0</v>
       </c>
-      <c r="N127" s="2"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O127" s="2"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
@@ -5345,9 +5351,9 @@
       <c r="G128" s="1">
         <v>0</v>
       </c>
-      <c r="N128" s="2"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O128" s="2"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
@@ -5369,9 +5375,9 @@
       <c r="G129" s="1">
         <v>0</v>
       </c>
-      <c r="N129" s="2"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O129" s="2"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
@@ -5393,9 +5399,9 @@
       <c r="G130" s="1">
         <v>0</v>
       </c>
-      <c r="N130" s="2"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O130" s="2"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
@@ -5417,12 +5423,12 @@
       <c r="G131" s="1">
         <v>0</v>
       </c>
-      <c r="H131" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N131" s="2"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I131" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O131" s="2"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
@@ -5444,9 +5450,9 @@
       <c r="G132" s="1">
         <v>0</v>
       </c>
-      <c r="N132" s="2"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O132" s="2"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
@@ -5468,12 +5474,12 @@
       <c r="G133" s="1">
         <v>0</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N133" s="2"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I133" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O133" s="2"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
@@ -5495,12 +5501,12 @@
       <c r="G134" s="1">
         <v>0</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N134" s="2"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I134" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O134" s="2"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>137</v>
       </c>
@@ -5522,12 +5528,12 @@
       <c r="G135" s="1">
         <v>0</v>
       </c>
-      <c r="H135" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N135" s="2"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I135" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O135" s="2"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
@@ -5549,12 +5555,12 @@
       <c r="G136" s="1">
         <v>0</v>
       </c>
-      <c r="H136" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N136" s="2"/>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I136" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O136" s="2"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
@@ -5576,12 +5582,12 @@
       <c r="G137" s="1">
         <v>0</v>
       </c>
-      <c r="H137" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N137" s="2"/>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I137" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O137" s="2"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
@@ -5603,12 +5609,12 @@
       <c r="G138" s="1">
         <v>0</v>
       </c>
-      <c r="H138" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N138" s="2"/>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I138" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O138" s="2"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
@@ -5630,12 +5636,12 @@
       <c r="G139" s="1">
         <v>0</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N139" s="2"/>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I139" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O139" s="2"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
@@ -5657,12 +5663,12 @@
       <c r="G140" s="1">
         <v>0</v>
       </c>
-      <c r="H140" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N140" s="2"/>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I140" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O140" s="2"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
@@ -5684,12 +5690,12 @@
       <c r="G141" s="1">
         <v>0</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N141" s="2"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I141" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O141" s="2"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
@@ -5711,12 +5717,12 @@
       <c r="G142" s="1">
         <v>0</v>
       </c>
-      <c r="H142" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N142" s="2"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I142" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O142" s="2"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>145</v>
       </c>
@@ -5738,12 +5744,12 @@
       <c r="G143" s="1">
         <v>0</v>
       </c>
-      <c r="H143" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N143" s="2"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I143" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O143" s="2"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
@@ -5765,12 +5771,12 @@
       <c r="G144" s="1">
         <v>0</v>
       </c>
-      <c r="H144" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N144" s="2"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I144" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O144" s="2"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>147</v>
       </c>
@@ -5792,12 +5798,12 @@
       <c r="G145" s="1">
         <v>0</v>
       </c>
-      <c r="H145" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N145" s="2"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I145" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O145" s="2"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>148</v>
       </c>
@@ -5819,12 +5825,12 @@
       <c r="G146" s="1">
         <v>0</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N146" s="2"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I146" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O146" s="2"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>149</v>
       </c>
@@ -5846,12 +5852,12 @@
       <c r="G147" s="1">
         <v>0</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N147" s="2"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I147" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O147" s="2"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
@@ -5873,12 +5879,12 @@
       <c r="G148" s="1">
         <v>0</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N148" s="2"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I148" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O148" s="2"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>151</v>
       </c>
@@ -5900,12 +5906,12 @@
       <c r="G149" s="1">
         <v>0</v>
       </c>
-      <c r="H149" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N149" s="2"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I149" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O149" s="2"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>152</v>
       </c>
@@ -5927,12 +5933,12 @@
       <c r="G150" s="1">
         <v>0</v>
       </c>
-      <c r="H150" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N150" s="2"/>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I150" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O150" s="2"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>153</v>
       </c>
@@ -5954,12 +5960,12 @@
       <c r="G151" s="1">
         <v>0</v>
       </c>
-      <c r="H151" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N151" s="2"/>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I151" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O151" s="2"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
@@ -5981,12 +5987,12 @@
       <c r="G152" s="1">
         <v>0</v>
       </c>
-      <c r="H152" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N152" s="2"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I152" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O152" s="2"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>155</v>
       </c>
@@ -6008,12 +6014,12 @@
       <c r="G153" s="1">
         <v>0</v>
       </c>
-      <c r="H153" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N153" s="2"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I153" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O153" s="2"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>156</v>
       </c>
@@ -6035,12 +6041,12 @@
       <c r="G154" s="1">
         <v>0</v>
       </c>
-      <c r="H154" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N154" s="2"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I154" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O154" s="2"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>157</v>
       </c>
@@ -6062,12 +6068,12 @@
       <c r="G155" s="1">
         <v>0</v>
       </c>
-      <c r="H155" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N155" s="2"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I155" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O155" s="2"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>158</v>
       </c>
@@ -6089,12 +6095,12 @@
       <c r="G156" s="1">
         <v>0</v>
       </c>
-      <c r="H156" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N156" s="2"/>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I156" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O156" s="2"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>159</v>
       </c>
@@ -6116,12 +6122,12 @@
       <c r="G157" s="1">
         <v>0</v>
       </c>
-      <c r="H157" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N157" s="2"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I157" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O157" s="2"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>160</v>
       </c>
@@ -6143,12 +6149,12 @@
       <c r="G158" s="1">
         <v>0</v>
       </c>
-      <c r="H158" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N158" s="2"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I158" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O158" s="2"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
@@ -6170,12 +6176,12 @@
       <c r="G159" s="1">
         <v>0</v>
       </c>
-      <c r="H159" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N159" s="2"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I159" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O159" s="2"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>162</v>
       </c>
@@ -6197,12 +6203,12 @@
       <c r="G160" s="1">
         <v>0</v>
       </c>
-      <c r="H160" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N160" s="2"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I160" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O160" s="2"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>163</v>
       </c>
@@ -6224,12 +6230,12 @@
       <c r="G161" s="1">
         <v>0</v>
       </c>
-      <c r="H161" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N161" s="2"/>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I161" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O161" s="2"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>164</v>
       </c>
@@ -6251,12 +6257,12 @@
       <c r="G162" s="1">
         <v>0</v>
       </c>
-      <c r="H162" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N162" s="2"/>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I162" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O162" s="2"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>165</v>
       </c>
@@ -6278,12 +6284,12 @@
       <c r="G163" s="1">
         <v>0</v>
       </c>
-      <c r="H163" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N163" s="2"/>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I163" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O163" s="2"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>166</v>
       </c>
@@ -6305,12 +6311,12 @@
       <c r="G164" s="1">
         <v>0</v>
       </c>
-      <c r="H164" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N164" s="2"/>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I164" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O164" s="2"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>167</v>
       </c>
@@ -6332,12 +6338,12 @@
       <c r="G165" s="1">
         <v>0</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N165" s="2"/>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I165" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O165" s="2"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>168</v>
       </c>
@@ -6359,12 +6365,12 @@
       <c r="G166" s="1">
         <v>0</v>
       </c>
-      <c r="H166" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N166" s="2"/>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I166" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O166" s="2"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>169</v>
       </c>
@@ -6386,12 +6392,12 @@
       <c r="G167" s="1">
         <v>0</v>
       </c>
-      <c r="H167" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N167" s="2"/>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I167" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O167" s="2"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>170</v>
       </c>
@@ -6413,12 +6419,12 @@
       <c r="G168" s="1">
         <v>0</v>
       </c>
-      <c r="H168" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N168" s="2"/>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I168" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O168" s="2"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>171</v>
       </c>
@@ -6440,12 +6446,12 @@
       <c r="G169" s="1">
         <v>0</v>
       </c>
-      <c r="H169" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N169" s="2"/>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I169" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O169" s="2"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>172</v>
       </c>
@@ -6467,12 +6473,12 @@
       <c r="G170" s="1">
         <v>0</v>
       </c>
-      <c r="H170" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N170" s="2"/>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I170" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O170" s="2"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>173</v>
       </c>
@@ -6494,12 +6500,12 @@
       <c r="G171" s="1">
         <v>0</v>
       </c>
-      <c r="H171" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N171" s="2"/>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I171" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O171" s="2"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>174</v>
       </c>
@@ -6521,15 +6527,15 @@
       <c r="G172" s="1">
         <v>0</v>
       </c>
-      <c r="H172" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I172" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J172" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N172" s="2"/>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O172" s="2"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>175</v>
       </c>
@@ -6551,15 +6557,15 @@
       <c r="G173" s="1">
         <v>0</v>
       </c>
-      <c r="H173" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I173" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J173" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N173" s="2"/>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O173" s="2"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>176</v>
       </c>
@@ -6581,18 +6587,18 @@
       <c r="G174" s="1">
         <v>0</v>
       </c>
-      <c r="H174" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I174" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J174" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K174" s="1" t="s">
+      <c r="L174" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="N174" s="2"/>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O174" s="2"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>177</v>
       </c>
@@ -6614,12 +6620,12 @@
       <c r="G175" s="1">
         <v>0</v>
       </c>
-      <c r="H175" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N175" s="2"/>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I175" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O175" s="2"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
@@ -6641,12 +6647,12 @@
       <c r="G176" s="1">
         <v>0</v>
       </c>
-      <c r="H176" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N176" s="2"/>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I176" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O176" s="2"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>179</v>
       </c>
@@ -6668,12 +6674,12 @@
       <c r="G177" s="1">
         <v>0</v>
       </c>
-      <c r="H177" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N177" s="2"/>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I177" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O177" s="2"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
@@ -6695,18 +6701,18 @@
       <c r="G178" s="1">
         <v>0</v>
       </c>
-      <c r="H178" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I178" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J178" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K178" s="1" t="s">
+      <c r="L178" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="N178" s="2"/>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O178" s="2"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
@@ -6728,12 +6734,12 @@
       <c r="G179" s="1">
         <v>0</v>
       </c>
-      <c r="H179" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N179" s="2"/>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I179" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O179" s="2"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
@@ -6755,12 +6761,12 @@
       <c r="G180" s="1">
         <v>0</v>
       </c>
-      <c r="H180" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N180" s="2"/>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I180" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O180" s="2"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>183</v>
       </c>
@@ -6782,12 +6788,12 @@
       <c r="G181" s="1">
         <v>0</v>
       </c>
-      <c r="H181" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N181" s="2"/>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I181" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O181" s="2"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
@@ -6809,12 +6815,12 @@
       <c r="G182" s="1">
         <v>0</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N182" s="2"/>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I182" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O182" s="2"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>185</v>
       </c>
@@ -6836,12 +6842,12 @@
       <c r="G183" s="1">
         <v>0</v>
       </c>
-      <c r="H183" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N183" s="2"/>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I183" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O183" s="2"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
@@ -6863,12 +6869,12 @@
       <c r="G184" s="1">
         <v>0</v>
       </c>
-      <c r="H184" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N184" s="2"/>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I184" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O184" s="2"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>187</v>
       </c>
@@ -6890,12 +6896,12 @@
       <c r="G185" s="1">
         <v>0</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N185" s="2"/>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I185" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O185" s="2"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>188</v>
       </c>
@@ -6917,12 +6923,12 @@
       <c r="G186" s="1">
         <v>0</v>
       </c>
-      <c r="H186" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N186" s="2"/>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I186" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O186" s="2"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>189</v>
       </c>
@@ -6944,12 +6950,12 @@
       <c r="G187" s="1">
         <v>0</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N187" s="2"/>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I187" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O187" s="2"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>190</v>
       </c>
@@ -6971,12 +6977,12 @@
       <c r="G188" s="1">
         <v>0</v>
       </c>
-      <c r="H188" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N188" s="2"/>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I188" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O188" s="2"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>191</v>
       </c>
@@ -6998,12 +7004,12 @@
       <c r="G189" s="1">
         <v>0</v>
       </c>
-      <c r="H189" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N189" s="2"/>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I189" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O189" s="2"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
@@ -7025,12 +7031,12 @@
       <c r="G190" s="1">
         <v>0</v>
       </c>
-      <c r="H190" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N190" s="2"/>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I190" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O190" s="2"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
@@ -7052,12 +7058,12 @@
       <c r="G191" s="1">
         <v>0</v>
       </c>
-      <c r="H191" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N191" s="2"/>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I191" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O191" s="2"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>194</v>
       </c>
@@ -7079,12 +7085,12 @@
       <c r="G192" s="1">
         <v>0</v>
       </c>
-      <c r="H192" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N192" s="2"/>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I192" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O192" s="2"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>195</v>
       </c>
@@ -7106,12 +7112,12 @@
       <c r="G193" s="1">
         <v>0</v>
       </c>
-      <c r="H193" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N193" s="2"/>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I193" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O193" s="2"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>196</v>
       </c>
@@ -7133,12 +7139,12 @@
       <c r="G194" s="1">
         <v>0</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N194" s="2"/>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I194" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O194" s="2"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>197</v>
       </c>
@@ -7160,12 +7166,12 @@
       <c r="G195" s="1">
         <v>0</v>
       </c>
-      <c r="H195" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N195" s="2"/>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I195" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O195" s="2"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>198</v>
       </c>
@@ -7187,12 +7193,12 @@
       <c r="G196" s="1">
         <v>0</v>
       </c>
-      <c r="H196" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N196" s="2"/>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I196" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O196" s="2"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>199</v>
       </c>
@@ -7214,12 +7220,12 @@
       <c r="G197" s="1">
         <v>0</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N197" s="2"/>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I197" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O197" s="2"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
@@ -7241,15 +7247,15 @@
       <c r="G198" s="1">
         <v>0</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I198" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J198" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="N198" s="2"/>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O198" s="2"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>201</v>
       </c>
@@ -7271,12 +7277,12 @@
       <c r="G199" s="1">
         <v>0</v>
       </c>
-      <c r="H199" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N199" s="2"/>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I199" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O199" s="2"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>202</v>
       </c>
@@ -7298,15 +7304,15 @@
       <c r="G200" s="1">
         <v>0</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I200" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J200" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="N200" s="2"/>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O200" s="2"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>203</v>
       </c>
@@ -7328,15 +7334,15 @@
       <c r="G201" s="1">
         <v>0</v>
       </c>
-      <c r="H201" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I201" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J201" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="N201" s="2"/>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O201" s="2"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>204</v>
       </c>
@@ -7358,12 +7364,12 @@
       <c r="G202" s="1">
         <v>0</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N202" s="2"/>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I202" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O202" s="2"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>205</v>
       </c>
@@ -7385,12 +7391,12 @@
       <c r="G203" s="1">
         <v>0</v>
       </c>
-      <c r="H203" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N203" s="2"/>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I203" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O203" s="2"/>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>206</v>
       </c>
@@ -7412,12 +7418,12 @@
       <c r="G204" s="1">
         <v>0</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N204" s="2"/>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I204" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O204" s="2"/>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>207</v>
       </c>
@@ -7439,12 +7445,12 @@
       <c r="G205" s="1">
         <v>0</v>
       </c>
-      <c r="H205" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N205" s="2"/>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I205" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O205" s="2"/>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>208</v>
       </c>
@@ -7466,12 +7472,12 @@
       <c r="G206" s="1">
         <v>0</v>
       </c>
-      <c r="H206" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N206" s="2"/>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I206" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O206" s="2"/>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>209</v>
       </c>
@@ -7493,12 +7499,12 @@
       <c r="G207" s="1">
         <v>0</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N207" s="2"/>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I207" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O207" s="2"/>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>210</v>
       </c>
@@ -7520,12 +7526,12 @@
       <c r="G208" s="1">
         <v>0</v>
       </c>
-      <c r="H208" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N208" s="2"/>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I208" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O208" s="2"/>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>211</v>
       </c>
@@ -7547,12 +7553,12 @@
       <c r="G209" s="1">
         <v>0</v>
       </c>
-      <c r="H209" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N209" s="2"/>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I209" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O209" s="2"/>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>212</v>
       </c>
@@ -7574,12 +7580,12 @@
       <c r="G210" s="1">
         <v>0</v>
       </c>
-      <c r="H210" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N210" s="2"/>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I210" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O210" s="2"/>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>213</v>
       </c>
@@ -7601,12 +7607,12 @@
       <c r="G211" s="1">
         <v>0</v>
       </c>
-      <c r="H211" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N211" s="2"/>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I211" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O211" s="2"/>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>214</v>
       </c>
@@ -7628,12 +7634,12 @@
       <c r="G212" s="1">
         <v>0</v>
       </c>
-      <c r="H212" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N212" s="2"/>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I212" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O212" s="2"/>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>215</v>
       </c>
@@ -7655,12 +7661,12 @@
       <c r="G213" s="1">
         <v>0</v>
       </c>
-      <c r="H213" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N213" s="2"/>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I213" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O213" s="2"/>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>216</v>
       </c>
@@ -7682,12 +7688,12 @@
       <c r="G214" s="1">
         <v>0</v>
       </c>
-      <c r="H214" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N214" s="2"/>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I214" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O214" s="2"/>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>217</v>
       </c>
@@ -7709,12 +7715,12 @@
       <c r="G215" s="1">
         <v>0</v>
       </c>
-      <c r="H215" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N215" s="2"/>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I215" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O215" s="2"/>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>218</v>
       </c>
@@ -7736,15 +7742,15 @@
       <c r="G216" s="1">
         <v>0</v>
       </c>
-      <c r="H216" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I216" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J216" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="N216" s="2"/>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O216" s="2"/>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>219</v>
       </c>
@@ -7766,12 +7772,12 @@
       <c r="G217" s="1">
         <v>0</v>
       </c>
-      <c r="H217" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N217" s="2"/>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I217" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O217" s="2"/>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>220</v>
       </c>
@@ -7793,12 +7799,12 @@
       <c r="G218" s="1">
         <v>0</v>
       </c>
-      <c r="H218" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N218" s="2"/>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I218" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O218" s="2"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>221</v>
       </c>
@@ -7820,12 +7826,12 @@
       <c r="G219" s="1">
         <v>0</v>
       </c>
-      <c r="H219" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N219" s="2"/>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I219" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O219" s="2"/>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>222</v>
       </c>
@@ -7847,12 +7853,12 @@
       <c r="G220" s="1">
         <v>0</v>
       </c>
-      <c r="H220" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N220" s="2"/>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I220" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O220" s="2"/>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>223</v>
       </c>
@@ -7874,12 +7880,12 @@
       <c r="G221" s="1">
         <v>0</v>
       </c>
-      <c r="H221" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N221" s="2"/>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I221" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O221" s="2"/>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>224</v>
       </c>
@@ -7901,12 +7907,12 @@
       <c r="G222" s="1">
         <v>0</v>
       </c>
-      <c r="H222" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N222" s="2"/>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I222" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O222" s="2"/>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>225</v>
       </c>
@@ -7928,12 +7934,12 @@
       <c r="G223" s="1">
         <v>0</v>
       </c>
-      <c r="H223" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N223" s="2"/>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I223" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O223" s="2"/>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>226</v>
       </c>
@@ -7955,12 +7961,12 @@
       <c r="G224" s="1">
         <v>0</v>
       </c>
-      <c r="H224" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N224" s="2"/>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I224" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O224" s="2"/>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>227</v>
       </c>
@@ -7982,15 +7988,15 @@
       <c r="G225" s="1">
         <v>0</v>
       </c>
-      <c r="H225" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I225" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J225" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="N225" s="2"/>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O225" s="2"/>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>228</v>
       </c>
@@ -8012,12 +8018,12 @@
       <c r="G226" s="1">
         <v>0</v>
       </c>
-      <c r="H226" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N226" s="2"/>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I226" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O226" s="2"/>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>229</v>
       </c>
@@ -8039,15 +8045,15 @@
       <c r="G227" s="1">
         <v>0</v>
       </c>
-      <c r="H227" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I227" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J227" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="N227" s="2"/>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O227" s="2"/>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>230</v>
       </c>
@@ -8069,12 +8075,12 @@
       <c r="G228" s="1">
         <v>0</v>
       </c>
-      <c r="H228" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N228" s="2"/>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I228" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O228" s="2"/>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>231</v>
       </c>
@@ -8096,12 +8102,12 @@
       <c r="G229" s="1">
         <v>0</v>
       </c>
-      <c r="H229" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N229" s="2"/>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I229" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O229" s="2"/>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>232</v>
       </c>
@@ -8123,12 +8129,12 @@
       <c r="G230" s="1">
         <v>0</v>
       </c>
-      <c r="H230" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N230" s="2"/>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I230" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O230" s="2"/>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>233</v>
       </c>
@@ -8150,12 +8156,12 @@
       <c r="G231" s="1">
         <v>0</v>
       </c>
-      <c r="H231" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N231" s="2"/>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I231" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O231" s="2"/>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>234</v>
       </c>
@@ -8177,12 +8183,12 @@
       <c r="G232" s="1">
         <v>0</v>
       </c>
-      <c r="H232" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N232" s="2"/>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I232" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O232" s="2"/>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>235</v>
       </c>
@@ -8204,12 +8210,12 @@
       <c r="G233" s="1">
         <v>0</v>
       </c>
-      <c r="H233" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N233" s="2"/>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I233" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O233" s="2"/>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>236</v>
       </c>
@@ -8231,12 +8237,12 @@
       <c r="G234" s="1">
         <v>0</v>
       </c>
-      <c r="H234" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N234" s="2"/>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I234" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O234" s="2"/>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>237</v>
       </c>
@@ -8258,12 +8264,12 @@
       <c r="G235" s="1">
         <v>0</v>
       </c>
-      <c r="H235" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N235" s="2"/>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I235" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O235" s="2"/>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>238</v>
       </c>
@@ -8285,12 +8291,12 @@
       <c r="G236" s="1">
         <v>0</v>
       </c>
-      <c r="H236" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N236" s="2"/>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I236" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O236" s="2"/>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>239</v>
       </c>
@@ -8312,12 +8318,12 @@
       <c r="G237" s="1">
         <v>0</v>
       </c>
-      <c r="H237" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N237" s="2"/>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I237" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O237" s="2"/>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>240</v>
       </c>
@@ -8339,12 +8345,12 @@
       <c r="G238" s="1">
         <v>0</v>
       </c>
-      <c r="H238" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N238" s="2"/>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I238" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O238" s="2"/>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>241</v>
       </c>
@@ -8366,12 +8372,12 @@
       <c r="G239" s="1">
         <v>0</v>
       </c>
-      <c r="H239" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N239" s="2"/>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I239" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O239" s="2"/>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>242</v>
       </c>
@@ -8393,12 +8399,12 @@
       <c r="G240" s="1">
         <v>0</v>
       </c>
-      <c r="H240" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N240" s="2"/>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I240" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O240" s="2"/>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>243</v>
       </c>
@@ -8420,12 +8426,12 @@
       <c r="G241" s="1">
         <v>0</v>
       </c>
-      <c r="H241" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N241" s="2"/>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I241" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O241" s="2"/>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>244</v>
       </c>
@@ -8447,12 +8453,12 @@
       <c r="G242" s="1">
         <v>0</v>
       </c>
-      <c r="H242" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N242" s="2"/>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I242" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O242" s="2"/>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>245</v>
       </c>
@@ -8474,12 +8480,12 @@
       <c r="G243" s="1">
         <v>0</v>
       </c>
-      <c r="H243" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N243" s="2"/>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I243" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O243" s="2"/>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>246</v>
       </c>
@@ -8501,15 +8507,15 @@
       <c r="G244" s="1">
         <v>0</v>
       </c>
-      <c r="H244" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="K244" s="1" t="s">
+      <c r="I244" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="N244" s="2"/>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O244" s="2"/>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>247</v>
       </c>
@@ -8531,12 +8537,12 @@
       <c r="G245" s="1">
         <v>0</v>
       </c>
-      <c r="H245" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N245" s="2"/>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I245" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O245" s="2"/>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>248</v>
       </c>
@@ -8558,12 +8564,12 @@
       <c r="G246" s="1">
         <v>0</v>
       </c>
-      <c r="H246" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N246" s="2"/>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I246" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O246" s="2"/>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>249</v>
       </c>
@@ -8585,12 +8591,12 @@
       <c r="G247" s="1">
         <v>0</v>
       </c>
-      <c r="H247" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N247" s="2"/>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I247" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O247" s="2"/>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>250</v>
       </c>
@@ -8612,12 +8618,12 @@
       <c r="G248" s="1">
         <v>0</v>
       </c>
-      <c r="H248" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N248" s="2"/>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I248" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O248" s="2"/>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>251</v>
       </c>
@@ -8639,12 +8645,12 @@
       <c r="G249" s="1">
         <v>0</v>
       </c>
-      <c r="H249" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N249" s="2"/>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I249" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O249" s="2"/>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>252</v>
       </c>
@@ -8666,12 +8672,12 @@
       <c r="G250" s="1">
         <v>0</v>
       </c>
-      <c r="H250" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N250" s="2"/>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I250" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O250" s="2"/>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>253</v>
       </c>
@@ -8693,12 +8699,12 @@
       <c r="G251" s="1">
         <v>0</v>
       </c>
-      <c r="H251" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N251" s="2"/>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I251" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O251" s="2"/>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>254</v>
       </c>
@@ -8720,12 +8726,12 @@
       <c r="G252" s="1">
         <v>0</v>
       </c>
-      <c r="H252" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N252" s="2"/>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I252" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O252" s="2"/>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>255</v>
       </c>
@@ -8747,12 +8753,12 @@
       <c r="G253" s="1">
         <v>0</v>
       </c>
-      <c r="H253" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N253" s="2"/>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I253" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O253" s="2"/>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>256</v>
       </c>
@@ -8774,12 +8780,12 @@
       <c r="G254" s="1">
         <v>0</v>
       </c>
-      <c r="H254" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N254" s="2"/>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I254" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O254" s="2"/>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>257</v>
       </c>
@@ -8801,12 +8807,12 @@
       <c r="G255" s="1">
         <v>0</v>
       </c>
-      <c r="H255" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N255" s="2"/>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I255" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O255" s="2"/>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>258</v>
       </c>
@@ -8828,12 +8834,12 @@
       <c r="G256" s="1">
         <v>0</v>
       </c>
-      <c r="H256" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N256" s="2"/>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I256" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O256" s="2"/>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>259</v>
       </c>
@@ -8855,12 +8861,12 @@
       <c r="G257" s="1">
         <v>0</v>
       </c>
-      <c r="H257" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N257" s="2"/>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I257" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O257" s="2"/>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>260</v>
       </c>
@@ -8882,12 +8888,12 @@
       <c r="G258" s="1">
         <v>0</v>
       </c>
-      <c r="H258" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N258" s="2"/>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I258" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O258" s="2"/>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>261</v>
       </c>
@@ -8909,12 +8915,12 @@
       <c r="G259" s="1">
         <v>0</v>
       </c>
-      <c r="H259" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N259" s="2"/>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I259" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O259" s="2"/>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>262</v>
       </c>
@@ -8936,12 +8942,12 @@
       <c r="G260" s="1">
         <v>0</v>
       </c>
-      <c r="H260" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N260" s="2"/>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I260" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O260" s="2"/>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>263</v>
       </c>
@@ -8963,12 +8969,12 @@
       <c r="G261" s="1">
         <v>0</v>
       </c>
-      <c r="H261" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N261" s="2"/>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I261" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O261" s="2"/>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>264</v>
       </c>
@@ -8990,12 +8996,12 @@
       <c r="G262" s="1">
         <v>0</v>
       </c>
-      <c r="H262" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N262" s="2"/>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I262" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O262" s="2"/>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>265</v>
       </c>
@@ -9017,12 +9023,12 @@
       <c r="G263" s="1">
         <v>0</v>
       </c>
-      <c r="H263" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N263" s="2"/>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I263" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O263" s="2"/>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>266</v>
       </c>
@@ -9044,12 +9050,12 @@
       <c r="G264" s="1">
         <v>0</v>
       </c>
-      <c r="H264" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N264" s="2"/>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I264" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O264" s="2"/>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>267</v>
       </c>
@@ -9071,12 +9077,12 @@
       <c r="G265" s="1">
         <v>0</v>
       </c>
-      <c r="H265" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N265" s="2"/>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I265" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O265" s="2"/>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>268</v>
       </c>
@@ -9098,12 +9104,12 @@
       <c r="G266" s="1">
         <v>0</v>
       </c>
-      <c r="H266" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N266" s="2"/>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I266" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O266" s="2"/>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>269</v>
       </c>
@@ -9125,12 +9131,12 @@
       <c r="G267" s="1">
         <v>0</v>
       </c>
-      <c r="H267" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N267" s="2"/>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I267" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O267" s="2"/>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>270</v>
       </c>
@@ -9152,15 +9158,15 @@
       <c r="G268" s="1">
         <v>0</v>
       </c>
-      <c r="H268" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I268" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J268" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="N268" s="2"/>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O268" s="2"/>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>271</v>
       </c>
@@ -9182,12 +9188,12 @@
       <c r="G269" s="1">
         <v>0</v>
       </c>
-      <c r="H269" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N269" s="2"/>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I269" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O269" s="2"/>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>272</v>
       </c>
@@ -9209,12 +9215,12 @@
       <c r="G270" s="1">
         <v>0</v>
       </c>
-      <c r="H270" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N270" s="2"/>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I270" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O270" s="2"/>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>273</v>
       </c>
@@ -9236,12 +9242,12 @@
       <c r="G271" s="1">
         <v>0</v>
       </c>
-      <c r="H271" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N271" s="2"/>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I271" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O271" s="2"/>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>274</v>
       </c>
@@ -9263,12 +9269,12 @@
       <c r="G272" s="1">
         <v>0</v>
       </c>
-      <c r="H272" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N272" s="2"/>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I272" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O272" s="2"/>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>275</v>
       </c>
@@ -9290,12 +9296,12 @@
       <c r="G273" s="1">
         <v>0</v>
       </c>
-      <c r="H273" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N273" s="2"/>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I273" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O273" s="2"/>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>276</v>
       </c>
@@ -9317,12 +9323,12 @@
       <c r="G274" s="1">
         <v>0</v>
       </c>
-      <c r="H274" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N274" s="2"/>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I274" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O274" s="2"/>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>277</v>
       </c>
@@ -9344,12 +9350,12 @@
       <c r="G275" s="1">
         <v>0</v>
       </c>
-      <c r="H275" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N275" s="2"/>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I275" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O275" s="2"/>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>278</v>
       </c>
@@ -9371,12 +9377,12 @@
       <c r="G276" s="1">
         <v>0</v>
       </c>
-      <c r="H276" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N276" s="2"/>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I276" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O276" s="2"/>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>279</v>
       </c>
@@ -9398,12 +9404,12 @@
       <c r="G277" s="1">
         <v>0</v>
       </c>
-      <c r="H277" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N277" s="2"/>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I277" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O277" s="2"/>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>280</v>
       </c>
@@ -9425,12 +9431,12 @@
       <c r="G278" s="1">
         <v>0</v>
       </c>
-      <c r="H278" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N278" s="2"/>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I278" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O278" s="2"/>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>281</v>
       </c>
@@ -9452,12 +9458,12 @@
       <c r="G279" s="1">
         <v>0</v>
       </c>
-      <c r="H279" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N279" s="2"/>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I279" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O279" s="2"/>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>282</v>
       </c>
@@ -9479,12 +9485,12 @@
       <c r="G280" s="1">
         <v>0</v>
       </c>
-      <c r="H280" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N280" s="2"/>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I280" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O280" s="2"/>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>283</v>
       </c>
@@ -9506,12 +9512,12 @@
       <c r="G281" s="1">
         <v>0</v>
       </c>
-      <c r="H281" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N281" s="2"/>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I281" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O281" s="2"/>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>284</v>
       </c>
@@ -9533,12 +9539,12 @@
       <c r="G282" s="1">
         <v>0</v>
       </c>
-      <c r="H282" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N282" s="2"/>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I282" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O282" s="2"/>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>285</v>
       </c>
@@ -9560,12 +9566,12 @@
       <c r="G283" s="1">
         <v>0</v>
       </c>
-      <c r="H283" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N283" s="2"/>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I283" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O283" s="2"/>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>286</v>
       </c>
@@ -9587,12 +9593,12 @@
       <c r="G284" s="1">
         <v>0</v>
       </c>
-      <c r="H284" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N284" s="2"/>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I284" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O284" s="2"/>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>287</v>
       </c>
@@ -9614,12 +9620,12 @@
       <c r="G285" s="1">
         <v>0</v>
       </c>
-      <c r="H285" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N285" s="2"/>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I285" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O285" s="2"/>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>288</v>
       </c>
@@ -9641,12 +9647,12 @@
       <c r="G286" s="1">
         <v>0</v>
       </c>
-      <c r="H286" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N286" s="2"/>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I286" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O286" s="2"/>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>289</v>
       </c>
@@ -9668,12 +9674,12 @@
       <c r="G287" s="1">
         <v>0</v>
       </c>
-      <c r="H287" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N287" s="2"/>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I287" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O287" s="2"/>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>290</v>
       </c>
@@ -9695,12 +9701,12 @@
       <c r="G288" s="1">
         <v>0</v>
       </c>
-      <c r="H288" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N288" s="2"/>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I288" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O288" s="2"/>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>291</v>
       </c>
@@ -9722,12 +9728,12 @@
       <c r="G289" s="1">
         <v>0</v>
       </c>
-      <c r="H289" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N289" s="2"/>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I289" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O289" s="2"/>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>292</v>
       </c>
@@ -9749,12 +9755,12 @@
       <c r="G290" s="1">
         <v>0</v>
       </c>
-      <c r="H290" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N290" s="2"/>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I290" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O290" s="2"/>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>293</v>
       </c>
@@ -9776,12 +9782,12 @@
       <c r="G291" s="1">
         <v>0</v>
       </c>
-      <c r="H291" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N291" s="2"/>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I291" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O291" s="2"/>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>294</v>
       </c>
@@ -9803,12 +9809,12 @@
       <c r="G292" s="1">
         <v>0</v>
       </c>
-      <c r="H292" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N292" s="2"/>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I292" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O292" s="2"/>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>295</v>
       </c>
@@ -9830,12 +9836,12 @@
       <c r="G293" s="1">
         <v>0</v>
       </c>
-      <c r="H293" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N293" s="2"/>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I293" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O293" s="2"/>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>296</v>
       </c>
@@ -9857,12 +9863,12 @@
       <c r="G294" s="1">
         <v>0</v>
       </c>
-      <c r="H294" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N294" s="2"/>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I294" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O294" s="2"/>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>297</v>
       </c>
@@ -9884,12 +9890,12 @@
       <c r="G295" s="1">
         <v>0</v>
       </c>
-      <c r="H295" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N295" s="2"/>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I295" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O295" s="2"/>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>298</v>
       </c>
@@ -9911,12 +9917,12 @@
       <c r="G296" s="1">
         <v>0</v>
       </c>
-      <c r="H296" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N296" s="2"/>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I296" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O296" s="2"/>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>299</v>
       </c>
@@ -9938,12 +9944,12 @@
       <c r="G297" s="1">
         <v>0</v>
       </c>
-      <c r="H297" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N297" s="2"/>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I297" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O297" s="2"/>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>300</v>
       </c>
@@ -9965,12 +9971,12 @@
       <c r="G298" s="1">
         <v>0</v>
       </c>
-      <c r="H298" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N298" s="2"/>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I298" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O298" s="2"/>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>301</v>
       </c>
@@ -9992,12 +9998,12 @@
       <c r="G299" s="1">
         <v>0</v>
       </c>
-      <c r="H299" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N299" s="2"/>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I299" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O299" s="2"/>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>302</v>
       </c>
@@ -10019,12 +10025,12 @@
       <c r="G300" s="1">
         <v>0</v>
       </c>
-      <c r="H300" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N300" s="2"/>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I300" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O300" s="2"/>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>303</v>
       </c>
@@ -10046,12 +10052,12 @@
       <c r="G301" s="1">
         <v>0</v>
       </c>
-      <c r="H301" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N301" s="2"/>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I301" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O301" s="2"/>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>304</v>
       </c>
@@ -10073,12 +10079,12 @@
       <c r="G302" s="1">
         <v>0</v>
       </c>
-      <c r="H302" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N302" s="2"/>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I302" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O302" s="2"/>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>305</v>
       </c>
@@ -10100,12 +10106,12 @@
       <c r="G303" s="1">
         <v>0</v>
       </c>
-      <c r="H303" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N303" s="2"/>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I303" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O303" s="2"/>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>306</v>
       </c>
@@ -10127,12 +10133,12 @@
       <c r="G304" s="1">
         <v>0</v>
       </c>
-      <c r="H304" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N304" s="2"/>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I304" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O304" s="2"/>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>307</v>
       </c>
@@ -10154,12 +10160,12 @@
       <c r="G305" s="1">
         <v>0</v>
       </c>
-      <c r="H305" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N305" s="2"/>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I305" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O305" s="2"/>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>308</v>
       </c>
@@ -10181,12 +10187,12 @@
       <c r="G306" s="1">
         <v>0</v>
       </c>
-      <c r="H306" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N306" s="2"/>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I306" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O306" s="2"/>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>309</v>
       </c>
@@ -10208,12 +10214,12 @@
       <c r="G307" s="1">
         <v>0</v>
       </c>
-      <c r="H307" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N307" s="2"/>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I307" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O307" s="2"/>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>310</v>
       </c>
@@ -10235,12 +10241,12 @@
       <c r="G308" s="1">
         <v>0</v>
       </c>
-      <c r="H308" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N308" s="2"/>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I308" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O308" s="2"/>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>311</v>
       </c>
@@ -10262,12 +10268,12 @@
       <c r="G309" s="1">
         <v>0</v>
       </c>
-      <c r="H309" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N309" s="2"/>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I309" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O309" s="2"/>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>312</v>
       </c>
@@ -10289,12 +10295,12 @@
       <c r="G310" s="1">
         <v>0</v>
       </c>
-      <c r="H310" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N310" s="2"/>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I310" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O310" s="2"/>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>313</v>
       </c>
@@ -10316,18 +10322,18 @@
       <c r="G311" s="1">
         <v>0</v>
       </c>
-      <c r="H311" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I311" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J311" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J311" s="1" t="s">
+      <c r="K311" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="N311" s="2"/>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O311" s="2"/>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>314</v>
       </c>
@@ -10349,12 +10355,12 @@
       <c r="G312" s="1">
         <v>0</v>
       </c>
-      <c r="H312" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N312" s="2"/>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I312" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O312" s="2"/>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>315</v>
       </c>
@@ -10376,12 +10382,12 @@
       <c r="G313" s="1">
         <v>0</v>
       </c>
-      <c r="H313" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N313" s="2"/>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I313" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O313" s="2"/>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>316</v>
       </c>
@@ -10403,12 +10409,12 @@
       <c r="G314" s="1">
         <v>0</v>
       </c>
-      <c r="H314" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N314" s="2"/>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I314" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O314" s="2"/>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>317</v>
       </c>
@@ -10430,12 +10436,12 @@
       <c r="G315" s="1">
         <v>0</v>
       </c>
-      <c r="H315" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N315" s="2"/>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I315" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O315" s="2"/>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>318</v>
       </c>
@@ -10457,12 +10463,12 @@
       <c r="G316" s="1">
         <v>0</v>
       </c>
-      <c r="H316" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N316" s="2"/>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I316" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O316" s="2"/>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>319</v>
       </c>
@@ -10484,12 +10490,12 @@
       <c r="G317" s="1">
         <v>0</v>
       </c>
-      <c r="H317" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N317" s="2"/>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I317" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O317" s="2"/>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>320</v>
       </c>
@@ -10511,12 +10517,12 @@
       <c r="G318" s="1">
         <v>0</v>
       </c>
-      <c r="H318" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N318" s="2"/>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I318" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O318" s="2"/>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>321</v>
       </c>
@@ -10538,12 +10544,12 @@
       <c r="G319" s="1">
         <v>0</v>
       </c>
-      <c r="H319" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N319" s="2"/>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I319" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O319" s="2"/>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>322</v>
       </c>
@@ -10565,12 +10571,12 @@
       <c r="G320" s="1">
         <v>0</v>
       </c>
-      <c r="H320" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N320" s="2"/>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I320" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O320" s="2"/>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>323</v>
       </c>
@@ -10592,12 +10598,12 @@
       <c r="G321" s="1">
         <v>0</v>
       </c>
-      <c r="H321" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N321" s="2"/>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I321" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O321" s="2"/>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>324</v>
       </c>
@@ -10619,12 +10625,12 @@
       <c r="G322" s="1">
         <v>0</v>
       </c>
-      <c r="H322" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N322" s="2"/>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I322" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O322" s="2"/>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>325</v>
       </c>
@@ -10646,12 +10652,12 @@
       <c r="G323" s="1">
         <v>0</v>
       </c>
-      <c r="H323" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N323" s="2"/>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I323" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O323" s="2"/>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>326</v>
       </c>
@@ -10673,18 +10679,18 @@
       <c r="G324" s="1">
         <v>0</v>
       </c>
-      <c r="H324" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="J324" s="1" t="s">
+      <c r="I324" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="K324" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="K324" s="1" t="s">
+      <c r="L324" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="N324" s="2"/>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O324" s="2"/>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>327</v>
       </c>
@@ -10706,12 +10712,12 @@
       <c r="G325" s="1">
         <v>0</v>
       </c>
-      <c r="H325" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N325" s="2"/>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I325" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O325" s="2"/>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>328</v>
       </c>
@@ -10733,12 +10739,12 @@
       <c r="G326" s="1">
         <v>0</v>
       </c>
-      <c r="H326" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N326" s="2"/>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I326" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O326" s="2"/>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>329</v>
       </c>
@@ -10760,12 +10766,12 @@
       <c r="G327" s="1">
         <v>0</v>
       </c>
-      <c r="H327" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N327" s="2"/>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I327" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O327" s="2"/>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>330</v>
       </c>
@@ -10787,18 +10793,18 @@
       <c r="G328" s="1">
         <v>0</v>
       </c>
-      <c r="H328" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I328" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J328" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="J328" s="1" t="s">
+      <c r="K328" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="N328" s="2"/>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O328" s="2"/>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>331</v>
       </c>
@@ -10820,12 +10826,12 @@
       <c r="G329" s="1">
         <v>0</v>
       </c>
-      <c r="H329" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N329" s="2"/>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I329" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O329" s="2"/>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>332</v>
       </c>
@@ -10847,12 +10853,12 @@
       <c r="G330" s="1">
         <v>0</v>
       </c>
-      <c r="H330" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N330" s="2"/>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I330" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O330" s="2"/>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>333</v>
       </c>
@@ -10874,12 +10880,12 @@
       <c r="G331" s="1">
         <v>0</v>
       </c>
-      <c r="H331" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N331" s="2"/>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I331" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O331" s="2"/>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>334</v>
       </c>
@@ -10901,12 +10907,12 @@
       <c r="G332" s="1">
         <v>0</v>
       </c>
-      <c r="H332" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N332" s="2"/>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I332" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O332" s="2"/>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>335</v>
       </c>
@@ -10928,12 +10934,12 @@
       <c r="G333" s="1">
         <v>0</v>
       </c>
-      <c r="H333" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N333" s="2"/>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I333" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O333" s="2"/>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>336</v>
       </c>
@@ -10955,12 +10961,12 @@
       <c r="G334" s="1">
         <v>0</v>
       </c>
-      <c r="H334" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N334" s="2"/>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I334" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O334" s="2"/>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>337</v>
       </c>
@@ -10982,12 +10988,12 @@
       <c r="G335" s="1">
         <v>0</v>
       </c>
-      <c r="H335" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N335" s="2"/>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I335" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O335" s="2"/>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>338</v>
       </c>
@@ -11009,12 +11015,12 @@
       <c r="G336" s="1">
         <v>0</v>
       </c>
-      <c r="H336" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N336" s="2"/>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I336" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O336" s="2"/>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>339</v>
       </c>
@@ -11036,12 +11042,12 @@
       <c r="G337" s="1">
         <v>0</v>
       </c>
-      <c r="H337" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N337" s="2"/>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I337" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O337" s="2"/>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>340</v>
       </c>
@@ -11063,15 +11069,15 @@
       <c r="G338" s="1">
         <v>0</v>
       </c>
-      <c r="H338" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="J338" s="1" t="s">
+      <c r="I338" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="K338" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="N338" s="2"/>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O338" s="2"/>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>341</v>
       </c>
@@ -11093,18 +11099,18 @@
       <c r="G339" s="1">
         <v>0</v>
       </c>
-      <c r="H339" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I339" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J339" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J339" s="1" t="s">
+      <c r="K339" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="N339" s="2"/>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O339" s="2"/>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>342</v>
       </c>
@@ -11126,12 +11132,12 @@
       <c r="G340" s="1">
         <v>0</v>
       </c>
-      <c r="H340" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N340" s="2"/>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I340" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O340" s="2"/>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>343</v>
       </c>
@@ -11153,12 +11159,12 @@
       <c r="G341" s="1">
         <v>0</v>
       </c>
-      <c r="H341" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N341" s="2"/>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I341" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O341" s="2"/>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>344</v>
       </c>
@@ -11180,12 +11186,12 @@
       <c r="G342" s="1">
         <v>0</v>
       </c>
-      <c r="H342" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N342" s="2"/>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I342" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O342" s="2"/>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>345</v>
       </c>
@@ -11207,12 +11213,12 @@
       <c r="G343" s="1">
         <v>0</v>
       </c>
-      <c r="H343" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N343" s="2"/>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I343" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O343" s="2"/>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>346</v>
       </c>
@@ -11234,12 +11240,12 @@
       <c r="G344" s="1">
         <v>0</v>
       </c>
-      <c r="H344" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N344" s="2"/>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I344" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O344" s="2"/>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>347</v>
       </c>
@@ -11261,12 +11267,12 @@
       <c r="G345" s="1">
         <v>0</v>
       </c>
-      <c r="H345" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N345" s="2"/>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I345" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O345" s="2"/>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>348</v>
       </c>
@@ -11288,12 +11294,12 @@
       <c r="G346" s="1">
         <v>0</v>
       </c>
-      <c r="H346" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N346" s="2"/>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I346" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O346" s="2"/>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>349</v>
       </c>
@@ -11315,12 +11321,12 @@
       <c r="G347" s="1">
         <v>0</v>
       </c>
-      <c r="H347" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N347" s="2"/>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I347" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O347" s="2"/>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>350</v>
       </c>
@@ -11342,12 +11348,12 @@
       <c r="G348" s="1">
         <v>0</v>
       </c>
-      <c r="H348" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N348" s="2"/>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I348" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O348" s="2"/>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>351</v>
       </c>
@@ -11369,12 +11375,12 @@
       <c r="G349" s="1">
         <v>0</v>
       </c>
-      <c r="H349" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N349" s="2"/>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I349" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O349" s="2"/>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>352</v>
       </c>
@@ -11396,12 +11402,12 @@
       <c r="G350" s="1">
         <v>0</v>
       </c>
-      <c r="H350" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N350" s="2"/>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I350" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O350" s="2"/>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>353</v>
       </c>
@@ -11423,12 +11429,12 @@
       <c r="G351" s="1">
         <v>0</v>
       </c>
-      <c r="H351" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N351" s="2"/>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I351" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O351" s="2"/>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>354</v>
       </c>
@@ -11450,12 +11456,12 @@
       <c r="G352" s="1">
         <v>0</v>
       </c>
-      <c r="H352" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N352" s="2"/>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I352" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O352" s="2"/>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>355</v>
       </c>
@@ -11477,12 +11483,12 @@
       <c r="G353" s="1">
         <v>0</v>
       </c>
-      <c r="H353" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N353" s="2"/>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I353" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O353" s="2"/>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>356</v>
       </c>
@@ -11504,12 +11510,12 @@
       <c r="G354" s="1">
         <v>0</v>
       </c>
-      <c r="H354" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N354" s="2"/>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I354" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O354" s="2"/>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>357</v>
       </c>
@@ -11531,12 +11537,12 @@
       <c r="G355" s="1">
         <v>0</v>
       </c>
-      <c r="H355" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N355" s="2"/>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I355" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O355" s="2"/>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>358</v>
       </c>
@@ -11558,12 +11564,12 @@
       <c r="G356" s="1">
         <v>0</v>
       </c>
-      <c r="H356" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N356" s="2"/>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I356" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O356" s="2"/>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>359</v>
       </c>
@@ -11585,12 +11591,12 @@
       <c r="G357" s="1">
         <v>0</v>
       </c>
-      <c r="H357" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N357" s="2"/>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I357" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O357" s="2"/>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>360</v>
       </c>
@@ -11612,12 +11618,12 @@
       <c r="G358" s="1">
         <v>0</v>
       </c>
-      <c r="H358" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N358" s="2"/>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I358" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O358" s="2"/>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>361</v>
       </c>
@@ -11639,12 +11645,12 @@
       <c r="G359" s="1">
         <v>0</v>
       </c>
-      <c r="H359" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N359" s="2"/>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I359" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O359" s="2"/>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>362</v>
       </c>
@@ -11666,12 +11672,12 @@
       <c r="G360" s="1">
         <v>0</v>
       </c>
-      <c r="H360" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N360" s="2"/>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I360" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O360" s="2"/>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>363</v>
       </c>
@@ -11693,12 +11699,12 @@
       <c r="G361" s="1">
         <v>0</v>
       </c>
-      <c r="H361" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N361" s="2"/>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I361" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O361" s="2"/>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>364</v>
       </c>
@@ -11720,12 +11726,12 @@
       <c r="G362" s="1">
         <v>0</v>
       </c>
-      <c r="H362" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N362" s="2"/>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I362" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O362" s="2"/>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>365</v>
       </c>
@@ -11747,12 +11753,12 @@
       <c r="G363" s="1">
         <v>0</v>
       </c>
-      <c r="H363" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N363" s="2"/>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I363" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O363" s="2"/>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>366</v>
       </c>
@@ -11774,12 +11780,12 @@
       <c r="G364" s="1">
         <v>0</v>
       </c>
-      <c r="H364" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N364" s="2"/>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I364" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O364" s="2"/>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>367</v>
       </c>
@@ -11801,12 +11807,12 @@
       <c r="G365" s="1">
         <v>0</v>
       </c>
-      <c r="H365" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N365" s="2"/>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I365" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O365" s="2"/>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>368</v>
       </c>
@@ -11828,12 +11834,12 @@
       <c r="G366" s="1">
         <v>0</v>
       </c>
-      <c r="H366" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N366" s="2"/>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I366" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O366" s="2"/>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>369</v>
       </c>
@@ -11855,12 +11861,12 @@
       <c r="G367" s="1">
         <v>0</v>
       </c>
-      <c r="H367" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N367" s="2"/>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I367" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O367" s="2"/>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>370</v>
       </c>
@@ -11882,12 +11888,12 @@
       <c r="G368" s="1">
         <v>0</v>
       </c>
-      <c r="H368" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N368" s="2"/>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I368" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O368" s="2"/>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>371</v>
       </c>
@@ -11909,12 +11915,12 @@
       <c r="G369" s="1">
         <v>0</v>
       </c>
-      <c r="H369" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N369" s="2"/>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I369" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O369" s="2"/>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>372</v>
       </c>
@@ -11936,12 +11942,12 @@
       <c r="G370" s="1">
         <v>0</v>
       </c>
-      <c r="H370" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N370" s="2"/>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I370" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O370" s="2"/>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>373</v>
       </c>
@@ -11963,12 +11969,12 @@
       <c r="G371" s="1">
         <v>0</v>
       </c>
-      <c r="H371" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N371" s="2"/>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I371" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O371" s="2"/>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>374</v>
       </c>
@@ -11990,12 +11996,12 @@
       <c r="G372" s="1">
         <v>0</v>
       </c>
-      <c r="H372" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N372" s="2"/>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I372" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O372" s="2"/>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>375</v>
       </c>
@@ -12017,12 +12023,12 @@
       <c r="G373" s="1">
         <v>0</v>
       </c>
-      <c r="H373" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N373" s="2"/>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I373" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O373" s="2"/>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>376</v>
       </c>
@@ -12044,12 +12050,12 @@
       <c r="G374" s="1">
         <v>0</v>
       </c>
-      <c r="H374" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N374" s="2"/>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I374" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O374" s="2"/>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>377</v>
       </c>
@@ -12071,12 +12077,12 @@
       <c r="G375" s="1">
         <v>0</v>
       </c>
-      <c r="H375" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N375" s="2"/>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I375" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O375" s="2"/>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>378</v>
       </c>
@@ -12098,12 +12104,12 @@
       <c r="G376" s="1">
         <v>0</v>
       </c>
-      <c r="H376" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N376" s="2"/>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I376" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O376" s="2"/>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>379</v>
       </c>
@@ -12125,12 +12131,12 @@
       <c r="G377" s="1">
         <v>0</v>
       </c>
-      <c r="H377" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N377" s="2"/>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I377" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O377" s="2"/>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>380</v>
       </c>
@@ -12152,12 +12158,12 @@
       <c r="G378" s="1">
         <v>0</v>
       </c>
-      <c r="H378" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N378" s="2"/>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I378" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O378" s="2"/>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>381</v>
       </c>
@@ -12179,12 +12185,12 @@
       <c r="G379" s="1">
         <v>0</v>
       </c>
-      <c r="H379" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N379" s="2"/>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I379" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O379" s="2"/>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>382</v>
       </c>
@@ -12206,12 +12212,12 @@
       <c r="G380" s="1">
         <v>0</v>
       </c>
-      <c r="H380" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N380" s="2"/>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I380" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O380" s="2"/>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>383</v>
       </c>
@@ -12233,12 +12239,12 @@
       <c r="G381" s="1">
         <v>0</v>
       </c>
-      <c r="H381" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N381" s="2"/>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I381" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O381" s="2"/>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>384</v>
       </c>
@@ -12260,12 +12266,12 @@
       <c r="G382" s="1">
         <v>0</v>
       </c>
-      <c r="H382" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N382" s="2"/>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I382" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O382" s="2"/>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>385</v>
       </c>
@@ -12287,12 +12293,12 @@
       <c r="G383" s="1">
         <v>0</v>
       </c>
-      <c r="H383" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N383" s="2"/>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I383" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O383" s="2"/>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>386</v>
       </c>
@@ -12314,12 +12320,12 @@
       <c r="G384" s="1">
         <v>0</v>
       </c>
-      <c r="H384" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N384" s="2"/>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I384" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O384" s="2"/>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>387</v>
       </c>
@@ -12341,12 +12347,12 @@
       <c r="G385" s="1">
         <v>0</v>
       </c>
-      <c r="H385" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N385" s="2"/>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I385" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O385" s="2"/>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>388</v>
       </c>
@@ -12368,12 +12374,12 @@
       <c r="G386" s="1">
         <v>0</v>
       </c>
-      <c r="H386" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N386" s="2"/>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I386" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O386" s="2"/>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>389</v>
       </c>
@@ -12395,12 +12401,12 @@
       <c r="G387" s="1">
         <v>0</v>
       </c>
-      <c r="H387" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N387" s="2"/>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I387" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O387" s="2"/>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>390</v>
       </c>
@@ -12422,12 +12428,12 @@
       <c r="G388" s="1">
         <v>0</v>
       </c>
-      <c r="H388" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N388" s="2"/>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I388" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O388" s="2"/>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>391</v>
       </c>
@@ -12449,12 +12455,12 @@
       <c r="G389" s="1">
         <v>0</v>
       </c>
-      <c r="H389" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N389" s="2"/>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I389" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O389" s="2"/>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>392</v>
       </c>
@@ -12476,12 +12482,12 @@
       <c r="G390" s="1">
         <v>0</v>
       </c>
-      <c r="H390" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N390" s="2"/>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I390" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O390" s="2"/>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>393</v>
       </c>
@@ -12503,12 +12509,12 @@
       <c r="G391" s="1">
         <v>0</v>
       </c>
-      <c r="H391" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N391" s="2"/>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I391" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O391" s="2"/>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>394</v>
       </c>
@@ -12530,12 +12536,12 @@
       <c r="G392" s="1">
         <v>0</v>
       </c>
-      <c r="H392" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N392" s="2"/>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I392" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O392" s="2"/>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>395</v>
       </c>
@@ -12557,12 +12563,12 @@
       <c r="G393" s="1">
         <v>0</v>
       </c>
-      <c r="H393" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N393" s="2"/>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I393" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O393" s="2"/>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>396</v>
       </c>
@@ -12584,12 +12590,12 @@
       <c r="G394" s="1">
         <v>0</v>
       </c>
-      <c r="H394" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N394" s="2"/>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I394" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O394" s="2"/>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>397</v>
       </c>
@@ -12611,12 +12617,12 @@
       <c r="G395" s="1">
         <v>0</v>
       </c>
-      <c r="H395" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N395" s="2"/>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I395" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O395" s="2"/>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>398</v>
       </c>
@@ -12638,12 +12644,12 @@
       <c r="G396" s="1">
         <v>0</v>
       </c>
-      <c r="H396" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N396" s="2"/>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I396" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O396" s="2"/>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>399</v>
       </c>
@@ -12665,12 +12671,12 @@
       <c r="G397" s="1">
         <v>0</v>
       </c>
-      <c r="H397" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N397" s="2"/>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I397" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O397" s="2"/>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>400</v>
       </c>
@@ -12692,12 +12698,12 @@
       <c r="G398" s="1">
         <v>0</v>
       </c>
-      <c r="H398" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N398" s="2"/>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I398" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O398" s="2"/>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>401</v>
       </c>
@@ -12719,12 +12725,12 @@
       <c r="G399" s="1">
         <v>0</v>
       </c>
-      <c r="H399" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N399" s="2"/>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I399" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O399" s="2"/>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>402</v>
       </c>
@@ -12746,12 +12752,12 @@
       <c r="G400" s="1">
         <v>0</v>
       </c>
-      <c r="H400" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N400" s="2"/>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I400" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O400" s="2"/>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>403</v>
       </c>
@@ -12773,12 +12779,12 @@
       <c r="G401" s="1">
         <v>0</v>
       </c>
-      <c r="H401" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N401" s="2"/>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I401" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O401" s="2"/>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>404</v>
       </c>
@@ -12800,12 +12806,12 @@
       <c r="G402" s="1">
         <v>0</v>
       </c>
-      <c r="H402" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N402" s="2"/>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I402" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O402" s="2"/>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>405</v>
       </c>
@@ -12827,15 +12833,15 @@
       <c r="G403" s="1">
         <v>0</v>
       </c>
-      <c r="H403" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I403" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J403" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="N403" s="2"/>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O403" s="2"/>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>406</v>
       </c>
@@ -12857,12 +12863,12 @@
       <c r="G404" s="1">
         <v>0</v>
       </c>
-      <c r="H404" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N404" s="2"/>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I404" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O404" s="2"/>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>407</v>
       </c>
@@ -12884,12 +12890,12 @@
       <c r="G405" s="1">
         <v>0</v>
       </c>
-      <c r="H405" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N405" s="2"/>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I405" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O405" s="2"/>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>408</v>
       </c>
@@ -12911,12 +12917,12 @@
       <c r="G406" s="1">
         <v>0</v>
       </c>
-      <c r="H406" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N406" s="2"/>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I406" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O406" s="2"/>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>409</v>
       </c>
@@ -12938,12 +12944,12 @@
       <c r="G407" s="1">
         <v>0</v>
       </c>
-      <c r="H407" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N407" s="2"/>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I407" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O407" s="2"/>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>410</v>
       </c>
@@ -12965,12 +12971,12 @@
       <c r="G408" s="1">
         <v>0</v>
       </c>
-      <c r="H408" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N408" s="2"/>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I408" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O408" s="2"/>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>411</v>
       </c>
@@ -12992,12 +12998,12 @@
       <c r="G409" s="1">
         <v>0</v>
       </c>
-      <c r="H409" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N409" s="2"/>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I409" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O409" s="2"/>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>412</v>
       </c>
@@ -13019,12 +13025,12 @@
       <c r="G410" s="1">
         <v>0</v>
       </c>
-      <c r="H410" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N410" s="2"/>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I410" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O410" s="2"/>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>413</v>
       </c>
@@ -13046,12 +13052,12 @@
       <c r="G411" s="1">
         <v>0</v>
       </c>
-      <c r="H411" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N411" s="2"/>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I411" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O411" s="2"/>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>414</v>
       </c>
@@ -13073,12 +13079,12 @@
       <c r="G412" s="1">
         <v>0</v>
       </c>
-      <c r="H412" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N412" s="2"/>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I412" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O412" s="2"/>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>415</v>
       </c>
@@ -13100,12 +13106,12 @@
       <c r="G413" s="1">
         <v>0</v>
       </c>
-      <c r="H413" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N413" s="2"/>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I413" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O413" s="2"/>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>416</v>
       </c>
@@ -13127,12 +13133,12 @@
       <c r="G414" s="1">
         <v>0</v>
       </c>
-      <c r="H414" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N414" s="2"/>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I414" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O414" s="2"/>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>417</v>
       </c>
@@ -13154,12 +13160,12 @@
       <c r="G415" s="1">
         <v>0</v>
       </c>
-      <c r="H415" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N415" s="2"/>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I415" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O415" s="2"/>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>418</v>
       </c>
@@ -13181,12 +13187,12 @@
       <c r="G416" s="1">
         <v>0</v>
       </c>
-      <c r="H416" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N416" s="2"/>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I416" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O416" s="2"/>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>419</v>
       </c>
@@ -13208,12 +13214,12 @@
       <c r="G417" s="1">
         <v>0</v>
       </c>
-      <c r="H417" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N417" s="2"/>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I417" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O417" s="2"/>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>420</v>
       </c>
@@ -13235,12 +13241,12 @@
       <c r="G418" s="1">
         <v>0</v>
       </c>
-      <c r="H418" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N418" s="2"/>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I418" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O418" s="2"/>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>421</v>
       </c>
@@ -13262,12 +13268,12 @@
       <c r="G419" s="1">
         <v>0</v>
       </c>
-      <c r="H419" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N419" s="2"/>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I419" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O419" s="2"/>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>422</v>
       </c>
@@ -13289,12 +13295,12 @@
       <c r="G420" s="1">
         <v>0</v>
       </c>
-      <c r="H420" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N420" s="2"/>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I420" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O420" s="2"/>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>423</v>
       </c>
@@ -13316,12 +13322,12 @@
       <c r="G421" s="1">
         <v>0</v>
       </c>
-      <c r="H421" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N421" s="2"/>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I421" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O421" s="2"/>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>424</v>
       </c>
@@ -13343,12 +13349,12 @@
       <c r="G422" s="1">
         <v>0</v>
       </c>
-      <c r="H422" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N422" s="2"/>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I422" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O422" s="2"/>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>425</v>
       </c>
@@ -13370,12 +13376,12 @@
       <c r="G423" s="1">
         <v>0</v>
       </c>
-      <c r="H423" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N423" s="2"/>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I423" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O423" s="2"/>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>426</v>
       </c>
@@ -13397,12 +13403,12 @@
       <c r="G424" s="1">
         <v>0</v>
       </c>
-      <c r="H424" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N424" s="2"/>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I424" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O424" s="2"/>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>427</v>
       </c>
@@ -13424,12 +13430,12 @@
       <c r="G425" s="1">
         <v>0</v>
       </c>
-      <c r="H425" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N425" s="2"/>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I425" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O425" s="2"/>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>428</v>
       </c>
@@ -13451,12 +13457,12 @@
       <c r="G426" s="1">
         <v>0</v>
       </c>
-      <c r="H426" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N426" s="2"/>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I426" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O426" s="2"/>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>429</v>
       </c>
@@ -13478,12 +13484,12 @@
       <c r="G427" s="1">
         <v>0</v>
       </c>
-      <c r="H427" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N427" s="2"/>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I427" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O427" s="2"/>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>430</v>
       </c>
@@ -13505,12 +13511,12 @@
       <c r="G428" s="1">
         <v>0</v>
       </c>
-      <c r="H428" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N428" s="2"/>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I428" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O428" s="2"/>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>431</v>
       </c>
@@ -13532,12 +13538,12 @@
       <c r="G429" s="1">
         <v>0</v>
       </c>
-      <c r="H429" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N429" s="2"/>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I429" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O429" s="2"/>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>432</v>
       </c>
@@ -13559,12 +13565,12 @@
       <c r="G430" s="1">
         <v>0</v>
       </c>
-      <c r="H430" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N430" s="2"/>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I430" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O430" s="2"/>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>433</v>
       </c>
@@ -13586,12 +13592,12 @@
       <c r="G431" s="1">
         <v>0</v>
       </c>
-      <c r="H431" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N431" s="2"/>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I431" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O431" s="2"/>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>434</v>
       </c>
@@ -13613,12 +13619,12 @@
       <c r="G432" s="1">
         <v>0</v>
       </c>
-      <c r="H432" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N432" s="2"/>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I432" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O432" s="2"/>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>435</v>
       </c>
@@ -13640,12 +13646,12 @@
       <c r="G433" s="1">
         <v>0</v>
       </c>
-      <c r="H433" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N433" s="2"/>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I433" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O433" s="2"/>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>436</v>
       </c>
@@ -13667,12 +13673,12 @@
       <c r="G434" s="1">
         <v>0</v>
       </c>
-      <c r="H434" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N434" s="2"/>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I434" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O434" s="2"/>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>437</v>
       </c>
@@ -13694,12 +13700,12 @@
       <c r="G435" s="1">
         <v>0</v>
       </c>
-      <c r="H435" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N435" s="2"/>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I435" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O435" s="2"/>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>438</v>
       </c>
@@ -13721,12 +13727,12 @@
       <c r="G436" s="1">
         <v>0</v>
       </c>
-      <c r="H436" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N436" s="2"/>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I436" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O436" s="2"/>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>439</v>
       </c>
@@ -13748,12 +13754,12 @@
       <c r="G437" s="1">
         <v>0</v>
       </c>
-      <c r="H437" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N437" s="2"/>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I437" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O437" s="2"/>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>440</v>
       </c>
@@ -13775,12 +13781,12 @@
       <c r="G438" s="1">
         <v>0</v>
       </c>
-      <c r="H438" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N438" s="2"/>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I438" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O438" s="2"/>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>441</v>
       </c>
@@ -13802,12 +13808,12 @@
       <c r="G439" s="1">
         <v>0</v>
       </c>
-      <c r="H439" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N439" s="2"/>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I439" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O439" s="2"/>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>442</v>
       </c>
@@ -13829,12 +13835,12 @@
       <c r="G440" s="1">
         <v>0</v>
       </c>
-      <c r="H440" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N440" s="2"/>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I440" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O440" s="2"/>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>443</v>
       </c>
@@ -13856,12 +13862,12 @@
       <c r="G441" s="1">
         <v>0</v>
       </c>
-      <c r="H441" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N441" s="2"/>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I441" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O441" s="2"/>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>444</v>
       </c>
@@ -13883,12 +13889,12 @@
       <c r="G442" s="1">
         <v>0</v>
       </c>
-      <c r="H442" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N442" s="2"/>
-    </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I442" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O442" s="2"/>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>445</v>
       </c>
@@ -13910,12 +13916,12 @@
       <c r="G443" s="1">
         <v>0</v>
       </c>
-      <c r="H443" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N443" s="2"/>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I443" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O443" s="2"/>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>446</v>
       </c>
@@ -13937,12 +13943,12 @@
       <c r="G444" s="1">
         <v>0</v>
       </c>
-      <c r="H444" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N444" s="2"/>
-    </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I444" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O444" s="2"/>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>447</v>
       </c>
@@ -13964,12 +13970,12 @@
       <c r="G445" s="1">
         <v>0</v>
       </c>
-      <c r="H445" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N445" s="2"/>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I445" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O445" s="2"/>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>448</v>
       </c>
@@ -13991,12 +13997,12 @@
       <c r="G446" s="1">
         <v>0</v>
       </c>
-      <c r="H446" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N446" s="2"/>
-    </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I446" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O446" s="2"/>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>449</v>
       </c>
@@ -14018,12 +14024,12 @@
       <c r="G447" s="1">
         <v>0</v>
       </c>
-      <c r="H447" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N447" s="2"/>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I447" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O447" s="2"/>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>450</v>
       </c>
@@ -14045,12 +14051,12 @@
       <c r="G448" s="1">
         <v>0</v>
       </c>
-      <c r="H448" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N448" s="2"/>
-    </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I448" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O448" s="2"/>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>451</v>
       </c>
@@ -14072,12 +14078,12 @@
       <c r="G449" s="1">
         <v>0</v>
       </c>
-      <c r="H449" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N449" s="2"/>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I449" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O449" s="2"/>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>452</v>
       </c>
@@ -14099,12 +14105,12 @@
       <c r="G450" s="1">
         <v>0</v>
       </c>
-      <c r="H450" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N450" s="2"/>
-    </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I450" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O450" s="2"/>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>453</v>
       </c>
@@ -14126,12 +14132,12 @@
       <c r="G451" s="1">
         <v>0</v>
       </c>
-      <c r="H451" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N451" s="2"/>
-    </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I451" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O451" s="2"/>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>454</v>
       </c>
@@ -14153,12 +14159,12 @@
       <c r="G452" s="1">
         <v>0</v>
       </c>
-      <c r="H452" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N452" s="2"/>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I452" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O452" s="2"/>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>455</v>
       </c>
@@ -14180,12 +14186,12 @@
       <c r="G453" s="1">
         <v>0</v>
       </c>
-      <c r="H453" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N453" s="2"/>
-    </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I453" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O453" s="2"/>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>456</v>
       </c>
@@ -14207,12 +14213,12 @@
       <c r="G454" s="1">
         <v>0</v>
       </c>
-      <c r="H454" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N454" s="2"/>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I454" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O454" s="2"/>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>457</v>
       </c>
@@ -14234,12 +14240,12 @@
       <c r="G455" s="1">
         <v>0</v>
       </c>
-      <c r="H455" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N455" s="2"/>
-    </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I455" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O455" s="2"/>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>458</v>
       </c>
@@ -14261,12 +14267,12 @@
       <c r="G456" s="1">
         <v>0</v>
       </c>
-      <c r="H456" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N456" s="2"/>
-    </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I456" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O456" s="2"/>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>459</v>
       </c>
@@ -14288,12 +14294,12 @@
       <c r="G457" s="1">
         <v>0</v>
       </c>
-      <c r="H457" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N457" s="2"/>
-    </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I457" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O457" s="2"/>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>460</v>
       </c>
@@ -14315,12 +14321,12 @@
       <c r="G458" s="1">
         <v>0</v>
       </c>
-      <c r="H458" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N458" s="2"/>
-    </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I458" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O458" s="2"/>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>461</v>
       </c>
@@ -14342,12 +14348,12 @@
       <c r="G459" s="1">
         <v>0</v>
       </c>
-      <c r="H459" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N459" s="2"/>
-    </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I459" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O459" s="2"/>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>462</v>
       </c>
@@ -14369,12 +14375,12 @@
       <c r="G460" s="1">
         <v>0</v>
       </c>
-      <c r="H460" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N460" s="2"/>
-    </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I460" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O460" s="2"/>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>463</v>
       </c>
@@ -14396,12 +14402,12 @@
       <c r="G461" s="1">
         <v>0</v>
       </c>
-      <c r="H461" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N461" s="2"/>
-    </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I461" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O461" s="2"/>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>464</v>
       </c>
@@ -14423,12 +14429,12 @@
       <c r="G462" s="1">
         <v>0</v>
       </c>
-      <c r="H462" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N462" s="2"/>
-    </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I462" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O462" s="2"/>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>465</v>
       </c>
@@ -14450,12 +14456,12 @@
       <c r="G463" s="1">
         <v>0</v>
       </c>
-      <c r="H463" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N463" s="2"/>
-    </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I463" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O463" s="2"/>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>466</v>
       </c>
@@ -14477,12 +14483,12 @@
       <c r="G464" s="1">
         <v>0</v>
       </c>
-      <c r="H464" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N464" s="2"/>
-    </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I464" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O464" s="2"/>
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>467</v>
       </c>
@@ -14504,12 +14510,12 @@
       <c r="G465" s="1">
         <v>0</v>
       </c>
-      <c r="H465" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N465" s="2"/>
-    </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I465" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O465" s="2"/>
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>468</v>
       </c>
@@ -14531,12 +14537,12 @@
       <c r="G466" s="1">
         <v>0</v>
       </c>
-      <c r="H466" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N466" s="2"/>
-    </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I466" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O466" s="2"/>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>469</v>
       </c>
@@ -14558,12 +14564,12 @@
       <c r="G467" s="1">
         <v>0</v>
       </c>
-      <c r="H467" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N467" s="2"/>
-    </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I467" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O467" s="2"/>
+    </row>
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>470</v>
       </c>
@@ -14585,12 +14591,12 @@
       <c r="G468" s="1">
         <v>0</v>
       </c>
-      <c r="H468" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N468" s="2"/>
-    </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I468" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O468" s="2"/>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>471</v>
       </c>
@@ -14612,12 +14618,12 @@
       <c r="G469" s="1">
         <v>0</v>
       </c>
-      <c r="H469" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N469" s="2"/>
-    </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I469" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O469" s="2"/>
+    </row>
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>472</v>
       </c>
@@ -14639,12 +14645,12 @@
       <c r="G470" s="1">
         <v>0</v>
       </c>
-      <c r="H470" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N470" s="2"/>
-    </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I470" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O470" s="2"/>
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>473</v>
       </c>
@@ -14666,12 +14672,12 @@
       <c r="G471" s="1">
         <v>0</v>
       </c>
-      <c r="H471" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N471" s="2"/>
-    </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I471" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O471" s="2"/>
+    </row>
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>474</v>
       </c>
@@ -14693,12 +14699,12 @@
       <c r="G472" s="1">
         <v>0</v>
       </c>
-      <c r="H472" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N472" s="2"/>
-    </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I472" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O472" s="2"/>
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>475</v>
       </c>
@@ -14720,12 +14726,12 @@
       <c r="G473" s="1">
         <v>0</v>
       </c>
-      <c r="H473" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N473" s="2"/>
-    </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I473" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O473" s="2"/>
+    </row>
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>476</v>
       </c>
@@ -14747,12 +14753,12 @@
       <c r="G474" s="1">
         <v>0</v>
       </c>
-      <c r="H474" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N474" s="2"/>
-    </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I474" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O474" s="2"/>
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>477</v>
       </c>
@@ -14774,12 +14780,12 @@
       <c r="G475" s="1">
         <v>0</v>
       </c>
-      <c r="H475" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N475" s="2"/>
-    </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I475" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O475" s="2"/>
+    </row>
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>478</v>
       </c>
@@ -14801,12 +14807,12 @@
       <c r="G476" s="1">
         <v>0</v>
       </c>
-      <c r="H476" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N476" s="2"/>
-    </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I476" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O476" s="2"/>
+    </row>
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>479</v>
       </c>
@@ -14828,12 +14834,12 @@
       <c r="G477" s="1">
         <v>0</v>
       </c>
-      <c r="H477" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N477" s="2"/>
-    </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I477" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O477" s="2"/>
+    </row>
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>480</v>
       </c>
@@ -14855,12 +14861,12 @@
       <c r="G478" s="1">
         <v>0</v>
       </c>
-      <c r="H478" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N478" s="2"/>
-    </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I478" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O478" s="2"/>
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>481</v>
       </c>
@@ -14882,12 +14888,12 @@
       <c r="G479" s="1">
         <v>0</v>
       </c>
-      <c r="H479" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N479" s="2"/>
-    </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I479" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O479" s="2"/>
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>482</v>
       </c>
@@ -14909,12 +14915,12 @@
       <c r="G480" s="1">
         <v>0</v>
       </c>
-      <c r="H480" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N480" s="2"/>
-    </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I480" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O480" s="2"/>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>483</v>
       </c>
@@ -14936,12 +14942,12 @@
       <c r="G481" s="1">
         <v>0</v>
       </c>
-      <c r="H481" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N481" s="2"/>
-    </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I481" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O481" s="2"/>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>484</v>
       </c>
@@ -14963,13 +14969,13 @@
       <c r="G482" s="1">
         <v>0</v>
       </c>
-      <c r="H482" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N482" s="2"/>
+      <c r="I482" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="O482" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H482"/>
+  <autoFilter ref="B1:I482"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
 </worksheet>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="522">
   <si>
     <t>bat</t>
   </si>
@@ -1559,6 +1559,42 @@
   </si>
   <si>
     <t>not sure+there is another cell on this tt!!</t>
+  </si>
+  <si>
+    <t>not stable; noise added due to instability;</t>
+  </si>
+  <si>
+    <t>taking some noise in the cluster</t>
+  </si>
+  <si>
+    <t>doesn’t look like spikes….</t>
+  </si>
+  <si>
+    <t>more than one cell (see the two clusters at Sleep1)</t>
+  </si>
+  <si>
+    <t>taking some noise in the cluster (can be seen in the beginning of recordings)</t>
+  </si>
+  <si>
+    <t>not sure</t>
+  </si>
+  <si>
+    <t>there are more clusters in this tt!</t>
+  </si>
+  <si>
+    <t>there is a clear abrupt instability!! Need to re-sort this TT!</t>
+  </si>
+  <si>
+    <t>not stable</t>
+  </si>
+  <si>
+    <t>not so isolated??</t>
+  </si>
+  <si>
+    <t>I don't think it's a single-unit+there is time instability</t>
+  </si>
+  <si>
+    <t>appears only in sleep2</t>
   </si>
 </sst>
 </file>
@@ -1886,8 +1922,8 @@
   <dimension ref="A1:T482"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1897,7 +1933,7 @@
     <col min="3" max="3" width="7.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
     <col min="5" max="7" width="7.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="51.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="30.5" style="1" customWidth="1"/>
@@ -2896,6 +2932,12 @@
       <c r="F35" s="1">
         <v>1</v>
       </c>
+      <c r="G35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="J35" s="1" t="s">
         <v>489</v>
       </c>
@@ -2920,6 +2962,9 @@
       <c r="F36" s="1">
         <v>2</v>
       </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
       <c r="J36" s="1" t="s">
         <v>489</v>
       </c>
@@ -2944,6 +2989,9 @@
       <c r="F37" s="1">
         <v>3</v>
       </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
       <c r="J37" s="1" t="s">
         <v>489</v>
       </c>
@@ -2968,6 +3016,9 @@
       <c r="F38" s="1">
         <v>4</v>
       </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
       <c r="J38" s="1" t="s">
         <v>489</v>
       </c>
@@ -2992,6 +3043,12 @@
       <c r="F39" s="1">
         <v>5</v>
       </c>
+      <c r="G39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>511</v>
+      </c>
       <c r="J39" s="1" t="s">
         <v>489</v>
       </c>
@@ -3016,6 +3073,9 @@
       <c r="F40" s="1">
         <v>6</v>
       </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
       <c r="J40" s="1" t="s">
         <v>489</v>
       </c>
@@ -3040,6 +3100,12 @@
       <c r="F41" s="1">
         <v>7</v>
       </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="J41" s="1" t="s">
         <v>489</v>
       </c>
@@ -3064,6 +3130,12 @@
       <c r="F42" s="1">
         <v>8</v>
       </c>
+      <c r="G42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="J42" s="1" t="s">
         <v>489</v>
       </c>
@@ -3088,6 +3160,9 @@
       <c r="F43" s="1">
         <v>1</v>
       </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
       <c r="J43" s="1" t="s">
         <v>489</v>
       </c>
@@ -3112,6 +3187,9 @@
       <c r="F44" s="1">
         <v>2</v>
       </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
       <c r="J44" s="1" t="s">
         <v>489</v>
       </c>
@@ -3139,6 +3217,12 @@
       <c r="F45" s="1">
         <v>3</v>
       </c>
+      <c r="G45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="J45" s="1" t="s">
         <v>489</v>
       </c>
@@ -3163,6 +3247,9 @@
       <c r="F46" s="1">
         <v>4</v>
       </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
       <c r="J46" s="1" t="s">
         <v>489</v>
       </c>
@@ -3187,6 +3274,12 @@
       <c r="F47" s="1">
         <v>1</v>
       </c>
+      <c r="G47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="J47" s="1" t="s">
         <v>489</v>
       </c>
@@ -3211,6 +3304,12 @@
       <c r="F48" s="1">
         <v>2</v>
       </c>
+      <c r="G48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="J48" s="1" t="s">
         <v>489</v>
       </c>
@@ -3235,6 +3334,12 @@
       <c r="F49" s="1">
         <v>1</v>
       </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="J49" s="1" t="s">
         <v>489</v>
       </c>
@@ -3259,6 +3364,12 @@
       <c r="F50" s="1">
         <v>1</v>
       </c>
+      <c r="G50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="J50" s="1" t="s">
         <v>489</v>
       </c>
@@ -3283,6 +3394,12 @@
       <c r="F51" s="1">
         <v>3</v>
       </c>
+      <c r="G51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="J51" s="1" t="s">
         <v>489</v>
       </c>
@@ -3307,6 +3424,12 @@
       <c r="F52" s="1">
         <v>4</v>
       </c>
+      <c r="G52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="J52" s="1" t="s">
         <v>489</v>
       </c>
@@ -3331,6 +3454,12 @@
       <c r="F53" s="1">
         <v>5</v>
       </c>
+      <c r="G53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="J53" s="1" t="s">
         <v>489</v>
       </c>
@@ -3355,6 +3484,12 @@
       <c r="F54" s="1">
         <v>1</v>
       </c>
+      <c r="G54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="J54" s="1" t="s">
         <v>489</v>
       </c>
@@ -3379,6 +3514,12 @@
       <c r="F55" s="1">
         <v>2</v>
       </c>
+      <c r="G55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="J55" s="1" t="s">
         <v>489</v>
       </c>
@@ -3403,6 +3544,12 @@
       <c r="F56" s="1">
         <v>1</v>
       </c>
+      <c r="G56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="J56" s="1" t="s">
         <v>489</v>
       </c>
@@ -3427,6 +3574,12 @@
       <c r="F57" s="1">
         <v>1</v>
       </c>
+      <c r="G57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="J57" s="1" t="s">
         <v>489</v>
       </c>
@@ -3451,6 +3604,12 @@
       <c r="F58" s="1">
         <v>2</v>
       </c>
+      <c r="G58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="J58" s="1" t="s">
         <v>489</v>
       </c>
@@ -3475,6 +3634,12 @@
       <c r="F59" s="1">
         <v>3</v>
       </c>
+      <c r="G59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="J59" s="1" t="s">
         <v>489</v>
       </c>
@@ -13682,6 +13847,18 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:J482"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
 </worksheet>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="523">
   <si>
     <t>bat</t>
   </si>
@@ -1558,9 +1558,6 @@
     <t>not stable (abrupt disappear!!!)</t>
   </si>
   <si>
-    <t>not sure+there is another cell on this tt!!</t>
-  </si>
-  <si>
     <t>not stable; noise added due to instability;</t>
   </si>
   <si>
@@ -1588,13 +1585,19 @@
     <t>not stable</t>
   </si>
   <si>
-    <t>not so isolated??</t>
-  </si>
-  <si>
-    <t>I don't think it's a single-unit+there is time instability</t>
-  </si>
-  <si>
     <t>appears only in sleep2</t>
+  </si>
+  <si>
+    <t>maybe even take more towards the noise</t>
+  </si>
+  <si>
+    <t>try to resort in windows (density problem)</t>
+  </si>
+  <si>
+    <t>I don't think it's a single-unit+there is time instability - resort in windows</t>
+  </si>
+  <si>
+    <t>not sure; looks multi unit</t>
   </si>
 </sst>
 </file>
@@ -1921,9 +1924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T482"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2798,7 +2801,7 @@
         <v>0.5</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>489</v>
@@ -2936,7 +2939,7 @@
         <v>0.5</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>489</v>
@@ -3047,7 +3050,7 @@
         <v>0.5</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>489</v>
@@ -3104,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>489</v>
@@ -3134,7 +3137,7 @@
         <v>0.5</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>489</v>
@@ -3221,7 +3224,7 @@
         <v>0.5</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>489</v>
@@ -3278,7 +3281,7 @@
         <v>0.5</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>489</v>
@@ -3308,7 +3311,7 @@
         <v>0.5</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>489</v>
@@ -3338,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>489</v>
@@ -3368,7 +3371,7 @@
         <v>0.5</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>489</v>
@@ -3398,7 +3401,7 @@
         <v>0.5</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>489</v>
@@ -3428,7 +3431,7 @@
         <v>0.5</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>489</v>
@@ -3458,7 +3461,7 @@
         <v>0.5</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>489</v>
@@ -3488,7 +3491,7 @@
         <v>0.5</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>489</v>
@@ -3518,7 +3521,7 @@
         <v>0.5</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>489</v>
@@ -3548,7 +3551,7 @@
         <v>0.5</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>489</v>
@@ -3578,7 +3581,7 @@
         <v>0.5</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>489</v>
@@ -3608,7 +3611,7 @@
         <v>0.5</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>489</v>
@@ -3638,7 +3641,7 @@
         <v>0.5</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>489</v>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="571">
   <si>
     <t>bat</t>
   </si>
@@ -1739,6 +1739,9 @@
   </si>
   <si>
     <t>b0034_d180315_TT4_SS04</t>
+  </si>
+  <si>
+    <t>re-sorted by Tamir (further cleaning+new spikes); first half spikes from unit 2</t>
   </si>
 </sst>
 </file>
@@ -2078,8 +2081,8 @@
   <dimension ref="A1:T513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4327,10 +4330,10 @@
         <v>3</v>
       </c>
       <c r="G76" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>488</v>
@@ -5087,6 +5090,12 @@
       </c>
       <c r="F104" s="1">
         <v>3</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>488</v>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>bat</t>
   </si>
@@ -49,6 +49,33 @@
     <t>b0034_d180306_TT4_SS03</t>
   </si>
   <si>
+    <t>b0034_d180310_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180310_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180310_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b0034_d180310_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180310_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0034_d180310_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0034_d180310_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0034_d180310_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0034_d180311_TT1_SS01</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -73,6 +100,12 @@
     <t>sorting_comment</t>
   </si>
   <si>
+    <t>b0034_d180311_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0034_d180308_TT4_SS01</t>
+  </si>
+  <si>
     <t>multi-unit</t>
   </si>
   <si>
@@ -167,6 +200,36 @@
   </si>
   <si>
     <t>part of unit 3?</t>
+  </si>
+  <si>
+    <t>b0034_d180308_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180308_TT1_SS02</t>
+  </si>
+  <si>
+    <t>[57051958925 60107136206]</t>
+  </si>
+  <si>
+    <t>too close to the noise</t>
+  </si>
+  <si>
+    <t>probably multi-unit</t>
+  </si>
+  <si>
+    <t>b0034_d180310_TT3_SS03</t>
+  </si>
+  <si>
+    <t>inverted</t>
+  </si>
+  <si>
+    <t>low FR</t>
+  </si>
+  <si>
+    <t>part of unit 4 or 5?</t>
+  </si>
+  <si>
+    <t>b0034_d180310_TT4_SS06</t>
   </si>
 </sst>
 </file>
@@ -491,11 +554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,8 +569,9 @@
     <col min="4" max="4" width="4.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="67.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="30.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="40.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="42.125" style="1" customWidth="1"/>
@@ -528,39 +592,39 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>34</v>
@@ -578,15 +642,15 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>34</v>
@@ -604,15 +668,15 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1">
         <v>34</v>
@@ -630,15 +694,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1">
         <v>34</v>
@@ -656,15 +720,15 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>34</v>
@@ -682,12 +746,12 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
         <v>34</v>
@@ -705,12 +769,12 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1">
         <v>34</v>
@@ -728,12 +792,12 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <v>34</v>
@@ -751,12 +815,12 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1">
         <v>34</v>
@@ -774,12 +838,12 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1">
         <v>34</v>
@@ -797,12 +861,12 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1">
         <v>34</v>
@@ -820,12 +884,12 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1">
         <v>34</v>
@@ -843,12 +907,12 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1">
         <v>34</v>
@@ -866,12 +930,12 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1">
         <v>34</v>
@@ -889,12 +953,12 @@
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
         <v>34</v>
@@ -912,12 +976,12 @@
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1">
         <v>34</v>
@@ -935,15 +999,15 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1">
         <v>34</v>
@@ -961,12 +1025,12 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1">
         <v>34</v>
@@ -984,15 +1048,15 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
         <v>34</v>
@@ -1010,12 +1074,12 @@
         <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>34</v>
@@ -1033,13 +1097,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1122,11 @@
       <c r="F22" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1079,10 +1146,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1101,10 +1171,13 @@
       <c r="F24" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1">
         <v>34</v>
@@ -1122,7 +1195,355 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2">
+        <v>43167</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43167</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2">
+        <v>43167</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2">
+        <v>43169</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43169</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43169</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2">
+        <v>43169</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2">
+        <v>43169</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2">
+        <v>43169</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2">
+        <v>43169</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2">
+        <v>43169</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2">
+        <v>43169</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="1">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2">
+        <v>43169</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="1">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43170</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="1">
+        <v>34</v>
+      </c>
+      <c r="C40" s="2">
+        <v>43170</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
   <si>
     <t>bat</t>
   </si>
@@ -76,6 +76,54 @@
     <t>b0034_d180311_TT1_SS01</t>
   </si>
   <si>
+    <t>b0034_d180311_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180311_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0034_d180311_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0034_d180311_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT3_SS04</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT3_SS05</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT3_SS06</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT4_SS03</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -103,6 +151,15 @@
     <t>b0034_d180311_TT1_SS02</t>
   </si>
   <si>
+    <t>b0034_d180311_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT4_SS05</t>
+  </si>
+  <si>
     <t>b0034_d180308_TT4_SS01</t>
   </si>
   <si>
@@ -230,6 +287,30 @@
   </si>
   <si>
     <t>b0034_d180310_TT4_SS06</t>
+  </si>
+  <si>
+    <t>partially stable; units 3+4+5 are mixed</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b0034_d180312_TT1_SS05</t>
+  </si>
+  <si>
+    <t>flight artifacts!</t>
+  </si>
+  <si>
+    <t>not well isolated</t>
+  </si>
+  <si>
+    <t>maybe multi-unit</t>
+  </si>
+  <si>
+    <t>a bit contaminated</t>
+  </si>
+  <si>
+    <t>AMAZING FIELDS! Very clean</t>
   </si>
 </sst>
 </file>
@@ -246,12 +327,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -266,13 +353,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,11 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,39 +685,39 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1">
         <v>34</v>
@@ -642,15 +735,15 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1">
         <v>34</v>
@@ -668,15 +761,15 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1">
         <v>34</v>
@@ -694,15 +787,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1">
         <v>34</v>
@@ -720,15 +813,15 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1">
         <v>34</v>
@@ -746,12 +839,12 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1">
         <v>34</v>
@@ -769,12 +862,12 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1">
         <v>34</v>
@@ -792,12 +885,12 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1">
         <v>34</v>
@@ -815,12 +908,12 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1">
         <v>34</v>
@@ -838,12 +931,12 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1">
         <v>34</v>
@@ -861,12 +954,12 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1">
         <v>34</v>
@@ -884,12 +977,12 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1">
         <v>34</v>
@@ -907,12 +1000,12 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1">
         <v>34</v>
@@ -930,12 +1023,12 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1">
         <v>34</v>
@@ -953,12 +1046,12 @@
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1">
         <v>34</v>
@@ -976,12 +1069,12 @@
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1">
         <v>34</v>
@@ -999,15 +1092,15 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1">
         <v>34</v>
@@ -1025,12 +1118,12 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1">
         <v>34</v>
@@ -1048,15 +1141,15 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1">
         <v>34</v>
@@ -1074,12 +1167,12 @@
         <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1">
         <v>34</v>
@@ -1097,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1123,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1146,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1172,12 +1265,12 @@
         <v>2</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1">
         <v>34</v>
@@ -1195,15 +1288,15 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1">
         <v>34</v>
@@ -1221,12 +1314,12 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1">
         <v>34</v>
@@ -1244,12 +1337,12 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1">
         <v>34</v>
@@ -1267,13 +1360,13 @@
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1296,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1319,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1342,12 +1435,12 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1">
         <v>34</v>
@@ -1365,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1388,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1411,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1476,7 +1569,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B38" s="1">
         <v>34</v>
@@ -1494,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1517,15 +1610,15 @@
         <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>34</v>
@@ -1543,8 +1636,471 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2">
+        <v>43170</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1">
+        <v>34</v>
+      </c>
+      <c r="C42" s="2">
+        <v>43170</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="1">
+        <v>34</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43170</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="1">
+        <v>34</v>
+      </c>
+      <c r="C44" s="2">
+        <v>43170</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1">
+        <v>34</v>
+      </c>
+      <c r="C45" s="2">
+        <v>43170</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="1">
+        <v>34</v>
+      </c>
+      <c r="C46" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1">
+        <v>34</v>
+      </c>
+      <c r="C47" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="1">
+        <v>34</v>
+      </c>
+      <c r="C48" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="1">
+        <v>34</v>
+      </c>
+      <c r="C49" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="1">
+        <v>34</v>
+      </c>
+      <c r="C50" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>5</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1">
+        <v>34</v>
+      </c>
+      <c r="C51" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="1">
+        <v>34</v>
+      </c>
+      <c r="C52" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1">
+        <v>34</v>
+      </c>
+      <c r="C53" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="1">
+        <v>34</v>
+      </c>
+      <c r="C54" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="1">
+        <v>34</v>
+      </c>
+      <c r="C55" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="1">
+        <v>34</v>
+      </c>
+      <c r="C56" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1">
+        <v>6</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="1">
+        <v>34</v>
+      </c>
+      <c r="C57" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="1">
+        <v>34</v>
+      </c>
+      <c r="C58" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="1">
+        <v>34</v>
+      </c>
+      <c r="C59" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D59" s="1">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="1">
+        <v>34</v>
+      </c>
+      <c r="C60" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="1">
+        <v>34</v>
+      </c>
+      <c r="C61" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C62" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:H1"/>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$95</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="142">
   <si>
     <t>bat</t>
   </si>
@@ -124,6 +124,81 @@
     <t>b0034_d180312_TT4_SS03</t>
   </si>
   <si>
+    <t>b0034_d180313_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT3_SS04</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT3_SS05</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT3_SS06</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0034_d180314_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180314_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0034_d180314_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180314_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180314_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0034_d180314_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0034_d180314_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0034_d180315_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180315_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180315_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0034_d180315_TT4_SS02</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -163,9 +238,39 @@
     <t>b0034_d180308_TT4_SS01</t>
   </si>
   <si>
+    <t>b0034_d180313_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT4_SS06</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT4_SS07</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT4_SS08</t>
+  </si>
+  <si>
+    <t>b0034_d180314_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0034_d180314_TT1_SS04</t>
+  </si>
+  <si>
     <t>multi-unit</t>
   </si>
   <si>
+    <t>b0034_d180314_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b0034_d180314_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0034_d180315_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b0034_d180315_TT3_SS03</t>
+  </si>
+  <si>
     <t>unit</t>
   </si>
   <si>
@@ -311,6 +416,45 @@
   </si>
   <si>
     <t>AMAZING FIELDS! Very clean</t>
+  </si>
+  <si>
+    <t>maybe multi-unit?</t>
+  </si>
+  <si>
+    <t>interneuron</t>
+  </si>
+  <si>
+    <t>end of burst looks like a different cluster (I checked the xcorr)</t>
+  </si>
+  <si>
+    <t>b0034_d180313_TT3_SS07</t>
+  </si>
+  <si>
+    <t>mixed of unit 6 and 7</t>
+  </si>
+  <si>
+    <t>maybe a bit contaminated with spikes from unit 4</t>
+  </si>
+  <si>
+    <t>contaminated a bit with unit 2</t>
+  </si>
+  <si>
+    <t>two interneurons - there are some time segments they can be seperated</t>
+  </si>
+  <si>
+    <t>multi-unit;partially stable</t>
+  </si>
+  <si>
+    <t>rapid large change in the middle, maybe use only one part?</t>
+  </si>
+  <si>
+    <t>b0034_d180314_TT4_SS06</t>
+  </si>
+  <si>
+    <t>a bit contaminated; interneuron/multi-unit?</t>
+  </si>
+  <si>
+    <t>cleaning of unit 1</t>
   </si>
 </sst>
 </file>
@@ -647,11 +791,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,7 +806,7 @@
     <col min="4" max="4" width="4.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="50.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="30.5" style="1" customWidth="1"/>
@@ -685,39 +829,39 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1">
         <v>34</v>
@@ -735,15 +879,15 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1">
         <v>34</v>
@@ -761,15 +905,15 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1">
         <v>34</v>
@@ -787,15 +931,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1">
         <v>34</v>
@@ -812,16 +956,16 @@
       <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>49</v>
+      <c r="G5" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1">
         <v>34</v>
@@ -839,12 +983,12 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1">
         <v>34</v>
@@ -862,12 +1006,12 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1">
         <v>34</v>
@@ -885,12 +1029,12 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1">
         <v>34</v>
@@ -908,12 +1052,12 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1">
         <v>34</v>
@@ -931,12 +1075,12 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1">
         <v>34</v>
@@ -954,12 +1098,12 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1">
         <v>34</v>
@@ -977,12 +1121,12 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1">
         <v>34</v>
@@ -1000,12 +1144,12 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1">
         <v>34</v>
@@ -1023,12 +1167,12 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1">
         <v>34</v>
@@ -1046,12 +1190,12 @@
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B16" s="1">
         <v>34</v>
@@ -1069,12 +1213,12 @@
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="B17" s="1">
         <v>34</v>
@@ -1092,15 +1236,15 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B18" s="1">
         <v>34</v>
@@ -1118,12 +1262,12 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B19" s="1">
         <v>34</v>
@@ -1141,15 +1285,15 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1">
         <v>34</v>
@@ -1167,12 +1311,12 @@
         <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B21" s="1">
         <v>34</v>
@@ -1190,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1216,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1239,10 +1383,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1265,12 +1409,12 @@
         <v>2</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1">
         <v>34</v>
@@ -1288,15 +1432,15 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B26" s="1">
         <v>34</v>
@@ -1314,12 +1458,12 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B27" s="1">
         <v>34</v>
@@ -1337,12 +1481,12 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B28" s="1">
         <v>34</v>
@@ -1359,14 +1503,14 @@
       <c r="F28" s="1">
         <v>2</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>49</v>
+      <c r="G28" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1389,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1412,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1434,13 +1578,13 @@
       <c r="F31" s="1">
         <v>1</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>49</v>
+      <c r="G31" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="B32" s="1">
         <v>34</v>
@@ -1457,8 +1601,8 @@
       <c r="F32" s="1">
         <v>1</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>49</v>
+      <c r="G32" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1481,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1504,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1569,7 +1713,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B38" s="1">
         <v>34</v>
@@ -1587,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1610,15 +1754,15 @@
         <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B40" s="1">
         <v>34</v>
@@ -1636,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1659,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H41" s="4"/>
     </row>
@@ -1683,7 +1827,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1706,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -1729,12 +1873,12 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B45" s="1">
         <v>34</v>
@@ -1752,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -1817,7 +1961,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B49" s="1">
         <v>34</v>
@@ -1835,12 +1979,12 @@
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B50" s="1">
         <v>34</v>
@@ -1858,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -1881,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -1944,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -1987,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2010,7 +2154,7 @@
         <v>2</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2055,7 +2199,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B60" s="1">
         <v>34</v>
@@ -2073,12 +2217,12 @@
         <v>1.5</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1">
         <v>34</v>
@@ -2096,170 +2240,841 @@
         <v>1.5</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C62" s="2"/>
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="1">
+        <v>34</v>
+      </c>
+      <c r="C62" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="1">
+        <v>34</v>
+      </c>
+      <c r="C63" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="1">
+        <v>34</v>
+      </c>
+      <c r="C64" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="1">
+        <v>34</v>
+      </c>
+      <c r="C65" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="1">
+        <v>34</v>
+      </c>
+      <c r="C66" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="1">
+        <v>34</v>
+      </c>
+      <c r="C67" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="1">
+        <v>34</v>
+      </c>
+      <c r="C68" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="1">
+        <v>34</v>
+      </c>
+      <c r="C69" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3</v>
+      </c>
+      <c r="E69" s="1">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="1">
+        <v>34</v>
+      </c>
+      <c r="C70" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="1">
+        <v>34</v>
+      </c>
+      <c r="C71" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1">
+        <v>6</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="1">
+        <v>34</v>
+      </c>
+      <c r="C72" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1">
+        <v>7</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="1">
+        <v>34</v>
+      </c>
+      <c r="C73" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D73" s="1">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="1">
+        <v>34</v>
+      </c>
+      <c r="C74" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D74" s="1">
+        <v>4</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" s="1">
+        <v>34</v>
+      </c>
+      <c r="C75" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D75" s="1">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="1">
+        <v>34</v>
+      </c>
+      <c r="C76" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D76" s="1">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="1">
+        <v>34</v>
+      </c>
+      <c r="C77" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D77" s="1">
+        <v>4</v>
+      </c>
+      <c r="E77" s="1">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="1">
+        <v>34</v>
+      </c>
+      <c r="C78" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D78" s="1">
+        <v>4</v>
+      </c>
+      <c r="E78" s="1">
+        <v>6</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="1">
+        <v>34</v>
+      </c>
+      <c r="C79" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D79" s="1">
+        <v>4</v>
+      </c>
+      <c r="E79" s="1">
+        <v>7</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" s="1">
+        <v>34</v>
+      </c>
+      <c r="C80" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D80" s="1">
+        <v>4</v>
+      </c>
+      <c r="E80" s="1">
+        <v>8</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="1">
+        <v>34</v>
+      </c>
+      <c r="C81" s="2">
+        <v>43173</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" s="1">
+        <v>34</v>
+      </c>
+      <c r="C82" s="2">
+        <v>43173</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" s="1">
+        <v>34</v>
+      </c>
+      <c r="C83" s="2">
+        <v>43173</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="1">
+        <v>34</v>
+      </c>
+      <c r="C84" s="2">
+        <v>43173</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>4</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" s="1">
+        <v>34</v>
+      </c>
+      <c r="C85" s="2">
+        <v>43173</v>
+      </c>
+      <c r="D85" s="1">
+        <v>3</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="1">
+        <v>34</v>
+      </c>
+      <c r="C86" s="2">
+        <v>43173</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3</v>
+      </c>
+      <c r="E86" s="1">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1">
+        <v>2</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" s="1">
+        <v>34</v>
+      </c>
+      <c r="C87" s="2">
+        <v>43173</v>
+      </c>
+      <c r="D87" s="1">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" s="1">
+        <v>34</v>
+      </c>
+      <c r="C88" s="2">
+        <v>43173</v>
+      </c>
+      <c r="D88" s="1">
+        <v>4</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="1">
+        <v>34</v>
+      </c>
+      <c r="C89" s="2">
+        <v>43173</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4</v>
+      </c>
+      <c r="E89" s="1">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1">
+        <v>2</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" s="1">
+        <v>34</v>
+      </c>
+      <c r="C90" s="2">
+        <v>43173</v>
+      </c>
+      <c r="D90" s="1">
+        <v>4</v>
+      </c>
+      <c r="E90" s="1">
+        <v>4</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="1">
+        <v>34</v>
+      </c>
+      <c r="C91" s="2">
+        <v>43173</v>
+      </c>
+      <c r="D91" s="1">
+        <v>4</v>
+      </c>
+      <c r="E91" s="1">
+        <v>5</v>
+      </c>
+      <c r="F91" s="1">
+        <v>2</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="1">
+        <v>34</v>
+      </c>
+      <c r="C92" s="2">
+        <v>43173</v>
+      </c>
+      <c r="D92" s="1">
+        <v>4</v>
+      </c>
+      <c r="E92" s="1">
+        <v>6</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" s="1">
+        <v>34</v>
+      </c>
+      <c r="C93" s="2">
+        <v>43174</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" s="1">
+        <v>34</v>
+      </c>
+      <c r="C94" s="2">
+        <v>43174</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="1">
+        <v>34</v>
+      </c>
+      <c r="C95" s="2">
+        <v>43174</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" s="1">
+        <v>34</v>
+      </c>
+      <c r="C96" s="2">
+        <v>43174</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="1">
+        <v>34</v>
+      </c>
+      <c r="C97" s="2">
+        <v>43174</v>
+      </c>
+      <c r="D97" s="1">
+        <v>4</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" s="1">
+        <v>34</v>
+      </c>
+      <c r="C98" s="2">
+        <v>43174</v>
+      </c>
+      <c r="D98" s="1">
+        <v>4</v>
+      </c>
+      <c r="E98" s="1">
+        <v>2</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C100" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H1"/>
-  <conditionalFormatting sqref="F1:F2 F6:F1048576">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F6:F1048576">
-    <cfRule type="colorScale" priority="351">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F6:F1048576">
-    <cfRule type="colorScale" priority="354">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F6:F1048576">
-    <cfRule type="colorScale" priority="357">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F6:F1048576">
-    <cfRule type="colorScale" priority="360">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F6:F1048576">
-    <cfRule type="colorScale" priority="363">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F6:F1048576">
-    <cfRule type="colorScale" priority="366">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F6:F1048576">
-    <cfRule type="colorScale" priority="369">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F6:F1048576">
-    <cfRule type="colorScale" priority="375">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F6:F1048576">
-    <cfRule type="colorScale" priority="378">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F6:F1048576">
-    <cfRule type="colorScale" priority="381">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F6:F1048576">
-    <cfRule type="colorScale" priority="384">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
+  <autoFilter ref="B1:H95"/>
   <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="28">
       <colorScale>
@@ -2392,8 +3207,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2536,7 +3351,151 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F4 F6:F1048576">
+  <conditionalFormatting sqref="F4">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2560,139 +3519,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F1:F2 F73:F1048576 F6:F71">
+    <cfRule type="colorScale" priority="386">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F4 F73:F1048576 F6:F71">
+    <cfRule type="colorScale" priority="434">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="159">
   <si>
     <t>bat</t>
   </si>
@@ -199,6 +199,18 @@
     <t>b0034_d180315_TT4_SS02</t>
   </si>
   <si>
+    <t>b9861_d180519_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180519_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180519_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180519_TT1_SS04</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -455,6 +467,45 @@
   </si>
   <si>
     <t>cleaning of unit 1</t>
+  </si>
+  <si>
+    <t>amzing seperation!!!</t>
+  </si>
+  <si>
+    <t>b9861_d180519_TT1_SS05</t>
+  </si>
+  <si>
+    <t>b9861_d180519_TT1_SS06</t>
+  </si>
+  <si>
+    <t>b9861_d180519_TT2_SS01</t>
+  </si>
+  <si>
+    <t>weird spikes shape</t>
+  </si>
+  <si>
+    <t>b9861_d180519_TT2_SS02</t>
+  </si>
+  <si>
+    <t>high FR interneuron</t>
+  </si>
+  <si>
+    <t>multi-unit close to the noise</t>
+  </si>
+  <si>
+    <t>b9861_d180519_TT1_SS07</t>
+  </si>
+  <si>
+    <t>b9861_d180519_TT2_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180519_TT2_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180519_TT2_SS05</t>
+  </si>
+  <si>
+    <t>b9861_d180519_TT3_SS01</t>
   </si>
 </sst>
 </file>
@@ -791,11 +842,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S100"/>
+  <dimension ref="A1:S111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -829,39 +880,39 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1">
         <v>34</v>
@@ -879,15 +930,15 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1">
         <v>34</v>
@@ -905,15 +956,15 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1">
         <v>34</v>
@@ -931,15 +982,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1">
         <v>34</v>
@@ -957,15 +1008,15 @@
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1">
         <v>34</v>
@@ -983,12 +1034,12 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1">
         <v>34</v>
@@ -1006,12 +1057,12 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B8" s="1">
         <v>34</v>
@@ -1029,12 +1080,12 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1">
         <v>34</v>
@@ -1052,12 +1103,12 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B10" s="1">
         <v>34</v>
@@ -1075,12 +1126,12 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B11" s="1">
         <v>34</v>
@@ -1098,12 +1149,12 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1">
         <v>34</v>
@@ -1121,12 +1172,12 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B13" s="1">
         <v>34</v>
@@ -1144,12 +1195,12 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1">
         <v>34</v>
@@ -1167,12 +1218,12 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B15" s="1">
         <v>34</v>
@@ -1190,12 +1241,12 @@
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1">
         <v>34</v>
@@ -1213,12 +1264,12 @@
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B17" s="1">
         <v>34</v>
@@ -1236,15 +1287,15 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B18" s="1">
         <v>34</v>
@@ -1262,12 +1313,12 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B19" s="1">
         <v>34</v>
@@ -1285,15 +1336,15 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1">
         <v>34</v>
@@ -1311,12 +1362,12 @@
         <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B21" s="1">
         <v>34</v>
@@ -1334,10 +1385,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1360,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1383,10 +1434,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1409,12 +1460,12 @@
         <v>2</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B25" s="1">
         <v>34</v>
@@ -1432,15 +1483,15 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B26" s="1">
         <v>34</v>
@@ -1458,12 +1509,12 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B27" s="1">
         <v>34</v>
@@ -1481,12 +1532,12 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1">
         <v>34</v>
@@ -1504,13 +1555,13 @@
         <v>2</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1533,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1556,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1579,12 +1630,12 @@
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B32" s="1">
         <v>34</v>
@@ -1602,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1625,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1648,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1713,7 +1764,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B38" s="1">
         <v>34</v>
@@ -1731,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1754,15 +1805,15 @@
         <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B40" s="1">
         <v>34</v>
@@ -1780,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1803,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H41" s="4"/>
     </row>
@@ -1827,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1850,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -1873,12 +1924,12 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B45" s="1">
         <v>34</v>
@@ -1896,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -1961,7 +2012,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B49" s="1">
         <v>34</v>
@@ -1979,12 +2030,12 @@
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B50" s="1">
         <v>34</v>
@@ -2002,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2025,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2088,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2131,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2154,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2199,7 +2250,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60" s="1">
         <v>34</v>
@@ -2217,12 +2268,12 @@
         <v>1.5</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61" s="1">
         <v>34</v>
@@ -2240,7 +2291,7 @@
         <v>1.5</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2303,7 +2354,7 @@
         <v>1.5</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -2326,7 +2377,7 @@
         <v>1.5</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -2349,10 +2400,10 @@
         <v>2</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -2395,7 +2446,7 @@
         <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -2418,7 +2469,7 @@
         <v>2</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -2441,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -2464,15 +2515,15 @@
         <v>2</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B72" s="1">
         <v>34</v>
@@ -2570,12 +2621,12 @@
         <v>1</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B77" s="1">
         <v>34</v>
@@ -2593,12 +2644,12 @@
         <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1">
         <v>34</v>
@@ -2616,12 +2667,12 @@
         <v>1</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B79" s="1">
         <v>34</v>
@@ -2639,12 +2690,12 @@
         <v>1</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B80" s="1">
         <v>34</v>
@@ -2662,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -2685,7 +2736,7 @@
         <v>1.5</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -2710,7 +2761,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B83" s="1">
         <v>34</v>
@@ -2728,12 +2779,12 @@
         <v>1.5</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B84" s="1">
         <v>34</v>
@@ -2771,12 +2822,12 @@
         <v>1</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B86" s="1">
         <v>34</v>
@@ -2794,7 +2845,7 @@
         <v>2</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -2817,12 +2868,12 @@
         <v>2</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B88" s="1">
         <v>34</v>
@@ -2840,7 +2891,7 @@
         <v>2</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -2863,7 +2914,7 @@
         <v>2</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -2886,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -2909,12 +2960,12 @@
         <v>2</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B92" s="1">
         <v>34</v>
@@ -2932,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -2955,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -2980,7 +3031,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B95" s="1">
         <v>34</v>
@@ -2998,12 +3049,12 @@
         <v>1.5</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B96" s="1">
         <v>34</v>
@@ -3021,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>54</v>
       </c>
@@ -3044,7 +3095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>55</v>
       </c>
@@ -3064,14 +3115,334 @@
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C100" s="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C99" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C100" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B101" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C101" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1">
+        <v>3</v>
+      </c>
+      <c r="F101" s="1">
+        <v>2</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B102" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C102" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1">
+        <v>4</v>
+      </c>
+      <c r="F102" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C103" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1">
+        <v>5</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C104" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1">
+        <v>6</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C105" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1">
+        <v>7</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C106" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D106" s="1">
+        <v>2</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1">
+        <v>2</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C107" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1">
+        <v>2</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B108" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C108" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1">
+        <v>3</v>
+      </c>
+      <c r="F108" s="1">
+        <v>2</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C109" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1">
+        <v>4</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C110" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D110" s="1">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1">
+        <v>5</v>
+      </c>
+      <c r="F110" s="1">
+        <v>2</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C111" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D111" s="1">
+        <v>3</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1">
+        <v>2</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:H95"/>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="195">
   <si>
     <t>bat</t>
   </si>
@@ -506,6 +506,114 @@
   </si>
   <si>
     <t>b9861_d180519_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT2_SS01</t>
+  </si>
+  <si>
+    <t>weird spikes partially stable</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT2_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT2_SS04</t>
+  </si>
+  <si>
+    <t>too close to the noise; partially stable</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT2_SS05</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT2_SS06</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT2_SS07</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT2_SS08</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT2_SS09</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT3_SS01</t>
+  </si>
+  <si>
+    <t>inverted spikes</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT4_SS02</t>
+  </si>
+  <si>
+    <t>very low spikes count</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180521_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b9861_d180522_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180522_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180522_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180522_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180522_TT1_SS05</t>
+  </si>
+  <si>
+    <t>b9861_d180522_TT1_SS06</t>
+  </si>
+  <si>
+    <t>b9861_d180522_TT1_SS07</t>
+  </si>
+  <si>
+    <t>b9861_d180522_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180522_TT4_SS02</t>
+  </si>
+  <si>
+    <t>merging with unit 3</t>
+  </si>
+  <si>
+    <t>b9861_d180522_TT4_SS03</t>
+  </si>
+  <si>
+    <t>merging with unit 2 + close to noise</t>
+  </si>
+  <si>
+    <t>b9861_d180522_TT4_SS04</t>
   </si>
 </sst>
 </file>
@@ -842,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S111"/>
+  <dimension ref="A1:S141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I112" sqref="I112"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3442,6 +3550,717 @@
       </c>
       <c r="K111" s="1" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B112" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C112" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B113" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C113" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1">
+        <v>2</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B114" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C114" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1">
+        <v>3</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B115" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C115" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1">
+        <v>4</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B116" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C116" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D116" s="1">
+        <v>2</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F116" s="1">
+        <v>2</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B117" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C117" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2</v>
+      </c>
+      <c r="E117" s="1">
+        <v>2</v>
+      </c>
+      <c r="F117" s="1">
+        <v>2</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C118" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2</v>
+      </c>
+      <c r="E118" s="1">
+        <v>3</v>
+      </c>
+      <c r="F118" s="1">
+        <v>2</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B119" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C119" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2</v>
+      </c>
+      <c r="E119" s="1">
+        <v>4</v>
+      </c>
+      <c r="F119" s="1">
+        <v>2</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B120" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C120" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D120" s="1">
+        <v>2</v>
+      </c>
+      <c r="E120" s="1">
+        <v>5</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B121" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C121" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D121" s="1">
+        <v>2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>6</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B122" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C122" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D122" s="1">
+        <v>2</v>
+      </c>
+      <c r="E122" s="1">
+        <v>7</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B123" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C123" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D123" s="1">
+        <v>2</v>
+      </c>
+      <c r="E123" s="1">
+        <v>8</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B124" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C124" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D124" s="1">
+        <v>2</v>
+      </c>
+      <c r="E124" s="1">
+        <v>9</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B125" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C125" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D125" s="1">
+        <v>3</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F125" s="1">
+        <v>2</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B126" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C126" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D126" s="1">
+        <v>4</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B127" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C127" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D127" s="1">
+        <v>4</v>
+      </c>
+      <c r="E127" s="1">
+        <v>2</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B128" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C128" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D128" s="1">
+        <v>4</v>
+      </c>
+      <c r="E128" s="1">
+        <v>3</v>
+      </c>
+      <c r="F128" s="1">
+        <v>2</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C129" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D129" s="1">
+        <v>4</v>
+      </c>
+      <c r="E129" s="1">
+        <v>4</v>
+      </c>
+      <c r="F129" s="1">
+        <v>2</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B130" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C130" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D130" s="1">
+        <v>4</v>
+      </c>
+      <c r="E130" s="1">
+        <v>5</v>
+      </c>
+      <c r="F130" s="1">
+        <v>1</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B131" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C131" s="2">
+        <v>43242</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1">
+        <v>2</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B132" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C132" s="2">
+        <v>43242</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1">
+        <v>2</v>
+      </c>
+      <c r="F132" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B133" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C133" s="2">
+        <v>43242</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1</v>
+      </c>
+      <c r="E133" s="1">
+        <v>3</v>
+      </c>
+      <c r="F133" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B134" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C134" s="2">
+        <v>43242</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1">
+        <v>4</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B135" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C135" s="2">
+        <v>43242</v>
+      </c>
+      <c r="D135" s="1">
+        <v>1</v>
+      </c>
+      <c r="E135" s="1">
+        <v>5</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B136" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C136" s="2">
+        <v>43242</v>
+      </c>
+      <c r="D136" s="1">
+        <v>1</v>
+      </c>
+      <c r="E136" s="1">
+        <v>6</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B137" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C137" s="2">
+        <v>43242</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1">
+        <v>7</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B138" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C138" s="2">
+        <v>43242</v>
+      </c>
+      <c r="D138" s="1">
+        <v>4</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B139" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C139" s="2">
+        <v>43242</v>
+      </c>
+      <c r="D139" s="1">
+        <v>4</v>
+      </c>
+      <c r="E139" s="1">
+        <v>2</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B140" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C140" s="2">
+        <v>43242</v>
+      </c>
+      <c r="D140" s="1">
+        <v>4</v>
+      </c>
+      <c r="E140" s="1">
+        <v>3</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B141" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C141" s="2">
+        <v>43242</v>
+      </c>
+      <c r="D141" s="1">
+        <v>4</v>
+      </c>
+      <c r="E141" s="1">
+        <v>4</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$162</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="238">
   <si>
     <t>bat</t>
   </si>
@@ -478,6 +478,9 @@
     <t>b9861_d180519_TT1_SS06</t>
   </si>
   <si>
+    <t>close to the noise</t>
+  </si>
+  <si>
     <t>b9861_d180519_TT2_SS01</t>
   </si>
   <si>
@@ -614,6 +617,132 @@
   </si>
   <si>
     <t>b9861_d180522_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT1_SS02</t>
+  </si>
+  <si>
+    <t>is this the lower spikes of unit 1 burst?!?! Consider merging!</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT1_SS05</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT1_SS06</t>
+  </si>
+  <si>
+    <t>too close to the noise (maybe part of unit 6?)</t>
+  </si>
+  <si>
+    <t>too close to the noise?</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT1_SS07</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT1_SS08</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT1_SS09</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT1_SS10</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT1_SS11</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT2_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT3_SS04</t>
+  </si>
+  <si>
+    <t>maybe partiall stable?</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT3_SS05</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT3_SS06</t>
+  </si>
+  <si>
+    <t>multi-unit close to the noise; partially stable</t>
+  </si>
+  <si>
+    <t>b9861_d180523_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180524_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180524_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180524_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180524_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180524_TT1_SS05</t>
+  </si>
+  <si>
+    <t>b9861_d180524_TT1_SS06</t>
+  </si>
+  <si>
+    <t>b9861_d180524_TT1_SS07</t>
+  </si>
+  <si>
+    <t>b9861_d180524_TT1_SS08</t>
+  </si>
+  <si>
+    <t>b9861_d180524_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180524_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180524_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180524_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180524_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180524_TT3_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180524_TT3_SS05</t>
+  </si>
+  <si>
+    <t>maybe isolated enough?</t>
   </si>
 </sst>
 </file>
@@ -950,11 +1079,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S141"/>
+  <dimension ref="A1:S177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3249,7 +3378,7 @@
         <v>146</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -3275,7 +3404,7 @@
         <v>146</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -3301,7 +3430,7 @@
         <v>146</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -3344,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -3367,12 +3496,12 @@
         <v>1</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B105" s="1">
         <v>9861</v>
@@ -3390,12 +3519,12 @@
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B106" s="1">
         <v>9861</v>
@@ -3413,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>89</v>
@@ -3421,7 +3550,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B107" s="1">
         <v>9861</v>
@@ -3439,7 +3568,7 @@
         <v>2</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>89</v>
@@ -3447,7 +3576,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B108" s="1">
         <v>9861</v>
@@ -3465,7 +3594,7 @@
         <v>2</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>89</v>
@@ -3473,7 +3602,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B109" s="1">
         <v>9861</v>
@@ -3491,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>89</v>
@@ -3499,7 +3628,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B110" s="1">
         <v>9861</v>
@@ -3517,7 +3646,7 @@
         <v>2</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>89</v>
@@ -3525,7 +3654,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B111" s="1">
         <v>9861</v>
@@ -3554,7 +3683,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B112" s="1">
         <v>9861</v>
@@ -3574,7 +3703,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B113" s="1">
         <v>9861</v>
@@ -3594,7 +3723,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B114" s="1">
         <v>9861</v>
@@ -3617,7 +3746,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B115" s="1">
         <v>9861</v>
@@ -3635,12 +3764,12 @@
         <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B116" s="1">
         <v>9861</v>
@@ -3658,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>89</v>
@@ -3666,7 +3795,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B117" s="1">
         <v>9861</v>
@@ -3690,12 +3819,12 @@
         <v>89</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B118" s="1">
         <v>9861</v>
@@ -3716,12 +3845,12 @@
         <v>89</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B119" s="1">
         <v>9861</v>
@@ -3742,12 +3871,12 @@
         <v>89</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B120" s="1">
         <v>9861</v>
@@ -3765,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>89</v>
@@ -3773,7 +3902,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B121" s="1">
         <v>9861</v>
@@ -3791,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>89</v>
@@ -3799,7 +3928,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B122" s="1">
         <v>9861</v>
@@ -3817,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>89</v>
@@ -3825,7 +3954,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B123" s="1">
         <v>9861</v>
@@ -3843,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>89</v>
@@ -3851,7 +3980,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B124" s="1">
         <v>9861</v>
@@ -3869,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>89</v>
@@ -3877,7 +4006,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B125" s="1">
         <v>9861</v>
@@ -3895,18 +4024,18 @@
         <v>2</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B126" s="1">
         <v>9861</v>
@@ -3926,7 +4055,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B127" s="1">
         <v>9861</v>
@@ -3949,7 +4078,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B128" s="1">
         <v>9861</v>
@@ -3967,12 +4096,12 @@
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B129" s="1">
         <v>9861</v>
@@ -3990,12 +4119,12 @@
         <v>2</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B130" s="1">
         <v>9861</v>
@@ -4013,12 +4142,12 @@
         <v>1</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B131" s="1">
         <v>9861</v>
@@ -4039,12 +4168,12 @@
         <v>146</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B132" s="1">
         <v>9861</v>
@@ -4064,7 +4193,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B133" s="1">
         <v>9861</v>
@@ -4084,7 +4213,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B134" s="1">
         <v>9861</v>
@@ -4102,12 +4231,12 @@
         <v>1</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B135" s="1">
         <v>9861</v>
@@ -4125,12 +4254,12 @@
         <v>1</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B136" s="1">
         <v>9861</v>
@@ -4148,12 +4277,12 @@
         <v>1</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B137" s="1">
         <v>9861</v>
@@ -4171,12 +4300,12 @@
         <v>1</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B138" s="1">
         <v>9861</v>
@@ -4196,7 +4325,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B139" s="1">
         <v>9861</v>
@@ -4214,12 +4343,12 @@
         <v>1</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B140" s="1">
         <v>9861</v>
@@ -4237,12 +4366,12 @@
         <v>1</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B141" s="1">
         <v>9861</v>
@@ -4260,11 +4389,803 @@
         <v>1</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B142" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C142" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B143" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C143" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D143" s="1">
+        <v>1</v>
+      </c>
+      <c r="E143" s="1">
+        <v>2</v>
+      </c>
+      <c r="F143" s="1">
+        <v>2</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B144" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C144" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1</v>
+      </c>
+      <c r="E144" s="1">
+        <v>3</v>
+      </c>
+      <c r="F144" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B145" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C145" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1</v>
+      </c>
+      <c r="E145" s="1">
+        <v>4</v>
+      </c>
+      <c r="F145" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B146" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C146" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1">
+        <v>5</v>
+      </c>
+      <c r="F146" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B147" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C147" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1</v>
+      </c>
+      <c r="E147" s="1">
+        <v>6</v>
+      </c>
+      <c r="F147" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B148" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C148" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1</v>
+      </c>
+      <c r="E148" s="1">
+        <v>7</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B149" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C149" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1</v>
+      </c>
+      <c r="E149" s="1">
+        <v>8</v>
+      </c>
+      <c r="F149" s="1">
+        <v>1</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B150" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C150" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1</v>
+      </c>
+      <c r="E150" s="1">
+        <v>9</v>
+      </c>
+      <c r="F150" s="1">
+        <v>1</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B151" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C151" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1</v>
+      </c>
+      <c r="E151" s="1">
+        <v>10</v>
+      </c>
+      <c r="F151" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B152" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C152" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1</v>
+      </c>
+      <c r="E152" s="1">
+        <v>11</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B153" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C153" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D153" s="1">
+        <v>2</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1</v>
+      </c>
+      <c r="F153" s="1">
+        <v>1</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B154" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C154" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D154" s="1">
+        <v>2</v>
+      </c>
+      <c r="E154" s="1">
+        <v>2</v>
+      </c>
+      <c r="F154" s="1">
+        <v>1</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B155" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C155" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D155" s="1">
+        <v>2</v>
+      </c>
+      <c r="E155" s="1">
+        <v>3</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B156" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C156" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D156" s="1">
+        <v>3</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B157" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C157" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D157" s="1">
+        <v>3</v>
+      </c>
+      <c r="E157" s="1">
+        <v>2</v>
+      </c>
+      <c r="F157" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B158" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C158" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D158" s="1">
+        <v>3</v>
+      </c>
+      <c r="E158" s="1">
+        <v>3</v>
+      </c>
+      <c r="F158" s="1">
+        <v>2</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B159" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C159" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D159" s="1">
+        <v>3</v>
+      </c>
+      <c r="E159" s="1">
+        <v>4</v>
+      </c>
+      <c r="F159" s="1">
+        <v>1</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B160" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C160" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D160" s="1">
+        <v>3</v>
+      </c>
+      <c r="E160" s="1">
+        <v>5</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B161" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C161" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D161" s="1">
+        <v>3</v>
+      </c>
+      <c r="E161" s="1">
+        <v>6</v>
+      </c>
+      <c r="F161" s="1">
+        <v>1</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B162" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C162" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D162" s="1">
+        <v>4</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
+      <c r="F162" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B163" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C163" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D163" s="1">
+        <v>1</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B164" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C164" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D164" s="1">
+        <v>1</v>
+      </c>
+      <c r="E164" s="1">
+        <v>2</v>
+      </c>
+      <c r="F164" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B165" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C165" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D165" s="1">
+        <v>1</v>
+      </c>
+      <c r="E165" s="1">
+        <v>3</v>
+      </c>
+      <c r="F165" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B166" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C166" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D166" s="1">
+        <v>1</v>
+      </c>
+      <c r="E166" s="1">
+        <v>4</v>
+      </c>
+      <c r="F166" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B167" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C167" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D167" s="1">
+        <v>1</v>
+      </c>
+      <c r="E167" s="1">
+        <v>5</v>
+      </c>
+      <c r="F167" s="1">
+        <v>1</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B168" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C168" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D168" s="1">
+        <v>1</v>
+      </c>
+      <c r="E168" s="1">
+        <v>6</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B169" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C169" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D169" s="1">
+        <v>1</v>
+      </c>
+      <c r="E169" s="1">
+        <v>7</v>
+      </c>
+      <c r="F169" s="1">
+        <v>1</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B170" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C170" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D170" s="1">
+        <v>1</v>
+      </c>
+      <c r="E170" s="1">
+        <v>8</v>
+      </c>
+      <c r="F170" s="1">
+        <v>1</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B171" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C171" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D171" s="1">
+        <v>2</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1</v>
+      </c>
+      <c r="F171" s="1">
+        <v>1</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B172" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C172" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D172" s="1">
+        <v>2</v>
+      </c>
+      <c r="E172" s="1">
+        <v>2</v>
+      </c>
+      <c r="F172" s="1">
+        <v>1</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B173" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C173" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D173" s="1">
+        <v>3</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1</v>
+      </c>
+      <c r="F173" s="1">
+        <v>1</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B174" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C174" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D174" s="1">
+        <v>3</v>
+      </c>
+      <c r="E174" s="1">
+        <v>2</v>
+      </c>
+      <c r="F174" s="1">
+        <v>1</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B175" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C175" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D175" s="1">
+        <v>3</v>
+      </c>
+      <c r="E175" s="1">
+        <v>3</v>
+      </c>
+      <c r="F175" s="1">
+        <v>1</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B176" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C176" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D176" s="1">
+        <v>3</v>
+      </c>
+      <c r="E176" s="1">
+        <v>4</v>
+      </c>
+      <c r="F176" s="1">
+        <v>1</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B177" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C177" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D177" s="1">
+        <v>3</v>
+      </c>
+      <c r="E177" s="1">
+        <v>5</v>
+      </c>
+      <c r="F177" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H95"/>
+  <autoFilter ref="B1:H162"/>
   <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="28">
       <colorScale>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$260</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="331">
   <si>
     <t>bat</t>
   </si>
@@ -607,15 +607,9 @@
     <t>b9861_d180522_TT4_SS02</t>
   </si>
   <si>
-    <t>merging with unit 3</t>
-  </si>
-  <si>
     <t>b9861_d180522_TT4_SS03</t>
   </si>
   <si>
-    <t>merging with unit 2 + close to noise</t>
-  </si>
-  <si>
     <t>b9861_d180522_TT4_SS04</t>
   </si>
   <si>
@@ -625,9 +619,6 @@
     <t>b9861_d180523_TT1_SS02</t>
   </si>
   <si>
-    <t>is this the lower spikes of unit 1 burst?!?! Consider merging!</t>
-  </si>
-  <si>
     <t>b9861_d180523_TT1_SS03</t>
   </si>
   <si>
@@ -643,9 +634,6 @@
     <t>too close to the noise (maybe part of unit 6?)</t>
   </si>
   <si>
-    <t>too close to the noise?</t>
-  </si>
-  <si>
     <t>b9861_d180523_TT1_SS07</t>
   </si>
   <si>
@@ -742,7 +730,298 @@
     <t>b9861_d180524_TT3_SS05</t>
   </si>
   <si>
-    <t>maybe isolated enough?</t>
+    <t>b9861_d180525_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180525_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180525_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180525_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180525_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180525_TT3_SS03</t>
+  </si>
+  <si>
+    <t>two units</t>
+  </si>
+  <si>
+    <t>b9861_d180525_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180525_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180525_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180525_TT4_SS04</t>
+  </si>
+  <si>
+    <t>partially stable?</t>
+  </si>
+  <si>
+    <t>b9861_d180525_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b9861_d180525_TT4_SS06</t>
+  </si>
+  <si>
+    <t>b9861_d180525_TT4_SS07</t>
+  </si>
+  <si>
+    <t>b9861_d180525_TT4_SS08</t>
+  </si>
+  <si>
+    <t>b9861_d180525_TT4_SS09</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT2_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT2_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT2_SS05</t>
+  </si>
+  <si>
+    <t>partially stable? Isolated only in the 2nd half</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT2_SS06</t>
+  </si>
+  <si>
+    <t>maybe changing cell in the middle</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT2_SS07</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT2_SS08</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT2_SS09</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT2_SS10</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT2_SS11</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT2_SS12</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT2_SS13</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT2_SS14</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT3_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT3_SS05</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT3_SS06</t>
+  </si>
+  <si>
+    <t>fires only at sleep session (Or is it stable only during sleep session?)</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT3_SS07</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT3_SS08</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT3_SS09</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT3_SS10</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT3_SS11</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT4_SS03</t>
+  </si>
+  <si>
+    <t>leftovers from the other units</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT4_SS06</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT4_SS07</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT4_SS08</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT4_SS09</t>
+  </si>
+  <si>
+    <t>b9861_d180526_TT4_SS10</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT1_SS05</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT2_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT3_SS01</t>
+  </si>
+  <si>
+    <t>partially stable;too close to the noise</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT3_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT3_SS05</t>
+  </si>
+  <si>
+    <t>merge of units 1+2</t>
+  </si>
+  <si>
+    <t>merge of units 1+2+3</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT3_SS06</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT3_SS07</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT3_SS08</t>
+  </si>
+  <si>
+    <t>b9861_d180527_TT3_SS09</t>
+  </si>
+  <si>
+    <t>b9861_d180529_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180529_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180529_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180529_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180529_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180529_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180529_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180529_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180529_TT3_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180530_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180530_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180530_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180530_TT1_SS04</t>
+  </si>
+  <si>
+    <t>not sure if isolated enough</t>
+  </si>
+  <si>
+    <t>not isolated enough; consider resorting this unit</t>
+  </si>
+  <si>
+    <t>merging with unit 3; consider resorting this unit</t>
+  </si>
+  <si>
+    <t>merging with unit 2 + close to noise; consider resorting this unit</t>
+  </si>
+  <si>
+    <t>multi-unit close to the noise; consider resorting this unit</t>
+  </si>
+  <si>
+    <t>leftovers, ignore this unit</t>
   </si>
 </sst>
 </file>
@@ -1079,11 +1358,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S177"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G263" sqref="G263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1147,7 +1427,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
@@ -1173,7 +1453,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -1199,7 +1479,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>92</v>
       </c>
@@ -1225,7 +1505,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>94</v>
       </c>
@@ -1251,7 +1531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>95</v>
       </c>
@@ -1274,7 +1554,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
@@ -1297,7 +1577,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
@@ -1320,7 +1600,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>97</v>
       </c>
@@ -1343,7 +1623,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
@@ -1366,7 +1646,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
@@ -1389,7 +1669,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>100</v>
       </c>
@@ -1412,7 +1692,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>102</v>
       </c>
@@ -1435,7 +1715,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>103</v>
       </c>
@@ -1458,7 +1738,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>107</v>
       </c>
@@ -1481,7 +1761,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>108</v>
       </c>
@@ -1504,7 +1784,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>109</v>
       </c>
@@ -1530,7 +1810,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
@@ -1553,7 +1833,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>111</v>
       </c>
@@ -1579,7 +1859,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
@@ -1602,7 +1882,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
@@ -1628,7 +1908,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1651,7 +1931,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1677,7 +1957,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1700,7 +1980,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>113</v>
       </c>
@@ -1726,7 +2006,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>115</v>
       </c>
@@ -1749,7 +2029,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>116</v>
       </c>
@@ -1772,7 +2052,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -1801,7 +2081,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -1824,7 +2104,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -1847,7 +2127,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1870,7 +2150,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>120</v>
       </c>
@@ -1893,7 +2173,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -1916,7 +2196,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -1939,7 +2219,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -1959,7 +2239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -1979,7 +2259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -1999,7 +2279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>124</v>
       </c>
@@ -2022,7 +2302,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -2048,7 +2328,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
@@ -2071,7 +2351,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -2095,7 +2375,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -2118,7 +2398,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
@@ -2141,7 +2421,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -2164,7 +2444,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2187,7 +2467,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
@@ -2207,7 +2487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -2227,7 +2507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -2247,7 +2527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>126</v>
       </c>
@@ -2270,7 +2550,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>127</v>
       </c>
@@ -2293,7 +2573,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -2316,7 +2596,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>23</v>
       </c>
@@ -2336,7 +2616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
@@ -2356,7 +2636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,7 +2659,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>26</v>
       </c>
@@ -2399,7 +2679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>27</v>
       </c>
@@ -2422,7 +2702,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>28</v>
       </c>
@@ -2445,7 +2725,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
@@ -2465,7 +2745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>30</v>
       </c>
@@ -2485,7 +2765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -2508,7 +2788,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -2531,7 +2811,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>31</v>
       </c>
@@ -2551,7 +2831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>32</v>
       </c>
@@ -2571,7 +2851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
@@ -2594,7 +2874,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>34</v>
       </c>
@@ -2617,7 +2897,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>35</v>
       </c>
@@ -2643,7 +2923,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>36</v>
       </c>
@@ -2663,7 +2943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -2686,7 +2966,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>38</v>
       </c>
@@ -2709,7 +2989,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>39</v>
       </c>
@@ -2732,7 +3012,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>40</v>
       </c>
@@ -2758,7 +3038,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>136</v>
       </c>
@@ -2778,7 +3058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>41</v>
       </c>
@@ -2798,7 +3078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,7 +3098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>43</v>
       </c>
@@ -2838,7 +3118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>44</v>
       </c>
@@ -2861,7 +3141,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>73</v>
       </c>
@@ -2884,7 +3164,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>74</v>
       </c>
@@ -2907,7 +3187,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>75</v>
       </c>
@@ -2930,7 +3210,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>76</v>
       </c>
@@ -2953,7 +3233,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>45</v>
       </c>
@@ -2976,7 +3256,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>46</v>
       </c>
@@ -2996,7 +3276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>77</v>
       </c>
@@ -3019,7 +3299,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>78</v>
       </c>
@@ -3039,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>47</v>
       </c>
@@ -3062,7 +3342,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>80</v>
       </c>
@@ -3085,7 +3365,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,7 +3388,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>81</v>
       </c>
@@ -3131,7 +3411,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>49</v>
       </c>
@@ -3154,7 +3434,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>50</v>
       </c>
@@ -3177,7 +3457,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>51</v>
       </c>
@@ -3200,7 +3480,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>143</v>
       </c>
@@ -3223,7 +3503,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>52</v>
       </c>
@@ -3246,7 +3526,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>53</v>
       </c>
@@ -3266,7 +3546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>82</v>
       </c>
@@ -3289,7 +3569,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>83</v>
       </c>
@@ -3312,7 +3592,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>54</v>
       </c>
@@ -3332,7 +3612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>55</v>
       </c>
@@ -3738,10 +4018,7 @@
         <v>3</v>
       </c>
       <c r="F114" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -4050,7 +4327,10 @@
         <v>1</v>
       </c>
       <c r="F126" s="1">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -4320,7 +4600,10 @@
         <v>1</v>
       </c>
       <c r="F138" s="1">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
@@ -4343,12 +4626,12 @@
         <v>1</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>192</v>
+        <v>327</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B140" s="1">
         <v>9861</v>
@@ -4366,12 +4649,12 @@
         <v>1</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>194</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B141" s="1">
         <v>9861</v>
@@ -4389,12 +4672,12 @@
         <v>1</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>154</v>
+        <v>329</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B142" s="1">
         <v>9861</v>
@@ -4414,7 +4697,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B143" s="1">
         <v>9861</v>
@@ -4429,15 +4712,15 @@
         <v>2</v>
       </c>
       <c r="F143" s="1">
-        <v>2</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>198</v>
+        <v>0</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B144" s="1">
         <v>9861</v>
@@ -4457,7 +4740,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B145" s="1">
         <v>9861</v>
@@ -4477,7 +4760,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B146" s="1">
         <v>9861</v>
@@ -4497,7 +4780,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B147" s="1">
         <v>9861</v>
@@ -4517,7 +4800,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B148" s="1">
         <v>9861</v>
@@ -4535,12 +4818,12 @@
         <v>1</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B149" s="1">
         <v>9861</v>
@@ -4563,7 +4846,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B150" s="1">
         <v>9861</v>
@@ -4586,7 +4869,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B151" s="1">
         <v>9861</v>
@@ -4601,15 +4884,15 @@
         <v>10</v>
       </c>
       <c r="F151" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B152" s="1">
         <v>9861</v>
@@ -4632,7 +4915,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B153" s="1">
         <v>9861</v>
@@ -4655,7 +4938,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B154" s="1">
         <v>9861</v>
@@ -4678,7 +4961,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B155" s="1">
         <v>9861</v>
@@ -4701,7 +4984,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B156" s="1">
         <v>9861</v>
@@ -4721,7 +5004,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B157" s="1">
         <v>9861</v>
@@ -4741,7 +5024,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B158" s="1">
         <v>9861</v>
@@ -4759,12 +5042,12 @@
         <v>2</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B159" s="1">
         <v>9861</v>
@@ -4787,7 +5070,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B160" s="1">
         <v>9861</v>
@@ -4805,12 +5088,12 @@
         <v>1</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B161" s="1">
         <v>9861</v>
@@ -4833,7 +5116,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B162" s="1">
         <v>9861</v>
@@ -4853,7 +5136,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B163" s="1">
         <v>9861</v>
@@ -4873,7 +5156,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B164" s="1">
         <v>9861</v>
@@ -4893,7 +5176,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B165" s="1">
         <v>9861</v>
@@ -4913,7 +5196,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B166" s="1">
         <v>9861</v>
@@ -4933,7 +5216,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B167" s="1">
         <v>9861</v>
@@ -4956,7 +5239,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B168" s="1">
         <v>9861</v>
@@ -4979,7 +5262,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B169" s="1">
         <v>9861</v>
@@ -5002,7 +5285,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B170" s="1">
         <v>9861</v>
@@ -5025,7 +5308,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B171" s="1">
         <v>9861</v>
@@ -5048,7 +5331,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B172" s="1">
         <v>9861</v>
@@ -5071,7 +5354,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B173" s="1">
         <v>9861</v>
@@ -5094,7 +5377,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B174" s="1">
         <v>9861</v>
@@ -5117,7 +5400,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B175" s="1">
         <v>9861</v>
@@ -5140,7 +5423,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B176" s="1">
         <v>9861</v>
@@ -5163,7 +5446,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B177" s="1">
         <v>9861</v>
@@ -5178,14 +5461,1836 @@
         <v>5</v>
       </c>
       <c r="F177" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G177" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B178" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C178" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D178" s="1">
+        <v>1</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F178" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B179" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C179" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D179" s="1">
+        <v>1</v>
+      </c>
+      <c r="E179" s="1">
+        <v>2</v>
+      </c>
+      <c r="F179" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B180" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C180" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D180" s="1">
+        <v>1</v>
+      </c>
+      <c r="E180" s="1">
+        <v>3</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B181" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C181" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D181" s="1">
+        <v>3</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1</v>
+      </c>
+      <c r="F181" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="B182" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C182" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D182" s="1">
+        <v>3</v>
+      </c>
+      <c r="E182" s="1">
+        <v>2</v>
+      </c>
+      <c r="F182" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B183" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C183" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D183" s="1">
+        <v>3</v>
+      </c>
+      <c r="E183" s="1">
+        <v>3</v>
+      </c>
+      <c r="F183" s="1">
+        <v>1</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B184" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C184" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D184" s="1">
+        <v>4</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
+      <c r="F184" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B185" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C185" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D185" s="1">
+        <v>4</v>
+      </c>
+      <c r="E185" s="1">
+        <v>2</v>
+      </c>
+      <c r="F185" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B186" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C186" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D186" s="1">
+        <v>4</v>
+      </c>
+      <c r="E186" s="1">
+        <v>3</v>
+      </c>
+      <c r="F186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B187" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C187" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D187" s="1">
+        <v>4</v>
+      </c>
+      <c r="E187" s="1">
+        <v>4</v>
+      </c>
+      <c r="F187" s="1">
+        <v>2</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B188" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C188" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D188" s="1">
+        <v>4</v>
+      </c>
+      <c r="E188" s="1">
+        <v>5</v>
+      </c>
+      <c r="F188" s="1">
+        <v>1</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B189" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C189" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D189" s="1">
+        <v>4</v>
+      </c>
+      <c r="E189" s="1">
+        <v>6</v>
+      </c>
+      <c r="F189" s="1">
+        <v>2</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B190" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C190" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D190" s="1">
+        <v>4</v>
+      </c>
+      <c r="E190" s="1">
+        <v>7</v>
+      </c>
+      <c r="F190" s="1">
+        <v>1</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B191" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C191" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D191" s="1">
+        <v>4</v>
+      </c>
+      <c r="E191" s="1">
+        <v>8</v>
+      </c>
+      <c r="F191" s="1">
+        <v>1</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B192" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C192" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D192" s="1">
+        <v>4</v>
+      </c>
+      <c r="E192" s="1">
+        <v>9</v>
+      </c>
+      <c r="F192" s="1">
+        <v>1</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B193" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C193" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D193" s="1">
+        <v>1</v>
+      </c>
+      <c r="E193" s="1">
+        <v>1</v>
+      </c>
+      <c r="F193" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B194" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C194" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D194" s="1">
+        <v>1</v>
+      </c>
+      <c r="E194" s="1">
+        <v>2</v>
+      </c>
+      <c r="F194" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B195" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C195" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1</v>
+      </c>
+      <c r="E195" s="1">
+        <v>3</v>
+      </c>
+      <c r="F195" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B196" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C196" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D196" s="1">
+        <v>2</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1</v>
+      </c>
+      <c r="F196" s="1">
+        <v>2</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B197" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C197" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D197" s="1">
+        <v>2</v>
+      </c>
+      <c r="E197" s="1">
+        <v>2</v>
+      </c>
+      <c r="F197" s="1">
+        <v>2</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B198" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C198" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D198" s="1">
+        <v>2</v>
+      </c>
+      <c r="E198" s="1">
+        <v>3</v>
+      </c>
+      <c r="F198" s="1">
+        <v>2</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B199" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C199" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D199" s="1">
+        <v>2</v>
+      </c>
+      <c r="E199" s="1">
+        <v>4</v>
+      </c>
+      <c r="F199" s="1">
+        <v>2</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B200" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C200" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D200" s="1">
+        <v>2</v>
+      </c>
+      <c r="E200" s="1">
+        <v>5</v>
+      </c>
+      <c r="F200" s="1">
+        <v>1</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B201" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C201" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D201" s="1">
+        <v>2</v>
+      </c>
+      <c r="E201" s="1">
+        <v>6</v>
+      </c>
+      <c r="F201" s="1">
+        <v>1</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B202" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C202" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D202" s="1">
+        <v>2</v>
+      </c>
+      <c r="E202" s="1">
+        <v>7</v>
+      </c>
+      <c r="F202" s="1">
+        <v>1</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B203" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C203" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D203" s="1">
+        <v>2</v>
+      </c>
+      <c r="E203" s="1">
+        <v>8</v>
+      </c>
+      <c r="F203" s="1">
+        <v>1</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B204" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C204" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D204" s="1">
+        <v>2</v>
+      </c>
+      <c r="E204" s="1">
+        <v>9</v>
+      </c>
+      <c r="F204" s="1">
+        <v>1</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B205" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C205" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D205" s="1">
+        <v>2</v>
+      </c>
+      <c r="E205" s="1">
+        <v>10</v>
+      </c>
+      <c r="F205" s="1">
+        <v>1</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B206" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C206" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D206" s="1">
+        <v>2</v>
+      </c>
+      <c r="E206" s="1">
+        <v>11</v>
+      </c>
+      <c r="F206" s="1">
+        <v>1</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B207" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C207" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D207" s="1">
+        <v>2</v>
+      </c>
+      <c r="E207" s="1">
+        <v>12</v>
+      </c>
+      <c r="F207" s="1">
+        <v>1</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B208" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C208" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D208" s="1">
+        <v>2</v>
+      </c>
+      <c r="E208" s="1">
+        <v>13</v>
+      </c>
+      <c r="F208" s="1">
+        <v>1</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B209" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C209" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D209" s="1">
+        <v>2</v>
+      </c>
+      <c r="E209" s="1">
+        <v>14</v>
+      </c>
+      <c r="F209" s="1">
+        <v>1</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B210" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C210" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D210" s="1">
+        <v>3</v>
+      </c>
+      <c r="E210" s="1">
+        <v>1</v>
+      </c>
+      <c r="F210" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B211" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C211" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D211" s="1">
+        <v>3</v>
+      </c>
+      <c r="E211" s="1">
+        <v>2</v>
+      </c>
+      <c r="F211" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B212" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C212" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D212" s="1">
+        <v>3</v>
+      </c>
+      <c r="E212" s="1">
+        <v>3</v>
+      </c>
+      <c r="F212" s="1">
+        <v>2</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B213" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C213" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D213" s="1">
+        <v>3</v>
+      </c>
+      <c r="E213" s="1">
+        <v>4</v>
+      </c>
+      <c r="F213" s="1">
+        <v>2</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B214" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C214" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D214" s="1">
+        <v>3</v>
+      </c>
+      <c r="E214" s="1">
+        <v>5</v>
+      </c>
+      <c r="F214" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B215" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C215" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D215" s="1">
+        <v>3</v>
+      </c>
+      <c r="E215" s="1">
+        <v>6</v>
+      </c>
+      <c r="F215" s="1">
+        <v>2</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B216" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C216" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D216" s="1">
+        <v>3</v>
+      </c>
+      <c r="E216" s="1">
+        <v>7</v>
+      </c>
+      <c r="F216" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B217" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C217" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D217" s="1">
+        <v>3</v>
+      </c>
+      <c r="E217" s="1">
+        <v>8</v>
+      </c>
+      <c r="F217" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B218" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C218" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D218" s="1">
+        <v>3</v>
+      </c>
+      <c r="E218" s="1">
+        <v>9</v>
+      </c>
+      <c r="F218" s="1">
+        <v>1</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B219" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C219" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D219" s="1">
+        <v>3</v>
+      </c>
+      <c r="E219" s="1">
+        <v>10</v>
+      </c>
+      <c r="F219" s="1">
+        <v>1</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B220" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C220" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D220" s="1">
+        <v>3</v>
+      </c>
+      <c r="E220" s="1">
+        <v>11</v>
+      </c>
+      <c r="F220" s="1">
+        <v>1</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B221" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C221" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D221" s="1">
+        <v>4</v>
+      </c>
+      <c r="E221" s="1">
+        <v>1</v>
+      </c>
+      <c r="F221" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B222" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C222" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D222" s="1">
+        <v>4</v>
+      </c>
+      <c r="E222" s="1">
+        <v>2</v>
+      </c>
+      <c r="F222" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B223" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C223" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D223" s="1">
+        <v>4</v>
+      </c>
+      <c r="E223" s="1">
+        <v>3</v>
+      </c>
+      <c r="F223" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B224" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C224" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D224" s="1">
+        <v>4</v>
+      </c>
+      <c r="E224" s="1">
+        <v>4</v>
+      </c>
+      <c r="F224" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B225" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C225" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D225" s="1">
+        <v>4</v>
+      </c>
+      <c r="E225" s="1">
+        <v>5</v>
+      </c>
+      <c r="F225" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B226" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C226" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D226" s="1">
+        <v>4</v>
+      </c>
+      <c r="E226" s="1">
+        <v>6</v>
+      </c>
+      <c r="F226" s="1">
+        <v>1</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B227" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C227" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D227" s="1">
+        <v>4</v>
+      </c>
+      <c r="E227" s="1">
+        <v>7</v>
+      </c>
+      <c r="F227" s="1">
+        <v>1</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B228" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C228" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D228" s="1">
+        <v>4</v>
+      </c>
+      <c r="E228" s="1">
+        <v>8</v>
+      </c>
+      <c r="F228" s="1">
+        <v>1</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B229" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C229" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D229" s="1">
+        <v>4</v>
+      </c>
+      <c r="E229" s="1">
+        <v>9</v>
+      </c>
+      <c r="F229" s="1">
+        <v>1</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B230" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C230" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D230" s="1">
+        <v>4</v>
+      </c>
+      <c r="E230" s="1">
+        <v>10</v>
+      </c>
+      <c r="F230" s="1">
+        <v>1</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B231" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C231" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D231" s="1">
+        <v>1</v>
+      </c>
+      <c r="E231" s="1">
+        <v>1</v>
+      </c>
+      <c r="F231" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B232" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C232" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D232" s="1">
+        <v>1</v>
+      </c>
+      <c r="E232" s="1">
+        <v>2</v>
+      </c>
+      <c r="F232" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B233" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C233" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D233" s="1">
+        <v>1</v>
+      </c>
+      <c r="E233" s="1">
+        <v>3</v>
+      </c>
+      <c r="F233" s="1">
+        <v>2</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B234" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C234" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D234" s="1">
+        <v>1</v>
+      </c>
+      <c r="E234" s="1">
+        <v>4</v>
+      </c>
+      <c r="F234" s="1">
+        <v>1</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B235" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C235" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D235" s="1">
+        <v>1</v>
+      </c>
+      <c r="E235" s="1">
+        <v>5</v>
+      </c>
+      <c r="F235" s="1">
+        <v>1</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B236" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C236" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D236" s="1">
+        <v>2</v>
+      </c>
+      <c r="E236" s="1">
+        <v>1</v>
+      </c>
+      <c r="F236" s="1">
+        <v>1</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B237" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C237" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D237" s="1">
+        <v>2</v>
+      </c>
+      <c r="E237" s="1">
+        <v>2</v>
+      </c>
+      <c r="F237" s="1">
+        <v>1</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B238" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C238" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D238" s="1">
+        <v>2</v>
+      </c>
+      <c r="E238" s="1">
+        <v>3</v>
+      </c>
+      <c r="F238" s="1">
+        <v>1</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B239" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C239" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D239" s="1">
+        <v>3</v>
+      </c>
+      <c r="E239" s="1">
+        <v>1</v>
+      </c>
+      <c r="F239" s="1">
+        <v>2</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B240" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C240" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D240" s="1">
+        <v>3</v>
+      </c>
+      <c r="E240" s="1">
+        <v>2</v>
+      </c>
+      <c r="F240" s="1">
+        <v>2</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B241" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C241" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D241" s="1">
+        <v>3</v>
+      </c>
+      <c r="E241" s="1">
+        <v>3</v>
+      </c>
+      <c r="F241" s="1">
+        <v>1</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B242" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C242" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D242" s="1">
+        <v>3</v>
+      </c>
+      <c r="E242" s="1">
+        <v>4</v>
+      </c>
+      <c r="F242" s="1">
+        <v>1</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B243" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C243" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D243" s="1">
+        <v>3</v>
+      </c>
+      <c r="E243" s="1">
+        <v>5</v>
+      </c>
+      <c r="F243" s="1">
+        <v>1</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B244" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C244" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D244" s="1">
+        <v>3</v>
+      </c>
+      <c r="E244" s="1">
+        <v>6</v>
+      </c>
+      <c r="F244" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B245" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C245" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D245" s="1">
+        <v>3</v>
+      </c>
+      <c r="E245" s="1">
+        <v>7</v>
+      </c>
+      <c r="F245" s="1">
+        <v>1</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B246" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C246" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D246" s="1">
+        <v>3</v>
+      </c>
+      <c r="E246" s="1">
+        <v>8</v>
+      </c>
+      <c r="F246" s="1">
+        <v>1</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B247" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C247" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D247" s="1">
+        <v>3</v>
+      </c>
+      <c r="E247" s="1">
+        <v>9</v>
+      </c>
+      <c r="F247" s="1">
+        <v>1</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B248" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C248" s="2">
+        <v>43249</v>
+      </c>
+      <c r="D248" s="1">
+        <v>1</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1</v>
+      </c>
+      <c r="F248" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B249" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C249" s="2">
+        <v>43249</v>
+      </c>
+      <c r="D249" s="1">
+        <v>1</v>
+      </c>
+      <c r="E249" s="1">
+        <v>2</v>
+      </c>
+      <c r="F249" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B250" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C250" s="2">
+        <v>43249</v>
+      </c>
+      <c r="D250" s="1">
+        <v>1</v>
+      </c>
+      <c r="E250" s="1">
+        <v>3</v>
+      </c>
+      <c r="F250" s="1">
+        <v>1</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B251" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C251" s="2">
+        <v>43249</v>
+      </c>
+      <c r="D251" s="1">
+        <v>2</v>
+      </c>
+      <c r="E251" s="1">
+        <v>1</v>
+      </c>
+      <c r="F251" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B252" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C252" s="2">
+        <v>43249</v>
+      </c>
+      <c r="D252" s="1">
+        <v>2</v>
+      </c>
+      <c r="E252" s="1">
+        <v>2</v>
+      </c>
+      <c r="F252" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B253" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C253" s="2">
+        <v>43249</v>
+      </c>
+      <c r="D253" s="1">
+        <v>3</v>
+      </c>
+      <c r="E253" s="1">
+        <v>1</v>
+      </c>
+      <c r="F253" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B254" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C254" s="2">
+        <v>43249</v>
+      </c>
+      <c r="D254" s="1">
+        <v>3</v>
+      </c>
+      <c r="E254" s="1">
+        <v>2</v>
+      </c>
+      <c r="F254" s="1">
+        <v>1</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B255" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C255" s="2">
+        <v>43249</v>
+      </c>
+      <c r="D255" s="1">
+        <v>3</v>
+      </c>
+      <c r="E255" s="1">
+        <v>3</v>
+      </c>
+      <c r="F255" s="1">
+        <v>1</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B256" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C256" s="2">
+        <v>43249</v>
+      </c>
+      <c r="D256" s="1">
+        <v>3</v>
+      </c>
+      <c r="E256" s="1">
+        <v>4</v>
+      </c>
+      <c r="F256" s="1">
+        <v>1</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B257" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C257" s="2">
+        <v>43250</v>
+      </c>
+      <c r="D257" s="1">
+        <v>1</v>
+      </c>
+      <c r="E257" s="1">
+        <v>1</v>
+      </c>
+      <c r="F257" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B258" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C258" s="2">
+        <v>43250</v>
+      </c>
+      <c r="D258" s="1">
+        <v>1</v>
+      </c>
+      <c r="E258" s="1">
+        <v>2</v>
+      </c>
+      <c r="F258" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B259" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C259" s="2">
+        <v>43250</v>
+      </c>
+      <c r="D259" s="1">
+        <v>1</v>
+      </c>
+      <c r="E259" s="1">
+        <v>3</v>
+      </c>
+      <c r="F259" s="1">
+        <v>1</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B260" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C260" s="2">
+        <v>43250</v>
+      </c>
+      <c r="D260" s="1">
+        <v>1</v>
+      </c>
+      <c r="E260" s="1">
+        <v>4</v>
+      </c>
+      <c r="F260" s="1">
+        <v>1</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H162"/>
+  <autoFilter ref="B1:H260">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="9861"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="28">
       <colorScale>
@@ -5630,7 +7735,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F73:F1048576 F6:F71">
+  <conditionalFormatting sqref="F1:F2 F6:F71 F73:F1048576">
     <cfRule type="colorScale" priority="386">
       <colorScale>
         <cfvo type="min"/>
@@ -5642,7 +7747,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F4 F73:F1048576 F6:F71">
+  <conditionalFormatting sqref="F1:F4 F6:F71 F73:F1048576">
     <cfRule type="colorScale" priority="434">
       <colorScale>
         <cfvo type="min"/>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="367">
   <si>
     <t>bat</t>
   </si>
@@ -1022,6 +1022,114 @@
   </si>
   <si>
     <t>leftovers, ignore this unit</t>
+  </si>
+  <si>
+    <t>b9861_d180530_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180530_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180530_TT2_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180531_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180531_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180531_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180601_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180601_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180601_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180601_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180601_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180601_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180601_TT3_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180601_TT3_SS05</t>
+  </si>
+  <si>
+    <t>b9861_d180603_TT1_SS01</t>
+  </si>
+  <si>
+    <t>lots of flight artifacts in that TT</t>
+  </si>
+  <si>
+    <t>b9861_d180603_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180603_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180603_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180604_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180604_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180604_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180604_TT3_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180604_TT3_SS05</t>
+  </si>
+  <si>
+    <t>b9861_d180605_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180605_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180606_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180606_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180606_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180606_TT3_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180606_TT3_SS05</t>
+  </si>
+  <si>
+    <t>b9861_d180606_TT3_SS06</t>
+  </si>
+  <si>
+    <t>b9861_d180607_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180609_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180609_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180610_TT3_SS01</t>
   </si>
 </sst>
 </file>
@@ -1359,11 +1467,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S260"/>
+  <dimension ref="A1:S295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G263" sqref="G263"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G295" sqref="G295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7280,6 +7388,784 @@
         <v>1</v>
       </c>
       <c r="G260" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B261" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C261" s="2">
+        <v>43250</v>
+      </c>
+      <c r="D261" s="1">
+        <v>2</v>
+      </c>
+      <c r="E261" s="1">
+        <v>1</v>
+      </c>
+      <c r="F261" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B262" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C262" s="2">
+        <v>43250</v>
+      </c>
+      <c r="D262" s="1">
+        <v>2</v>
+      </c>
+      <c r="E262" s="1">
+        <v>2</v>
+      </c>
+      <c r="F262" s="1">
+        <v>1</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B263" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C263" s="2">
+        <v>43250</v>
+      </c>
+      <c r="D263" s="1">
+        <v>2</v>
+      </c>
+      <c r="E263" s="1">
+        <v>3</v>
+      </c>
+      <c r="F263" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B264" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C264" s="2">
+        <v>43251</v>
+      </c>
+      <c r="D264" s="1">
+        <v>3</v>
+      </c>
+      <c r="E264" s="1">
+        <v>1</v>
+      </c>
+      <c r="F264" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B265" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C265" s="2">
+        <v>43251</v>
+      </c>
+      <c r="D265" s="1">
+        <v>4</v>
+      </c>
+      <c r="E265" s="1">
+        <v>1</v>
+      </c>
+      <c r="F265" s="1">
+        <v>2</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B266" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C266" s="2">
+        <v>43251</v>
+      </c>
+      <c r="D266" s="1">
+        <v>4</v>
+      </c>
+      <c r="E266" s="1">
+        <v>2</v>
+      </c>
+      <c r="F266" s="1">
+        <v>1</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B267" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C267" s="2">
+        <v>43252</v>
+      </c>
+      <c r="D267" s="1">
+        <v>1</v>
+      </c>
+      <c r="E267" s="1">
+        <v>1</v>
+      </c>
+      <c r="F267" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B268" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C268" s="2">
+        <v>43252</v>
+      </c>
+      <c r="D268" s="1">
+        <v>1</v>
+      </c>
+      <c r="E268" s="1">
+        <v>2</v>
+      </c>
+      <c r="F268" s="1">
+        <v>1</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B269" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C269" s="2">
+        <v>43252</v>
+      </c>
+      <c r="D269" s="1">
+        <v>1</v>
+      </c>
+      <c r="E269" s="1">
+        <v>3</v>
+      </c>
+      <c r="F269" s="1">
+        <v>1</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B270" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C270" s="2">
+        <v>43252</v>
+      </c>
+      <c r="D270" s="1">
+        <v>3</v>
+      </c>
+      <c r="E270" s="1">
+        <v>1</v>
+      </c>
+      <c r="F270" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B271" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C271" s="2">
+        <v>43252</v>
+      </c>
+      <c r="D271" s="1">
+        <v>3</v>
+      </c>
+      <c r="E271" s="1">
+        <v>2</v>
+      </c>
+      <c r="F271" s="1">
+        <v>1</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B272" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C272" s="2">
+        <v>43252</v>
+      </c>
+      <c r="D272" s="1">
+        <v>3</v>
+      </c>
+      <c r="E272" s="1">
+        <v>3</v>
+      </c>
+      <c r="F272" s="1">
+        <v>1</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B273" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C273" s="2">
+        <v>43252</v>
+      </c>
+      <c r="D273" s="1">
+        <v>3</v>
+      </c>
+      <c r="E273" s="1">
+        <v>4</v>
+      </c>
+      <c r="F273" s="1">
+        <v>1</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B274" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C274" s="2">
+        <v>43252</v>
+      </c>
+      <c r="D274" s="1">
+        <v>3</v>
+      </c>
+      <c r="E274" s="1">
+        <v>5</v>
+      </c>
+      <c r="F274" s="1">
+        <v>1</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B275" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C275" s="2">
+        <v>43254</v>
+      </c>
+      <c r="D275" s="1">
+        <v>1</v>
+      </c>
+      <c r="E275" s="1">
+        <v>1</v>
+      </c>
+      <c r="F275" s="1">
+        <v>2</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B276" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C276" s="2">
+        <v>43254</v>
+      </c>
+      <c r="D276" s="1">
+        <v>2</v>
+      </c>
+      <c r="E276" s="1">
+        <v>1</v>
+      </c>
+      <c r="F276" s="1">
+        <v>1</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B277" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C277" s="2">
+        <v>43254</v>
+      </c>
+      <c r="D277" s="1">
+        <v>3</v>
+      </c>
+      <c r="E277" s="1">
+        <v>1</v>
+      </c>
+      <c r="F277" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B278" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C278" s="2">
+        <v>43254</v>
+      </c>
+      <c r="D278" s="1">
+        <v>3</v>
+      </c>
+      <c r="E278" s="1">
+        <v>2</v>
+      </c>
+      <c r="F278" s="1">
+        <v>1</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B279" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C279" s="2">
+        <v>43255</v>
+      </c>
+      <c r="D279" s="1">
+        <v>3</v>
+      </c>
+      <c r="E279" s="1">
+        <v>1</v>
+      </c>
+      <c r="F279" s="1">
+        <v>1</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B280" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C280" s="2">
+        <v>43255</v>
+      </c>
+      <c r="D280" s="1">
+        <v>3</v>
+      </c>
+      <c r="E280" s="1">
+        <v>2</v>
+      </c>
+      <c r="F280" s="1">
+        <v>1</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B281" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C281" s="2">
+        <v>43255</v>
+      </c>
+      <c r="D281" s="1">
+        <v>3</v>
+      </c>
+      <c r="E281" s="1">
+        <v>3</v>
+      </c>
+      <c r="F281" s="1">
+        <v>1</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B282" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C282" s="2">
+        <v>43255</v>
+      </c>
+      <c r="D282" s="1">
+        <v>3</v>
+      </c>
+      <c r="E282" s="1">
+        <v>4</v>
+      </c>
+      <c r="F282" s="1">
+        <v>1</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B283" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C283" s="2">
+        <v>43255</v>
+      </c>
+      <c r="D283" s="1">
+        <v>3</v>
+      </c>
+      <c r="E283" s="1">
+        <v>5</v>
+      </c>
+      <c r="F283" s="1">
+        <v>1</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B284" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C284" s="2">
+        <v>43256</v>
+      </c>
+      <c r="D284" s="1">
+        <v>3</v>
+      </c>
+      <c r="E284" s="1">
+        <v>1</v>
+      </c>
+      <c r="F284" s="1">
+        <v>1</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B285" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C285" s="2">
+        <v>43256</v>
+      </c>
+      <c r="D285" s="1">
+        <v>3</v>
+      </c>
+      <c r="E285" s="1">
+        <v>2</v>
+      </c>
+      <c r="F285" s="1">
+        <v>1</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B286" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C286" s="2">
+        <v>43257</v>
+      </c>
+      <c r="D286" s="1">
+        <v>3</v>
+      </c>
+      <c r="E286" s="1">
+        <v>1</v>
+      </c>
+      <c r="F286" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B287" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C287" s="2">
+        <v>43257</v>
+      </c>
+      <c r="D287" s="1">
+        <v>3</v>
+      </c>
+      <c r="E287" s="1">
+        <v>2</v>
+      </c>
+      <c r="F287" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B288" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C288" s="2">
+        <v>43257</v>
+      </c>
+      <c r="D288" s="1">
+        <v>3</v>
+      </c>
+      <c r="E288" s="1">
+        <v>3</v>
+      </c>
+      <c r="F288" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B289" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C289" s="2">
+        <v>43257</v>
+      </c>
+      <c r="D289" s="1">
+        <v>3</v>
+      </c>
+      <c r="E289" s="1">
+        <v>4</v>
+      </c>
+      <c r="F289" s="1">
+        <v>1</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B290" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C290" s="2">
+        <v>43257</v>
+      </c>
+      <c r="D290" s="1">
+        <v>3</v>
+      </c>
+      <c r="E290" s="1">
+        <v>5</v>
+      </c>
+      <c r="F290" s="1">
+        <v>1</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B291" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C291" s="2">
+        <v>43257</v>
+      </c>
+      <c r="D291" s="1">
+        <v>3</v>
+      </c>
+      <c r="E291" s="1">
+        <v>6</v>
+      </c>
+      <c r="F291" s="1">
+        <v>1</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B292" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C292" s="2">
+        <v>43258</v>
+      </c>
+      <c r="D292" s="1">
+        <v>3</v>
+      </c>
+      <c r="E292" s="1">
+        <v>1</v>
+      </c>
+      <c r="F292" s="1">
+        <v>1</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B293" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C293" s="2">
+        <v>43260</v>
+      </c>
+      <c r="D293" s="1">
+        <v>3</v>
+      </c>
+      <c r="E293" s="1">
+        <v>1</v>
+      </c>
+      <c r="F293" s="1">
+        <v>1</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B294" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C294" s="2">
+        <v>43260</v>
+      </c>
+      <c r="D294" s="1">
+        <v>3</v>
+      </c>
+      <c r="E294" s="1">
+        <v>2</v>
+      </c>
+      <c r="F294" s="1">
+        <v>1</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B295" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C295" s="2">
+        <v>43261</v>
+      </c>
+      <c r="D295" s="1">
+        <v>3</v>
+      </c>
+      <c r="E295" s="1">
+        <v>1</v>
+      </c>
+      <c r="F295" s="1">
+        <v>1</v>
+      </c>
+      <c r="G295" s="1" t="s">
         <v>154</v>
       </c>
     </row>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="381">
   <si>
     <t>bat</t>
   </si>
@@ -1130,6 +1130,48 @@
   </si>
   <si>
     <t>b9861_d180610_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180611_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180612_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180615_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180615_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180615_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180615_TT3_SS04</t>
+  </si>
+  <si>
+    <t>b9861_d180616_TT3_SS01</t>
+  </si>
+  <si>
+    <t>low spikes counts</t>
+  </si>
+  <si>
+    <t>b9861_d180616_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180616_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180617_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b9861_d180617_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b9861_d180617_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b9861_d180617_TT3_SS04</t>
   </si>
 </sst>
 </file>
@@ -1467,11 +1509,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S295"/>
+  <dimension ref="A1:S308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G295" sqref="G295"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E310" sqref="E310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8166,6 +8208,296 @@
         <v>1</v>
       </c>
       <c r="G295" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B296" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C296" s="2">
+        <v>43262</v>
+      </c>
+      <c r="D296" s="1">
+        <v>3</v>
+      </c>
+      <c r="E296" s="1">
+        <v>1</v>
+      </c>
+      <c r="F296" s="1">
+        <v>1</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B297" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C297" s="2">
+        <v>43263</v>
+      </c>
+      <c r="D297" s="1">
+        <v>3</v>
+      </c>
+      <c r="E297" s="1">
+        <v>1</v>
+      </c>
+      <c r="F297" s="1">
+        <v>1</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B298" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C298" s="2">
+        <v>43266</v>
+      </c>
+      <c r="D298" s="1">
+        <v>3</v>
+      </c>
+      <c r="E298" s="1">
+        <v>1</v>
+      </c>
+      <c r="F298" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B299" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C299" s="2">
+        <v>43266</v>
+      </c>
+      <c r="D299" s="1">
+        <v>3</v>
+      </c>
+      <c r="E299" s="1">
+        <v>2</v>
+      </c>
+      <c r="F299" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B300" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C300" s="2">
+        <v>43266</v>
+      </c>
+      <c r="D300" s="1">
+        <v>3</v>
+      </c>
+      <c r="E300" s="1">
+        <v>3</v>
+      </c>
+      <c r="F300" s="1">
+        <v>1</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B301" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C301" s="2">
+        <v>43266</v>
+      </c>
+      <c r="D301" s="1">
+        <v>3</v>
+      </c>
+      <c r="E301" s="1">
+        <v>4</v>
+      </c>
+      <c r="F301" s="1">
+        <v>1</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B302" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C302" s="2">
+        <v>43267</v>
+      </c>
+      <c r="D302" s="1">
+        <v>3</v>
+      </c>
+      <c r="E302" s="1">
+        <v>1</v>
+      </c>
+      <c r="F302" s="1">
+        <v>2</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B303" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C303" s="2">
+        <v>43267</v>
+      </c>
+      <c r="D303" s="1">
+        <v>3</v>
+      </c>
+      <c r="E303" s="1">
+        <v>2</v>
+      </c>
+      <c r="F303" s="1">
+        <v>1</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B304" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C304" s="2">
+        <v>43267</v>
+      </c>
+      <c r="D304" s="1">
+        <v>3</v>
+      </c>
+      <c r="E304" s="1">
+        <v>3</v>
+      </c>
+      <c r="F304" s="1">
+        <v>1</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B305" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C305" s="2">
+        <v>43268</v>
+      </c>
+      <c r="D305" s="1">
+        <v>3</v>
+      </c>
+      <c r="E305" s="1">
+        <v>1</v>
+      </c>
+      <c r="F305" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B306" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C306" s="2">
+        <v>43268</v>
+      </c>
+      <c r="D306" s="1">
+        <v>3</v>
+      </c>
+      <c r="E306" s="1">
+        <v>2</v>
+      </c>
+      <c r="F306" s="1">
+        <v>1</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B307" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C307" s="2">
+        <v>43268</v>
+      </c>
+      <c r="D307" s="1">
+        <v>3</v>
+      </c>
+      <c r="E307" s="1">
+        <v>3</v>
+      </c>
+      <c r="F307" s="1">
+        <v>1</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B308" s="1">
+        <v>9861</v>
+      </c>
+      <c r="C308" s="2">
+        <v>43268</v>
+      </c>
+      <c r="D308" s="1">
+        <v>3</v>
+      </c>
+      <c r="E308" s="1">
+        <v>4</v>
+      </c>
+      <c r="F308" s="1">
+        <v>1</v>
+      </c>
+      <c r="G308" s="1" t="s">
         <v>154</v>
       </c>
     </row>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$308</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="443">
   <si>
     <t>bat</t>
   </si>
@@ -1172,6 +1172,192 @@
   </si>
   <si>
     <t>b9861_d180617_TT3_SS04</t>
+  </si>
+  <si>
+    <t>b2289_d180514_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180514_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b2289_d180514_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b2289_d180514_TT1_SS04</t>
+  </si>
+  <si>
+    <t>too much into the noise</t>
+  </si>
+  <si>
+    <t>b2289_d180515_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180514_TT1_SS01???</t>
+  </si>
+  <si>
+    <t>b2289_d180515_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b2289_d180515_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b2289_d180515_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT1_SS05</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT1_SS06</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT1_SS07</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT2_SS03</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT2_SS04</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT2_SS05</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT2_SS06</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT2_SS07</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT2_SS08</t>
+  </si>
+  <si>
+    <t>merge with unit 7 and call it MU?</t>
+  </si>
+  <si>
+    <t>merge with unit 5 and call it MU?</t>
+  </si>
+  <si>
+    <t>b2289_d180518_TT2_SS09</t>
+  </si>
+  <si>
+    <t>b2289_d180520_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180520_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b2289_d180520_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b2289_d180520_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180520_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b2289_d180520_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b2289_d180520_TT3_SS04</t>
+  </si>
+  <si>
+    <t>seperating units 3/4 using slices 3488,3200,3296</t>
+  </si>
+  <si>
+    <t>mono-synaptic to unit 2?</t>
+  </si>
+  <si>
+    <t>big cluster so I'm not sure if it is isolated (I used slices 3296,3136,3456) )</t>
+  </si>
+  <si>
+    <t>b2289_d180520_TT3_SS05</t>
+  </si>
+  <si>
+    <t>b2289_d180520_TT3_SS06</t>
+  </si>
+  <si>
+    <t>too close to unit 5</t>
+  </si>
+  <si>
+    <t>b2289_d180520_TT3_SS07</t>
+  </si>
+  <si>
+    <t>b2289_d180520_TT3_SS08</t>
+  </si>
+  <si>
+    <t>b2289_d180520_TT3_SS09</t>
+  </si>
+  <si>
+    <t>I merged here two clusters that merge in time</t>
+  </si>
+  <si>
+    <t>b2289_d180523_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180524_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180525_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180525_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b2289_d180525_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180525_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b2289_d180528_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180528_TT2_SS02</t>
+  </si>
+  <si>
+    <t>not sure if isolated enough+partially stable</t>
+  </si>
+  <si>
+    <t>b2289_d180528_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180528_TT3_SS02</t>
+  </si>
+  <si>
+    <t>multi-unit close to the noise+partially stable</t>
+  </si>
+  <si>
+    <t>b2289_d180529_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180531_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180531_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b2289_d180531_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180615_TT4_SS01</t>
   </si>
 </sst>
 </file>
@@ -1508,12 +1694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:S308"/>
+  <dimension ref="A1:S359"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E310" sqref="E310"/>
+      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A360" sqref="A360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1524,7 +1709,7 @@
     <col min="4" max="4" width="4.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="50.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="62.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="30.5" style="1" customWidth="1"/>
@@ -1577,7 +1762,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
@@ -1603,7 +1788,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -1629,7 +1814,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>92</v>
       </c>
@@ -1655,7 +1840,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>94</v>
       </c>
@@ -1681,7 +1866,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>95</v>
       </c>
@@ -1704,7 +1889,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
@@ -1727,7 +1912,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
@@ -1750,7 +1935,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>97</v>
       </c>
@@ -1773,7 +1958,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
@@ -1796,7 +1981,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
@@ -1819,7 +2004,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>100</v>
       </c>
@@ -1842,7 +2027,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>102</v>
       </c>
@@ -1865,7 +2050,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>103</v>
       </c>
@@ -1888,7 +2073,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>107</v>
       </c>
@@ -1911,7 +2096,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>108</v>
       </c>
@@ -1934,7 +2119,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>109</v>
       </c>
@@ -1960,7 +2145,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
@@ -1983,7 +2168,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>111</v>
       </c>
@@ -2009,7 +2194,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
@@ -2032,7 +2217,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
@@ -2058,7 +2243,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -2081,7 +2266,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -2107,7 +2292,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -2130,7 +2315,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>113</v>
       </c>
@@ -2156,7 +2341,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>115</v>
       </c>
@@ -2179,7 +2364,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>116</v>
       </c>
@@ -2202,7 +2387,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -2231,7 +2416,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -2254,7 +2439,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2462,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -2300,7 +2485,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>120</v>
       </c>
@@ -2323,7 +2508,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -2346,7 +2531,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2369,7 +2554,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2389,7 +2574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -2409,7 +2594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -2429,7 +2614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>124</v>
       </c>
@@ -2452,7 +2637,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -2478,7 +2663,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
@@ -2501,7 +2686,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -2525,7 +2710,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -2548,7 +2733,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
@@ -2571,7 +2756,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -2594,7 +2779,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2617,7 +2802,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
@@ -2637,7 +2822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -2657,7 +2842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -2677,7 +2862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>126</v>
       </c>
@@ -2700,7 +2885,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>127</v>
       </c>
@@ -2723,7 +2908,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -2746,7 +2931,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>23</v>
       </c>
@@ -2766,7 +2951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
@@ -2786,7 +2971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>25</v>
       </c>
@@ -2809,7 +2994,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>26</v>
       </c>
@@ -2829,7 +3014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>27</v>
       </c>
@@ -2852,7 +3037,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>28</v>
       </c>
@@ -2875,7 +3060,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
@@ -2895,7 +3080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>30</v>
       </c>
@@ -2915,7 +3100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -2938,7 +3123,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -2961,7 +3146,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>31</v>
       </c>
@@ -2981,7 +3166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>32</v>
       </c>
@@ -3001,7 +3186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
@@ -3024,7 +3209,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>34</v>
       </c>
@@ -3047,7 +3232,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>35</v>
       </c>
@@ -3073,7 +3258,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>36</v>
       </c>
@@ -3093,7 +3278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -3116,7 +3301,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>38</v>
       </c>
@@ -3139,7 +3324,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>39</v>
       </c>
@@ -3162,7 +3347,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>40</v>
       </c>
@@ -3188,7 +3373,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>136</v>
       </c>
@@ -3208,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>41</v>
       </c>
@@ -3228,7 +3413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>42</v>
       </c>
@@ -3248,7 +3433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>43</v>
       </c>
@@ -3268,7 +3453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>44</v>
       </c>
@@ -3291,7 +3476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>73</v>
       </c>
@@ -3314,7 +3499,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>74</v>
       </c>
@@ -3337,7 +3522,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>75</v>
       </c>
@@ -3360,7 +3545,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>76</v>
       </c>
@@ -3383,7 +3568,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>45</v>
       </c>
@@ -3406,7 +3591,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>46</v>
       </c>
@@ -3426,7 +3611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>77</v>
       </c>
@@ -3449,7 +3634,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>78</v>
       </c>
@@ -3469,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>47</v>
       </c>
@@ -3492,7 +3677,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>80</v>
       </c>
@@ -3515,7 +3700,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>48</v>
       </c>
@@ -3538,7 +3723,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>81</v>
       </c>
@@ -3561,7 +3746,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>49</v>
       </c>
@@ -3584,7 +3769,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>50</v>
       </c>
@@ -3607,7 +3792,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>51</v>
       </c>
@@ -3630,7 +3815,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>143</v>
       </c>
@@ -3653,7 +3838,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>52</v>
       </c>
@@ -3676,7 +3861,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>53</v>
       </c>
@@ -3696,7 +3881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>82</v>
       </c>
@@ -3719,7 +3904,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>83</v>
       </c>
@@ -3742,7 +3927,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>54</v>
       </c>
@@ -3762,7 +3947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>55</v>
       </c>
@@ -8412,7 +8597,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>377</v>
       </c>
@@ -8432,7 +8617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>378</v>
       </c>
@@ -8455,7 +8640,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>379</v>
       </c>
@@ -8478,7 +8663,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>380</v>
       </c>
@@ -8501,14 +8686,1181 @@
         <v>154</v>
       </c>
     </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B309" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C309" s="2">
+        <v>43234</v>
+      </c>
+      <c r="D309" s="1">
+        <v>1</v>
+      </c>
+      <c r="E309" s="1">
+        <v>1</v>
+      </c>
+      <c r="F309" s="1">
+        <v>2</v>
+      </c>
+      <c r="K309" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B310" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C310" s="2">
+        <v>43234</v>
+      </c>
+      <c r="D310" s="1">
+        <v>1</v>
+      </c>
+      <c r="E310" s="1">
+        <v>2</v>
+      </c>
+      <c r="F310" s="1">
+        <v>0</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B311" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C311" s="2">
+        <v>43234</v>
+      </c>
+      <c r="D311" s="1">
+        <v>1</v>
+      </c>
+      <c r="E311" s="1">
+        <v>3</v>
+      </c>
+      <c r="F311" s="1">
+        <v>0</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B312" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C312" s="2">
+        <v>43234</v>
+      </c>
+      <c r="D312" s="1">
+        <v>1</v>
+      </c>
+      <c r="E312" s="1">
+        <v>4</v>
+      </c>
+      <c r="F312" s="1">
+        <v>0</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B313" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C313" s="2">
+        <v>43235</v>
+      </c>
+      <c r="D313" s="1">
+        <v>1</v>
+      </c>
+      <c r="E313" s="1">
+        <v>1</v>
+      </c>
+      <c r="F313" s="1">
+        <v>2</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K313" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B314" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C314" s="2">
+        <v>43235</v>
+      </c>
+      <c r="D314" s="1">
+        <v>1</v>
+      </c>
+      <c r="E314" s="1">
+        <v>2</v>
+      </c>
+      <c r="F314" s="1">
+        <v>2</v>
+      </c>
+      <c r="K314" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B315" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C315" s="2">
+        <v>43235</v>
+      </c>
+      <c r="D315" s="1">
+        <v>1</v>
+      </c>
+      <c r="E315" s="1">
+        <v>3</v>
+      </c>
+      <c r="F315" s="1">
+        <v>2</v>
+      </c>
+      <c r="K315" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B316" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C316" s="2">
+        <v>43235</v>
+      </c>
+      <c r="D316" s="1">
+        <v>1</v>
+      </c>
+      <c r="E316" s="1">
+        <v>4</v>
+      </c>
+      <c r="F316" s="1">
+        <v>0</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K316" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B317" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C317" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D317" s="1">
+        <v>1</v>
+      </c>
+      <c r="E317" s="1">
+        <v>1</v>
+      </c>
+      <c r="F317" s="1">
+        <v>2</v>
+      </c>
+      <c r="K317" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B318" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C318" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D318" s="1">
+        <v>1</v>
+      </c>
+      <c r="E318" s="1">
+        <v>2</v>
+      </c>
+      <c r="F318" s="1">
+        <v>0</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K318" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B319" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C319" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D319" s="1">
+        <v>1</v>
+      </c>
+      <c r="E319" s="1">
+        <v>3</v>
+      </c>
+      <c r="F319" s="1">
+        <v>2</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K319" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B320" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C320" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D320" s="1">
+        <v>1</v>
+      </c>
+      <c r="E320" s="1">
+        <v>4</v>
+      </c>
+      <c r="F320" s="1">
+        <v>2</v>
+      </c>
+      <c r="K320" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B321" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C321" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D321" s="1">
+        <v>1</v>
+      </c>
+      <c r="E321" s="1">
+        <v>5</v>
+      </c>
+      <c r="F321" s="1">
+        <v>2</v>
+      </c>
+      <c r="K321" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B322" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C322" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D322" s="1">
+        <v>1</v>
+      </c>
+      <c r="E322" s="1">
+        <v>6</v>
+      </c>
+      <c r="F322" s="1">
+        <v>2</v>
+      </c>
+      <c r="K322" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B323" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C323" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D323" s="1">
+        <v>1</v>
+      </c>
+      <c r="E323" s="1">
+        <v>7</v>
+      </c>
+      <c r="F323" s="1">
+        <v>2</v>
+      </c>
+      <c r="K323" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B324" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C324" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D324" s="1">
+        <v>2</v>
+      </c>
+      <c r="E324" s="1">
+        <v>1</v>
+      </c>
+      <c r="F324" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B325" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C325" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D325" s="1">
+        <v>2</v>
+      </c>
+      <c r="E325" s="1">
+        <v>2</v>
+      </c>
+      <c r="F325" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B326" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C326" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D326" s="1">
+        <v>2</v>
+      </c>
+      <c r="E326" s="1">
+        <v>3</v>
+      </c>
+      <c r="F326" s="1">
+        <v>2</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B327" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C327" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D327" s="1">
+        <v>2</v>
+      </c>
+      <c r="E327" s="1">
+        <v>4</v>
+      </c>
+      <c r="F327" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B328" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C328" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D328" s="1">
+        <v>2</v>
+      </c>
+      <c r="E328" s="1">
+        <v>5</v>
+      </c>
+      <c r="F328" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B329" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C329" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D329" s="1">
+        <v>2</v>
+      </c>
+      <c r="E329" s="1">
+        <v>6</v>
+      </c>
+      <c r="F329" s="1">
+        <v>2</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A330" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B330" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C330" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D330" s="1">
+        <v>2</v>
+      </c>
+      <c r="E330" s="1">
+        <v>7</v>
+      </c>
+      <c r="F330" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B331" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C331" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D331" s="1">
+        <v>2</v>
+      </c>
+      <c r="E331" s="1">
+        <v>8</v>
+      </c>
+      <c r="F331" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B332" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C332" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D332" s="1">
+        <v>2</v>
+      </c>
+      <c r="E332" s="1">
+        <v>9</v>
+      </c>
+      <c r="F332" s="1">
+        <v>1</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A333" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B333" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C333" s="2">
+        <v>43240</v>
+      </c>
+      <c r="D333" s="1">
+        <v>1</v>
+      </c>
+      <c r="E333" s="1">
+        <v>1</v>
+      </c>
+      <c r="F333" s="1">
+        <v>1</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B334" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C334" s="2">
+        <v>43240</v>
+      </c>
+      <c r="D334" s="1">
+        <v>1</v>
+      </c>
+      <c r="E334" s="1">
+        <v>2</v>
+      </c>
+      <c r="F334" s="1">
+        <v>1</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B335" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C335" s="2">
+        <v>43240</v>
+      </c>
+      <c r="D335" s="1">
+        <v>1</v>
+      </c>
+      <c r="E335" s="1">
+        <v>3</v>
+      </c>
+      <c r="F335" s="1">
+        <v>1</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B336" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C336" s="2">
+        <v>43240</v>
+      </c>
+      <c r="D336" s="1">
+        <v>3</v>
+      </c>
+      <c r="E336" s="1">
+        <v>1</v>
+      </c>
+      <c r="F336" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B337" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C337" s="2">
+        <v>43240</v>
+      </c>
+      <c r="D337" s="1">
+        <v>3</v>
+      </c>
+      <c r="E337" s="1">
+        <v>2</v>
+      </c>
+      <c r="F337" s="1">
+        <v>2</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="K337" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A338" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B338" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C338" s="2">
+        <v>43240</v>
+      </c>
+      <c r="D338" s="1">
+        <v>3</v>
+      </c>
+      <c r="E338" s="1">
+        <v>3</v>
+      </c>
+      <c r="F338" s="1">
+        <v>2</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K338" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B339" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C339" s="2">
+        <v>43240</v>
+      </c>
+      <c r="D339" s="1">
+        <v>3</v>
+      </c>
+      <c r="E339" s="1">
+        <v>4</v>
+      </c>
+      <c r="F339" s="1">
+        <v>2</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B340" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C340" s="2">
+        <v>43240</v>
+      </c>
+      <c r="D340" s="1">
+        <v>3</v>
+      </c>
+      <c r="E340" s="1">
+        <v>5</v>
+      </c>
+      <c r="F340" s="1">
+        <v>1</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B341" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C341" s="2">
+        <v>43240</v>
+      </c>
+      <c r="D341" s="1">
+        <v>3</v>
+      </c>
+      <c r="E341" s="1">
+        <v>6</v>
+      </c>
+      <c r="F341" s="1">
+        <v>1</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B342" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C342" s="2">
+        <v>43240</v>
+      </c>
+      <c r="D342" s="1">
+        <v>3</v>
+      </c>
+      <c r="E342" s="1">
+        <v>7</v>
+      </c>
+      <c r="F342" s="1">
+        <v>1</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B343" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C343" s="2">
+        <v>43240</v>
+      </c>
+      <c r="D343" s="1">
+        <v>3</v>
+      </c>
+      <c r="E343" s="1">
+        <v>8</v>
+      </c>
+      <c r="F343" s="1">
+        <v>1</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B344" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C344" s="2">
+        <v>43240</v>
+      </c>
+      <c r="D344" s="1">
+        <v>3</v>
+      </c>
+      <c r="E344" s="1">
+        <v>9</v>
+      </c>
+      <c r="F344" s="1">
+        <v>1</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B345" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C345" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D345" s="1">
+        <v>3</v>
+      </c>
+      <c r="E345" s="1">
+        <v>1</v>
+      </c>
+      <c r="F345" s="1">
+        <v>1</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B346" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C346" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D346" s="1">
+        <v>3</v>
+      </c>
+      <c r="E346" s="1">
+        <v>1</v>
+      </c>
+      <c r="F346" s="1">
+        <v>1</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B347" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C347" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D347" s="1">
+        <v>2</v>
+      </c>
+      <c r="E347" s="1">
+        <v>1</v>
+      </c>
+      <c r="F347" s="1">
+        <v>1</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B348" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C348" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D348" s="1">
+        <v>2</v>
+      </c>
+      <c r="E348" s="1">
+        <v>2</v>
+      </c>
+      <c r="F348" s="1">
+        <v>1</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B349" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C349" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D349" s="1">
+        <v>3</v>
+      </c>
+      <c r="E349" s="1">
+        <v>1</v>
+      </c>
+      <c r="F349" s="1">
+        <v>1</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B350" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C350" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D350" s="1">
+        <v>3</v>
+      </c>
+      <c r="E350" s="1">
+        <v>2</v>
+      </c>
+      <c r="F350" s="1">
+        <v>1</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B351" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C351" s="2">
+        <v>43248</v>
+      </c>
+      <c r="D351" s="1">
+        <v>2</v>
+      </c>
+      <c r="E351" s="1">
+        <v>1</v>
+      </c>
+      <c r="F351" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B352" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C352" s="2">
+        <v>43248</v>
+      </c>
+      <c r="D352" s="1">
+        <v>2</v>
+      </c>
+      <c r="E352" s="1">
+        <v>2</v>
+      </c>
+      <c r="F352" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B353" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C353" s="2">
+        <v>43248</v>
+      </c>
+      <c r="D353" s="1">
+        <v>3</v>
+      </c>
+      <c r="E353" s="1">
+        <v>1</v>
+      </c>
+      <c r="F353" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G353" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B354" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C354" s="2">
+        <v>43248</v>
+      </c>
+      <c r="D354" s="1">
+        <v>3</v>
+      </c>
+      <c r="E354" s="1">
+        <v>2</v>
+      </c>
+      <c r="F354" s="1">
+        <v>1</v>
+      </c>
+      <c r="G354" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B355" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C355" s="2">
+        <v>43249</v>
+      </c>
+      <c r="D355" s="1">
+        <v>2</v>
+      </c>
+      <c r="E355" s="1">
+        <v>1</v>
+      </c>
+      <c r="F355" s="1">
+        <v>1</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B356" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C356" s="2">
+        <v>43251</v>
+      </c>
+      <c r="D356" s="1">
+        <v>1</v>
+      </c>
+      <c r="E356" s="1">
+        <v>1</v>
+      </c>
+      <c r="F356" s="1">
+        <v>1</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B357" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C357" s="2">
+        <v>43251</v>
+      </c>
+      <c r="D357" s="1">
+        <v>1</v>
+      </c>
+      <c r="E357" s="1">
+        <v>2</v>
+      </c>
+      <c r="F357" s="1">
+        <v>1</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B358" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C358" s="2">
+        <v>43251</v>
+      </c>
+      <c r="D358" s="1">
+        <v>2</v>
+      </c>
+      <c r="E358" s="1">
+        <v>1</v>
+      </c>
+      <c r="F358" s="1">
+        <v>1</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A359" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B359" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C359" s="2">
+        <v>43266</v>
+      </c>
+      <c r="D359" s="1">
+        <v>4</v>
+      </c>
+      <c r="E359" s="1">
+        <v>1</v>
+      </c>
+      <c r="F359" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:H260">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="9861"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:H308"/>
   <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="28">
       <colorScale>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="445">
   <si>
     <t>bat</t>
   </si>
@@ -1358,6 +1358,12 @@
   </si>
   <si>
     <t>b2289_d180615_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180619_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b2289_d180619_TT4_SS02</t>
   </si>
 </sst>
 </file>
@@ -1694,11 +1700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S359"/>
+  <dimension ref="A1:S361"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A360" sqref="A360"/>
+      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C361" sqref="C361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9857,6 +9863,52 @@
       </c>
       <c r="F359" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B360" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C360" s="2">
+        <v>43270</v>
+      </c>
+      <c r="D360" s="1">
+        <v>4</v>
+      </c>
+      <c r="E360" s="1">
+        <v>1</v>
+      </c>
+      <c r="F360" s="1">
+        <v>1</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B361" s="1">
+        <v>2289</v>
+      </c>
+      <c r="C361" s="2">
+        <v>43270</v>
+      </c>
+      <c r="D361" s="1">
+        <v>4</v>
+      </c>
+      <c r="E361" s="1">
+        <v>2</v>
+      </c>
+      <c r="F361" s="1">
+        <v>1</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$308</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$557</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="675">
   <si>
     <t>bat</t>
   </si>
@@ -1364,6 +1364,696 @@
   </si>
   <si>
     <t>b2289_d180619_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160908_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160908_TT3_SS02</t>
+  </si>
+  <si>
+    <t>not stable</t>
+  </si>
+  <si>
+    <t>[33684062263 36160243346]</t>
+  </si>
+  <si>
+    <t>b0079_d160908_TT3_SS03</t>
+  </si>
+  <si>
+    <t>not well isolated from the noise</t>
+  </si>
+  <si>
+    <t>b0079_d160908_TT3_SS04</t>
+  </si>
+  <si>
+    <t>a bit mixed with SS2</t>
+  </si>
+  <si>
+    <t>b0079_d160909_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160909_TT3_SS02</t>
+  </si>
+  <si>
+    <t>maybe multi-unit - weird shape</t>
+  </si>
+  <si>
+    <t>b0079_d160911_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160912_TT3_SS01</t>
+  </si>
+  <si>
+    <t>maybe SS01 and SS02 are the same unit?</t>
+  </si>
+  <si>
+    <t>b0079_d160912_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160913_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160913_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160913_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160913_TT3_SS02</t>
+  </si>
+  <si>
+    <t>[33165468395 36501180284]</t>
+  </si>
+  <si>
+    <t>b0079_d160913_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b0079_d160913_TT3_SS04</t>
+  </si>
+  <si>
+    <t>b0079_d160914_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160914_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160914_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160915_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160915_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160915_TT3_SS02</t>
+  </si>
+  <si>
+    <t>a bit close to the general noise</t>
+  </si>
+  <si>
+    <t>b0079_d160915_TT3_SS03</t>
+  </si>
+  <si>
+    <t>maybe is a part of SS01 - need to check</t>
+  </si>
+  <si>
+    <t>b0079_d160916_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160916_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160916_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160916_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b0079_d160918_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160918_TT2_SS02</t>
+  </si>
+  <si>
+    <t>contaminated</t>
+  </si>
+  <si>
+    <t>b0079_d160918_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160919_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160919_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160919_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160920_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160920_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160920_TT2_SS03</t>
+  </si>
+  <si>
+    <t>b0079_d160920_TT2_SS04</t>
+  </si>
+  <si>
+    <t>b0079_d160920_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160921_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160921_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160921_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160923_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160923_TT3_SS02</t>
+  </si>
+  <si>
+    <t>not stable and contaminated</t>
+  </si>
+  <si>
+    <t>b0079_d160924_TT2_SS01</t>
+  </si>
+  <si>
+    <t>the same cell as SS04 (detection on the valey)</t>
+  </si>
+  <si>
+    <t>b0079_d160924_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160924_TT2_SS03</t>
+  </si>
+  <si>
+    <t>b0079_d160924_TT2_SS04</t>
+  </si>
+  <si>
+    <t>the same cell as SS01 (detection on the peak)</t>
+  </si>
+  <si>
+    <t>b0079_d160924_TT3_SS01</t>
+  </si>
+  <si>
+    <t>maybe a bit contaminated</t>
+  </si>
+  <si>
+    <t>b0079_d160924_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160924_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b0079_d160924_TT3_SS04</t>
+  </si>
+  <si>
+    <t>[72488732580 73968094469]</t>
+  </si>
+  <si>
+    <t>b0079_d160925_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160925_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160925_TT2_SS03</t>
+  </si>
+  <si>
+    <t>b0079_d160925_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160926_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160926_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160926_TT2_SS01</t>
+  </si>
+  <si>
+    <t>not sure - and active mostly during sleep</t>
+  </si>
+  <si>
+    <t>b0079_d160926_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160926_TT2_SS03</t>
+  </si>
+  <si>
+    <t>b0079_d160926_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160926_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160927_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160927_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160927_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160927_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160928_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160928_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160928_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160928_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160928_TT3_SS03</t>
+  </si>
+  <si>
+    <t>b0079_d160929_TT1_SS01</t>
+  </si>
+  <si>
+    <t>multi-unit - maybe can be further isolated</t>
+  </si>
+  <si>
+    <t>maybe can be further isolated</t>
+  </si>
+  <si>
+    <t>b0079_d160929_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160929_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160929_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160930_TT1_SS01</t>
+  </si>
+  <si>
+    <t>close to the noise, maybe can be considerd isolated for some specific time segments</t>
+  </si>
+  <si>
+    <t>b0079_d160930_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160930_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d160930_TT2_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d160930_TT2_SS03</t>
+  </si>
+  <si>
+    <t>b0079_d160930_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d161003_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d161003_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d161003_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0079_d161003_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b0079_d161003_TT1_SS05</t>
+  </si>
+  <si>
+    <t>b0079_d161003_TT1_SS06</t>
+  </si>
+  <si>
+    <t>b0079_d161003_TT1_SS07</t>
+  </si>
+  <si>
+    <t>b0079_d161003_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d161003_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d161003_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d161004_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d161004_TT2_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d161004_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d161004_TT3_SS02</t>
+  </si>
+  <si>
+    <t>b0079_d161005_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d161005_TT1_SS02</t>
+  </si>
+  <si>
+    <t>maybe the same cell as ss01</t>
+  </si>
+  <si>
+    <t>b0079_d161005_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0079_d161005_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b0079_d161005_TT3_SS01</t>
+  </si>
+  <si>
+    <t>b0079_d161005_TT3_SS02</t>
+  </si>
+  <si>
+    <t>mixed with noise and ss03</t>
+  </si>
+  <si>
+    <t>b0079_d161005_TT3_SS03</t>
+  </si>
+  <si>
+    <t>mixed with noise and ss02</t>
+  </si>
+  <si>
+    <t>b0148_d170807_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170807_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170807_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170807_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170807_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170807_TT4_SS06</t>
+  </si>
+  <si>
+    <t>b0148_d170806_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170806_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170806_TT4_SS03</t>
+  </si>
+  <si>
+    <t>multi-unit (not isolated enough)</t>
+  </si>
+  <si>
+    <t>b0148_d170806_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170806_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170803_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170803_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170803_TT4_SS06</t>
+  </si>
+  <si>
+    <t>b0148_d170803_TT4_SS07</t>
+  </si>
+  <si>
+    <t>b0148_d170803_TT4_SS08</t>
+  </si>
+  <si>
+    <t>b0148_d170803_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170803_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170803_TT4_SS04</t>
+  </si>
+  <si>
+    <t>leftovers from the other units (5+7)</t>
+  </si>
+  <si>
+    <t>the FR map look particularly similar to unit 7 (xcorr doesn't suggest burst of the same unit)</t>
+  </si>
+  <si>
+    <t>the FR map look particularly similar to unit 5 (xcorr doesn't suggest burst of the same unit)</t>
+  </si>
+  <si>
+    <t>b0148_d170803_TT4_SS09</t>
+  </si>
+  <si>
+    <t>b0148_d170803_TT4_SS10</t>
+  </si>
+  <si>
+    <t>b0148_d170803_TT4_SS11</t>
+  </si>
+  <si>
+    <t>b0148_d170803_TT4_SS12</t>
+  </si>
+  <si>
+    <t>multi-unit close to the noise (I merged the cluster that is isolated fore short time with the MU)</t>
+  </si>
+  <si>
+    <t>b0148_d170803_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170802_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170802_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170802_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170802_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170802_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170802_TT4_SS06</t>
+  </si>
+  <si>
+    <t>b0148_d170802_TT4_SS07</t>
+  </si>
+  <si>
+    <t>b0148_d170802_TT4_SS08</t>
+  </si>
+  <si>
+    <t>b0148_d170802_TT4_SS09</t>
+  </si>
+  <si>
+    <t>b0148_d170802_TT4_SS10</t>
+  </si>
+  <si>
+    <t>b0148_d170802_TT4_SS11</t>
+  </si>
+  <si>
+    <t>b0148_d170802_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170801_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170801_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170801_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170801_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170801_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170801_TT4_SS06</t>
+  </si>
+  <si>
+    <t>b0148_d170801_TT4_SS07</t>
+  </si>
+  <si>
+    <t>b0148_d170801_TT4_SS08</t>
+  </si>
+  <si>
+    <t>b0148_d170801_TT4_SS09</t>
+  </si>
+  <si>
+    <t>b0148_d170801_TT4_SS10</t>
+  </si>
+  <si>
+    <t>b0148_d170801_TT4_SS11</t>
+  </si>
+  <si>
+    <t>b0148_d170723_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170723_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170723_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170723_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170723_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170723_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170720_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170720_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170720_TT4_SS02</t>
+  </si>
+  <si>
+    <t>it seems like we have here 3 units and I just can't isolate them</t>
+  </si>
+  <si>
+    <t>b0148_d170720_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170720_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170720_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170720_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170718_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170718_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170718_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170718_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170718_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170718_TT4_SS06</t>
+  </si>
+  <si>
+    <t>b0148_d170718_TT4_SS07</t>
+  </si>
+  <si>
+    <t>b0148_d170718_TT4_SS08</t>
+  </si>
+  <si>
+    <t>b0148_d170717_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170717_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170717_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170717_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170717_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170717_TT4_SS06</t>
+  </si>
+  <si>
+    <t>b0148_d170716_TT4_SS01</t>
+  </si>
+  <si>
+    <t>many units merged</t>
+  </si>
+  <si>
+    <t>b0148_d170716_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170716_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170713_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170712_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170712_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170712_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170712_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170710_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170710_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170710_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170710_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170705_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170705_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170705_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170704_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170704_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170704_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170704_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170704_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170711_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170711_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170711_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170711_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170711_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170711_TT1_SS01</t>
   </si>
 </sst>
 </file>
@@ -1700,11 +2390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S361"/>
+  <dimension ref="A1:S562"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C361" sqref="C361"/>
+      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G550" sqref="G550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9707,7 +10397,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>435</v>
       </c>
@@ -9730,7 +10420,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>436</v>
       </c>
@@ -9753,7 +10443,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>438</v>
       </c>
@@ -9776,7 +10466,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>439</v>
       </c>
@@ -9799,7 +10489,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>440</v>
       </c>
@@ -9822,7 +10512,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>441</v>
       </c>
@@ -9845,7 +10535,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>442</v>
       </c>
@@ -9865,7 +10555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>443</v>
       </c>
@@ -9888,7 +10578,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>444</v>
       </c>
@@ -9911,10 +10601,4420 @@
         <v>154</v>
       </c>
     </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B362" s="1">
+        <v>79</v>
+      </c>
+      <c r="C362" s="2">
+        <v>42621</v>
+      </c>
+      <c r="D362" s="1">
+        <v>3</v>
+      </c>
+      <c r="E362" s="1">
+        <v>1</v>
+      </c>
+      <c r="F362" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B363" s="1">
+        <v>79</v>
+      </c>
+      <c r="C363" s="2">
+        <v>42621</v>
+      </c>
+      <c r="D363" s="1">
+        <v>3</v>
+      </c>
+      <c r="E363" s="1">
+        <v>2</v>
+      </c>
+      <c r="F363" s="1">
+        <v>2</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B364" s="1">
+        <v>79</v>
+      </c>
+      <c r="C364" s="2">
+        <v>42621</v>
+      </c>
+      <c r="D364" s="1">
+        <v>3</v>
+      </c>
+      <c r="E364" s="1">
+        <v>3</v>
+      </c>
+      <c r="F364" s="1">
+        <v>1</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B365" s="1">
+        <v>79</v>
+      </c>
+      <c r="C365" s="2">
+        <v>42621</v>
+      </c>
+      <c r="D365" s="1">
+        <v>3</v>
+      </c>
+      <c r="E365" s="1">
+        <v>4</v>
+      </c>
+      <c r="F365" s="1">
+        <v>2</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B366" s="1">
+        <v>79</v>
+      </c>
+      <c r="C366" s="2">
+        <v>42622</v>
+      </c>
+      <c r="D366" s="1">
+        <v>3</v>
+      </c>
+      <c r="E366" s="1">
+        <v>1</v>
+      </c>
+      <c r="F366" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B367" s="1">
+        <v>79</v>
+      </c>
+      <c r="C367" s="2">
+        <v>42622</v>
+      </c>
+      <c r="D367" s="1">
+        <v>3</v>
+      </c>
+      <c r="E367" s="1">
+        <v>2</v>
+      </c>
+      <c r="F367" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G367" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B368" s="1">
+        <v>79</v>
+      </c>
+      <c r="C368" s="2">
+        <v>42624</v>
+      </c>
+      <c r="D368" s="1">
+        <v>3</v>
+      </c>
+      <c r="E368" s="1">
+        <v>1</v>
+      </c>
+      <c r="F368" s="1">
+        <v>1</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B369" s="1">
+        <v>79</v>
+      </c>
+      <c r="C369" s="2">
+        <v>42625</v>
+      </c>
+      <c r="D369" s="1">
+        <v>3</v>
+      </c>
+      <c r="E369" s="1">
+        <v>1</v>
+      </c>
+      <c r="F369" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B370" s="1">
+        <v>79</v>
+      </c>
+      <c r="C370" s="2">
+        <v>42625</v>
+      </c>
+      <c r="D370" s="1">
+        <v>3</v>
+      </c>
+      <c r="E370" s="1">
+        <v>2</v>
+      </c>
+      <c r="F370" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B371" s="1">
+        <v>79</v>
+      </c>
+      <c r="C371" s="2">
+        <v>42626</v>
+      </c>
+      <c r="D371" s="1">
+        <v>2</v>
+      </c>
+      <c r="E371" s="1">
+        <v>1</v>
+      </c>
+      <c r="F371" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B372" s="1">
+        <v>79</v>
+      </c>
+      <c r="C372" s="2">
+        <v>42626</v>
+      </c>
+      <c r="D372" s="1">
+        <v>2</v>
+      </c>
+      <c r="E372" s="1">
+        <v>2</v>
+      </c>
+      <c r="F372" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B373" s="1">
+        <v>79</v>
+      </c>
+      <c r="C373" s="2">
+        <v>42626</v>
+      </c>
+      <c r="D373" s="1">
+        <v>3</v>
+      </c>
+      <c r="E373" s="1">
+        <v>1</v>
+      </c>
+      <c r="F373" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B374" s="1">
+        <v>79</v>
+      </c>
+      <c r="C374" s="2">
+        <v>42626</v>
+      </c>
+      <c r="D374" s="1">
+        <v>3</v>
+      </c>
+      <c r="E374" s="1">
+        <v>2</v>
+      </c>
+      <c r="F374" s="1">
+        <v>2</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B375" s="1">
+        <v>79</v>
+      </c>
+      <c r="C375" s="2">
+        <v>42626</v>
+      </c>
+      <c r="D375" s="1">
+        <v>3</v>
+      </c>
+      <c r="E375" s="1">
+        <v>3</v>
+      </c>
+      <c r="F375" s="1">
+        <v>2</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B376" s="1">
+        <v>79</v>
+      </c>
+      <c r="C376" s="2">
+        <v>42626</v>
+      </c>
+      <c r="D376" s="1">
+        <v>3</v>
+      </c>
+      <c r="E376" s="1">
+        <v>4</v>
+      </c>
+      <c r="F376" s="1">
+        <v>1</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B377" s="1">
+        <v>79</v>
+      </c>
+      <c r="C377" s="2">
+        <v>42627</v>
+      </c>
+      <c r="D377" s="1">
+        <v>2</v>
+      </c>
+      <c r="E377" s="1">
+        <v>1</v>
+      </c>
+      <c r="F377" s="1">
+        <v>1</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B378" s="1">
+        <v>79</v>
+      </c>
+      <c r="C378" s="2">
+        <v>42627</v>
+      </c>
+      <c r="D378" s="1">
+        <v>3</v>
+      </c>
+      <c r="E378" s="1">
+        <v>1</v>
+      </c>
+      <c r="F378" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B379" s="1">
+        <v>79</v>
+      </c>
+      <c r="C379" s="2">
+        <v>42627</v>
+      </c>
+      <c r="D379" s="1">
+        <v>3</v>
+      </c>
+      <c r="E379" s="1">
+        <v>2</v>
+      </c>
+      <c r="F379" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B380" s="1">
+        <v>79</v>
+      </c>
+      <c r="C380" s="2">
+        <v>42628</v>
+      </c>
+      <c r="D380" s="1">
+        <v>2</v>
+      </c>
+      <c r="E380" s="1">
+        <v>1</v>
+      </c>
+      <c r="F380" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B381" s="1">
+        <v>79</v>
+      </c>
+      <c r="C381" s="2">
+        <v>42628</v>
+      </c>
+      <c r="D381" s="1">
+        <v>3</v>
+      </c>
+      <c r="E381" s="1">
+        <v>1</v>
+      </c>
+      <c r="F381" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B382" s="1">
+        <v>79</v>
+      </c>
+      <c r="C382" s="2">
+        <v>42628</v>
+      </c>
+      <c r="D382" s="1">
+        <v>3</v>
+      </c>
+      <c r="E382" s="1">
+        <v>2</v>
+      </c>
+      <c r="F382" s="1">
+        <v>1</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B383" s="1">
+        <v>79</v>
+      </c>
+      <c r="C383" s="2">
+        <v>42628</v>
+      </c>
+      <c r="D383" s="1">
+        <v>3</v>
+      </c>
+      <c r="E383" s="1">
+        <v>3</v>
+      </c>
+      <c r="F383" s="1">
+        <v>2</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B384" s="1">
+        <v>79</v>
+      </c>
+      <c r="C384" s="2">
+        <v>42629</v>
+      </c>
+      <c r="D384" s="1">
+        <v>2</v>
+      </c>
+      <c r="E384" s="1">
+        <v>1</v>
+      </c>
+      <c r="F384" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B385" s="1">
+        <v>79</v>
+      </c>
+      <c r="C385" s="2">
+        <v>42629</v>
+      </c>
+      <c r="D385" s="1">
+        <v>3</v>
+      </c>
+      <c r="E385" s="1">
+        <v>1</v>
+      </c>
+      <c r="F385" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B386" s="1">
+        <v>79</v>
+      </c>
+      <c r="C386" s="2">
+        <v>42629</v>
+      </c>
+      <c r="D386" s="1">
+        <v>3</v>
+      </c>
+      <c r="E386" s="1">
+        <v>2</v>
+      </c>
+      <c r="F386" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B387" s="1">
+        <v>79</v>
+      </c>
+      <c r="C387" s="2">
+        <v>42629</v>
+      </c>
+      <c r="D387" s="1">
+        <v>3</v>
+      </c>
+      <c r="E387" s="1">
+        <v>3</v>
+      </c>
+      <c r="F387" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A388" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B388" s="1">
+        <v>79</v>
+      </c>
+      <c r="C388" s="2">
+        <v>42631</v>
+      </c>
+      <c r="D388" s="1">
+        <v>2</v>
+      </c>
+      <c r="E388" s="1">
+        <v>1</v>
+      </c>
+      <c r="F388" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A389" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B389" s="1">
+        <v>79</v>
+      </c>
+      <c r="C389" s="2">
+        <v>42631</v>
+      </c>
+      <c r="D389" s="1">
+        <v>2</v>
+      </c>
+      <c r="E389" s="1">
+        <v>2</v>
+      </c>
+      <c r="F389" s="1">
+        <v>1</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A390" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B390" s="1">
+        <v>79</v>
+      </c>
+      <c r="C390" s="2">
+        <v>42631</v>
+      </c>
+      <c r="D390" s="1">
+        <v>3</v>
+      </c>
+      <c r="E390" s="1">
+        <v>1</v>
+      </c>
+      <c r="F390" s="1">
+        <v>1</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A391" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B391" s="1">
+        <v>79</v>
+      </c>
+      <c r="C391" s="2">
+        <v>42632</v>
+      </c>
+      <c r="D391" s="1">
+        <v>3</v>
+      </c>
+      <c r="E391" s="1">
+        <v>1</v>
+      </c>
+      <c r="F391" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B392" s="1">
+        <v>79</v>
+      </c>
+      <c r="C392" s="2">
+        <v>42632</v>
+      </c>
+      <c r="D392" s="1">
+        <v>3</v>
+      </c>
+      <c r="E392" s="1">
+        <v>2</v>
+      </c>
+      <c r="F392" s="1">
+        <v>1</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K392" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B393" s="1">
+        <v>79</v>
+      </c>
+      <c r="C393" s="2">
+        <v>42632</v>
+      </c>
+      <c r="D393" s="1">
+        <v>2</v>
+      </c>
+      <c r="E393" s="1">
+        <v>1</v>
+      </c>
+      <c r="F393" s="1">
+        <v>1</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B394" s="1">
+        <v>79</v>
+      </c>
+      <c r="C394" s="2">
+        <v>42633</v>
+      </c>
+      <c r="D394" s="1">
+        <v>2</v>
+      </c>
+      <c r="E394" s="1">
+        <v>1</v>
+      </c>
+      <c r="F394" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B395" s="1">
+        <v>79</v>
+      </c>
+      <c r="C395" s="2">
+        <v>42633</v>
+      </c>
+      <c r="D395" s="1">
+        <v>2</v>
+      </c>
+      <c r="E395" s="1">
+        <v>2</v>
+      </c>
+      <c r="F395" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B396" s="1">
+        <v>79</v>
+      </c>
+      <c r="C396" s="2">
+        <v>42633</v>
+      </c>
+      <c r="D396" s="1">
+        <v>2</v>
+      </c>
+      <c r="E396" s="1">
+        <v>3</v>
+      </c>
+      <c r="F396" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B397" s="1">
+        <v>79</v>
+      </c>
+      <c r="C397" s="2">
+        <v>42633</v>
+      </c>
+      <c r="D397" s="1">
+        <v>2</v>
+      </c>
+      <c r="E397" s="1">
+        <v>4</v>
+      </c>
+      <c r="F397" s="1">
+        <v>1</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B398" s="1">
+        <v>79</v>
+      </c>
+      <c r="C398" s="2">
+        <v>42633</v>
+      </c>
+      <c r="D398" s="1">
+        <v>3</v>
+      </c>
+      <c r="E398" s="1">
+        <v>1</v>
+      </c>
+      <c r="F398" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A399" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B399" s="1">
+        <v>79</v>
+      </c>
+      <c r="C399" s="2">
+        <v>42634</v>
+      </c>
+      <c r="D399" s="1">
+        <v>2</v>
+      </c>
+      <c r="E399" s="1">
+        <v>1</v>
+      </c>
+      <c r="F399" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B400" s="1">
+        <v>79</v>
+      </c>
+      <c r="C400" s="2">
+        <v>42634</v>
+      </c>
+      <c r="D400" s="1">
+        <v>2</v>
+      </c>
+      <c r="E400" s="1">
+        <v>2</v>
+      </c>
+      <c r="F400" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B401" s="1">
+        <v>79</v>
+      </c>
+      <c r="C401" s="2">
+        <v>42634</v>
+      </c>
+      <c r="D401" s="1">
+        <v>3</v>
+      </c>
+      <c r="E401" s="1">
+        <v>1</v>
+      </c>
+      <c r="F401" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B402" s="1">
+        <v>79</v>
+      </c>
+      <c r="C402" s="2">
+        <v>42636</v>
+      </c>
+      <c r="D402" s="1">
+        <v>3</v>
+      </c>
+      <c r="E402" s="1">
+        <v>1</v>
+      </c>
+      <c r="F402" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B403" s="1">
+        <v>79</v>
+      </c>
+      <c r="C403" s="2">
+        <v>42636</v>
+      </c>
+      <c r="D403" s="1">
+        <v>3</v>
+      </c>
+      <c r="E403" s="1">
+        <v>2</v>
+      </c>
+      <c r="F403" s="1">
+        <v>1</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K403" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B404" s="1">
+        <v>79</v>
+      </c>
+      <c r="C404" s="2">
+        <v>42637</v>
+      </c>
+      <c r="D404" s="1">
+        <v>2</v>
+      </c>
+      <c r="E404" s="1">
+        <v>1</v>
+      </c>
+      <c r="F404" s="1">
+        <v>2</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B405" s="1">
+        <v>79</v>
+      </c>
+      <c r="C405" s="2">
+        <v>42637</v>
+      </c>
+      <c r="D405" s="1">
+        <v>2</v>
+      </c>
+      <c r="E405" s="1">
+        <v>2</v>
+      </c>
+      <c r="F405" s="1">
+        <v>1</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B406" s="1">
+        <v>79</v>
+      </c>
+      <c r="C406" s="2">
+        <v>42637</v>
+      </c>
+      <c r="D406" s="1">
+        <v>2</v>
+      </c>
+      <c r="E406" s="1">
+        <v>3</v>
+      </c>
+      <c r="F406" s="1">
+        <v>1</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B407" s="1">
+        <v>79</v>
+      </c>
+      <c r="C407" s="2">
+        <v>42637</v>
+      </c>
+      <c r="D407" s="1">
+        <v>2</v>
+      </c>
+      <c r="E407" s="1">
+        <v>4</v>
+      </c>
+      <c r="F407" s="1">
+        <v>2</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K407" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B408" s="1">
+        <v>79</v>
+      </c>
+      <c r="C408" s="2">
+        <v>42637</v>
+      </c>
+      <c r="D408" s="1">
+        <v>3</v>
+      </c>
+      <c r="E408" s="1">
+        <v>1</v>
+      </c>
+      <c r="F408" s="1">
+        <v>2</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B409" s="1">
+        <v>79</v>
+      </c>
+      <c r="C409" s="2">
+        <v>42637</v>
+      </c>
+      <c r="D409" s="1">
+        <v>3</v>
+      </c>
+      <c r="E409" s="1">
+        <v>2</v>
+      </c>
+      <c r="F409" s="1">
+        <v>2</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B410" s="1">
+        <v>79</v>
+      </c>
+      <c r="C410" s="2">
+        <v>42637</v>
+      </c>
+      <c r="D410" s="1">
+        <v>3</v>
+      </c>
+      <c r="E410" s="1">
+        <v>3</v>
+      </c>
+      <c r="F410" s="1">
+        <v>2</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B411" s="1">
+        <v>79</v>
+      </c>
+      <c r="C411" s="2">
+        <v>42637</v>
+      </c>
+      <c r="D411" s="1">
+        <v>3</v>
+      </c>
+      <c r="E411" s="1">
+        <v>4</v>
+      </c>
+      <c r="F411" s="1">
+        <v>2</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B412" s="1">
+        <v>79</v>
+      </c>
+      <c r="C412" s="2">
+        <v>42638</v>
+      </c>
+      <c r="D412" s="1">
+        <v>2</v>
+      </c>
+      <c r="E412" s="1">
+        <v>1</v>
+      </c>
+      <c r="F412" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A413" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B413" s="1">
+        <v>79</v>
+      </c>
+      <c r="C413" s="2">
+        <v>42638</v>
+      </c>
+      <c r="D413" s="1">
+        <v>2</v>
+      </c>
+      <c r="E413" s="1">
+        <v>2</v>
+      </c>
+      <c r="F413" s="1">
+        <v>2</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A414" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B414" s="1">
+        <v>79</v>
+      </c>
+      <c r="C414" s="2">
+        <v>42638</v>
+      </c>
+      <c r="D414" s="1">
+        <v>2</v>
+      </c>
+      <c r="E414" s="1">
+        <v>3</v>
+      </c>
+      <c r="F414" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B415" s="1">
+        <v>79</v>
+      </c>
+      <c r="C415" s="2">
+        <v>42638</v>
+      </c>
+      <c r="D415" s="1">
+        <v>3</v>
+      </c>
+      <c r="E415" s="1">
+        <v>1</v>
+      </c>
+      <c r="F415" s="1">
+        <v>1</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B416" s="1">
+        <v>79</v>
+      </c>
+      <c r="C416" s="2">
+        <v>42639</v>
+      </c>
+      <c r="D416" s="1">
+        <v>1</v>
+      </c>
+      <c r="E416" s="1">
+        <v>1</v>
+      </c>
+      <c r="F416" s="1">
+        <v>1</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A417" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B417" s="1">
+        <v>79</v>
+      </c>
+      <c r="C417" s="2">
+        <v>42639</v>
+      </c>
+      <c r="D417" s="1">
+        <v>1</v>
+      </c>
+      <c r="E417" s="1">
+        <v>2</v>
+      </c>
+      <c r="F417" s="1">
+        <v>1</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B418" s="1">
+        <v>79</v>
+      </c>
+      <c r="C418" s="2">
+        <v>42639</v>
+      </c>
+      <c r="D418" s="1">
+        <v>2</v>
+      </c>
+      <c r="E418" s="1">
+        <v>1</v>
+      </c>
+      <c r="F418" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B419" s="1">
+        <v>79</v>
+      </c>
+      <c r="C419" s="2">
+        <v>42639</v>
+      </c>
+      <c r="D419" s="1">
+        <v>2</v>
+      </c>
+      <c r="E419" s="1">
+        <v>2</v>
+      </c>
+      <c r="F419" s="1">
+        <v>1</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B420" s="1">
+        <v>79</v>
+      </c>
+      <c r="C420" s="2">
+        <v>42639</v>
+      </c>
+      <c r="D420" s="1">
+        <v>2</v>
+      </c>
+      <c r="E420" s="1">
+        <v>3</v>
+      </c>
+      <c r="F420" s="1">
+        <v>1</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A421" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B421" s="1">
+        <v>79</v>
+      </c>
+      <c r="C421" s="2">
+        <v>42639</v>
+      </c>
+      <c r="D421" s="1">
+        <v>3</v>
+      </c>
+      <c r="E421" s="1">
+        <v>1</v>
+      </c>
+      <c r="F421" s="1">
+        <v>1</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B422" s="1">
+        <v>79</v>
+      </c>
+      <c r="C422" s="2">
+        <v>42639</v>
+      </c>
+      <c r="D422" s="1">
+        <v>3</v>
+      </c>
+      <c r="E422" s="1">
+        <v>2</v>
+      </c>
+      <c r="F422" s="1">
+        <v>1</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A423" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B423" s="1">
+        <v>79</v>
+      </c>
+      <c r="C423" s="2">
+        <v>42640</v>
+      </c>
+      <c r="D423" s="1">
+        <v>1</v>
+      </c>
+      <c r="E423" s="1">
+        <v>1</v>
+      </c>
+      <c r="F423" s="1">
+        <v>1</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A424" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B424" s="1">
+        <v>79</v>
+      </c>
+      <c r="C424" s="2">
+        <v>42640</v>
+      </c>
+      <c r="D424" s="1">
+        <v>2</v>
+      </c>
+      <c r="E424" s="1">
+        <v>1</v>
+      </c>
+      <c r="F424" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A425" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B425" s="1">
+        <v>79</v>
+      </c>
+      <c r="C425" s="2">
+        <v>42640</v>
+      </c>
+      <c r="D425" s="1">
+        <v>2</v>
+      </c>
+      <c r="E425" s="1">
+        <v>2</v>
+      </c>
+      <c r="F425" s="1">
+        <v>1</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A426" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B426" s="1">
+        <v>79</v>
+      </c>
+      <c r="C426" s="2">
+        <v>42640</v>
+      </c>
+      <c r="D426" s="1">
+        <v>3</v>
+      </c>
+      <c r="E426" s="1">
+        <v>1</v>
+      </c>
+      <c r="F426" s="1">
+        <v>1</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A427" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B427" s="1">
+        <v>79</v>
+      </c>
+      <c r="C427" s="2">
+        <v>42641</v>
+      </c>
+      <c r="D427" s="1">
+        <v>1</v>
+      </c>
+      <c r="E427" s="1">
+        <v>1</v>
+      </c>
+      <c r="F427" s="1">
+        <v>1</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A428" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B428" s="1">
+        <v>79</v>
+      </c>
+      <c r="C428" s="2">
+        <v>42641</v>
+      </c>
+      <c r="D428" s="1">
+        <v>2</v>
+      </c>
+      <c r="E428" s="1">
+        <v>1</v>
+      </c>
+      <c r="F428" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B429" s="1">
+        <v>79</v>
+      </c>
+      <c r="C429" s="2">
+        <v>42641</v>
+      </c>
+      <c r="D429" s="1">
+        <v>3</v>
+      </c>
+      <c r="E429" s="1">
+        <v>1</v>
+      </c>
+      <c r="F429" s="1">
+        <v>1</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B430" s="1">
+        <v>79</v>
+      </c>
+      <c r="C430" s="2">
+        <v>42641</v>
+      </c>
+      <c r="D430" s="1">
+        <v>3</v>
+      </c>
+      <c r="E430" s="1">
+        <v>2</v>
+      </c>
+      <c r="F430" s="1">
+        <v>1</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B431" s="1">
+        <v>79</v>
+      </c>
+      <c r="C431" s="2">
+        <v>42641</v>
+      </c>
+      <c r="D431" s="1">
+        <v>3</v>
+      </c>
+      <c r="E431" s="1">
+        <v>3</v>
+      </c>
+      <c r="F431" s="1">
+        <v>1</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A432" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B432" s="1">
+        <v>79</v>
+      </c>
+      <c r="C432" s="2">
+        <v>42642</v>
+      </c>
+      <c r="D432" s="1">
+        <v>1</v>
+      </c>
+      <c r="E432" s="1">
+        <v>1</v>
+      </c>
+      <c r="F432" s="1">
+        <v>1</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K432" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A433" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B433" s="1">
+        <v>79</v>
+      </c>
+      <c r="C433" s="2">
+        <v>42642</v>
+      </c>
+      <c r="D433" s="1">
+        <v>2</v>
+      </c>
+      <c r="E433" s="1">
+        <v>1</v>
+      </c>
+      <c r="F433" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A434" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B434" s="1">
+        <v>79</v>
+      </c>
+      <c r="C434" s="2">
+        <v>42642</v>
+      </c>
+      <c r="D434" s="1">
+        <v>3</v>
+      </c>
+      <c r="E434" s="1">
+        <v>1</v>
+      </c>
+      <c r="F434" s="1">
+        <v>1</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A435" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B435" s="1">
+        <v>79</v>
+      </c>
+      <c r="C435" s="2">
+        <v>42642</v>
+      </c>
+      <c r="D435" s="1">
+        <v>3</v>
+      </c>
+      <c r="E435" s="1">
+        <v>2</v>
+      </c>
+      <c r="F435" s="1">
+        <v>1</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B436" s="1">
+        <v>79</v>
+      </c>
+      <c r="C436" s="2">
+        <v>42643</v>
+      </c>
+      <c r="D436" s="1">
+        <v>1</v>
+      </c>
+      <c r="E436" s="1">
+        <v>1</v>
+      </c>
+      <c r="F436" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B437" s="1">
+        <v>79</v>
+      </c>
+      <c r="C437" s="2">
+        <v>42643</v>
+      </c>
+      <c r="D437" s="1">
+        <v>1</v>
+      </c>
+      <c r="E437" s="1">
+        <v>2</v>
+      </c>
+      <c r="F437" s="1">
+        <v>1</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B438" s="1">
+        <v>79</v>
+      </c>
+      <c r="C438" s="2">
+        <v>42643</v>
+      </c>
+      <c r="D438" s="1">
+        <v>2</v>
+      </c>
+      <c r="E438" s="1">
+        <v>1</v>
+      </c>
+      <c r="F438" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A439" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B439" s="1">
+        <v>79</v>
+      </c>
+      <c r="C439" s="2">
+        <v>42643</v>
+      </c>
+      <c r="D439" s="1">
+        <v>2</v>
+      </c>
+      <c r="E439" s="1">
+        <v>2</v>
+      </c>
+      <c r="F439" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A440" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B440" s="1">
+        <v>79</v>
+      </c>
+      <c r="C440" s="2">
+        <v>42643</v>
+      </c>
+      <c r="D440" s="1">
+        <v>2</v>
+      </c>
+      <c r="E440" s="1">
+        <v>3</v>
+      </c>
+      <c r="F440" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A441" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B441" s="1">
+        <v>79</v>
+      </c>
+      <c r="C441" s="2">
+        <v>42643</v>
+      </c>
+      <c r="D441" s="1">
+        <v>3</v>
+      </c>
+      <c r="E441" s="1">
+        <v>1</v>
+      </c>
+      <c r="F441" s="1">
+        <v>1</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B442" s="1">
+        <v>79</v>
+      </c>
+      <c r="C442" s="2">
+        <v>42646</v>
+      </c>
+      <c r="D442" s="1">
+        <v>1</v>
+      </c>
+      <c r="E442" s="1">
+        <v>1</v>
+      </c>
+      <c r="F442" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B443" s="1">
+        <v>79</v>
+      </c>
+      <c r="C443" s="2">
+        <v>42646</v>
+      </c>
+      <c r="D443" s="1">
+        <v>1</v>
+      </c>
+      <c r="E443" s="1">
+        <v>2</v>
+      </c>
+      <c r="F443" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B444" s="1">
+        <v>79</v>
+      </c>
+      <c r="C444" s="2">
+        <v>42646</v>
+      </c>
+      <c r="D444" s="1">
+        <v>1</v>
+      </c>
+      <c r="E444" s="1">
+        <v>3</v>
+      </c>
+      <c r="F444" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B445" s="1">
+        <v>79</v>
+      </c>
+      <c r="C445" s="2">
+        <v>42646</v>
+      </c>
+      <c r="D445" s="1">
+        <v>1</v>
+      </c>
+      <c r="E445" s="1">
+        <v>4</v>
+      </c>
+      <c r="F445" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A446" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B446" s="1">
+        <v>79</v>
+      </c>
+      <c r="C446" s="2">
+        <v>42646</v>
+      </c>
+      <c r="D446" s="1">
+        <v>1</v>
+      </c>
+      <c r="E446" s="1">
+        <v>5</v>
+      </c>
+      <c r="F446" s="1">
+        <v>1</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A447" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B447" s="1">
+        <v>79</v>
+      </c>
+      <c r="C447" s="2">
+        <v>42646</v>
+      </c>
+      <c r="D447" s="1">
+        <v>1</v>
+      </c>
+      <c r="E447" s="1">
+        <v>6</v>
+      </c>
+      <c r="F447" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A448" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B448" s="1">
+        <v>79</v>
+      </c>
+      <c r="C448" s="2">
+        <v>42646</v>
+      </c>
+      <c r="D448" s="1">
+        <v>1</v>
+      </c>
+      <c r="E448" s="1">
+        <v>7</v>
+      </c>
+      <c r="F448" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A449" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B449" s="1">
+        <v>79</v>
+      </c>
+      <c r="C449" s="2">
+        <v>42646</v>
+      </c>
+      <c r="D449" s="1">
+        <v>2</v>
+      </c>
+      <c r="E449" s="1">
+        <v>1</v>
+      </c>
+      <c r="F449" s="1">
+        <v>1</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A450" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B450" s="1">
+        <v>79</v>
+      </c>
+      <c r="C450" s="2">
+        <v>42646</v>
+      </c>
+      <c r="D450" s="1">
+        <v>3</v>
+      </c>
+      <c r="E450" s="1">
+        <v>1</v>
+      </c>
+      <c r="F450" s="1">
+        <v>1</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A451" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B451" s="1">
+        <v>79</v>
+      </c>
+      <c r="C451" s="2">
+        <v>42646</v>
+      </c>
+      <c r="D451" s="1">
+        <v>3</v>
+      </c>
+      <c r="E451" s="1">
+        <v>2</v>
+      </c>
+      <c r="F451" s="1">
+        <v>1</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A452" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B452" s="1">
+        <v>79</v>
+      </c>
+      <c r="C452" s="2">
+        <v>42647</v>
+      </c>
+      <c r="D452" s="1">
+        <v>1</v>
+      </c>
+      <c r="E452" s="1">
+        <v>1</v>
+      </c>
+      <c r="F452" s="1">
+        <v>1</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A453" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B453" s="1">
+        <v>79</v>
+      </c>
+      <c r="C453" s="2">
+        <v>42647</v>
+      </c>
+      <c r="D453" s="1">
+        <v>2</v>
+      </c>
+      <c r="E453" s="1">
+        <v>1</v>
+      </c>
+      <c r="F453" s="1">
+        <v>2</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A454" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B454" s="1">
+        <v>79</v>
+      </c>
+      <c r="C454" s="2">
+        <v>42647</v>
+      </c>
+      <c r="D454" s="1">
+        <v>3</v>
+      </c>
+      <c r="E454" s="1">
+        <v>1</v>
+      </c>
+      <c r="F454" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A455" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B455" s="1">
+        <v>79</v>
+      </c>
+      <c r="C455" s="2">
+        <v>42647</v>
+      </c>
+      <c r="D455" s="1">
+        <v>3</v>
+      </c>
+      <c r="E455" s="1">
+        <v>2</v>
+      </c>
+      <c r="F455" s="1">
+        <v>1</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A456" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B456" s="1">
+        <v>79</v>
+      </c>
+      <c r="C456" s="2">
+        <v>42648</v>
+      </c>
+      <c r="D456" s="1">
+        <v>1</v>
+      </c>
+      <c r="E456" s="1">
+        <v>1</v>
+      </c>
+      <c r="F456" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A457" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B457" s="1">
+        <v>79</v>
+      </c>
+      <c r="C457" s="2">
+        <v>42648</v>
+      </c>
+      <c r="D457" s="1">
+        <v>1</v>
+      </c>
+      <c r="E457" s="1">
+        <v>2</v>
+      </c>
+      <c r="F457" s="1">
+        <v>2</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A458" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B458" s="1">
+        <v>79</v>
+      </c>
+      <c r="C458" s="2">
+        <v>42648</v>
+      </c>
+      <c r="D458" s="1">
+        <v>1</v>
+      </c>
+      <c r="E458" s="1">
+        <v>3</v>
+      </c>
+      <c r="F458" s="1">
+        <v>2</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A459" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B459" s="1">
+        <v>79</v>
+      </c>
+      <c r="C459" s="2">
+        <v>42648</v>
+      </c>
+      <c r="D459" s="1">
+        <v>1</v>
+      </c>
+      <c r="E459" s="1">
+        <v>4</v>
+      </c>
+      <c r="F459" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A460" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B460" s="1">
+        <v>79</v>
+      </c>
+      <c r="C460" s="2">
+        <v>42648</v>
+      </c>
+      <c r="D460" s="1">
+        <v>3</v>
+      </c>
+      <c r="E460" s="1">
+        <v>1</v>
+      </c>
+      <c r="F460" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A461" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B461" s="1">
+        <v>79</v>
+      </c>
+      <c r="C461" s="2">
+        <v>42648</v>
+      </c>
+      <c r="D461" s="1">
+        <v>3</v>
+      </c>
+      <c r="E461" s="1">
+        <v>2</v>
+      </c>
+      <c r="F461" s="1">
+        <v>1</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A462" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B462" s="1">
+        <v>79</v>
+      </c>
+      <c r="C462" s="2">
+        <v>42648</v>
+      </c>
+      <c r="D462" s="1">
+        <v>3</v>
+      </c>
+      <c r="E462" s="1">
+        <v>3</v>
+      </c>
+      <c r="F462" s="1">
+        <v>1</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A463" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B463" s="1">
+        <v>148</v>
+      </c>
+      <c r="C463" s="2">
+        <v>42954</v>
+      </c>
+      <c r="D463" s="1">
+        <v>4</v>
+      </c>
+      <c r="E463" s="1">
+        <v>1</v>
+      </c>
+      <c r="F463" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A464" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B464" s="1">
+        <v>148</v>
+      </c>
+      <c r="C464" s="2">
+        <v>42954</v>
+      </c>
+      <c r="D464" s="1">
+        <v>4</v>
+      </c>
+      <c r="E464" s="1">
+        <v>2</v>
+      </c>
+      <c r="F464" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A465" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B465" s="1">
+        <v>148</v>
+      </c>
+      <c r="C465" s="2">
+        <v>42954</v>
+      </c>
+      <c r="D465" s="1">
+        <v>4</v>
+      </c>
+      <c r="E465" s="1">
+        <v>3</v>
+      </c>
+      <c r="F465" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A466" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B466" s="1">
+        <v>148</v>
+      </c>
+      <c r="C466" s="2">
+        <v>42954</v>
+      </c>
+      <c r="D466" s="1">
+        <v>4</v>
+      </c>
+      <c r="E466" s="1">
+        <v>4</v>
+      </c>
+      <c r="F466" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A467" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B467" s="1">
+        <v>148</v>
+      </c>
+      <c r="C467" s="2">
+        <v>42954</v>
+      </c>
+      <c r="D467" s="1">
+        <v>4</v>
+      </c>
+      <c r="E467" s="1">
+        <v>5</v>
+      </c>
+      <c r="F467" s="1">
+        <v>1</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A468" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B468" s="1">
+        <v>148</v>
+      </c>
+      <c r="C468" s="2">
+        <v>42954</v>
+      </c>
+      <c r="D468" s="1">
+        <v>4</v>
+      </c>
+      <c r="E468" s="1">
+        <v>6</v>
+      </c>
+      <c r="F468" s="1">
+        <v>1</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A469" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B469" s="1">
+        <v>148</v>
+      </c>
+      <c r="C469" s="2">
+        <v>42953</v>
+      </c>
+      <c r="D469" s="1">
+        <v>4</v>
+      </c>
+      <c r="E469" s="1">
+        <v>1</v>
+      </c>
+      <c r="F469" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A470" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B470" s="1">
+        <v>148</v>
+      </c>
+      <c r="C470" s="2">
+        <v>42953</v>
+      </c>
+      <c r="D470" s="1">
+        <v>4</v>
+      </c>
+      <c r="E470" s="1">
+        <v>2</v>
+      </c>
+      <c r="F470" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B471" s="1">
+        <v>148</v>
+      </c>
+      <c r="C471" s="2">
+        <v>42953</v>
+      </c>
+      <c r="D471" s="1">
+        <v>4</v>
+      </c>
+      <c r="E471" s="1">
+        <v>3</v>
+      </c>
+      <c r="F471" s="1">
+        <v>1</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A472" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B472" s="1">
+        <v>148</v>
+      </c>
+      <c r="C472" s="2">
+        <v>42953</v>
+      </c>
+      <c r="D472" s="1">
+        <v>4</v>
+      </c>
+      <c r="E472" s="1">
+        <v>4</v>
+      </c>
+      <c r="F472" s="1">
+        <v>1</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B473" s="1">
+        <v>148</v>
+      </c>
+      <c r="C473" s="2">
+        <v>42953</v>
+      </c>
+      <c r="D473" s="1">
+        <v>1</v>
+      </c>
+      <c r="E473" s="1">
+        <v>1</v>
+      </c>
+      <c r="F473" s="1">
+        <v>1</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A474" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B474" s="1">
+        <v>148</v>
+      </c>
+      <c r="C474" s="2">
+        <v>42950</v>
+      </c>
+      <c r="D474" s="1">
+        <v>4</v>
+      </c>
+      <c r="E474" s="1">
+        <v>1</v>
+      </c>
+      <c r="F474" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A475" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B475" s="1">
+        <v>148</v>
+      </c>
+      <c r="C475" s="2">
+        <v>42950</v>
+      </c>
+      <c r="D475" s="1">
+        <v>4</v>
+      </c>
+      <c r="E475" s="1">
+        <v>2</v>
+      </c>
+      <c r="F475" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A476" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B476" s="1">
+        <v>148</v>
+      </c>
+      <c r="C476" s="2">
+        <v>42950</v>
+      </c>
+      <c r="D476" s="1">
+        <v>4</v>
+      </c>
+      <c r="E476" s="1">
+        <v>3</v>
+      </c>
+      <c r="F476" s="1">
+        <v>1</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A477" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B477" s="1">
+        <v>148</v>
+      </c>
+      <c r="C477" s="2">
+        <v>42950</v>
+      </c>
+      <c r="D477" s="1">
+        <v>4</v>
+      </c>
+      <c r="E477" s="1">
+        <v>4</v>
+      </c>
+      <c r="F477" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B478" s="1">
+        <v>148</v>
+      </c>
+      <c r="C478" s="2">
+        <v>42950</v>
+      </c>
+      <c r="D478" s="1">
+        <v>4</v>
+      </c>
+      <c r="E478" s="1">
+        <v>5</v>
+      </c>
+      <c r="F478" s="1">
+        <v>2</v>
+      </c>
+      <c r="G478" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="K478" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B479" s="1">
+        <v>148</v>
+      </c>
+      <c r="C479" s="2">
+        <v>42950</v>
+      </c>
+      <c r="D479" s="1">
+        <v>4</v>
+      </c>
+      <c r="E479" s="1">
+        <v>6</v>
+      </c>
+      <c r="F479" s="1">
+        <v>0</v>
+      </c>
+      <c r="G479" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="K479" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B480" s="1">
+        <v>148</v>
+      </c>
+      <c r="C480" s="2">
+        <v>42950</v>
+      </c>
+      <c r="D480" s="1">
+        <v>4</v>
+      </c>
+      <c r="E480" s="1">
+        <v>7</v>
+      </c>
+      <c r="F480" s="1">
+        <v>2</v>
+      </c>
+      <c r="G480" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="K480" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B481" s="1">
+        <v>148</v>
+      </c>
+      <c r="C481" s="2">
+        <v>42950</v>
+      </c>
+      <c r="D481" s="1">
+        <v>4</v>
+      </c>
+      <c r="E481" s="1">
+        <v>8</v>
+      </c>
+      <c r="F481" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A482" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B482" s="1">
+        <v>148</v>
+      </c>
+      <c r="C482" s="2">
+        <v>42950</v>
+      </c>
+      <c r="D482" s="1">
+        <v>4</v>
+      </c>
+      <c r="E482" s="1">
+        <v>9</v>
+      </c>
+      <c r="F482" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A483" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B483" s="1">
+        <v>148</v>
+      </c>
+      <c r="C483" s="2">
+        <v>42950</v>
+      </c>
+      <c r="D483" s="1">
+        <v>4</v>
+      </c>
+      <c r="E483" s="1">
+        <v>10</v>
+      </c>
+      <c r="F483" s="1">
+        <v>1</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A484" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B484" s="1">
+        <v>148</v>
+      </c>
+      <c r="C484" s="2">
+        <v>42950</v>
+      </c>
+      <c r="D484" s="1">
+        <v>4</v>
+      </c>
+      <c r="E484" s="1">
+        <v>11</v>
+      </c>
+      <c r="F484" s="1">
+        <v>1</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A485" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B485" s="1">
+        <v>148</v>
+      </c>
+      <c r="C485" s="2">
+        <v>42950</v>
+      </c>
+      <c r="D485" s="1">
+        <v>4</v>
+      </c>
+      <c r="E485" s="1">
+        <v>12</v>
+      </c>
+      <c r="F485" s="1">
+        <v>1</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A486" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B486" s="1">
+        <v>148</v>
+      </c>
+      <c r="C486" s="2">
+        <v>42950</v>
+      </c>
+      <c r="D486" s="1">
+        <v>1</v>
+      </c>
+      <c r="E486" s="1">
+        <v>1</v>
+      </c>
+      <c r="F486" s="1">
+        <v>1</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A487" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B487" s="1">
+        <v>148</v>
+      </c>
+      <c r="C487" s="2">
+        <v>42949</v>
+      </c>
+      <c r="D487" s="1">
+        <v>4</v>
+      </c>
+      <c r="E487" s="1">
+        <v>1</v>
+      </c>
+      <c r="F487" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A488" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B488" s="1">
+        <v>148</v>
+      </c>
+      <c r="C488" s="2">
+        <v>42949</v>
+      </c>
+      <c r="D488" s="1">
+        <v>4</v>
+      </c>
+      <c r="E488" s="1">
+        <v>2</v>
+      </c>
+      <c r="F488" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A489" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B489" s="1">
+        <v>148</v>
+      </c>
+      <c r="C489" s="2">
+        <v>42949</v>
+      </c>
+      <c r="D489" s="1">
+        <v>4</v>
+      </c>
+      <c r="E489" s="1">
+        <v>3</v>
+      </c>
+      <c r="F489" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A490" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B490" s="1">
+        <v>148</v>
+      </c>
+      <c r="C490" s="2">
+        <v>42949</v>
+      </c>
+      <c r="D490" s="1">
+        <v>4</v>
+      </c>
+      <c r="E490" s="1">
+        <v>4</v>
+      </c>
+      <c r="F490" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A491" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B491" s="1">
+        <v>148</v>
+      </c>
+      <c r="C491" s="2">
+        <v>42949</v>
+      </c>
+      <c r="D491" s="1">
+        <v>4</v>
+      </c>
+      <c r="E491" s="1">
+        <v>5</v>
+      </c>
+      <c r="F491" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A492" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B492" s="1">
+        <v>148</v>
+      </c>
+      <c r="C492" s="2">
+        <v>42949</v>
+      </c>
+      <c r="D492" s="1">
+        <v>4</v>
+      </c>
+      <c r="E492" s="1">
+        <v>6</v>
+      </c>
+      <c r="F492" s="1">
+        <v>1</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A493" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B493" s="1">
+        <v>148</v>
+      </c>
+      <c r="C493" s="2">
+        <v>42949</v>
+      </c>
+      <c r="D493" s="1">
+        <v>4</v>
+      </c>
+      <c r="E493" s="1">
+        <v>7</v>
+      </c>
+      <c r="F493" s="1">
+        <v>1</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A494" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B494" s="1">
+        <v>148</v>
+      </c>
+      <c r="C494" s="2">
+        <v>42949</v>
+      </c>
+      <c r="D494" s="1">
+        <v>4</v>
+      </c>
+      <c r="E494" s="1">
+        <v>8</v>
+      </c>
+      <c r="F494" s="1">
+        <v>1</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A495" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B495" s="1">
+        <v>148</v>
+      </c>
+      <c r="C495" s="2">
+        <v>42949</v>
+      </c>
+      <c r="D495" s="1">
+        <v>4</v>
+      </c>
+      <c r="E495" s="1">
+        <v>9</v>
+      </c>
+      <c r="F495" s="1">
+        <v>1</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B496" s="1">
+        <v>148</v>
+      </c>
+      <c r="C496" s="2">
+        <v>42949</v>
+      </c>
+      <c r="D496" s="1">
+        <v>4</v>
+      </c>
+      <c r="E496" s="1">
+        <v>10</v>
+      </c>
+      <c r="F496" s="1">
+        <v>1</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B497" s="1">
+        <v>148</v>
+      </c>
+      <c r="C497" s="2">
+        <v>42949</v>
+      </c>
+      <c r="D497" s="1">
+        <v>4</v>
+      </c>
+      <c r="E497" s="1">
+        <v>11</v>
+      </c>
+      <c r="F497" s="1">
+        <v>1</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B498" s="1">
+        <v>148</v>
+      </c>
+      <c r="C498" s="2">
+        <v>42949</v>
+      </c>
+      <c r="D498" s="1">
+        <v>1</v>
+      </c>
+      <c r="E498" s="1">
+        <v>1</v>
+      </c>
+      <c r="F498" s="1">
+        <v>1</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A499" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B499" s="1">
+        <v>148</v>
+      </c>
+      <c r="C499" s="2">
+        <v>42948</v>
+      </c>
+      <c r="D499" s="1">
+        <v>4</v>
+      </c>
+      <c r="E499" s="1">
+        <v>1</v>
+      </c>
+      <c r="F499" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A500" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B500" s="1">
+        <v>148</v>
+      </c>
+      <c r="C500" s="2">
+        <v>42948</v>
+      </c>
+      <c r="D500" s="1">
+        <v>4</v>
+      </c>
+      <c r="E500" s="1">
+        <v>2</v>
+      </c>
+      <c r="F500" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A501" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B501" s="1">
+        <v>148</v>
+      </c>
+      <c r="C501" s="2">
+        <v>42948</v>
+      </c>
+      <c r="D501" s="1">
+        <v>4</v>
+      </c>
+      <c r="E501" s="1">
+        <v>3</v>
+      </c>
+      <c r="F501" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A502" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B502" s="1">
+        <v>148</v>
+      </c>
+      <c r="C502" s="2">
+        <v>42948</v>
+      </c>
+      <c r="D502" s="1">
+        <v>4</v>
+      </c>
+      <c r="E502" s="1">
+        <v>4</v>
+      </c>
+      <c r="F502" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A503" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B503" s="1">
+        <v>148</v>
+      </c>
+      <c r="C503" s="2">
+        <v>42948</v>
+      </c>
+      <c r="D503" s="1">
+        <v>4</v>
+      </c>
+      <c r="E503" s="1">
+        <v>5</v>
+      </c>
+      <c r="F503" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A504" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B504" s="1">
+        <v>148</v>
+      </c>
+      <c r="C504" s="2">
+        <v>42948</v>
+      </c>
+      <c r="D504" s="1">
+        <v>4</v>
+      </c>
+      <c r="E504" s="1">
+        <v>6</v>
+      </c>
+      <c r="F504" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A505" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B505" s="1">
+        <v>148</v>
+      </c>
+      <c r="C505" s="2">
+        <v>42948</v>
+      </c>
+      <c r="D505" s="1">
+        <v>4</v>
+      </c>
+      <c r="E505" s="1">
+        <v>7</v>
+      </c>
+      <c r="F505" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B506" s="1">
+        <v>148</v>
+      </c>
+      <c r="C506" s="2">
+        <v>42948</v>
+      </c>
+      <c r="D506" s="1">
+        <v>4</v>
+      </c>
+      <c r="E506" s="1">
+        <v>8</v>
+      </c>
+      <c r="F506" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B507" s="1">
+        <v>148</v>
+      </c>
+      <c r="C507" s="2">
+        <v>42948</v>
+      </c>
+      <c r="D507" s="1">
+        <v>4</v>
+      </c>
+      <c r="E507" s="1">
+        <v>9</v>
+      </c>
+      <c r="F507" s="1">
+        <v>1</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B508" s="1">
+        <v>148</v>
+      </c>
+      <c r="C508" s="2">
+        <v>42948</v>
+      </c>
+      <c r="D508" s="1">
+        <v>4</v>
+      </c>
+      <c r="E508" s="1">
+        <v>10</v>
+      </c>
+      <c r="F508" s="1">
+        <v>1</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A509" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B509" s="1">
+        <v>148</v>
+      </c>
+      <c r="C509" s="2">
+        <v>42948</v>
+      </c>
+      <c r="D509" s="1">
+        <v>4</v>
+      </c>
+      <c r="E509" s="1">
+        <v>11</v>
+      </c>
+      <c r="F509" s="1">
+        <v>1</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B510" s="1">
+        <v>148</v>
+      </c>
+      <c r="C510" s="2">
+        <v>42939</v>
+      </c>
+      <c r="D510" s="1">
+        <v>4</v>
+      </c>
+      <c r="E510" s="1">
+        <v>1</v>
+      </c>
+      <c r="F510" s="1">
+        <v>1</v>
+      </c>
+      <c r="G510" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A511" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B511" s="1">
+        <v>148</v>
+      </c>
+      <c r="C511" s="2">
+        <v>42939</v>
+      </c>
+      <c r="D511" s="1">
+        <v>4</v>
+      </c>
+      <c r="E511" s="1">
+        <v>2</v>
+      </c>
+      <c r="F511" s="1">
+        <v>1</v>
+      </c>
+      <c r="G511" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B512" s="1">
+        <v>148</v>
+      </c>
+      <c r="C512" s="2">
+        <v>42939</v>
+      </c>
+      <c r="D512" s="1">
+        <v>4</v>
+      </c>
+      <c r="E512" s="1">
+        <v>3</v>
+      </c>
+      <c r="F512" s="1">
+        <v>1</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A513" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B513" s="1">
+        <v>148</v>
+      </c>
+      <c r="C513" s="2">
+        <v>42939</v>
+      </c>
+      <c r="D513" s="1">
+        <v>1</v>
+      </c>
+      <c r="E513" s="1">
+        <v>1</v>
+      </c>
+      <c r="F513" s="1">
+        <v>2</v>
+      </c>
+      <c r="G513" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B514" s="1">
+        <v>148</v>
+      </c>
+      <c r="C514" s="2">
+        <v>42939</v>
+      </c>
+      <c r="D514" s="1">
+        <v>1</v>
+      </c>
+      <c r="E514" s="1">
+        <v>2</v>
+      </c>
+      <c r="F514" s="1">
+        <v>1</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B515" s="1">
+        <v>148</v>
+      </c>
+      <c r="C515" s="2">
+        <v>42939</v>
+      </c>
+      <c r="D515" s="1">
+        <v>1</v>
+      </c>
+      <c r="E515" s="1">
+        <v>3</v>
+      </c>
+      <c r="F515" s="1">
+        <v>1</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A516" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B516" s="1">
+        <v>148</v>
+      </c>
+      <c r="C516" s="2">
+        <v>42936</v>
+      </c>
+      <c r="D516" s="1">
+        <v>4</v>
+      </c>
+      <c r="E516" s="1">
+        <v>1</v>
+      </c>
+      <c r="F516" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B517" s="1">
+        <v>148</v>
+      </c>
+      <c r="C517" s="2">
+        <v>42936</v>
+      </c>
+      <c r="D517" s="1">
+        <v>4</v>
+      </c>
+      <c r="E517" s="1">
+        <v>2</v>
+      </c>
+      <c r="F517" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B518" s="1">
+        <v>148</v>
+      </c>
+      <c r="C518" s="2">
+        <v>42936</v>
+      </c>
+      <c r="D518" s="1">
+        <v>4</v>
+      </c>
+      <c r="E518" s="1">
+        <v>3</v>
+      </c>
+      <c r="F518" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B519" s="1">
+        <v>148</v>
+      </c>
+      <c r="C519" s="2">
+        <v>42936</v>
+      </c>
+      <c r="D519" s="1">
+        <v>4</v>
+      </c>
+      <c r="E519" s="1">
+        <v>4</v>
+      </c>
+      <c r="F519" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A520" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B520" s="1">
+        <v>148</v>
+      </c>
+      <c r="C520" s="2">
+        <v>42936</v>
+      </c>
+      <c r="D520" s="1">
+        <v>4</v>
+      </c>
+      <c r="E520" s="1">
+        <v>5</v>
+      </c>
+      <c r="F520" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A521" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B521" s="1">
+        <v>148</v>
+      </c>
+      <c r="C521" s="2">
+        <v>42936</v>
+      </c>
+      <c r="D521" s="1">
+        <v>1</v>
+      </c>
+      <c r="E521" s="1">
+        <v>1</v>
+      </c>
+      <c r="F521" s="1">
+        <v>1</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A522" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B522" s="1">
+        <v>148</v>
+      </c>
+      <c r="C522" s="2">
+        <v>42936</v>
+      </c>
+      <c r="D522" s="1">
+        <v>1</v>
+      </c>
+      <c r="E522" s="1">
+        <v>2</v>
+      </c>
+      <c r="F522" s="1">
+        <v>1</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A523" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B523" s="1">
+        <v>148</v>
+      </c>
+      <c r="C523" s="2">
+        <v>42934</v>
+      </c>
+      <c r="D523" s="1">
+        <v>4</v>
+      </c>
+      <c r="E523" s="1">
+        <v>1</v>
+      </c>
+      <c r="F523" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A524" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B524" s="1">
+        <v>148</v>
+      </c>
+      <c r="C524" s="2">
+        <v>42934</v>
+      </c>
+      <c r="D524" s="1">
+        <v>4</v>
+      </c>
+      <c r="E524" s="1">
+        <v>2</v>
+      </c>
+      <c r="F524" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A525" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B525" s="1">
+        <v>148</v>
+      </c>
+      <c r="C525" s="2">
+        <v>42934</v>
+      </c>
+      <c r="D525" s="1">
+        <v>4</v>
+      </c>
+      <c r="E525" s="1">
+        <v>3</v>
+      </c>
+      <c r="F525" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A526" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B526" s="1">
+        <v>148</v>
+      </c>
+      <c r="C526" s="2">
+        <v>42934</v>
+      </c>
+      <c r="D526" s="1">
+        <v>4</v>
+      </c>
+      <c r="E526" s="1">
+        <v>4</v>
+      </c>
+      <c r="F526" s="1">
+        <v>1</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A527" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B527" s="1">
+        <v>148</v>
+      </c>
+      <c r="C527" s="2">
+        <v>42934</v>
+      </c>
+      <c r="D527" s="1">
+        <v>4</v>
+      </c>
+      <c r="E527" s="1">
+        <v>5</v>
+      </c>
+      <c r="F527" s="1">
+        <v>1</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A528" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B528" s="1">
+        <v>148</v>
+      </c>
+      <c r="C528" s="2">
+        <v>42934</v>
+      </c>
+      <c r="D528" s="1">
+        <v>4</v>
+      </c>
+      <c r="E528" s="1">
+        <v>6</v>
+      </c>
+      <c r="F528" s="1">
+        <v>1</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A529" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B529" s="1">
+        <v>148</v>
+      </c>
+      <c r="C529" s="2">
+        <v>42934</v>
+      </c>
+      <c r="D529" s="1">
+        <v>4</v>
+      </c>
+      <c r="E529" s="1">
+        <v>7</v>
+      </c>
+      <c r="F529" s="1">
+        <v>1</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A530" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B530" s="1">
+        <v>148</v>
+      </c>
+      <c r="C530" s="2">
+        <v>42934</v>
+      </c>
+      <c r="D530" s="1">
+        <v>4</v>
+      </c>
+      <c r="E530" s="1">
+        <v>8</v>
+      </c>
+      <c r="F530" s="1">
+        <v>1</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A531" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B531" s="1">
+        <v>148</v>
+      </c>
+      <c r="C531" s="2">
+        <v>42933</v>
+      </c>
+      <c r="D531" s="1">
+        <v>4</v>
+      </c>
+      <c r="E531" s="1">
+        <v>1</v>
+      </c>
+      <c r="F531" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B532" s="1">
+        <v>148</v>
+      </c>
+      <c r="C532" s="2">
+        <v>42933</v>
+      </c>
+      <c r="D532" s="1">
+        <v>4</v>
+      </c>
+      <c r="E532" s="1">
+        <v>2</v>
+      </c>
+      <c r="F532" s="1">
+        <v>1</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A533" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B533" s="1">
+        <v>148</v>
+      </c>
+      <c r="C533" s="2">
+        <v>42933</v>
+      </c>
+      <c r="D533" s="1">
+        <v>4</v>
+      </c>
+      <c r="E533" s="1">
+        <v>3</v>
+      </c>
+      <c r="F533" s="1">
+        <v>1</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A534" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B534" s="1">
+        <v>148</v>
+      </c>
+      <c r="C534" s="2">
+        <v>42933</v>
+      </c>
+      <c r="D534" s="1">
+        <v>4</v>
+      </c>
+      <c r="E534" s="1">
+        <v>4</v>
+      </c>
+      <c r="F534" s="1">
+        <v>1</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B535" s="1">
+        <v>148</v>
+      </c>
+      <c r="C535" s="2">
+        <v>42933</v>
+      </c>
+      <c r="D535" s="1">
+        <v>4</v>
+      </c>
+      <c r="E535" s="1">
+        <v>5</v>
+      </c>
+      <c r="F535" s="1">
+        <v>1</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B536" s="1">
+        <v>148</v>
+      </c>
+      <c r="C536" s="2">
+        <v>42933</v>
+      </c>
+      <c r="D536" s="1">
+        <v>4</v>
+      </c>
+      <c r="E536" s="1">
+        <v>6</v>
+      </c>
+      <c r="F536" s="1">
+        <v>1</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A537" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B537" s="1">
+        <v>148</v>
+      </c>
+      <c r="C537" s="2">
+        <v>42932</v>
+      </c>
+      <c r="D537" s="1">
+        <v>4</v>
+      </c>
+      <c r="E537" s="1">
+        <v>1</v>
+      </c>
+      <c r="F537" s="1">
+        <v>1</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A538" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B538" s="1">
+        <v>148</v>
+      </c>
+      <c r="C538" s="2">
+        <v>42932</v>
+      </c>
+      <c r="D538" s="1">
+        <v>4</v>
+      </c>
+      <c r="E538" s="1">
+        <v>2</v>
+      </c>
+      <c r="F538" s="1">
+        <v>1</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A539" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B539" s="1">
+        <v>148</v>
+      </c>
+      <c r="C539" s="2">
+        <v>42932</v>
+      </c>
+      <c r="D539" s="1">
+        <v>1</v>
+      </c>
+      <c r="E539" s="1">
+        <v>1</v>
+      </c>
+      <c r="F539" s="1">
+        <v>1</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A540" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B540" s="1">
+        <v>148</v>
+      </c>
+      <c r="C540" s="2">
+        <v>42929</v>
+      </c>
+      <c r="D540" s="1">
+        <v>1</v>
+      </c>
+      <c r="E540" s="1">
+        <v>1</v>
+      </c>
+      <c r="F540" s="1">
+        <v>1</v>
+      </c>
+      <c r="G540" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A541" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B541" s="1">
+        <v>148</v>
+      </c>
+      <c r="C541" s="2">
+        <v>42928</v>
+      </c>
+      <c r="D541" s="1">
+        <v>4</v>
+      </c>
+      <c r="E541" s="1">
+        <v>1</v>
+      </c>
+      <c r="F541" s="1">
+        <v>2</v>
+      </c>
+      <c r="G541" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A542" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B542" s="1">
+        <v>148</v>
+      </c>
+      <c r="C542" s="2">
+        <v>42928</v>
+      </c>
+      <c r="D542" s="1">
+        <v>4</v>
+      </c>
+      <c r="E542" s="1">
+        <v>2</v>
+      </c>
+      <c r="F542" s="1">
+        <v>1</v>
+      </c>
+      <c r="G542" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A543" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B543" s="1">
+        <v>148</v>
+      </c>
+      <c r="C543" s="2">
+        <v>42928</v>
+      </c>
+      <c r="D543" s="1">
+        <v>4</v>
+      </c>
+      <c r="E543" s="1">
+        <v>3</v>
+      </c>
+      <c r="F543" s="1">
+        <v>1</v>
+      </c>
+      <c r="G543" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A544" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B544" s="1">
+        <v>148</v>
+      </c>
+      <c r="C544" s="2">
+        <v>42928</v>
+      </c>
+      <c r="D544" s="1">
+        <v>4</v>
+      </c>
+      <c r="E544" s="1">
+        <v>4</v>
+      </c>
+      <c r="F544" s="1">
+        <v>1</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A545" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B545" s="1">
+        <v>148</v>
+      </c>
+      <c r="C545" s="2">
+        <v>42927</v>
+      </c>
+      <c r="D545" s="1">
+        <v>4</v>
+      </c>
+      <c r="E545" s="1">
+        <v>1</v>
+      </c>
+      <c r="F545" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A546" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B546" s="1">
+        <v>148</v>
+      </c>
+      <c r="C546" s="2">
+        <v>42927</v>
+      </c>
+      <c r="D546" s="1">
+        <v>4</v>
+      </c>
+      <c r="E546" s="1">
+        <v>2</v>
+      </c>
+      <c r="F546" s="1">
+        <v>1</v>
+      </c>
+      <c r="G546" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A547" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B547" s="1">
+        <v>148</v>
+      </c>
+      <c r="C547" s="2">
+        <v>42927</v>
+      </c>
+      <c r="D547" s="1">
+        <v>4</v>
+      </c>
+      <c r="E547" s="1">
+        <v>3</v>
+      </c>
+      <c r="F547" s="1">
+        <v>1</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A548" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B548" s="1">
+        <v>148</v>
+      </c>
+      <c r="C548" s="2">
+        <v>42927</v>
+      </c>
+      <c r="D548" s="1">
+        <v>4</v>
+      </c>
+      <c r="E548" s="1">
+        <v>4</v>
+      </c>
+      <c r="F548" s="1">
+        <v>1</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A549" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B549" s="1">
+        <v>148</v>
+      </c>
+      <c r="C549" s="2">
+        <v>42927</v>
+      </c>
+      <c r="D549" s="1">
+        <v>4</v>
+      </c>
+      <c r="E549" s="1">
+        <v>5</v>
+      </c>
+      <c r="F549" s="1">
+        <v>1</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B550" s="1">
+        <v>148</v>
+      </c>
+      <c r="C550" s="2">
+        <v>42927</v>
+      </c>
+      <c r="D550" s="1">
+        <v>1</v>
+      </c>
+      <c r="E550" s="1">
+        <v>1</v>
+      </c>
+      <c r="F550" s="1">
+        <v>1</v>
+      </c>
+      <c r="G550" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A551" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B551" s="1">
+        <v>148</v>
+      </c>
+      <c r="C551" s="2">
+        <v>42926</v>
+      </c>
+      <c r="D551" s="1">
+        <v>4</v>
+      </c>
+      <c r="E551" s="1">
+        <v>1</v>
+      </c>
+      <c r="F551" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B552" s="1">
+        <v>148</v>
+      </c>
+      <c r="C552" s="2">
+        <v>42926</v>
+      </c>
+      <c r="D552" s="1">
+        <v>1</v>
+      </c>
+      <c r="E552" s="1">
+        <v>1</v>
+      </c>
+      <c r="F552" s="1">
+        <v>1</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A553" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B553" s="1">
+        <v>148</v>
+      </c>
+      <c r="C553" s="2">
+        <v>42926</v>
+      </c>
+      <c r="D553" s="1">
+        <v>1</v>
+      </c>
+      <c r="E553" s="1">
+        <v>2</v>
+      </c>
+      <c r="F553" s="1">
+        <v>1</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A554" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B554" s="1">
+        <v>148</v>
+      </c>
+      <c r="C554" s="2">
+        <v>42926</v>
+      </c>
+      <c r="D554" s="1">
+        <v>1</v>
+      </c>
+      <c r="E554" s="1">
+        <v>3</v>
+      </c>
+      <c r="F554" s="1">
+        <v>1</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A555" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B555" s="1">
+        <v>148</v>
+      </c>
+      <c r="C555" s="2">
+        <v>42921</v>
+      </c>
+      <c r="D555" s="1">
+        <v>4</v>
+      </c>
+      <c r="E555" s="1">
+        <v>1</v>
+      </c>
+      <c r="F555" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A556" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B556" s="1">
+        <v>148</v>
+      </c>
+      <c r="C556" s="2">
+        <v>42921</v>
+      </c>
+      <c r="D556" s="1">
+        <v>4</v>
+      </c>
+      <c r="E556" s="1">
+        <v>2</v>
+      </c>
+      <c r="F556" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A557" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B557" s="1">
+        <v>148</v>
+      </c>
+      <c r="C557" s="2">
+        <v>42921</v>
+      </c>
+      <c r="D557" s="1">
+        <v>4</v>
+      </c>
+      <c r="E557" s="1">
+        <v>3</v>
+      </c>
+      <c r="F557" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A558" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B558" s="1">
+        <v>148</v>
+      </c>
+      <c r="C558" s="2">
+        <v>42920</v>
+      </c>
+      <c r="D558" s="1">
+        <v>4</v>
+      </c>
+      <c r="E558" s="1">
+        <v>1</v>
+      </c>
+      <c r="F558" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A559" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B559" s="1">
+        <v>148</v>
+      </c>
+      <c r="C559" s="2">
+        <v>42920</v>
+      </c>
+      <c r="D559" s="1">
+        <v>4</v>
+      </c>
+      <c r="E559" s="1">
+        <v>2</v>
+      </c>
+      <c r="F559" s="1">
+        <v>1</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A560" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B560" s="1">
+        <v>148</v>
+      </c>
+      <c r="C560" s="2">
+        <v>42920</v>
+      </c>
+      <c r="D560" s="1">
+        <v>4</v>
+      </c>
+      <c r="E560" s="1">
+        <v>3</v>
+      </c>
+      <c r="F560" s="1">
+        <v>1</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A561" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B561" s="1">
+        <v>148</v>
+      </c>
+      <c r="C561" s="2">
+        <v>42920</v>
+      </c>
+      <c r="D561" s="1">
+        <v>4</v>
+      </c>
+      <c r="E561" s="1">
+        <v>4</v>
+      </c>
+      <c r="F561" s="1">
+        <v>1</v>
+      </c>
+      <c r="G561" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A562" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B562" s="1">
+        <v>148</v>
+      </c>
+      <c r="C562" s="2">
+        <v>42920</v>
+      </c>
+      <c r="D562" s="1">
+        <v>4</v>
+      </c>
+      <c r="E562" s="1">
+        <v>5</v>
+      </c>
+      <c r="F562" s="1">
+        <v>1</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:H308"/>
+  <autoFilter ref="B1:H557"/>
   <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9926,7 +15026,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9938,7 +15038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9950,7 +15050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9962,7 +15062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9974,6 +15074,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -9985,7 +15169,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
+  <conditionalFormatting sqref="F4">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -9997,7 +15181,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
+  <conditionalFormatting sqref="F4">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -10009,7 +15193,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
+  <conditionalFormatting sqref="F4">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -10021,7 +15205,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
+  <conditionalFormatting sqref="F4">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -10033,7 +15217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
+  <conditionalFormatting sqref="F4">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -10045,7 +15229,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
+  <conditionalFormatting sqref="F4">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -10058,7 +15242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10070,7 +15254,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10082,7 +15266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10094,7 +15278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10106,6 +15290,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -10117,7 +15313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -10129,7 +15325,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -10141,7 +15337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -10153,7 +15349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -10165,7 +15361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -10177,7 +15373,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -10189,7 +15385,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -10202,6 +15398,270 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F2 F6:F71 F73:F361 F463:F474 F478:F1048576">
+    <cfRule type="colorScale" priority="403">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F4 F6:F71 F73:F361 F463:F474 F478:F1048576">
+    <cfRule type="colorScale" priority="451">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F361 F463:F474 F478:F1048576">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F362:F462">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F362:F462">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F362:F462">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F474 F478:F1048576">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F475">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F475">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F475">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F475">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F476">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F476">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F476">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F476">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F477">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F477">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F477">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10213,164 +15673,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F477">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F6:F71 F73:F1048576">
-    <cfRule type="colorScale" priority="386">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F4 F6:F71 F73:F1048576">
-    <cfRule type="colorScale" priority="434">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$557</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$562</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="706">
   <si>
     <t>bat</t>
   </si>
@@ -343,9 +343,6 @@
     <t>b0034_d180305_TT3_SS02</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>part of unit 1?</t>
   </si>
   <si>
@@ -382,9 +379,6 @@
     <t>b0034_d180308_TT1_SS02</t>
   </si>
   <si>
-    <t>[57051958925 60107136206]</t>
-  </si>
-  <si>
     <t>too close to the noise</t>
   </si>
   <si>
@@ -457,9 +451,6 @@
     <t>multi-unit;partially stable</t>
   </si>
   <si>
-    <t>rapid large change in the middle, maybe use only one part?</t>
-  </si>
-  <si>
     <t>b0034_d180314_TT4_SS06</t>
   </si>
   <si>
@@ -670,9 +661,6 @@
     <t>b9861_d180523_TT3_SS04</t>
   </si>
   <si>
-    <t>maybe partiall stable?</t>
-  </si>
-  <si>
     <t>b9861_d180523_TT3_SS05</t>
   </si>
   <si>
@@ -763,9 +751,6 @@
     <t>b9861_d180525_TT4_SS04</t>
   </si>
   <si>
-    <t>partially stable?</t>
-  </si>
-  <si>
     <t>b9861_d180525_TT4_SS05</t>
   </si>
   <si>
@@ -856,9 +841,6 @@
     <t>b9861_d180526_TT3_SS06</t>
   </si>
   <si>
-    <t>fires only at sleep session (Or is it stable only during sleep session?)</t>
-  </si>
-  <si>
     <t>b9861_d180526_TT3_SS07</t>
   </si>
   <si>
@@ -949,12 +931,6 @@
     <t>b9861_d180527_TT3_SS05</t>
   </si>
   <si>
-    <t>merge of units 1+2</t>
-  </si>
-  <si>
-    <t>merge of units 1+2+3</t>
-  </si>
-  <si>
     <t>b9861_d180527_TT3_SS06</t>
   </si>
   <si>
@@ -1249,12 +1225,6 @@
     <t>b2289_d180518_TT2_SS08</t>
   </si>
   <si>
-    <t>merge with unit 7 and call it MU?</t>
-  </si>
-  <si>
-    <t>merge with unit 5 and call it MU?</t>
-  </si>
-  <si>
     <t>b2289_d180518_TT2_SS09</t>
   </si>
   <si>
@@ -1333,18 +1303,12 @@
     <t>b2289_d180528_TT2_SS02</t>
   </si>
   <si>
-    <t>not sure if isolated enough+partially stable</t>
-  </si>
-  <si>
     <t>b2289_d180528_TT3_SS01</t>
   </si>
   <si>
     <t>b2289_d180528_TT3_SS02</t>
   </si>
   <si>
-    <t>multi-unit close to the noise+partially stable</t>
-  </si>
-  <si>
     <t>b2289_d180529_TT2_SS01</t>
   </si>
   <si>
@@ -2054,6 +2018,135 @@
   </si>
   <si>
     <t>b0148_d170711_TT1_SS01</t>
+  </si>
+  <si>
+    <t>[57051767268 60107284499]</t>
+  </si>
+  <si>
+    <t>[40965790977 41520348298]</t>
+  </si>
+  <si>
+    <t>[43938950901 45615867304]</t>
+  </si>
+  <si>
+    <t>[53734102041 55429194965]</t>
+  </si>
+  <si>
+    <t>[60918346794 66649941537]</t>
+  </si>
+  <si>
+    <t>[60918561100 65104984271]</t>
+  </si>
+  <si>
+    <t>[61397956158 65104984271]</t>
+  </si>
+  <si>
+    <t>[58382872708 59717664599]</t>
+  </si>
+  <si>
+    <t>[54084009253 57300627211]</t>
+  </si>
+  <si>
+    <t>[56748248112 60766986241]</t>
+  </si>
+  <si>
+    <t>rapid large change in the middle, but stable one some channels</t>
+  </si>
+  <si>
+    <t>[61613964781 63812644848]</t>
+  </si>
+  <si>
+    <t>[63390934487 67071884446]</t>
+  </si>
+  <si>
+    <t>[63398622072 67072146679]</t>
+  </si>
+  <si>
+    <t>[30077994440 31736303809]</t>
+  </si>
+  <si>
+    <t>[30768203952 31286055923]</t>
+  </si>
+  <si>
+    <t>[28364646846 31285815484]</t>
+  </si>
+  <si>
+    <t>partiall stable</t>
+  </si>
+  <si>
+    <t>[28415113231 33435378278]</t>
+  </si>
+  <si>
+    <t>multi-unit close to the noise; partially stable (come and goes-discarded)</t>
+  </si>
+  <si>
+    <t>[29690967915 32601170965]</t>
+  </si>
+  <si>
+    <t>[30330420995 32037527048]</t>
+  </si>
+  <si>
+    <t>[30330616278 33296568297]</t>
+  </si>
+  <si>
+    <t>[32314292993 34035421271]</t>
+  </si>
+  <si>
+    <t>[32659018328 34037383216]</t>
+  </si>
+  <si>
+    <t>[31086738161 33177270711]</t>
+  </si>
+  <si>
+    <t>[31401852753 33246892208]</t>
+  </si>
+  <si>
+    <t>fires only at sleep sessions (maybe those are the spikes of unit 3 during sleep?) - discarded</t>
+  </si>
+  <si>
+    <t>[30442323607 32044182427]</t>
+  </si>
+  <si>
+    <t>[26272366127 32044182427]</t>
+  </si>
+  <si>
+    <t>merge of units 1+2; partially stable</t>
+  </si>
+  <si>
+    <t>merge of units 1+2+3; partially stable</t>
+  </si>
+  <si>
+    <t>[26272366127 30442323607]</t>
+  </si>
+  <si>
+    <t>[25387609418 26277023966]</t>
+  </si>
+  <si>
+    <t>[30586014600 33759785741]</t>
+  </si>
+  <si>
+    <t>[30598772266 33759785741]</t>
+  </si>
+  <si>
+    <t>[25309927821 29106128190]</t>
+  </si>
+  <si>
+    <t>[25319810779 29101683903]</t>
+  </si>
+  <si>
+    <t>[26637658647 31277412045]</t>
+  </si>
+  <si>
+    <t>units 1&amp;2 have fields 50m apart, but flight-by-flight varaibility is correlated???</t>
+  </si>
+  <si>
+    <t>[31890889738 34162429025]</t>
+  </si>
+  <si>
+    <t>partially stable; stable only during one sleep session - discard!</t>
+  </si>
+  <si>
+    <t>[75791192381 81075256803]</t>
   </si>
 </sst>
 </file>
@@ -2096,7 +2189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2109,6 +2202,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2393,8 +2489,8 @@
   <dimension ref="A1:S562"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G550" sqref="G550"/>
+      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2405,7 +2501,7 @@
     <col min="4" max="4" width="4.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="62.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="30.5" style="1" customWidth="1"/>
@@ -2555,8 +2651,11 @@
       <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>88</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>666</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>89</v>
@@ -2742,9 +2841,6 @@
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -2765,13 +2861,10 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1">
         <v>34</v>
@@ -2788,13 +2881,10 @@
       <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="1">
         <v>34</v>
@@ -2811,13 +2901,10 @@
       <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1">
         <v>34</v>
@@ -2835,15 +2922,12 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="1">
         <v>34</v>
@@ -2860,13 +2944,10 @@
       <c r="F18" s="1">
         <v>2</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1">
         <v>34</v>
@@ -2884,10 +2965,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -2909,13 +2987,10 @@
       <c r="F20" s="1">
         <v>2</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="1">
         <v>34</v>
@@ -2935,9 +3010,6 @@
       <c r="G21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -2958,9 +3030,6 @@
       <c r="F22" s="1">
         <v>2</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -2982,9 +3051,6 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3007,13 +3073,10 @@
       <c r="F24" s="1">
         <v>2</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="1">
         <v>34</v>
@@ -3031,15 +3094,12 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="1">
         <v>34</v>
@@ -3062,7 +3122,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="1">
         <v>34</v>
@@ -3102,14 +3162,14 @@
       <c r="F28" s="1">
         <v>2</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>117</v>
+        <v>663</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3132,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -3155,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -3177,13 +3237,16 @@
       <c r="F31" s="1">
         <v>1</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="5" t="s">
         <v>88</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B32" s="1">
         <v>34</v>
@@ -3200,8 +3263,11 @@
       <c r="F32" s="1">
         <v>1</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="5" t="s">
         <v>88</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -3224,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -3247,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -3312,7 +3378,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B38" s="1">
         <v>34</v>
@@ -3330,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -3356,7 +3422,7 @@
         <v>88</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -3379,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3401,10 +3467,12 @@
       <c r="F41" s="1">
         <v>2</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -3425,9 +3493,6 @@
       <c r="F42" s="1">
         <v>2</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -3448,8 +3513,11 @@
       <c r="F43" s="1">
         <v>1</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>125</v>
+      <c r="G43" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -3471,8 +3539,11 @@
       <c r="F44" s="1">
         <v>1</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>125</v>
+      <c r="G44" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -3494,8 +3565,11 @@
       <c r="F45" s="1">
         <v>1</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>125</v>
+      <c r="G45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -3560,7 +3634,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B49" s="1">
         <v>34</v>
@@ -3583,7 +3657,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B50" s="1">
         <v>34</v>
@@ -3623,8 +3697,11 @@
       <c r="F51" s="1">
         <v>2</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="5" t="s">
         <v>88</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -3687,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -3730,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -3753,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -3816,7 +3893,7 @@
         <v>1.5</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -3839,7 +3916,7 @@
         <v>1.5</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -3902,7 +3979,7 @@
         <v>1.5</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -3925,7 +4002,7 @@
         <v>1.5</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -3947,11 +4024,14 @@
       <c r="F66" s="1">
         <v>2</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="H66" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="K66" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -3994,7 +4074,7 @@
         <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -4017,7 +4097,7 @@
         <v>2</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -4043,7 +4123,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>40</v>
       </c>
@@ -4062,16 +4142,19 @@
       <c r="F71" s="1">
         <v>2</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="H71" s="1" t="s">
+        <v>672</v>
+      </c>
       <c r="K71" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B72" s="1">
         <v>34</v>
@@ -4215,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -4238,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -4284,7 +4367,7 @@
         <v>1.5</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -4327,7 +4410,7 @@
         <v>1.5</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -4370,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -4393,7 +4476,7 @@
         <v>2</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -4415,8 +4498,8 @@
       <c r="F87" s="1">
         <v>2</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>142</v>
+      <c r="G87" s="5" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -4438,9 +4521,7 @@
       <c r="F88" s="1">
         <v>2</v>
       </c>
-      <c r="G88" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="G88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
@@ -4461,9 +4542,7 @@
       <c r="F89" s="1">
         <v>2</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
@@ -4484,8 +4563,11 @@
       <c r="F90" s="1">
         <v>1</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>141</v>
+      <c r="G90" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -4507,13 +4589,16 @@
       <c r="F91" s="1">
         <v>2</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G91" s="5" t="s">
         <v>88</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B92" s="1">
         <v>34</v>
@@ -4530,8 +4615,11 @@
       <c r="F92" s="1">
         <v>1</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>141</v>
+      <c r="G92" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -4597,7 +4685,7 @@
         <v>1.5</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -4620,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -4686,10 +4774,10 @@
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -4712,10 +4800,10 @@
         <v>2</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -4738,10 +4826,10 @@
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -4766,7 +4854,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B103" s="1">
         <v>9861</v>
@@ -4784,12 +4872,12 @@
         <v>1</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B104" s="1">
         <v>9861</v>
@@ -4807,12 +4895,12 @@
         <v>1</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B105" s="1">
         <v>9861</v>
@@ -4830,12 +4918,12 @@
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B106" s="1">
         <v>9861</v>
@@ -4853,7 +4941,7 @@
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>89</v>
@@ -4861,7 +4949,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B107" s="1">
         <v>9861</v>
@@ -4879,7 +4967,7 @@
         <v>2</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>89</v>
@@ -4887,7 +4975,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B108" s="1">
         <v>9861</v>
@@ -4905,7 +4993,7 @@
         <v>2</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>89</v>
@@ -4913,7 +5001,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B109" s="1">
         <v>9861</v>
@@ -4931,7 +5019,7 @@
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>89</v>
@@ -4939,7 +5027,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B110" s="1">
         <v>9861</v>
@@ -4957,7 +5045,7 @@
         <v>2</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>89</v>
@@ -4965,7 +5053,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B111" s="1">
         <v>9861</v>
@@ -4982,19 +5070,22 @@
       <c r="F111" s="1">
         <v>2</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G111" s="5" t="s">
         <v>88</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>677</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B112" s="1">
         <v>9861</v>
@@ -5014,7 +5105,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B113" s="1">
         <v>9861</v>
@@ -5034,7 +5125,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B114" s="1">
         <v>9861</v>
@@ -5054,7 +5145,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B115" s="1">
         <v>9861</v>
@@ -5072,12 +5163,12 @@
         <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B116" s="1">
         <v>9861</v>
@@ -5094,8 +5185,11 @@
       <c r="F116" s="1">
         <v>2</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>165</v>
+      <c r="G116" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>89</v>
@@ -5103,7 +5197,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B117" s="1">
         <v>9861</v>
@@ -5121,18 +5215,18 @@
         <v>2</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B118" s="1">
         <v>9861</v>
@@ -5153,12 +5247,12 @@
         <v>89</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B119" s="1">
         <v>9861</v>
@@ -5179,12 +5273,12 @@
         <v>89</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B120" s="1">
         <v>9861</v>
@@ -5201,8 +5295,11 @@
       <c r="F120" s="1">
         <v>1</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>169</v>
+      <c r="G120" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>679</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>89</v>
@@ -5210,7 +5307,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B121" s="1">
         <v>9861</v>
@@ -5228,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>89</v>
@@ -5236,7 +5333,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B122" s="1">
         <v>9861</v>
@@ -5254,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>89</v>
@@ -5262,7 +5359,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B123" s="1">
         <v>9861</v>
@@ -5280,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>89</v>
@@ -5288,7 +5385,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B124" s="1">
         <v>9861</v>
@@ -5306,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>89</v>
@@ -5314,7 +5411,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B125" s="1">
         <v>9861</v>
@@ -5332,18 +5429,18 @@
         <v>2</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B126" s="1">
         <v>9861</v>
@@ -5361,12 +5458,12 @@
         <v>1</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B127" s="1">
         <v>9861</v>
@@ -5384,12 +5481,12 @@
         <v>1</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B128" s="1">
         <v>9861</v>
@@ -5407,12 +5504,12 @@
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B129" s="1">
         <v>9861</v>
@@ -5430,12 +5527,12 @@
         <v>2</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B130" s="1">
         <v>9861</v>
@@ -5453,12 +5550,12 @@
         <v>1</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B131" s="1">
         <v>9861</v>
@@ -5476,15 +5573,15 @@
         <v>2</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B132" s="1">
         <v>9861</v>
@@ -5504,7 +5601,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B133" s="1">
         <v>9861</v>
@@ -5524,7 +5621,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B134" s="1">
         <v>9861</v>
@@ -5542,12 +5639,12 @@
         <v>1</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B135" s="1">
         <v>9861</v>
@@ -5565,12 +5662,12 @@
         <v>1</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B136" s="1">
         <v>9861</v>
@@ -5588,12 +5685,12 @@
         <v>1</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B137" s="1">
         <v>9861</v>
@@ -5611,12 +5708,12 @@
         <v>1</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B138" s="1">
         <v>9861</v>
@@ -5634,12 +5731,12 @@
         <v>1</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B139" s="1">
         <v>9861</v>
@@ -5657,12 +5754,12 @@
         <v>1</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B140" s="1">
         <v>9861</v>
@@ -5680,12 +5777,12 @@
         <v>1</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B141" s="1">
         <v>9861</v>
@@ -5703,12 +5800,12 @@
         <v>1</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B142" s="1">
         <v>9861</v>
@@ -5728,7 +5825,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B143" s="1">
         <v>9861</v>
@@ -5746,12 +5843,12 @@
         <v>0</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B144" s="1">
         <v>9861</v>
@@ -5769,9 +5866,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B145" s="1">
         <v>9861</v>
@@ -5789,9 +5886,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B146" s="1">
         <v>9861</v>
@@ -5809,9 +5906,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B147" s="1">
         <v>9861</v>
@@ -5829,9 +5926,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B148" s="1">
         <v>9861</v>
@@ -5849,12 +5946,12 @@
         <v>1</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B149" s="1">
         <v>9861</v>
@@ -5872,12 +5969,12 @@
         <v>1</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B150" s="1">
         <v>9861</v>
@@ -5895,12 +5992,12 @@
         <v>1</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B151" s="1">
         <v>9861</v>
@@ -5918,12 +6015,12 @@
         <v>1</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B152" s="1">
         <v>9861</v>
@@ -5941,12 +6038,12 @@
         <v>1</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B153" s="1">
         <v>9861</v>
@@ -5964,12 +6061,12 @@
         <v>1</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B154" s="1">
         <v>9861</v>
@@ -5987,12 +6084,12 @@
         <v>1</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B155" s="1">
         <v>9861</v>
@@ -6010,12 +6107,12 @@
         <v>1</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B156" s="1">
         <v>9861</v>
@@ -6033,9 +6130,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B157" s="1">
         <v>9861</v>
@@ -6053,9 +6150,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B158" s="1">
         <v>9861</v>
@@ -6073,12 +6170,15 @@
         <v>2</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B159" s="1">
         <v>9861</v>
@@ -6096,12 +6196,12 @@
         <v>1</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B160" s="1">
         <v>9861</v>
@@ -6116,15 +6216,15 @@
         <v>5</v>
       </c>
       <c r="F160" s="1">
-        <v>1</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B161" s="1">
         <v>9861</v>
@@ -6142,12 +6242,12 @@
         <v>1</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B162" s="1">
         <v>9861</v>
@@ -6167,7 +6267,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B163" s="1">
         <v>9861</v>
@@ -6187,7 +6287,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B164" s="1">
         <v>9861</v>
@@ -6207,7 +6307,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B165" s="1">
         <v>9861</v>
@@ -6227,7 +6327,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B166" s="1">
         <v>9861</v>
@@ -6247,7 +6347,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B167" s="1">
         <v>9861</v>
@@ -6265,12 +6365,12 @@
         <v>1</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B168" s="1">
         <v>9861</v>
@@ -6288,12 +6388,12 @@
         <v>1</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B169" s="1">
         <v>9861</v>
@@ -6311,12 +6411,12 @@
         <v>1</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B170" s="1">
         <v>9861</v>
@@ -6334,12 +6434,12 @@
         <v>1</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B171" s="1">
         <v>9861</v>
@@ -6357,12 +6457,12 @@
         <v>1</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B172" s="1">
         <v>9861</v>
@@ -6380,12 +6480,12 @@
         <v>1</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B173" s="1">
         <v>9861</v>
@@ -6403,12 +6503,12 @@
         <v>1</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B174" s="1">
         <v>9861</v>
@@ -6426,12 +6526,12 @@
         <v>1</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B175" s="1">
         <v>9861</v>
@@ -6449,12 +6549,12 @@
         <v>1</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B176" s="1">
         <v>9861</v>
@@ -6472,12 +6572,12 @@
         <v>1</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B177" s="1">
         <v>9861</v>
@@ -6495,9 +6595,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B178" s="1">
         <v>9861</v>
@@ -6515,9 +6615,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B179" s="1">
         <v>9861</v>
@@ -6535,9 +6635,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B180" s="1">
         <v>9861</v>
@@ -6555,12 +6655,12 @@
         <v>1</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B181" s="1">
         <v>9861</v>
@@ -6578,9 +6678,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B182" s="1">
         <v>9861</v>
@@ -6598,9 +6698,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B183" s="1">
         <v>9861</v>
@@ -6618,12 +6718,12 @@
         <v>1</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B184" s="1">
         <v>9861</v>
@@ -6641,9 +6741,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B185" s="1">
         <v>9861</v>
@@ -6661,9 +6761,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B186" s="1">
         <v>9861</v>
@@ -6681,9 +6781,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B187" s="1">
         <v>9861</v>
@@ -6700,13 +6800,11 @@
       <c r="F187" s="1">
         <v>2</v>
       </c>
-      <c r="G187" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G187" s="5"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B188" s="1">
         <v>9861</v>
@@ -6724,12 +6822,12 @@
         <v>1</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B189" s="1">
         <v>9861</v>
@@ -6746,13 +6844,16 @@
       <c r="F189" s="1">
         <v>2</v>
       </c>
-      <c r="G189" s="3" t="s">
+      <c r="G189" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H189" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B190" s="1">
         <v>9861</v>
@@ -6770,12 +6871,12 @@
         <v>1</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B191" s="1">
         <v>9861</v>
@@ -6793,12 +6894,12 @@
         <v>1</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B192" s="1">
         <v>9861</v>
@@ -6816,12 +6917,12 @@
         <v>1</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B193" s="1">
         <v>9861</v>
@@ -6839,9 +6940,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B194" s="1">
         <v>9861</v>
@@ -6859,9 +6960,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B195" s="1">
         <v>9861</v>
@@ -6879,9 +6980,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B196" s="1">
         <v>9861</v>
@@ -6898,13 +6999,16 @@
       <c r="F196" s="1">
         <v>2</v>
       </c>
-      <c r="G196" s="3" t="s">
+      <c r="G196" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H196" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B197" s="1">
         <v>9861</v>
@@ -6921,13 +7025,16 @@
       <c r="F197" s="1">
         <v>2</v>
       </c>
-      <c r="G197" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G197" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B198" s="1">
         <v>9861</v>
@@ -6944,13 +7051,16 @@
       <c r="F198" s="1">
         <v>2</v>
       </c>
-      <c r="G198" s="3" t="s">
+      <c r="G198" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H198" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B199" s="1">
         <v>9861</v>
@@ -6967,13 +7077,16 @@
       <c r="F199" s="1">
         <v>2</v>
       </c>
-      <c r="G199" s="3" t="s">
+      <c r="G199" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H199" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B200" s="1">
         <v>9861</v>
@@ -6991,12 +7104,12 @@
         <v>1</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B201" s="1">
         <v>9861</v>
@@ -7014,12 +7127,12 @@
         <v>1</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B202" s="1">
         <v>9861</v>
@@ -7037,12 +7150,12 @@
         <v>1</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B203" s="1">
         <v>9861</v>
@@ -7060,12 +7173,12 @@
         <v>1</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B204" s="1">
         <v>9861</v>
@@ -7083,12 +7196,12 @@
         <v>1</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B205" s="1">
         <v>9861</v>
@@ -7106,12 +7219,12 @@
         <v>1</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B206" s="1">
         <v>9861</v>
@@ -7129,12 +7242,12 @@
         <v>1</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B207" s="1">
         <v>9861</v>
@@ -7152,12 +7265,12 @@
         <v>1</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B208" s="1">
         <v>9861</v>
@@ -7175,12 +7288,12 @@
         <v>1</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B209" s="1">
         <v>9861</v>
@@ -7198,12 +7311,12 @@
         <v>1</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B210" s="1">
         <v>9861</v>
@@ -7221,9 +7334,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B211" s="1">
         <v>9861</v>
@@ -7241,9 +7354,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B212" s="1">
         <v>9861</v>
@@ -7260,13 +7373,16 @@
       <c r="F212" s="1">
         <v>2</v>
       </c>
-      <c r="G212" s="3" t="s">
+      <c r="G212" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H212" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B213" s="1">
         <v>9861</v>
@@ -7283,13 +7399,16 @@
       <c r="F213" s="1">
         <v>2</v>
       </c>
-      <c r="G213" s="3" t="s">
+      <c r="G213" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H213" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B214" s="1">
         <v>9861</v>
@@ -7307,9 +7426,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B215" s="1">
         <v>9861</v>
@@ -7324,15 +7443,15 @@
         <v>6</v>
       </c>
       <c r="F215" s="1">
-        <v>2</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B216" s="1">
         <v>9861</v>
@@ -7350,9 +7469,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B217" s="1">
         <v>9861</v>
@@ -7370,9 +7489,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B218" s="1">
         <v>9861</v>
@@ -7390,12 +7509,12 @@
         <v>1</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B219" s="1">
         <v>9861</v>
@@ -7413,12 +7532,12 @@
         <v>1</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B220" s="1">
         <v>9861</v>
@@ -7436,12 +7555,12 @@
         <v>1</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B221" s="1">
         <v>9861</v>
@@ -7459,9 +7578,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B222" s="1">
         <v>9861</v>
@@ -7479,9 +7598,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B223" s="1">
         <v>9861</v>
@@ -7499,9 +7618,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B224" s="1">
         <v>9861</v>
@@ -7519,9 +7638,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B225" s="1">
         <v>9861</v>
@@ -7539,9 +7658,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B226" s="1">
         <v>9861</v>
@@ -7559,12 +7678,12 @@
         <v>1</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B227" s="1">
         <v>9861</v>
@@ -7582,12 +7701,12 @@
         <v>1</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B228" s="1">
         <v>9861</v>
@@ -7605,12 +7724,12 @@
         <v>1</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B229" s="1">
         <v>9861</v>
@@ -7628,12 +7747,12 @@
         <v>1</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B230" s="1">
         <v>9861</v>
@@ -7651,12 +7770,12 @@
         <v>1</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B231" s="1">
         <v>9861</v>
@@ -7674,9 +7793,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B232" s="1">
         <v>9861</v>
@@ -7694,9 +7813,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B233" s="1">
         <v>9861</v>
@@ -7714,12 +7833,12 @@
         <v>2</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B234" s="1">
         <v>9861</v>
@@ -7737,12 +7856,12 @@
         <v>1</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B235" s="1">
         <v>9861</v>
@@ -7760,12 +7879,12 @@
         <v>1</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B236" s="1">
         <v>9861</v>
@@ -7783,12 +7902,12 @@
         <v>1</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B237" s="1">
         <v>9861</v>
@@ -7806,12 +7925,12 @@
         <v>1</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B238" s="1">
         <v>9861</v>
@@ -7829,12 +7948,12 @@
         <v>1</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B239" s="1">
         <v>9861</v>
@@ -7851,13 +7970,16 @@
       <c r="F239" s="1">
         <v>2</v>
       </c>
-      <c r="G239" s="3" t="s">
+      <c r="G239" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H239" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B240" s="1">
         <v>9861</v>
@@ -7874,13 +7996,16 @@
       <c r="F240" s="1">
         <v>2</v>
       </c>
-      <c r="G240" s="3" t="s">
+      <c r="G240" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H240" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B241" s="1">
         <v>9861</v>
@@ -7897,13 +8022,16 @@
       <c r="F241" s="1">
         <v>1</v>
       </c>
-      <c r="G241" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G241" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B242" s="1">
         <v>9861</v>
@@ -7921,12 +8049,15 @@
         <v>1</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B243" s="1">
         <v>9861</v>
@@ -7944,12 +8075,15 @@
         <v>1</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B244" s="1">
         <v>9861</v>
@@ -7967,9 +8101,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B245" s="1">
         <v>9861</v>
@@ -7987,12 +8121,12 @@
         <v>1</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B246" s="1">
         <v>9861</v>
@@ -8010,12 +8144,12 @@
         <v>1</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B247" s="1">
         <v>9861</v>
@@ -8033,12 +8167,12 @@
         <v>1</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B248" s="1">
         <v>9861</v>
@@ -8056,9 +8190,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B249" s="1">
         <v>9861</v>
@@ -8076,9 +8210,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B250" s="1">
         <v>9861</v>
@@ -8096,12 +8230,12 @@
         <v>1</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B251" s="1">
         <v>9861</v>
@@ -8119,9 +8253,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B252" s="1">
         <v>9861</v>
@@ -8139,9 +8273,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B253" s="1">
         <v>9861</v>
@@ -8159,9 +8293,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B254" s="1">
         <v>9861</v>
@@ -8179,12 +8313,12 @@
         <v>1</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B255" s="1">
         <v>9861</v>
@@ -8202,12 +8336,12 @@
         <v>1</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B256" s="1">
         <v>9861</v>
@@ -8225,12 +8359,12 @@
         <v>1</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B257" s="1">
         <v>9861</v>
@@ -8248,9 +8382,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B258" s="1">
         <v>9861</v>
@@ -8268,9 +8402,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B259" s="1">
         <v>9861</v>
@@ -8288,12 +8422,12 @@
         <v>1</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B260" s="1">
         <v>9861</v>
@@ -8311,12 +8445,12 @@
         <v>1</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B261" s="1">
         <v>9861</v>
@@ -8334,9 +8468,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B262" s="1">
         <v>9861</v>
@@ -8354,12 +8488,12 @@
         <v>1</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B263" s="1">
         <v>9861</v>
@@ -8377,9 +8511,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B264" s="1">
         <v>9861</v>
@@ -8397,9 +8531,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B265" s="1">
         <v>9861</v>
@@ -8416,13 +8550,16 @@
       <c r="F265" s="1">
         <v>2</v>
       </c>
-      <c r="G265" s="3" t="s">
+      <c r="G265" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H265" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B266" s="1">
         <v>9861</v>
@@ -8439,13 +8576,16 @@
       <c r="F266" s="1">
         <v>1</v>
       </c>
-      <c r="G266" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G266" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B267" s="1">
         <v>9861</v>
@@ -8463,9 +8603,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B268" s="1">
         <v>9861</v>
@@ -8483,12 +8623,12 @@
         <v>1</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B269" s="1">
         <v>9861</v>
@@ -8506,12 +8646,12 @@
         <v>1</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B270" s="1">
         <v>9861</v>
@@ -8529,9 +8669,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B271" s="1">
         <v>9861</v>
@@ -8549,12 +8689,12 @@
         <v>1</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B272" s="1">
         <v>9861</v>
@@ -8572,12 +8712,12 @@
         <v>1</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B273" s="1">
         <v>9861</v>
@@ -8595,12 +8735,12 @@
         <v>1</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B274" s="1">
         <v>9861</v>
@@ -8618,12 +8758,12 @@
         <v>1</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B275" s="1">
         <v>9861</v>
@@ -8641,12 +8781,12 @@
         <v>2</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B276" s="1">
         <v>9861</v>
@@ -8664,12 +8804,12 @@
         <v>1</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B277" s="1">
         <v>9861</v>
@@ -8689,7 +8829,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B278" s="1">
         <v>9861</v>
@@ -8707,12 +8847,12 @@
         <v>1</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B279" s="1">
         <v>9861</v>
@@ -8730,12 +8870,12 @@
         <v>1</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B280" s="1">
         <v>9861</v>
@@ -8753,12 +8893,12 @@
         <v>1</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B281" s="1">
         <v>9861</v>
@@ -8776,12 +8916,12 @@
         <v>1</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B282" s="1">
         <v>9861</v>
@@ -8799,12 +8939,12 @@
         <v>1</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B283" s="1">
         <v>9861</v>
@@ -8822,12 +8962,12 @@
         <v>1</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B284" s="1">
         <v>9861</v>
@@ -8845,12 +8985,12 @@
         <v>1</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B285" s="1">
         <v>9861</v>
@@ -8868,12 +9008,12 @@
         <v>1</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B286" s="1">
         <v>9861</v>
@@ -8893,7 +9033,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B287" s="1">
         <v>9861</v>
@@ -8913,7 +9053,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B288" s="1">
         <v>9861</v>
@@ -8933,7 +9073,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B289" s="1">
         <v>9861</v>
@@ -8951,12 +9091,12 @@
         <v>1</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B290" s="1">
         <v>9861</v>
@@ -8974,12 +9114,12 @@
         <v>1</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B291" s="1">
         <v>9861</v>
@@ -8997,12 +9137,12 @@
         <v>1</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B292" s="1">
         <v>9861</v>
@@ -9020,12 +9160,12 @@
         <v>1</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B293" s="1">
         <v>9861</v>
@@ -9043,12 +9183,12 @@
         <v>1</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B294" s="1">
         <v>9861</v>
@@ -9066,12 +9206,12 @@
         <v>1</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B295" s="1">
         <v>9861</v>
@@ -9089,12 +9229,12 @@
         <v>1</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B296" s="1">
         <v>9861</v>
@@ -9112,12 +9252,12 @@
         <v>1</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B297" s="1">
         <v>9861</v>
@@ -9135,12 +9275,12 @@
         <v>1</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B298" s="1">
         <v>9861</v>
@@ -9160,7 +9300,7 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B299" s="1">
         <v>9861</v>
@@ -9180,7 +9320,7 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B300" s="1">
         <v>9861</v>
@@ -9198,12 +9338,12 @@
         <v>1</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B301" s="1">
         <v>9861</v>
@@ -9221,12 +9361,12 @@
         <v>1</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B302" s="1">
         <v>9861</v>
@@ -9244,12 +9384,12 @@
         <v>2</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B303" s="1">
         <v>9861</v>
@@ -9267,12 +9407,12 @@
         <v>1</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B304" s="1">
         <v>9861</v>
@@ -9290,12 +9430,12 @@
         <v>1</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B305" s="1">
         <v>9861</v>
@@ -9315,7 +9455,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B306" s="1">
         <v>9861</v>
@@ -9333,12 +9473,12 @@
         <v>1</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B307" s="1">
         <v>9861</v>
@@ -9356,12 +9496,12 @@
         <v>1</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B308" s="1">
         <v>9861</v>
@@ -9379,12 +9519,12 @@
         <v>1</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B309" s="1">
         <v>2289</v>
@@ -9402,12 +9542,12 @@
         <v>2</v>
       </c>
       <c r="K309" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B310" s="1">
         <v>2289</v>
@@ -9425,12 +9565,12 @@
         <v>0</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B311" s="1">
         <v>2289</v>
@@ -9448,12 +9588,12 @@
         <v>0</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B312" s="1">
         <v>2289</v>
@@ -9471,12 +9611,12 @@
         <v>0</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B313" s="1">
         <v>2289</v>
@@ -9494,15 +9634,15 @@
         <v>2</v>
       </c>
       <c r="J313" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B314" s="1">
         <v>2289</v>
@@ -9520,12 +9660,12 @@
         <v>2</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B315" s="1">
         <v>2289</v>
@@ -9543,12 +9683,12 @@
         <v>2</v>
       </c>
       <c r="K315" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B316" s="1">
         <v>2289</v>
@@ -9566,15 +9706,15 @@
         <v>0</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B317" s="1">
         <v>2289</v>
@@ -9592,12 +9732,12 @@
         <v>2</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B318" s="1">
         <v>2289</v>
@@ -9615,15 +9755,15 @@
         <v>0</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K318" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B319" s="1">
         <v>2289</v>
@@ -9640,16 +9780,19 @@
       <c r="F319" s="1">
         <v>2</v>
       </c>
-      <c r="G319" s="3" t="s">
+      <c r="G319" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="H319" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="K319" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B320" s="1">
         <v>2289</v>
@@ -9667,12 +9810,12 @@
         <v>2</v>
       </c>
       <c r="K320" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B321" s="1">
         <v>2289</v>
@@ -9690,12 +9833,12 @@
         <v>2</v>
       </c>
       <c r="K321" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B322" s="1">
         <v>2289</v>
@@ -9713,12 +9856,12 @@
         <v>2</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B323" s="1">
         <v>2289</v>
@@ -9736,12 +9879,12 @@
         <v>2</v>
       </c>
       <c r="K323" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B324" s="1">
         <v>2289</v>
@@ -9761,7 +9904,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B325" s="1">
         <v>2289</v>
@@ -9781,7 +9924,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B326" s="1">
         <v>2289</v>
@@ -9798,13 +9941,16 @@
       <c r="F326" s="1">
         <v>2</v>
       </c>
-      <c r="G326" s="3" t="s">
+      <c r="G326" s="5" t="s">
         <v>88</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B327" s="1">
         <v>2289</v>
@@ -9824,7 +9970,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B328" s="1">
         <v>2289</v>
@@ -9839,15 +9985,12 @@
         <v>5</v>
       </c>
       <c r="F328" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G328" s="1" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B329" s="1">
         <v>2289</v>
@@ -9864,13 +10007,16 @@
       <c r="F329" s="1">
         <v>2</v>
       </c>
-      <c r="G329" s="3" t="s">
+      <c r="G329" s="5" t="s">
         <v>88</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B330" s="1">
         <v>2289</v>
@@ -9885,15 +10031,12 @@
         <v>7</v>
       </c>
       <c r="F330" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G330" s="1" t="s">
-        <v>407</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B331" s="1">
         <v>2289</v>
@@ -9913,7 +10056,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B332" s="1">
         <v>2289</v>
@@ -9931,12 +10074,12 @@
         <v>1</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B333" s="1">
         <v>2289</v>
@@ -9954,12 +10097,12 @@
         <v>1</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B334" s="1">
         <v>2289</v>
@@ -9977,12 +10120,12 @@
         <v>1</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B335" s="1">
         <v>2289</v>
@@ -10000,12 +10143,12 @@
         <v>1</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B336" s="1">
         <v>2289</v>
@@ -10025,7 +10168,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B337" s="1">
         <v>2289</v>
@@ -10043,15 +10186,15 @@
         <v>2</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="K337" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B338" s="1">
         <v>2289</v>
@@ -10069,15 +10212,15 @@
         <v>2</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="K338" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B339" s="1">
         <v>2289</v>
@@ -10095,12 +10238,12 @@
         <v>2</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B340" s="1">
         <v>2289</v>
@@ -10118,12 +10261,12 @@
         <v>1</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B341" s="1">
         <v>2289</v>
@@ -10141,12 +10284,12 @@
         <v>1</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B342" s="1">
         <v>2289</v>
@@ -10164,12 +10307,12 @@
         <v>1</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B343" s="1">
         <v>2289</v>
@@ -10187,12 +10330,12 @@
         <v>1</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B344" s="1">
         <v>2289</v>
@@ -10210,12 +10353,12 @@
         <v>1</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B345" s="1">
         <v>2289</v>
@@ -10233,12 +10376,12 @@
         <v>1</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B346" s="1">
         <v>2289</v>
@@ -10256,12 +10399,12 @@
         <v>1</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B347" s="1">
         <v>2289</v>
@@ -10279,12 +10422,12 @@
         <v>1</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B348" s="1">
         <v>2289</v>
@@ -10302,12 +10445,12 @@
         <v>1</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B349" s="1">
         <v>2289</v>
@@ -10325,12 +10468,12 @@
         <v>1</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B350" s="1">
         <v>2289</v>
@@ -10348,12 +10491,12 @@
         <v>1</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B351" s="1">
         <v>2289</v>
@@ -10368,15 +10511,21 @@
         <v>1</v>
       </c>
       <c r="F351" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G351" s="3" t="s">
-        <v>434</v>
+        <v>2</v>
+      </c>
+      <c r="G351" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="K351" s="1" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B352" s="1">
         <v>2289</v>
@@ -10391,15 +10540,18 @@
         <v>2</v>
       </c>
       <c r="F352" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G352" s="3" t="s">
-        <v>434</v>
+        <v>2</v>
+      </c>
+      <c r="G352" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B353" s="1">
         <v>2289</v>
@@ -10414,15 +10566,18 @@
         <v>1</v>
       </c>
       <c r="F353" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G353" s="3" t="s">
-        <v>434</v>
+        <v>2</v>
+      </c>
+      <c r="G353" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B354" s="1">
         <v>2289</v>
@@ -10439,13 +10594,16 @@
       <c r="F354" s="1">
         <v>1</v>
       </c>
-      <c r="G354" s="3" t="s">
-        <v>437</v>
+      <c r="G354" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="B355" s="1">
         <v>2289</v>
@@ -10463,12 +10621,12 @@
         <v>1</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B356" s="1">
         <v>2289</v>
@@ -10486,12 +10644,12 @@
         <v>1</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B357" s="1">
         <v>2289</v>
@@ -10509,12 +10667,12 @@
         <v>1</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B358" s="1">
         <v>2289</v>
@@ -10532,12 +10690,12 @@
         <v>1</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B359" s="1">
         <v>2289</v>
@@ -10557,7 +10715,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B360" s="1">
         <v>2289</v>
@@ -10575,12 +10733,12 @@
         <v>1</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B361" s="1">
         <v>2289</v>
@@ -10598,12 +10756,12 @@
         <v>1</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B362" s="1">
         <v>79</v>
@@ -10623,7 +10781,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B363" s="1">
         <v>79</v>
@@ -10641,15 +10799,15 @@
         <v>2</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B364" s="1">
         <v>79</v>
@@ -10667,12 +10825,12 @@
         <v>1</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B365" s="1">
         <v>79</v>
@@ -10690,12 +10848,12 @@
         <v>2</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B366" s="1">
         <v>79</v>
@@ -10715,7 +10873,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B367" s="1">
         <v>79</v>
@@ -10733,12 +10891,12 @@
         <v>1.5</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B368" s="1">
         <v>79</v>
@@ -10761,7 +10919,7 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B369" s="1">
         <v>79</v>
@@ -10779,12 +10937,12 @@
         <v>1.5</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B370" s="1">
         <v>79</v>
@@ -10802,12 +10960,12 @@
         <v>1.5</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B371" s="1">
         <v>79</v>
@@ -10827,7 +10985,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B372" s="1">
         <v>79</v>
@@ -10847,7 +11005,7 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B373" s="1">
         <v>79</v>
@@ -10867,7 +11025,7 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B374" s="1">
         <v>79</v>
@@ -10885,12 +11043,12 @@
         <v>2</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B375" s="1">
         <v>79</v>
@@ -10908,12 +11066,12 @@
         <v>2</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B376" s="1">
         <v>79</v>
@@ -10934,12 +11092,12 @@
         <v>79</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B377" s="1">
         <v>79</v>
@@ -10962,7 +11120,7 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B378" s="1">
         <v>79</v>
@@ -10982,7 +11140,7 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B379" s="1">
         <v>79</v>
@@ -11002,7 +11160,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B380" s="1">
         <v>79</v>
@@ -11022,7 +11180,7 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B381" s="1">
         <v>79</v>
@@ -11042,7 +11200,7 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B382" s="1">
         <v>79</v>
@@ -11060,12 +11218,12 @@
         <v>1</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B383" s="1">
         <v>79</v>
@@ -11083,12 +11241,12 @@
         <v>2</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B384" s="1">
         <v>79</v>
@@ -11108,7 +11266,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B385" s="1">
         <v>79</v>
@@ -11128,7 +11286,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B386" s="1">
         <v>79</v>
@@ -11148,7 +11306,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B387" s="1">
         <v>79</v>
@@ -11168,7 +11326,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B388" s="1">
         <v>79</v>
@@ -11188,7 +11346,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B389" s="1">
         <v>79</v>
@@ -11206,12 +11364,12 @@
         <v>1</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B390" s="1">
         <v>79</v>
@@ -11229,12 +11387,12 @@
         <v>1</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B391" s="1">
         <v>79</v>
@@ -11254,7 +11412,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B392" s="1">
         <v>79</v>
@@ -11272,15 +11430,15 @@
         <v>1</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K392" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B393" s="1">
         <v>79</v>
@@ -11298,12 +11456,12 @@
         <v>1</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B394" s="1">
         <v>79</v>
@@ -11323,7 +11481,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B395" s="1">
         <v>79</v>
@@ -11343,7 +11501,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B396" s="1">
         <v>79</v>
@@ -11363,7 +11521,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B397" s="1">
         <v>79</v>
@@ -11386,7 +11544,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B398" s="1">
         <v>79</v>
@@ -11406,7 +11564,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B399" s="1">
         <v>79</v>
@@ -11426,7 +11584,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B400" s="1">
         <v>79</v>
@@ -11446,7 +11604,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B401" s="1">
         <v>79</v>
@@ -11466,7 +11624,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B402" s="1">
         <v>79</v>
@@ -11486,7 +11644,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B403" s="1">
         <v>79</v>
@@ -11504,15 +11662,15 @@
         <v>1</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="K403" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B404" s="1">
         <v>79</v>
@@ -11530,12 +11688,12 @@
         <v>2</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B405" s="1">
         <v>79</v>
@@ -11553,12 +11711,12 @@
         <v>1</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="B406" s="1">
         <v>79</v>
@@ -11576,12 +11734,12 @@
         <v>1</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B407" s="1">
         <v>79</v>
@@ -11599,15 +11757,15 @@
         <v>2</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="K407" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B408" s="1">
         <v>79</v>
@@ -11625,12 +11783,12 @@
         <v>2</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="B409" s="1">
         <v>79</v>
@@ -11648,12 +11806,12 @@
         <v>2</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B410" s="1">
         <v>79</v>
@@ -11671,12 +11829,12 @@
         <v>2</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B411" s="1">
         <v>79</v>
@@ -11694,12 +11852,12 @@
         <v>2</v>
       </c>
       <c r="H411" s="1" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B412" s="1">
         <v>79</v>
@@ -11719,7 +11877,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B413" s="1">
         <v>79</v>
@@ -11737,12 +11895,12 @@
         <v>2</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B414" s="1">
         <v>79</v>
@@ -11762,7 +11920,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="B415" s="1">
         <v>79</v>
@@ -11780,12 +11938,12 @@
         <v>1</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B416" s="1">
         <v>79</v>
@@ -11808,7 +11966,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B417" s="1">
         <v>79</v>
@@ -11831,7 +11989,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B418" s="1">
         <v>79</v>
@@ -11849,12 +12007,12 @@
         <v>1.5</v>
       </c>
       <c r="G418" s="1" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B419" s="1">
         <v>79</v>
@@ -11872,12 +12030,12 @@
         <v>1</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B420" s="1">
         <v>79</v>
@@ -11895,12 +12053,12 @@
         <v>1</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B421" s="1">
         <v>79</v>
@@ -11918,12 +12076,12 @@
         <v>1</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B422" s="1">
         <v>79</v>
@@ -11946,7 +12104,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B423" s="1">
         <v>79</v>
@@ -11969,7 +12127,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B424" s="1">
         <v>79</v>
@@ -11989,7 +12147,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B425" s="1">
         <v>79</v>
@@ -12012,7 +12170,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B426" s="1">
         <v>79</v>
@@ -12035,7 +12193,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B427" s="1">
         <v>79</v>
@@ -12058,7 +12216,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B428" s="1">
         <v>79</v>
@@ -12078,7 +12236,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="B429" s="1">
         <v>79</v>
@@ -12096,12 +12254,12 @@
         <v>1</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="B430" s="1">
         <v>79</v>
@@ -12119,12 +12277,12 @@
         <v>1</v>
       </c>
       <c r="G430" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B431" s="1">
         <v>79</v>
@@ -12142,12 +12300,12 @@
         <v>1</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B432" s="1">
         <v>79</v>
@@ -12165,15 +12323,15 @@
         <v>1</v>
       </c>
       <c r="G432" s="1" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="K432" s="1" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B433" s="1">
         <v>79</v>
@@ -12193,7 +12351,7 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B434" s="1">
         <v>79</v>
@@ -12211,12 +12369,12 @@
         <v>1</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B435" s="1">
         <v>79</v>
@@ -12239,7 +12397,7 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="B436" s="1">
         <v>79</v>
@@ -12257,12 +12415,12 @@
         <v>1.5</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="B437" s="1">
         <v>79</v>
@@ -12285,7 +12443,7 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="B438" s="1">
         <v>79</v>
@@ -12305,7 +12463,7 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="B439" s="1">
         <v>79</v>
@@ -12325,7 +12483,7 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="B440" s="1">
         <v>79</v>
@@ -12345,7 +12503,7 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="B441" s="1">
         <v>79</v>
@@ -12368,7 +12526,7 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B442" s="1">
         <v>79</v>
@@ -12388,7 +12546,7 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B443" s="1">
         <v>79</v>
@@ -12408,7 +12566,7 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B444" s="1">
         <v>79</v>
@@ -12428,7 +12586,7 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="B445" s="1">
         <v>79</v>
@@ -12448,7 +12606,7 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B446" s="1">
         <v>79</v>
@@ -12471,7 +12629,7 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B447" s="1">
         <v>79</v>
@@ -12491,7 +12649,7 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B448" s="1">
         <v>79</v>
@@ -12511,7 +12669,7 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="B449" s="1">
         <v>79</v>
@@ -12529,12 +12687,12 @@
         <v>1</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B450" s="1">
         <v>79</v>
@@ -12552,12 +12710,12 @@
         <v>1</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B451" s="1">
         <v>79</v>
@@ -12580,7 +12738,7 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B452" s="1">
         <v>79</v>
@@ -12603,7 +12761,7 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B453" s="1">
         <v>79</v>
@@ -12621,12 +12779,12 @@
         <v>2</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="B454" s="1">
         <v>79</v>
@@ -12646,7 +12804,7 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B455" s="1">
         <v>79</v>
@@ -12669,7 +12827,7 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B456" s="1">
         <v>79</v>
@@ -12689,7 +12847,7 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B457" s="1">
         <v>79</v>
@@ -12707,12 +12865,12 @@
         <v>2</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B458" s="1">
         <v>79</v>
@@ -12730,12 +12888,12 @@
         <v>2</v>
       </c>
       <c r="G458" s="1" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B459" s="1">
         <v>79</v>
@@ -12755,7 +12913,7 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B460" s="1">
         <v>79</v>
@@ -12775,7 +12933,7 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="B461" s="1">
         <v>79</v>
@@ -12793,12 +12951,12 @@
         <v>1</v>
       </c>
       <c r="G461" s="1" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B462" s="1">
         <v>79</v>
@@ -12816,12 +12974,12 @@
         <v>1</v>
       </c>
       <c r="G462" s="1" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B463" s="1">
         <v>148</v>
@@ -12841,7 +12999,7 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="B464" s="1">
         <v>148</v>
@@ -12861,7 +13019,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B465" s="1">
         <v>148</v>
@@ -12881,7 +13039,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B466" s="1">
         <v>148</v>
@@ -12901,7 +13059,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B467" s="1">
         <v>148</v>
@@ -12919,12 +13077,12 @@
         <v>1</v>
       </c>
       <c r="G467" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B468" s="1">
         <v>148</v>
@@ -12942,12 +13100,12 @@
         <v>1</v>
       </c>
       <c r="G468" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B469" s="1">
         <v>148</v>
@@ -12967,7 +13125,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B470" s="1">
         <v>148</v>
@@ -12987,7 +13145,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B471" s="1">
         <v>148</v>
@@ -13005,12 +13163,12 @@
         <v>1</v>
       </c>
       <c r="G471" s="1" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="B472" s="1">
         <v>148</v>
@@ -13028,12 +13186,12 @@
         <v>1</v>
       </c>
       <c r="G472" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B473" s="1">
         <v>148</v>
@@ -13051,12 +13209,12 @@
         <v>1</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B474" s="1">
         <v>148</v>
@@ -13076,7 +13234,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B475" s="1">
         <v>148</v>
@@ -13096,7 +13254,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B476" s="1">
         <v>148</v>
@@ -13114,12 +13272,12 @@
         <v>1</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="B477" s="1">
         <v>148</v>
@@ -13139,7 +13297,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B478" s="1">
         <v>148</v>
@@ -13157,15 +13315,15 @@
         <v>2</v>
       </c>
       <c r="G478" s="3" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="K478" s="1" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B479" s="1">
         <v>148</v>
@@ -13183,15 +13341,15 @@
         <v>0</v>
       </c>
       <c r="G479" s="3" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="K479" s="1" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B480" s="1">
         <v>148</v>
@@ -13209,15 +13367,15 @@
         <v>2</v>
       </c>
       <c r="G480" s="3" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="K480" s="1" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B481" s="1">
         <v>148</v>
@@ -13237,7 +13395,7 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B482" s="1">
         <v>148</v>
@@ -13257,7 +13415,7 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B483" s="1">
         <v>148</v>
@@ -13275,12 +13433,12 @@
         <v>1</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="B484" s="1">
         <v>148</v>
@@ -13298,12 +13456,12 @@
         <v>1</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B485" s="1">
         <v>148</v>
@@ -13321,12 +13479,12 @@
         <v>1</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B486" s="1">
         <v>148</v>
@@ -13344,12 +13502,12 @@
         <v>1</v>
       </c>
       <c r="G486" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B487" s="1">
         <v>148</v>
@@ -13369,7 +13527,7 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B488" s="1">
         <v>148</v>
@@ -13389,7 +13547,7 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B489" s="1">
         <v>148</v>
@@ -13409,7 +13567,7 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B490" s="1">
         <v>148</v>
@@ -13429,7 +13587,7 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B491" s="1">
         <v>148</v>
@@ -13449,7 +13607,7 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="B492" s="1">
         <v>148</v>
@@ -13467,12 +13625,12 @@
         <v>1</v>
       </c>
       <c r="G492" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B493" s="1">
         <v>148</v>
@@ -13490,12 +13648,12 @@
         <v>1</v>
       </c>
       <c r="G493" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B494" s="1">
         <v>148</v>
@@ -13513,12 +13671,12 @@
         <v>1</v>
       </c>
       <c r="G494" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B495" s="1">
         <v>148</v>
@@ -13536,12 +13694,12 @@
         <v>1</v>
       </c>
       <c r="G495" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B496" s="1">
         <v>148</v>
@@ -13559,12 +13717,12 @@
         <v>1</v>
       </c>
       <c r="G496" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="B497" s="1">
         <v>148</v>
@@ -13582,12 +13740,12 @@
         <v>1</v>
       </c>
       <c r="G497" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B498" s="1">
         <v>148</v>
@@ -13605,12 +13763,12 @@
         <v>1</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B499" s="1">
         <v>148</v>
@@ -13630,7 +13788,7 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="B500" s="1">
         <v>148</v>
@@ -13650,7 +13808,7 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B501" s="1">
         <v>148</v>
@@ -13670,7 +13828,7 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="B502" s="1">
         <v>148</v>
@@ -13690,7 +13848,7 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B503" s="1">
         <v>148</v>
@@ -13710,7 +13868,7 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="B504" s="1">
         <v>148</v>
@@ -13730,7 +13888,7 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="B505" s="1">
         <v>148</v>
@@ -13750,7 +13908,7 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="B506" s="1">
         <v>148</v>
@@ -13770,7 +13928,7 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="B507" s="1">
         <v>148</v>
@@ -13788,12 +13946,12 @@
         <v>1</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="B508" s="1">
         <v>148</v>
@@ -13811,12 +13969,12 @@
         <v>1</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="B509" s="1">
         <v>148</v>
@@ -13834,12 +13992,12 @@
         <v>1</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="B510" s="1">
         <v>148</v>
@@ -13857,12 +14015,12 @@
         <v>1</v>
       </c>
       <c r="G510" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="B511" s="1">
         <v>148</v>
@@ -13880,12 +14038,12 @@
         <v>1</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="B512" s="1">
         <v>148</v>
@@ -13903,12 +14061,12 @@
         <v>1</v>
       </c>
       <c r="G512" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="B513" s="1">
         <v>148</v>
@@ -13925,13 +14083,13 @@
       <c r="F513" s="1">
         <v>2</v>
       </c>
-      <c r="G513" s="3" t="s">
-        <v>88</v>
+      <c r="G513" s="5" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="B514" s="1">
         <v>148</v>
@@ -13949,12 +14107,12 @@
         <v>1</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="B515" s="1">
         <v>148</v>
@@ -13972,12 +14130,12 @@
         <v>1</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="B516" s="1">
         <v>148</v>
@@ -13997,7 +14155,7 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="B517" s="1">
         <v>148</v>
@@ -14017,7 +14175,7 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="B518" s="1">
         <v>148</v>
@@ -14037,7 +14195,7 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="B519" s="1">
         <v>148</v>
@@ -14057,7 +14215,7 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="B520" s="1">
         <v>148</v>
@@ -14077,7 +14235,7 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B521" s="1">
         <v>148</v>
@@ -14095,12 +14253,12 @@
         <v>1</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="B522" s="1">
         <v>148</v>
@@ -14118,12 +14276,12 @@
         <v>1</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B523" s="1">
         <v>148</v>
@@ -14143,7 +14301,7 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="B524" s="1">
         <v>148</v>
@@ -14163,7 +14321,7 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="B525" s="1">
         <v>148</v>
@@ -14183,7 +14341,7 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="B526" s="1">
         <v>148</v>
@@ -14201,12 +14359,12 @@
         <v>1</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="B527" s="1">
         <v>148</v>
@@ -14224,12 +14382,12 @@
         <v>1</v>
       </c>
       <c r="G527" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="B528" s="1">
         <v>148</v>
@@ -14247,12 +14405,12 @@
         <v>1</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B529" s="1">
         <v>148</v>
@@ -14270,12 +14428,12 @@
         <v>1</v>
       </c>
       <c r="G529" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="B530" s="1">
         <v>148</v>
@@ -14293,12 +14451,12 @@
         <v>1</v>
       </c>
       <c r="G530" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="B531" s="1">
         <v>148</v>
@@ -14316,9 +14474,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B532" s="1">
         <v>148</v>
@@ -14336,12 +14494,12 @@
         <v>1</v>
       </c>
       <c r="G532" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B533" s="1">
         <v>148</v>
@@ -14359,12 +14517,12 @@
         <v>1</v>
       </c>
       <c r="G533" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B534" s="1">
         <v>148</v>
@@ -14382,12 +14540,12 @@
         <v>1</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B535" s="1">
         <v>148</v>
@@ -14405,12 +14563,12 @@
         <v>1</v>
       </c>
       <c r="G535" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B536" s="1">
         <v>148</v>
@@ -14428,12 +14586,12 @@
         <v>1</v>
       </c>
       <c r="G536" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B537" s="1">
         <v>148</v>
@@ -14451,12 +14609,12 @@
         <v>1</v>
       </c>
       <c r="G537" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="B538" s="1">
         <v>148</v>
@@ -14474,12 +14632,12 @@
         <v>1</v>
       </c>
       <c r="G538" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="B539" s="1">
         <v>148</v>
@@ -14497,12 +14655,12 @@
         <v>1</v>
       </c>
       <c r="G539" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B540" s="1">
         <v>148</v>
@@ -14520,12 +14678,12 @@
         <v>1</v>
       </c>
       <c r="G540" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="B541" s="1">
         <v>148</v>
@@ -14542,13 +14700,16 @@
       <c r="F541" s="1">
         <v>2</v>
       </c>
-      <c r="G541" s="3" t="s">
+      <c r="G541" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H541" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="B542" s="1">
         <v>148</v>
@@ -14566,12 +14727,12 @@
         <v>1</v>
       </c>
       <c r="G542" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="B543" s="1">
         <v>148</v>
@@ -14589,12 +14750,12 @@
         <v>1</v>
       </c>
       <c r="G543" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="B544" s="1">
         <v>148</v>
@@ -14612,12 +14773,12 @@
         <v>1</v>
       </c>
       <c r="G544" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="B545" s="1">
         <v>148</v>
@@ -14637,7 +14798,7 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="B546" s="1">
         <v>148</v>
@@ -14655,12 +14816,12 @@
         <v>1</v>
       </c>
       <c r="G546" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="B547" s="1">
         <v>148</v>
@@ -14678,12 +14839,12 @@
         <v>1</v>
       </c>
       <c r="G547" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B548" s="1">
         <v>148</v>
@@ -14701,12 +14862,12 @@
         <v>1</v>
       </c>
       <c r="G548" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="B549" s="1">
         <v>148</v>
@@ -14724,12 +14885,12 @@
         <v>1</v>
       </c>
       <c r="G549" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="B550" s="1">
         <v>148</v>
@@ -14747,12 +14908,12 @@
         <v>1</v>
       </c>
       <c r="G550" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="B551" s="1">
         <v>148</v>
@@ -14772,7 +14933,7 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="B552" s="1">
         <v>148</v>
@@ -14790,12 +14951,12 @@
         <v>1</v>
       </c>
       <c r="G552" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B553" s="1">
         <v>148</v>
@@ -14813,12 +14974,12 @@
         <v>1</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="B554" s="1">
         <v>148</v>
@@ -14836,12 +14997,12 @@
         <v>1</v>
       </c>
       <c r="G554" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="B555" s="1">
         <v>148</v>
@@ -14861,7 +15022,7 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="B556" s="1">
         <v>148</v>
@@ -14881,7 +15042,7 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="B557" s="1">
         <v>148</v>
@@ -14901,7 +15062,7 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="B558" s="1">
         <v>148</v>
@@ -14921,7 +15082,7 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="B559" s="1">
         <v>148</v>
@@ -14939,12 +15100,12 @@
         <v>1</v>
       </c>
       <c r="G559" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="B560" s="1">
         <v>148</v>
@@ -14962,12 +15123,12 @@
         <v>1</v>
       </c>
       <c r="G560" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B561" s="1">
         <v>148</v>
@@ -14985,12 +15146,12 @@
         <v>1</v>
       </c>
       <c r="G561" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="B562" s="1">
         <v>148</v>
@@ -15008,11 +15169,11 @@
         <v>1</v>
       </c>
       <c r="G562" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H557"/>
+  <autoFilter ref="B1:H562"/>
   <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="45">
       <colorScale>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="895">
   <si>
     <t>bat</t>
   </si>
@@ -2147,6 +2147,573 @@
   </si>
   <si>
     <t>[75791192381 81075256803]</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT1_SS02</t>
+  </si>
+  <si>
+    <t>[66263161024 67223496690]</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT4_SS06</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT4_SS07</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT4_SS08</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT4_SS09</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT4_SS10</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT4_SS11</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT4_SS12</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT4_SS13</t>
+  </si>
+  <si>
+    <t>b0148_d170606_TT4_SS14</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS05</t>
+  </si>
+  <si>
+    <t>united based on functionality</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS06</t>
+  </si>
+  <si>
+    <t>maybe too close to the noise towards the end of the session</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS07</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS08</t>
+  </si>
+  <si>
+    <t>[65196544964 66958613745]</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS09</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS10</t>
+  </si>
+  <si>
+    <t>[66253786233 70482751312]</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS11</t>
+  </si>
+  <si>
+    <t>[68015855016 69777923798]</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS12</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS13</t>
+  </si>
+  <si>
+    <t>maybe mixed with other unitswards the end</t>
+  </si>
+  <si>
+    <t>[65548958720 70482751312]</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS14</t>
+  </si>
+  <si>
+    <t>close to noise</t>
+  </si>
+  <si>
+    <t>[67663441260 69777923798]</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS15</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS16</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS17</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS18</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS19</t>
+  </si>
+  <si>
+    <t>b0148_d170607_TT4_SS20</t>
+  </si>
+  <si>
+    <t>b0148_d170608_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170608_TT4_SS01</t>
+  </si>
+  <si>
+    <t>mixed with SS02 and SS07?</t>
+  </si>
+  <si>
+    <t>b0148_d170608_TT4_SS02</t>
+  </si>
+  <si>
+    <t>mixed with noise</t>
+  </si>
+  <si>
+    <t>b0148_d170608_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170608_TT4_SS04</t>
+  </si>
+  <si>
+    <t>[67291740683 68770680038]</t>
+  </si>
+  <si>
+    <t>b0148_d170608_TT4_SS05</t>
+  </si>
+  <si>
+    <t>[68031210361 73946967784]</t>
+  </si>
+  <si>
+    <t>b0148_d170608_TT4_SS06</t>
+  </si>
+  <si>
+    <t>b0148_d170608_TT4_SS07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close to noise </t>
+  </si>
+  <si>
+    <t>b0148_d170608_TT4_SS08</t>
+  </si>
+  <si>
+    <t>not stable and close to noise</t>
+  </si>
+  <si>
+    <t>b0148_d170611_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170612_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170612_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170612_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170612_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170612_TT1_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170613_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170613_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170613_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170613_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170613_TT1_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170614_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170614_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170614_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170614_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170614_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170614_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170614_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170615_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170615_TT1_SS02</t>
+  </si>
+  <si>
+    <t>too close to noise</t>
+  </si>
+  <si>
+    <t>b0148_d170615_TT1_SS03</t>
+  </si>
+  <si>
+    <t>mixed with ss04</t>
+  </si>
+  <si>
+    <t>b0148_d170615_TT1_SS04</t>
+  </si>
+  <si>
+    <t>mixed with ss03</t>
+  </si>
+  <si>
+    <t>b0148_d170615_TT1_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170615_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170618_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170618_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170618_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170618_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170618_TT4_SS01</t>
+  </si>
+  <si>
+    <t>[67371241582 70702786495]</t>
+  </si>
+  <si>
+    <t>b0148_d170618_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170619_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170619_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170619_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170619_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170619_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170619_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170619_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170619_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170620_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170620_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170620_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170620_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170620_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170620_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170620_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170621_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170621_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170621_TT1_SS03</t>
+  </si>
+  <si>
+    <t>mixed with ss02</t>
+  </si>
+  <si>
+    <t>b0148_d170621_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170621_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170621_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170621_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170622_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170622_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170622_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170622_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170622_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170622_TT4_SS04</t>
+  </si>
+  <si>
+    <t>[70431810007 72679633729]</t>
+  </si>
+  <si>
+    <t>b0148_d170622_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170625_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170625_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170625_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170625_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170625_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170625_TT4_SS04</t>
+  </si>
+  <si>
+    <t>mixed with ss05 - check functionality</t>
+  </si>
+  <si>
+    <t>b0148_d170625_TT4_SS05</t>
+  </si>
+  <si>
+    <t>mixed with ss04 - check functionality</t>
+  </si>
+  <si>
+    <t>b0148_d170625_TT4_SS06</t>
+  </si>
+  <si>
+    <t>b0148_d170625_TT4_SS07</t>
+  </si>
+  <si>
+    <t>b0148_d170625_TT4_SS08</t>
+  </si>
+  <si>
+    <t>b0148_d170625_TT4_SS09</t>
+  </si>
+  <si>
+    <t>b0148_d170625_TT4_SS10</t>
+  </si>
+  <si>
+    <t>b0148_d170625_TT4_SS11</t>
+  </si>
+  <si>
+    <t>b0148_d170625_TT4_SS12</t>
+  </si>
+  <si>
+    <t>b0148_d170626_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170626_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170626_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170626_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170626_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170626_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170627_TT1_SS01</t>
+  </si>
+  <si>
+    <t>could be two cells</t>
+  </si>
+  <si>
+    <t>b0148_d170627_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170627_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170627_TT1_SS04</t>
+  </si>
+  <si>
+    <t>multi-unit - interesting functional with ss05</t>
+  </si>
+  <si>
+    <t>b0148_d170627_TT1_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170627_TT1_SS06</t>
+  </si>
+  <si>
+    <t>b0148_d170627_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170627_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170627_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170627_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170627_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170627_TT4_SS06</t>
+  </si>
+  <si>
+    <t>b0148_d170627_TT4_SS07</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT1_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT1_SS06</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT1_SS07</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT1_SS08</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT1_SS09</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT1_SS10</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT1_SS11</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT4_SS03</t>
+  </si>
+  <si>
+    <t>[72083014179 73197699965]</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT4_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170628_TT4_SS05</t>
+  </si>
+  <si>
+    <t>b0148_d170703_TT1_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170703_TT1_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170703_TT1_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170703_TT1_SS04</t>
+  </si>
+  <si>
+    <t>b0148_d170703_TT4_SS01</t>
+  </si>
+  <si>
+    <t>b0148_d170703_TT4_SS02</t>
+  </si>
+  <si>
+    <t>b0148_d170703_TT4_SS03</t>
+  </si>
+  <si>
+    <t>b0148_d170703_TT4_SS04</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2204,6 +2771,13 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2486,11 +3060,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S562"/>
+  <dimension ref="A1:S724"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A684" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G691" sqref="G691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15126,7 +15700,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>655</v>
       </c>
@@ -15149,7 +15723,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>656</v>
       </c>
@@ -15170,6 +15744,3734 @@
       </c>
       <c r="G562" s="1" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A563" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="B563" s="7">
+        <v>148</v>
+      </c>
+      <c r="C563" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D563" s="7">
+        <v>1</v>
+      </c>
+      <c r="E563" s="7">
+        <v>1</v>
+      </c>
+      <c r="F563" s="7">
+        <v>2</v>
+      </c>
+      <c r="G563" s="6"/>
+      <c r="H563" s="6"/>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A564" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="B564" s="7">
+        <v>148</v>
+      </c>
+      <c r="C564" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D564" s="7">
+        <v>1</v>
+      </c>
+      <c r="E564" s="7">
+        <v>2</v>
+      </c>
+      <c r="F564" s="7">
+        <v>2</v>
+      </c>
+      <c r="G564" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H564" s="7" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A565" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="B565" s="7">
+        <v>148</v>
+      </c>
+      <c r="C565" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D565" s="7">
+        <v>1</v>
+      </c>
+      <c r="E565" s="7">
+        <v>3</v>
+      </c>
+      <c r="F565" s="7">
+        <v>1</v>
+      </c>
+      <c r="G565" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H565" s="6"/>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A566" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="B566" s="7">
+        <v>148</v>
+      </c>
+      <c r="C566" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D566" s="7">
+        <v>4</v>
+      </c>
+      <c r="E566" s="7">
+        <v>1</v>
+      </c>
+      <c r="F566" s="7">
+        <v>2</v>
+      </c>
+      <c r="G566" s="6"/>
+      <c r="H566" s="6"/>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A567" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="B567" s="7">
+        <v>148</v>
+      </c>
+      <c r="C567" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D567" s="7">
+        <v>4</v>
+      </c>
+      <c r="E567" s="7">
+        <v>2</v>
+      </c>
+      <c r="F567" s="7">
+        <v>2</v>
+      </c>
+      <c r="G567" s="6"/>
+      <c r="H567" s="6"/>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A568" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="B568" s="7">
+        <v>148</v>
+      </c>
+      <c r="C568" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D568" s="7">
+        <v>4</v>
+      </c>
+      <c r="E568" s="7">
+        <v>3</v>
+      </c>
+      <c r="F568" s="7">
+        <v>2</v>
+      </c>
+      <c r="G568" s="6"/>
+      <c r="H568" s="6"/>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A569" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="B569" s="7">
+        <v>148</v>
+      </c>
+      <c r="C569" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D569" s="7">
+        <v>4</v>
+      </c>
+      <c r="E569" s="7">
+        <v>4</v>
+      </c>
+      <c r="F569" s="7">
+        <v>2</v>
+      </c>
+      <c r="G569" s="6"/>
+      <c r="H569" s="6"/>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A570" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B570" s="7">
+        <v>148</v>
+      </c>
+      <c r="C570" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D570" s="7">
+        <v>4</v>
+      </c>
+      <c r="E570" s="7">
+        <v>5</v>
+      </c>
+      <c r="F570" s="7">
+        <v>2</v>
+      </c>
+      <c r="G570" s="6"/>
+      <c r="H570" s="6"/>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A571" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="B571" s="7">
+        <v>148</v>
+      </c>
+      <c r="C571" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D571" s="7">
+        <v>4</v>
+      </c>
+      <c r="E571" s="7">
+        <v>6</v>
+      </c>
+      <c r="F571" s="7">
+        <v>2</v>
+      </c>
+      <c r="G571" s="6"/>
+      <c r="H571" s="6"/>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A572" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="B572" s="7">
+        <v>148</v>
+      </c>
+      <c r="C572" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D572" s="7">
+        <v>4</v>
+      </c>
+      <c r="E572" s="7">
+        <v>7</v>
+      </c>
+      <c r="F572" s="7">
+        <v>2</v>
+      </c>
+      <c r="G572" s="6"/>
+      <c r="H572" s="6"/>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A573" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B573" s="7">
+        <v>148</v>
+      </c>
+      <c r="C573" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D573" s="7">
+        <v>4</v>
+      </c>
+      <c r="E573" s="7">
+        <v>8</v>
+      </c>
+      <c r="F573" s="7">
+        <v>2</v>
+      </c>
+      <c r="G573" s="6"/>
+      <c r="H573" s="6"/>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A574" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B574" s="7">
+        <v>148</v>
+      </c>
+      <c r="C574" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D574" s="7">
+        <v>4</v>
+      </c>
+      <c r="E574" s="7">
+        <v>9</v>
+      </c>
+      <c r="F574" s="7">
+        <v>2</v>
+      </c>
+      <c r="G574" s="6"/>
+      <c r="H574" s="6"/>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A575" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="B575" s="7">
+        <v>148</v>
+      </c>
+      <c r="C575" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D575" s="7">
+        <v>4</v>
+      </c>
+      <c r="E575" s="7">
+        <v>10</v>
+      </c>
+      <c r="F575" s="7">
+        <v>2</v>
+      </c>
+      <c r="G575" s="6"/>
+      <c r="H575" s="6"/>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A576" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B576" s="7">
+        <v>149</v>
+      </c>
+      <c r="C576" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D576" s="7">
+        <v>4</v>
+      </c>
+      <c r="E576" s="7">
+        <v>11</v>
+      </c>
+      <c r="F576" s="7">
+        <v>1</v>
+      </c>
+      <c r="G576" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H576" s="6"/>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A577" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="B577" s="7">
+        <v>149</v>
+      </c>
+      <c r="C577" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D577" s="7">
+        <v>4</v>
+      </c>
+      <c r="E577" s="7">
+        <v>12</v>
+      </c>
+      <c r="F577" s="7">
+        <v>1</v>
+      </c>
+      <c r="G577" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H577" s="6"/>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A578" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B578" s="7">
+        <v>149</v>
+      </c>
+      <c r="C578" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D578" s="7">
+        <v>4</v>
+      </c>
+      <c r="E578" s="7">
+        <v>13</v>
+      </c>
+      <c r="F578" s="7">
+        <v>1</v>
+      </c>
+      <c r="G578" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H578" s="6"/>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A579" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="B579" s="7">
+        <v>149</v>
+      </c>
+      <c r="C579" s="8">
+        <v>42892</v>
+      </c>
+      <c r="D579" s="7">
+        <v>4</v>
+      </c>
+      <c r="E579" s="7">
+        <v>14</v>
+      </c>
+      <c r="F579" s="7">
+        <v>1</v>
+      </c>
+      <c r="G579" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H579" s="6"/>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A580" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="B580" s="7">
+        <v>148</v>
+      </c>
+      <c r="C580" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D580" s="7">
+        <v>4</v>
+      </c>
+      <c r="E580" s="7">
+        <v>1</v>
+      </c>
+      <c r="F580" s="7">
+        <v>2</v>
+      </c>
+      <c r="G580" s="6"/>
+      <c r="H580" s="6"/>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A581" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="B581" s="7">
+        <v>148</v>
+      </c>
+      <c r="C581" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D581" s="7">
+        <v>4</v>
+      </c>
+      <c r="E581" s="7">
+        <v>2</v>
+      </c>
+      <c r="F581" s="7">
+        <v>2</v>
+      </c>
+      <c r="G581" s="6"/>
+      <c r="H581" s="6"/>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A582" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="B582" s="7">
+        <v>148</v>
+      </c>
+      <c r="C582" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D582" s="7">
+        <v>4</v>
+      </c>
+      <c r="E582" s="7">
+        <v>3</v>
+      </c>
+      <c r="F582" s="7">
+        <v>2</v>
+      </c>
+      <c r="G582" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H582" s="6"/>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A583" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B583" s="7">
+        <v>148</v>
+      </c>
+      <c r="C583" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D583" s="7">
+        <v>4</v>
+      </c>
+      <c r="E583" s="7">
+        <v>4</v>
+      </c>
+      <c r="F583" s="7">
+        <v>2</v>
+      </c>
+      <c r="G583" s="6"/>
+      <c r="H583" s="6"/>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A584" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B584" s="7">
+        <v>148</v>
+      </c>
+      <c r="C584" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D584" s="7">
+        <v>4</v>
+      </c>
+      <c r="E584" s="7">
+        <v>5</v>
+      </c>
+      <c r="F584" s="7">
+        <v>2</v>
+      </c>
+      <c r="G584" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="H584" s="6"/>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A585" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="B585" s="7">
+        <v>148</v>
+      </c>
+      <c r="C585" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D585" s="7">
+        <v>4</v>
+      </c>
+      <c r="E585" s="7">
+        <v>6</v>
+      </c>
+      <c r="F585" s="7">
+        <v>2</v>
+      </c>
+      <c r="G585" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="H585" s="6"/>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A586" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="B586" s="7">
+        <v>148</v>
+      </c>
+      <c r="C586" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D586" s="7">
+        <v>4</v>
+      </c>
+      <c r="E586" s="7">
+        <v>7</v>
+      </c>
+      <c r="F586" s="7">
+        <v>2</v>
+      </c>
+      <c r="G586" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="H586" s="6"/>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A587" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="B587" s="7">
+        <v>148</v>
+      </c>
+      <c r="C587" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D587" s="7">
+        <v>4</v>
+      </c>
+      <c r="E587" s="7">
+        <v>8</v>
+      </c>
+      <c r="F587" s="7">
+        <v>2</v>
+      </c>
+      <c r="G587" s="6"/>
+      <c r="H587" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A588" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="B588" s="7">
+        <v>148</v>
+      </c>
+      <c r="C588" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D588" s="7">
+        <v>4</v>
+      </c>
+      <c r="E588" s="7">
+        <v>9</v>
+      </c>
+      <c r="F588" s="7">
+        <v>2</v>
+      </c>
+      <c r="G588" s="6"/>
+      <c r="H588" s="6"/>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A589" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="B589" s="7">
+        <v>148</v>
+      </c>
+      <c r="C589" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D589" s="7">
+        <v>4</v>
+      </c>
+      <c r="E589" s="7">
+        <v>10</v>
+      </c>
+      <c r="F589" s="7">
+        <v>2</v>
+      </c>
+      <c r="G589" s="6"/>
+      <c r="H589" s="7" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A590" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="B590" s="7">
+        <v>148</v>
+      </c>
+      <c r="C590" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D590" s="7">
+        <v>4</v>
+      </c>
+      <c r="E590" s="7">
+        <v>11</v>
+      </c>
+      <c r="F590" s="7">
+        <v>2</v>
+      </c>
+      <c r="G590" s="6"/>
+      <c r="H590" s="7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A591" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="B591" s="7">
+        <v>148</v>
+      </c>
+      <c r="C591" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D591" s="7">
+        <v>4</v>
+      </c>
+      <c r="E591" s="7">
+        <v>12</v>
+      </c>
+      <c r="F591" s="7">
+        <v>2</v>
+      </c>
+      <c r="G591" s="6"/>
+      <c r="H591" s="7" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A592" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="B592" s="7">
+        <v>148</v>
+      </c>
+      <c r="C592" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D592" s="7">
+        <v>4</v>
+      </c>
+      <c r="E592" s="7">
+        <v>13</v>
+      </c>
+      <c r="F592" s="7">
+        <v>2</v>
+      </c>
+      <c r="G592" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="H592" s="7" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A593" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="B593" s="7">
+        <v>148</v>
+      </c>
+      <c r="C593" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D593" s="7">
+        <v>4</v>
+      </c>
+      <c r="E593" s="7">
+        <v>14</v>
+      </c>
+      <c r="F593" s="7">
+        <v>1</v>
+      </c>
+      <c r="G593" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="H593" s="7" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A594" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="B594" s="7">
+        <v>148</v>
+      </c>
+      <c r="C594" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D594" s="7">
+        <v>4</v>
+      </c>
+      <c r="E594" s="7">
+        <v>15</v>
+      </c>
+      <c r="F594" s="7">
+        <v>1</v>
+      </c>
+      <c r="G594" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="H594" s="6"/>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A595" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="B595" s="7">
+        <v>148</v>
+      </c>
+      <c r="C595" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D595" s="7">
+        <v>4</v>
+      </c>
+      <c r="E595" s="7">
+        <v>16</v>
+      </c>
+      <c r="F595" s="7">
+        <v>1</v>
+      </c>
+      <c r="G595" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H595" s="6"/>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A596" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="B596" s="7">
+        <v>148</v>
+      </c>
+      <c r="C596" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D596" s="7">
+        <v>4</v>
+      </c>
+      <c r="E596" s="7">
+        <v>17</v>
+      </c>
+      <c r="F596" s="7">
+        <v>1</v>
+      </c>
+      <c r="G596" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H596" s="6"/>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A597" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B597" s="7">
+        <v>148</v>
+      </c>
+      <c r="C597" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D597" s="7">
+        <v>4</v>
+      </c>
+      <c r="E597" s="7">
+        <v>18</v>
+      </c>
+      <c r="F597" s="7">
+        <v>1</v>
+      </c>
+      <c r="G597" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H597" s="6"/>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A598" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="B598" s="7">
+        <v>148</v>
+      </c>
+      <c r="C598" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D598" s="7">
+        <v>4</v>
+      </c>
+      <c r="E598" s="7">
+        <v>19</v>
+      </c>
+      <c r="F598" s="7">
+        <v>1</v>
+      </c>
+      <c r="G598" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H598" s="6"/>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A599" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="B599" s="7">
+        <v>148</v>
+      </c>
+      <c r="C599" s="8">
+        <v>42893</v>
+      </c>
+      <c r="D599" s="7">
+        <v>4</v>
+      </c>
+      <c r="E599" s="7">
+        <v>20</v>
+      </c>
+      <c r="F599" s="7">
+        <v>1</v>
+      </c>
+      <c r="G599" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H599" s="6"/>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A600" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="B600" s="7">
+        <v>148</v>
+      </c>
+      <c r="C600" s="8">
+        <v>42894</v>
+      </c>
+      <c r="D600" s="7">
+        <v>1</v>
+      </c>
+      <c r="E600" s="7">
+        <v>1</v>
+      </c>
+      <c r="F600" s="7">
+        <v>1</v>
+      </c>
+      <c r="G600" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H600" s="6"/>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A601" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="B601" s="7">
+        <v>148</v>
+      </c>
+      <c r="C601" s="8">
+        <v>42894</v>
+      </c>
+      <c r="D601" s="7">
+        <v>4</v>
+      </c>
+      <c r="E601" s="7">
+        <v>1</v>
+      </c>
+      <c r="F601" s="7">
+        <v>2</v>
+      </c>
+      <c r="G601" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="H601" s="6"/>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A602" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="B602" s="7">
+        <v>148</v>
+      </c>
+      <c r="C602" s="8">
+        <v>42894</v>
+      </c>
+      <c r="D602" s="7">
+        <v>4</v>
+      </c>
+      <c r="E602" s="7">
+        <v>2</v>
+      </c>
+      <c r="F602" s="7">
+        <v>1</v>
+      </c>
+      <c r="G602" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="H602" s="6"/>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A603" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="B603" s="7">
+        <v>148</v>
+      </c>
+      <c r="C603" s="8">
+        <v>42894</v>
+      </c>
+      <c r="D603" s="7">
+        <v>4</v>
+      </c>
+      <c r="E603" s="7">
+        <v>3</v>
+      </c>
+      <c r="F603" s="7">
+        <v>2</v>
+      </c>
+      <c r="G603" s="6"/>
+      <c r="H603" s="6"/>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A604" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="B604" s="7">
+        <v>148</v>
+      </c>
+      <c r="C604" s="8">
+        <v>42894</v>
+      </c>
+      <c r="D604" s="7">
+        <v>4</v>
+      </c>
+      <c r="E604" s="7">
+        <v>4</v>
+      </c>
+      <c r="F604" s="7">
+        <v>2</v>
+      </c>
+      <c r="G604" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H604" s="7" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A605" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="B605" s="7">
+        <v>148</v>
+      </c>
+      <c r="C605" s="8">
+        <v>42894</v>
+      </c>
+      <c r="D605" s="7">
+        <v>4</v>
+      </c>
+      <c r="E605" s="7">
+        <v>5</v>
+      </c>
+      <c r="F605" s="7">
+        <v>1</v>
+      </c>
+      <c r="G605" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H605" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A606" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="B606" s="7">
+        <v>148</v>
+      </c>
+      <c r="C606" s="8">
+        <v>42894</v>
+      </c>
+      <c r="D606" s="7">
+        <v>4</v>
+      </c>
+      <c r="E606" s="7">
+        <v>6</v>
+      </c>
+      <c r="F606" s="7">
+        <v>1</v>
+      </c>
+      <c r="G606" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H606" s="6"/>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A607" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="B607" s="7">
+        <v>148</v>
+      </c>
+      <c r="C607" s="8">
+        <v>42894</v>
+      </c>
+      <c r="D607" s="7">
+        <v>4</v>
+      </c>
+      <c r="E607" s="7">
+        <v>7</v>
+      </c>
+      <c r="F607" s="7">
+        <v>1</v>
+      </c>
+      <c r="G607" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="H607" s="6"/>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A608" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="B608" s="7">
+        <v>148</v>
+      </c>
+      <c r="C608" s="8">
+        <v>42894</v>
+      </c>
+      <c r="D608" s="7">
+        <v>4</v>
+      </c>
+      <c r="E608" s="7">
+        <v>8</v>
+      </c>
+      <c r="F608" s="7">
+        <v>1</v>
+      </c>
+      <c r="G608" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="H608" s="6"/>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A609" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B609" s="7">
+        <v>148</v>
+      </c>
+      <c r="C609" s="8">
+        <v>42897</v>
+      </c>
+      <c r="D609" s="7">
+        <v>4</v>
+      </c>
+      <c r="E609" s="7">
+        <v>1</v>
+      </c>
+      <c r="F609" s="7">
+        <v>1</v>
+      </c>
+      <c r="G609" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A610" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B610" s="7">
+        <v>148</v>
+      </c>
+      <c r="C610" s="8">
+        <v>42898</v>
+      </c>
+      <c r="D610" s="7">
+        <v>1</v>
+      </c>
+      <c r="E610" s="7">
+        <v>1</v>
+      </c>
+      <c r="F610" s="7">
+        <v>2</v>
+      </c>
+      <c r="G610" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A611" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B611" s="7">
+        <v>148</v>
+      </c>
+      <c r="C611" s="8">
+        <v>42898</v>
+      </c>
+      <c r="D611" s="7">
+        <v>1</v>
+      </c>
+      <c r="E611" s="7">
+        <v>2</v>
+      </c>
+      <c r="F611" s="7">
+        <v>1</v>
+      </c>
+      <c r="G611" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A612" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="B612" s="7">
+        <v>148</v>
+      </c>
+      <c r="C612" s="8">
+        <v>42898</v>
+      </c>
+      <c r="D612" s="7">
+        <v>1</v>
+      </c>
+      <c r="E612" s="7">
+        <v>3</v>
+      </c>
+      <c r="F612" s="7">
+        <v>1</v>
+      </c>
+      <c r="G612" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A613" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="B613" s="7">
+        <v>148</v>
+      </c>
+      <c r="C613" s="8">
+        <v>42898</v>
+      </c>
+      <c r="D613" s="7">
+        <v>1</v>
+      </c>
+      <c r="E613" s="7">
+        <v>4</v>
+      </c>
+      <c r="F613" s="7">
+        <v>1</v>
+      </c>
+      <c r="G613" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A614" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="B614" s="7">
+        <v>148</v>
+      </c>
+      <c r="C614" s="8">
+        <v>42898</v>
+      </c>
+      <c r="D614" s="7">
+        <v>1</v>
+      </c>
+      <c r="E614" s="7">
+        <v>5</v>
+      </c>
+      <c r="F614" s="7">
+        <v>1</v>
+      </c>
+      <c r="G614" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A615" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="B615" s="7">
+        <v>148</v>
+      </c>
+      <c r="C615" s="8">
+        <v>42899</v>
+      </c>
+      <c r="D615" s="7">
+        <v>1</v>
+      </c>
+      <c r="E615" s="7">
+        <v>1</v>
+      </c>
+      <c r="F615" s="7">
+        <v>2</v>
+      </c>
+      <c r="G615" s="6"/>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A616" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="B616" s="7">
+        <v>148</v>
+      </c>
+      <c r="C616" s="8">
+        <v>42899</v>
+      </c>
+      <c r="D616" s="7">
+        <v>1</v>
+      </c>
+      <c r="E616" s="7">
+        <v>2</v>
+      </c>
+      <c r="F616" s="7">
+        <v>1</v>
+      </c>
+      <c r="G616" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A617" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="B617" s="7">
+        <v>148</v>
+      </c>
+      <c r="C617" s="8">
+        <v>42899</v>
+      </c>
+      <c r="D617" s="7">
+        <v>1</v>
+      </c>
+      <c r="E617" s="7">
+        <v>3</v>
+      </c>
+      <c r="F617" s="7">
+        <v>1</v>
+      </c>
+      <c r="G617" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A618" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="B618" s="7">
+        <v>148</v>
+      </c>
+      <c r="C618" s="8">
+        <v>42899</v>
+      </c>
+      <c r="D618" s="7">
+        <v>1</v>
+      </c>
+      <c r="E618" s="7">
+        <v>4</v>
+      </c>
+      <c r="F618" s="7">
+        <v>1</v>
+      </c>
+      <c r="G618" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A619" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="B619" s="7">
+        <v>148</v>
+      </c>
+      <c r="C619" s="8">
+        <v>42899</v>
+      </c>
+      <c r="D619" s="7">
+        <v>1</v>
+      </c>
+      <c r="E619" s="7">
+        <v>5</v>
+      </c>
+      <c r="F619" s="7">
+        <v>1</v>
+      </c>
+      <c r="G619" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A620" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="B620" s="7">
+        <v>148</v>
+      </c>
+      <c r="C620" s="8">
+        <v>42900</v>
+      </c>
+      <c r="D620" s="7">
+        <v>1</v>
+      </c>
+      <c r="E620" s="7">
+        <v>1</v>
+      </c>
+      <c r="F620" s="7">
+        <v>2</v>
+      </c>
+      <c r="G620" s="6"/>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A621" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="B621" s="7">
+        <v>148</v>
+      </c>
+      <c r="C621" s="8">
+        <v>42900</v>
+      </c>
+      <c r="D621" s="7">
+        <v>1</v>
+      </c>
+      <c r="E621" s="7">
+        <v>2</v>
+      </c>
+      <c r="F621" s="7">
+        <v>2</v>
+      </c>
+      <c r="G621" s="6"/>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A622" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="B622" s="7">
+        <v>148</v>
+      </c>
+      <c r="C622" s="8">
+        <v>42900</v>
+      </c>
+      <c r="D622" s="7">
+        <v>1</v>
+      </c>
+      <c r="E622" s="7">
+        <v>3</v>
+      </c>
+      <c r="F622" s="7">
+        <v>1</v>
+      </c>
+      <c r="G622" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A623" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="B623" s="7">
+        <v>148</v>
+      </c>
+      <c r="C623" s="8">
+        <v>42900</v>
+      </c>
+      <c r="D623" s="7">
+        <v>4</v>
+      </c>
+      <c r="E623" s="7">
+        <v>1</v>
+      </c>
+      <c r="F623" s="7">
+        <v>2</v>
+      </c>
+      <c r="G623" s="6"/>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A624" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="B624" s="7">
+        <v>148</v>
+      </c>
+      <c r="C624" s="8">
+        <v>42900</v>
+      </c>
+      <c r="D624" s="7">
+        <v>4</v>
+      </c>
+      <c r="E624" s="7">
+        <v>2</v>
+      </c>
+      <c r="F624" s="7">
+        <v>1</v>
+      </c>
+      <c r="G624" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A625" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="B625" s="7">
+        <v>148</v>
+      </c>
+      <c r="C625" s="8">
+        <v>42900</v>
+      </c>
+      <c r="D625" s="7">
+        <v>4</v>
+      </c>
+      <c r="E625" s="7">
+        <v>3</v>
+      </c>
+      <c r="F625" s="7">
+        <v>1</v>
+      </c>
+      <c r="G625" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H625" s="6"/>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A626" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="B626" s="7">
+        <v>148</v>
+      </c>
+      <c r="C626" s="8">
+        <v>42900</v>
+      </c>
+      <c r="D626" s="7">
+        <v>4</v>
+      </c>
+      <c r="E626" s="7">
+        <v>4</v>
+      </c>
+      <c r="F626" s="7">
+        <v>1</v>
+      </c>
+      <c r="G626" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H626" s="6"/>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A627" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="B627" s="7">
+        <v>148</v>
+      </c>
+      <c r="C627" s="8">
+        <v>42901</v>
+      </c>
+      <c r="D627" s="7">
+        <v>1</v>
+      </c>
+      <c r="E627" s="7">
+        <v>1</v>
+      </c>
+      <c r="F627" s="7">
+        <v>2</v>
+      </c>
+      <c r="G627" s="6"/>
+      <c r="H627" s="6"/>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A628" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="B628" s="7">
+        <v>148</v>
+      </c>
+      <c r="C628" s="8">
+        <v>42901</v>
+      </c>
+      <c r="D628" s="7">
+        <v>1</v>
+      </c>
+      <c r="E628" s="7">
+        <v>2</v>
+      </c>
+      <c r="F628" s="7">
+        <v>1</v>
+      </c>
+      <c r="G628" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="H628" s="6"/>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A629" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="B629" s="7">
+        <v>148</v>
+      </c>
+      <c r="C629" s="8">
+        <v>42901</v>
+      </c>
+      <c r="D629" s="7">
+        <v>1</v>
+      </c>
+      <c r="E629" s="7">
+        <v>3</v>
+      </c>
+      <c r="F629" s="7">
+        <v>1</v>
+      </c>
+      <c r="G629" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="H629" s="6"/>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A630" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="B630" s="7">
+        <v>148</v>
+      </c>
+      <c r="C630" s="8">
+        <v>42901</v>
+      </c>
+      <c r="D630" s="7">
+        <v>1</v>
+      </c>
+      <c r="E630" s="7">
+        <v>4</v>
+      </c>
+      <c r="F630" s="7">
+        <v>1</v>
+      </c>
+      <c r="G630" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="H630" s="6"/>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A631" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="B631" s="7">
+        <v>148</v>
+      </c>
+      <c r="C631" s="8">
+        <v>42901</v>
+      </c>
+      <c r="D631" s="7">
+        <v>1</v>
+      </c>
+      <c r="E631" s="7">
+        <v>5</v>
+      </c>
+      <c r="F631" s="7">
+        <v>1</v>
+      </c>
+      <c r="G631" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H631" s="6"/>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A632" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="B632" s="7">
+        <v>148</v>
+      </c>
+      <c r="C632" s="8">
+        <v>42901</v>
+      </c>
+      <c r="D632" s="7">
+        <v>4</v>
+      </c>
+      <c r="E632" s="7">
+        <v>1</v>
+      </c>
+      <c r="F632" s="7">
+        <v>2</v>
+      </c>
+      <c r="G632" s="6"/>
+      <c r="H632" s="6"/>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A633" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="B633" s="7">
+        <v>148</v>
+      </c>
+      <c r="C633" s="8">
+        <v>42904</v>
+      </c>
+      <c r="D633" s="7">
+        <v>1</v>
+      </c>
+      <c r="E633" s="7">
+        <v>1</v>
+      </c>
+      <c r="F633" s="7">
+        <v>2</v>
+      </c>
+      <c r="G633" s="6"/>
+      <c r="H633" s="6"/>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A634" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="B634" s="7">
+        <v>148</v>
+      </c>
+      <c r="C634" s="8">
+        <v>42904</v>
+      </c>
+      <c r="D634" s="7">
+        <v>1</v>
+      </c>
+      <c r="E634" s="7">
+        <v>2</v>
+      </c>
+      <c r="F634" s="7">
+        <v>1</v>
+      </c>
+      <c r="G634" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H634" s="6"/>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A635" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="B635" s="7">
+        <v>148</v>
+      </c>
+      <c r="C635" s="8">
+        <v>42904</v>
+      </c>
+      <c r="D635" s="7">
+        <v>1</v>
+      </c>
+      <c r="E635" s="7">
+        <v>3</v>
+      </c>
+      <c r="F635" s="7">
+        <v>1</v>
+      </c>
+      <c r="G635" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H635" s="6"/>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A636" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="B636" s="7">
+        <v>148</v>
+      </c>
+      <c r="C636" s="8">
+        <v>42904</v>
+      </c>
+      <c r="D636" s="7">
+        <v>1</v>
+      </c>
+      <c r="E636" s="7">
+        <v>4</v>
+      </c>
+      <c r="F636" s="7">
+        <v>1</v>
+      </c>
+      <c r="G636" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H636" s="6"/>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A637" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="B637" s="7">
+        <v>148</v>
+      </c>
+      <c r="C637" s="8">
+        <v>42904</v>
+      </c>
+      <c r="D637" s="7">
+        <v>4</v>
+      </c>
+      <c r="E637" s="7">
+        <v>1</v>
+      </c>
+      <c r="F637" s="7">
+        <v>2</v>
+      </c>
+      <c r="G637" s="6"/>
+      <c r="H637" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A638" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B638" s="7">
+        <v>148</v>
+      </c>
+      <c r="C638" s="8">
+        <v>42904</v>
+      </c>
+      <c r="D638" s="7">
+        <v>4</v>
+      </c>
+      <c r="E638" s="7">
+        <v>2</v>
+      </c>
+      <c r="F638" s="7">
+        <v>1</v>
+      </c>
+      <c r="G638" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H638" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A639" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B639" s="7">
+        <v>148</v>
+      </c>
+      <c r="C639" s="8">
+        <v>42905</v>
+      </c>
+      <c r="D639" s="7">
+        <v>1</v>
+      </c>
+      <c r="E639" s="7">
+        <v>1</v>
+      </c>
+      <c r="F639" s="7">
+        <v>2</v>
+      </c>
+      <c r="G639" s="6"/>
+      <c r="H639" s="6"/>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A640" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="B640" s="7">
+        <v>148</v>
+      </c>
+      <c r="C640" s="8">
+        <v>42905</v>
+      </c>
+      <c r="D640" s="7">
+        <v>1</v>
+      </c>
+      <c r="E640" s="7">
+        <v>2</v>
+      </c>
+      <c r="F640" s="7">
+        <v>1</v>
+      </c>
+      <c r="G640" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H640" s="6"/>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A641" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="B641" s="7">
+        <v>148</v>
+      </c>
+      <c r="C641" s="8">
+        <v>42905</v>
+      </c>
+      <c r="D641" s="7">
+        <v>1</v>
+      </c>
+      <c r="E641" s="7">
+        <v>3</v>
+      </c>
+      <c r="F641" s="7">
+        <v>1</v>
+      </c>
+      <c r="G641" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A642" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B642" s="7">
+        <v>148</v>
+      </c>
+      <c r="C642" s="8">
+        <v>42905</v>
+      </c>
+      <c r="D642" s="7">
+        <v>1</v>
+      </c>
+      <c r="E642" s="7">
+        <v>4</v>
+      </c>
+      <c r="F642" s="7">
+        <v>1</v>
+      </c>
+      <c r="G642" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A643" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="B643" s="7">
+        <v>148</v>
+      </c>
+      <c r="C643" s="8">
+        <v>42905</v>
+      </c>
+      <c r="D643" s="7">
+        <v>4</v>
+      </c>
+      <c r="E643" s="7">
+        <v>1</v>
+      </c>
+      <c r="F643" s="7">
+        <v>2</v>
+      </c>
+      <c r="G643" s="6"/>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A644" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="B644" s="7">
+        <v>148</v>
+      </c>
+      <c r="C644" s="8">
+        <v>42905</v>
+      </c>
+      <c r="D644" s="7">
+        <v>4</v>
+      </c>
+      <c r="E644" s="7">
+        <v>2</v>
+      </c>
+      <c r="F644" s="7">
+        <v>2</v>
+      </c>
+      <c r="G644" s="6"/>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A645" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="B645" s="7">
+        <v>148</v>
+      </c>
+      <c r="C645" s="8">
+        <v>42905</v>
+      </c>
+      <c r="D645" s="7">
+        <v>4</v>
+      </c>
+      <c r="E645" s="7">
+        <v>3</v>
+      </c>
+      <c r="F645" s="7">
+        <v>1</v>
+      </c>
+      <c r="G645" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A646" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="B646" s="7">
+        <v>148</v>
+      </c>
+      <c r="C646" s="8">
+        <v>42905</v>
+      </c>
+      <c r="D646" s="7">
+        <v>4</v>
+      </c>
+      <c r="E646" s="7">
+        <v>4</v>
+      </c>
+      <c r="F646" s="7">
+        <v>1</v>
+      </c>
+      <c r="G646" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A647" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="B647" s="7">
+        <v>148</v>
+      </c>
+      <c r="C647" s="8">
+        <v>42906</v>
+      </c>
+      <c r="D647" s="7">
+        <v>1</v>
+      </c>
+      <c r="E647" s="7">
+        <v>1</v>
+      </c>
+      <c r="F647" s="7">
+        <v>2</v>
+      </c>
+      <c r="G647" s="6"/>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A648" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="B648" s="7">
+        <v>148</v>
+      </c>
+      <c r="C648" s="8">
+        <v>42906</v>
+      </c>
+      <c r="D648" s="7">
+        <v>1</v>
+      </c>
+      <c r="E648" s="7">
+        <v>2</v>
+      </c>
+      <c r="F648" s="7">
+        <v>1</v>
+      </c>
+      <c r="G648" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A649" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="B649" s="7">
+        <v>148</v>
+      </c>
+      <c r="C649" s="8">
+        <v>42906</v>
+      </c>
+      <c r="D649" s="7">
+        <v>4</v>
+      </c>
+      <c r="E649" s="7">
+        <v>1</v>
+      </c>
+      <c r="F649" s="7">
+        <v>2</v>
+      </c>
+      <c r="G649" s="6"/>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A650" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="B650" s="7">
+        <v>148</v>
+      </c>
+      <c r="C650" s="8">
+        <v>42906</v>
+      </c>
+      <c r="D650" s="7">
+        <v>4</v>
+      </c>
+      <c r="E650" s="7">
+        <v>2</v>
+      </c>
+      <c r="F650" s="7">
+        <v>2</v>
+      </c>
+      <c r="G650" s="6"/>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A651" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="B651" s="7">
+        <v>148</v>
+      </c>
+      <c r="C651" s="8">
+        <v>42906</v>
+      </c>
+      <c r="D651" s="7">
+        <v>4</v>
+      </c>
+      <c r="E651" s="7">
+        <v>3</v>
+      </c>
+      <c r="F651" s="7">
+        <v>2</v>
+      </c>
+      <c r="G651" s="6"/>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A652" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="B652" s="7">
+        <v>148</v>
+      </c>
+      <c r="C652" s="8">
+        <v>42906</v>
+      </c>
+      <c r="D652" s="7">
+        <v>4</v>
+      </c>
+      <c r="E652" s="7">
+        <v>4</v>
+      </c>
+      <c r="F652" s="7">
+        <v>1</v>
+      </c>
+      <c r="G652" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A653" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="B653" s="7">
+        <v>148</v>
+      </c>
+      <c r="C653" s="8">
+        <v>42906</v>
+      </c>
+      <c r="D653" s="7">
+        <v>4</v>
+      </c>
+      <c r="E653" s="7">
+        <v>5</v>
+      </c>
+      <c r="F653" s="7">
+        <v>1</v>
+      </c>
+      <c r="G653" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A654" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="B654" s="7">
+        <v>148</v>
+      </c>
+      <c r="C654" s="8">
+        <v>42907</v>
+      </c>
+      <c r="D654" s="7">
+        <v>1</v>
+      </c>
+      <c r="E654" s="7">
+        <v>1</v>
+      </c>
+      <c r="F654" s="7">
+        <v>2</v>
+      </c>
+      <c r="G654" s="6"/>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A655" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="B655" s="7">
+        <v>148</v>
+      </c>
+      <c r="C655" s="8">
+        <v>42907</v>
+      </c>
+      <c r="D655" s="7">
+        <v>1</v>
+      </c>
+      <c r="E655" s="7">
+        <v>2</v>
+      </c>
+      <c r="F655" s="7">
+        <v>1</v>
+      </c>
+      <c r="G655" s="7" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A656" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="B656" s="7">
+        <v>148</v>
+      </c>
+      <c r="C656" s="8">
+        <v>42907</v>
+      </c>
+      <c r="D656" s="7">
+        <v>1</v>
+      </c>
+      <c r="E656" s="7">
+        <v>3</v>
+      </c>
+      <c r="F656" s="7">
+        <v>1</v>
+      </c>
+      <c r="G656" s="7" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A657" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="B657" s="7">
+        <v>148</v>
+      </c>
+      <c r="C657" s="8">
+        <v>42907</v>
+      </c>
+      <c r="D657" s="7">
+        <v>1</v>
+      </c>
+      <c r="E657" s="7">
+        <v>4</v>
+      </c>
+      <c r="F657" s="7">
+        <v>1</v>
+      </c>
+      <c r="G657" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H657" s="6"/>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A658" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="B658" s="7">
+        <v>148</v>
+      </c>
+      <c r="C658" s="8">
+        <v>42907</v>
+      </c>
+      <c r="D658" s="7">
+        <v>4</v>
+      </c>
+      <c r="E658" s="7">
+        <v>1</v>
+      </c>
+      <c r="F658" s="7">
+        <v>2</v>
+      </c>
+      <c r="G658" s="6"/>
+      <c r="H658" s="6"/>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A659" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="B659" s="7">
+        <v>148</v>
+      </c>
+      <c r="C659" s="8">
+        <v>42907</v>
+      </c>
+      <c r="D659" s="7">
+        <v>4</v>
+      </c>
+      <c r="E659" s="7">
+        <v>2</v>
+      </c>
+      <c r="F659" s="7">
+        <v>2</v>
+      </c>
+      <c r="G659" s="6"/>
+      <c r="H659" s="6"/>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A660" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="B660" s="7">
+        <v>148</v>
+      </c>
+      <c r="C660" s="8">
+        <v>42907</v>
+      </c>
+      <c r="D660" s="7">
+        <v>4</v>
+      </c>
+      <c r="E660" s="7">
+        <v>3</v>
+      </c>
+      <c r="F660" s="7">
+        <v>1</v>
+      </c>
+      <c r="G660" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H660" s="6"/>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A661" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="B661" s="7">
+        <v>148</v>
+      </c>
+      <c r="C661" s="8">
+        <v>42908</v>
+      </c>
+      <c r="D661" s="7">
+        <v>1</v>
+      </c>
+      <c r="E661" s="7">
+        <v>1</v>
+      </c>
+      <c r="F661" s="7">
+        <v>2</v>
+      </c>
+      <c r="G661" s="6"/>
+      <c r="H661" s="6"/>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A662" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="B662" s="7">
+        <v>148</v>
+      </c>
+      <c r="C662" s="8">
+        <v>42908</v>
+      </c>
+      <c r="D662" s="7">
+        <v>1</v>
+      </c>
+      <c r="E662" s="7">
+        <v>2</v>
+      </c>
+      <c r="F662" s="7">
+        <v>1</v>
+      </c>
+      <c r="G662" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H662" s="6"/>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A663" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="B663" s="7">
+        <v>148</v>
+      </c>
+      <c r="C663" s="8">
+        <v>42908</v>
+      </c>
+      <c r="D663" s="7">
+        <v>4</v>
+      </c>
+      <c r="E663" s="7">
+        <v>1</v>
+      </c>
+      <c r="F663" s="7">
+        <v>1</v>
+      </c>
+      <c r="G663" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="H663" s="6"/>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A664" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="B664" s="7">
+        <v>148</v>
+      </c>
+      <c r="C664" s="8">
+        <v>42908</v>
+      </c>
+      <c r="D664" s="7">
+        <v>4</v>
+      </c>
+      <c r="E664" s="7">
+        <v>2</v>
+      </c>
+      <c r="F664" s="7">
+        <v>1</v>
+      </c>
+      <c r="G664" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H664" s="6"/>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A665" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="B665" s="7">
+        <v>148</v>
+      </c>
+      <c r="C665" s="8">
+        <v>42908</v>
+      </c>
+      <c r="D665" s="7">
+        <v>4</v>
+      </c>
+      <c r="E665" s="7">
+        <v>3</v>
+      </c>
+      <c r="F665" s="7">
+        <v>1</v>
+      </c>
+      <c r="G665" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H665" s="6"/>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A666" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="B666" s="7">
+        <v>148</v>
+      </c>
+      <c r="C666" s="8">
+        <v>42908</v>
+      </c>
+      <c r="D666" s="7">
+        <v>4</v>
+      </c>
+      <c r="E666" s="7">
+        <v>4</v>
+      </c>
+      <c r="F666" s="7">
+        <v>1</v>
+      </c>
+      <c r="G666" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H666" s="7" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A667" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="B667" s="7">
+        <v>148</v>
+      </c>
+      <c r="C667" s="8">
+        <v>42908</v>
+      </c>
+      <c r="D667" s="7">
+        <v>4</v>
+      </c>
+      <c r="E667" s="7">
+        <v>5</v>
+      </c>
+      <c r="F667" s="7">
+        <v>1</v>
+      </c>
+      <c r="G667" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H667" s="7" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A668" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="B668" s="7">
+        <v>148</v>
+      </c>
+      <c r="C668" s="8">
+        <v>42911</v>
+      </c>
+      <c r="D668" s="7">
+        <v>1</v>
+      </c>
+      <c r="E668" s="7">
+        <v>1</v>
+      </c>
+      <c r="F668" s="7">
+        <v>2</v>
+      </c>
+      <c r="G668" s="6"/>
+      <c r="H668" s="6"/>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A669" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="B669" s="7">
+        <v>148</v>
+      </c>
+      <c r="C669" s="8">
+        <v>42911</v>
+      </c>
+      <c r="D669" s="7">
+        <v>1</v>
+      </c>
+      <c r="E669" s="7">
+        <v>2</v>
+      </c>
+      <c r="F669" s="7">
+        <v>1</v>
+      </c>
+      <c r="G669" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H669" s="6"/>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A670" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="B670" s="7">
+        <v>148</v>
+      </c>
+      <c r="C670" s="8">
+        <v>42911</v>
+      </c>
+      <c r="D670" s="7">
+        <v>4</v>
+      </c>
+      <c r="E670" s="7">
+        <v>1</v>
+      </c>
+      <c r="F670" s="7">
+        <v>2</v>
+      </c>
+      <c r="G670" s="6"/>
+      <c r="H670" s="6"/>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A671" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="B671" s="7">
+        <v>148</v>
+      </c>
+      <c r="C671" s="8">
+        <v>42911</v>
+      </c>
+      <c r="D671" s="7">
+        <v>4</v>
+      </c>
+      <c r="E671" s="7">
+        <v>2</v>
+      </c>
+      <c r="F671" s="7">
+        <v>2</v>
+      </c>
+      <c r="G671" s="6"/>
+      <c r="H671" s="6"/>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A672" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="B672" s="7">
+        <v>148</v>
+      </c>
+      <c r="C672" s="8">
+        <v>42911</v>
+      </c>
+      <c r="D672" s="7">
+        <v>4</v>
+      </c>
+      <c r="E672" s="7">
+        <v>3</v>
+      </c>
+      <c r="F672" s="7">
+        <v>2</v>
+      </c>
+      <c r="G672" s="6"/>
+      <c r="H672" s="6"/>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A673" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="B673" s="7">
+        <v>148</v>
+      </c>
+      <c r="C673" s="8">
+        <v>42911</v>
+      </c>
+      <c r="D673" s="7">
+        <v>4</v>
+      </c>
+      <c r="E673" s="7">
+        <v>4</v>
+      </c>
+      <c r="F673" s="7">
+        <v>2</v>
+      </c>
+      <c r="G673" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A674" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="B674" s="7">
+        <v>148</v>
+      </c>
+      <c r="C674" s="8">
+        <v>42911</v>
+      </c>
+      <c r="D674" s="7">
+        <v>4</v>
+      </c>
+      <c r="E674" s="7">
+        <v>5</v>
+      </c>
+      <c r="F674" s="7">
+        <v>2</v>
+      </c>
+      <c r="G674" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A675" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="B675" s="7">
+        <v>148</v>
+      </c>
+      <c r="C675" s="8">
+        <v>42911</v>
+      </c>
+      <c r="D675" s="7">
+        <v>4</v>
+      </c>
+      <c r="E675" s="7">
+        <v>6</v>
+      </c>
+      <c r="F675" s="7">
+        <v>2</v>
+      </c>
+      <c r="G675" s="6"/>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A676" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="B676" s="7">
+        <v>148</v>
+      </c>
+      <c r="C676" s="8">
+        <v>42911</v>
+      </c>
+      <c r="D676" s="7">
+        <v>4</v>
+      </c>
+      <c r="E676" s="7">
+        <v>7</v>
+      </c>
+      <c r="F676" s="7">
+        <v>2</v>
+      </c>
+      <c r="G676" s="6"/>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A677" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="B677" s="7">
+        <v>148</v>
+      </c>
+      <c r="C677" s="8">
+        <v>42911</v>
+      </c>
+      <c r="D677" s="7">
+        <v>4</v>
+      </c>
+      <c r="E677" s="7">
+        <v>8</v>
+      </c>
+      <c r="F677" s="7">
+        <v>1</v>
+      </c>
+      <c r="G677" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A678" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="B678" s="7">
+        <v>148</v>
+      </c>
+      <c r="C678" s="8">
+        <v>42911</v>
+      </c>
+      <c r="D678" s="7">
+        <v>4</v>
+      </c>
+      <c r="E678" s="7">
+        <v>9</v>
+      </c>
+      <c r="F678" s="7">
+        <v>2</v>
+      </c>
+      <c r="G678" s="6"/>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A679" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="B679" s="7">
+        <v>148</v>
+      </c>
+      <c r="C679" s="8">
+        <v>42911</v>
+      </c>
+      <c r="D679" s="7">
+        <v>4</v>
+      </c>
+      <c r="E679" s="7">
+        <v>10</v>
+      </c>
+      <c r="F679" s="7">
+        <v>1</v>
+      </c>
+      <c r="G679" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A680" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="B680" s="7">
+        <v>148</v>
+      </c>
+      <c r="C680" s="8">
+        <v>42911</v>
+      </c>
+      <c r="D680" s="7">
+        <v>4</v>
+      </c>
+      <c r="E680" s="7">
+        <v>11</v>
+      </c>
+      <c r="F680" s="7">
+        <v>1</v>
+      </c>
+      <c r="G680" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A681" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="B681" s="7">
+        <v>148</v>
+      </c>
+      <c r="C681" s="8">
+        <v>42911</v>
+      </c>
+      <c r="D681" s="7">
+        <v>4</v>
+      </c>
+      <c r="E681" s="7">
+        <v>12</v>
+      </c>
+      <c r="F681" s="7">
+        <v>1</v>
+      </c>
+      <c r="G681" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A682" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B682" s="7">
+        <v>148</v>
+      </c>
+      <c r="C682" s="8">
+        <v>42912</v>
+      </c>
+      <c r="D682" s="7">
+        <v>1</v>
+      </c>
+      <c r="E682" s="7">
+        <v>1</v>
+      </c>
+      <c r="F682" s="7">
+        <v>2</v>
+      </c>
+      <c r="G682" s="6"/>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A683" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="B683" s="7">
+        <v>148</v>
+      </c>
+      <c r="C683" s="8">
+        <v>42912</v>
+      </c>
+      <c r="D683" s="7">
+        <v>1</v>
+      </c>
+      <c r="E683" s="7">
+        <v>2</v>
+      </c>
+      <c r="F683" s="7">
+        <v>2</v>
+      </c>
+      <c r="G683" s="6"/>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A684" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="B684" s="7">
+        <v>148</v>
+      </c>
+      <c r="C684" s="8">
+        <v>42912</v>
+      </c>
+      <c r="D684" s="7">
+        <v>1</v>
+      </c>
+      <c r="E684" s="7">
+        <v>3</v>
+      </c>
+      <c r="F684" s="7">
+        <v>1</v>
+      </c>
+      <c r="G684" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A685" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="B685" s="7">
+        <v>148</v>
+      </c>
+      <c r="C685" s="8">
+        <v>42912</v>
+      </c>
+      <c r="D685" s="7">
+        <v>1</v>
+      </c>
+      <c r="E685" s="7">
+        <v>4</v>
+      </c>
+      <c r="F685" s="7">
+        <v>1</v>
+      </c>
+      <c r="G685" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A686" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="B686" s="7">
+        <v>148</v>
+      </c>
+      <c r="C686" s="8">
+        <v>42912</v>
+      </c>
+      <c r="D686" s="7">
+        <v>4</v>
+      </c>
+      <c r="E686" s="7">
+        <v>1</v>
+      </c>
+      <c r="F686" s="7">
+        <v>2</v>
+      </c>
+      <c r="G686" s="6"/>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A687" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="B687" s="7">
+        <v>148</v>
+      </c>
+      <c r="C687" s="8">
+        <v>42912</v>
+      </c>
+      <c r="D687" s="7">
+        <v>4</v>
+      </c>
+      <c r="E687" s="7">
+        <v>2</v>
+      </c>
+      <c r="F687" s="7">
+        <v>1</v>
+      </c>
+      <c r="G687" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A688" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="B688" s="7">
+        <v>148</v>
+      </c>
+      <c r="C688" s="8">
+        <v>42913</v>
+      </c>
+      <c r="D688" s="7">
+        <v>1</v>
+      </c>
+      <c r="E688" s="7">
+        <v>1</v>
+      </c>
+      <c r="F688" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G688" s="7" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A689" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="B689" s="7">
+        <v>148</v>
+      </c>
+      <c r="C689" s="8">
+        <v>42913</v>
+      </c>
+      <c r="D689" s="7">
+        <v>1</v>
+      </c>
+      <c r="E689" s="7">
+        <v>2</v>
+      </c>
+      <c r="F689" s="7">
+        <v>1</v>
+      </c>
+      <c r="G689" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A690" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="B690" s="7">
+        <v>148</v>
+      </c>
+      <c r="C690" s="8">
+        <v>42913</v>
+      </c>
+      <c r="D690" s="7">
+        <v>1</v>
+      </c>
+      <c r="E690" s="7">
+        <v>3</v>
+      </c>
+      <c r="F690" s="7">
+        <v>1</v>
+      </c>
+      <c r="G690" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A691" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="B691" s="7">
+        <v>148</v>
+      </c>
+      <c r="C691" s="8">
+        <v>42913</v>
+      </c>
+      <c r="D691" s="7">
+        <v>1</v>
+      </c>
+      <c r="E691" s="7">
+        <v>4</v>
+      </c>
+      <c r="F691" s="7">
+        <v>1</v>
+      </c>
+      <c r="G691" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A692" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="B692" s="7">
+        <v>148</v>
+      </c>
+      <c r="C692" s="8">
+        <v>42913</v>
+      </c>
+      <c r="D692" s="7">
+        <v>1</v>
+      </c>
+      <c r="E692" s="7">
+        <v>5</v>
+      </c>
+      <c r="F692" s="7">
+        <v>1</v>
+      </c>
+      <c r="G692" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A693" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="B693" s="7">
+        <v>148</v>
+      </c>
+      <c r="C693" s="8">
+        <v>42913</v>
+      </c>
+      <c r="D693" s="7">
+        <v>1</v>
+      </c>
+      <c r="E693" s="7">
+        <v>6</v>
+      </c>
+      <c r="F693" s="7">
+        <v>1</v>
+      </c>
+      <c r="G693" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A694" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="B694" s="7">
+        <v>148</v>
+      </c>
+      <c r="C694" s="8">
+        <v>42913</v>
+      </c>
+      <c r="D694" s="7">
+        <v>4</v>
+      </c>
+      <c r="E694" s="7">
+        <v>1</v>
+      </c>
+      <c r="F694" s="7">
+        <v>2</v>
+      </c>
+      <c r="G694" s="6"/>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A695" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="B695" s="7">
+        <v>148</v>
+      </c>
+      <c r="C695" s="8">
+        <v>42913</v>
+      </c>
+      <c r="D695" s="7">
+        <v>4</v>
+      </c>
+      <c r="E695" s="7">
+        <v>2</v>
+      </c>
+      <c r="F695" s="7">
+        <v>2</v>
+      </c>
+      <c r="G695" s="6"/>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A696" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="B696" s="7">
+        <v>148</v>
+      </c>
+      <c r="C696" s="8">
+        <v>42913</v>
+      </c>
+      <c r="D696" s="7">
+        <v>4</v>
+      </c>
+      <c r="E696" s="7">
+        <v>3</v>
+      </c>
+      <c r="F696" s="7">
+        <v>2</v>
+      </c>
+      <c r="G696" s="6"/>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A697" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="B697" s="7">
+        <v>148</v>
+      </c>
+      <c r="C697" s="8">
+        <v>42913</v>
+      </c>
+      <c r="D697" s="7">
+        <v>4</v>
+      </c>
+      <c r="E697" s="7">
+        <v>4</v>
+      </c>
+      <c r="F697" s="7">
+        <v>1</v>
+      </c>
+      <c r="G697" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A698" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="B698" s="7">
+        <v>148</v>
+      </c>
+      <c r="C698" s="8">
+        <v>42913</v>
+      </c>
+      <c r="D698" s="7">
+        <v>4</v>
+      </c>
+      <c r="E698" s="7">
+        <v>5</v>
+      </c>
+      <c r="F698" s="7">
+        <v>1</v>
+      </c>
+      <c r="G698" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A699" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="B699" s="7">
+        <v>148</v>
+      </c>
+      <c r="C699" s="8">
+        <v>42913</v>
+      </c>
+      <c r="D699" s="7">
+        <v>4</v>
+      </c>
+      <c r="E699" s="7">
+        <v>6</v>
+      </c>
+      <c r="F699" s="7">
+        <v>1</v>
+      </c>
+      <c r="G699" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A700" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="B700" s="7">
+        <v>148</v>
+      </c>
+      <c r="C700" s="8">
+        <v>42913</v>
+      </c>
+      <c r="D700" s="7">
+        <v>4</v>
+      </c>
+      <c r="E700" s="7">
+        <v>7</v>
+      </c>
+      <c r="F700" s="7">
+        <v>1</v>
+      </c>
+      <c r="G700" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A701" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="B701" s="7">
+        <v>148</v>
+      </c>
+      <c r="C701" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D701" s="7">
+        <v>1</v>
+      </c>
+      <c r="E701" s="7">
+        <v>1</v>
+      </c>
+      <c r="F701" s="7">
+        <v>2</v>
+      </c>
+      <c r="G701" s="6"/>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A702" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="B702" s="7">
+        <v>148</v>
+      </c>
+      <c r="C702" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D702" s="7">
+        <v>1</v>
+      </c>
+      <c r="E702" s="7">
+        <v>2</v>
+      </c>
+      <c r="F702" s="7">
+        <v>2</v>
+      </c>
+      <c r="G702" s="6"/>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A703" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="B703" s="7">
+        <v>148</v>
+      </c>
+      <c r="C703" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D703" s="7">
+        <v>1</v>
+      </c>
+      <c r="E703" s="7">
+        <v>3</v>
+      </c>
+      <c r="F703" s="7">
+        <v>2</v>
+      </c>
+      <c r="G703" s="6"/>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A704" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="B704" s="7">
+        <v>148</v>
+      </c>
+      <c r="C704" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D704" s="7">
+        <v>1</v>
+      </c>
+      <c r="E704" s="7">
+        <v>4</v>
+      </c>
+      <c r="F704" s="7">
+        <v>2</v>
+      </c>
+      <c r="G704" s="6"/>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A705" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="B705" s="7">
+        <v>148</v>
+      </c>
+      <c r="C705" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D705" s="7">
+        <v>1</v>
+      </c>
+      <c r="E705" s="7">
+        <v>5</v>
+      </c>
+      <c r="F705" s="7">
+        <v>1</v>
+      </c>
+      <c r="G705" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="H705" s="6"/>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A706" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="B706" s="7">
+        <v>148</v>
+      </c>
+      <c r="C706" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D706" s="7">
+        <v>1</v>
+      </c>
+      <c r="E706" s="7">
+        <v>6</v>
+      </c>
+      <c r="F706" s="7">
+        <v>1</v>
+      </c>
+      <c r="G706" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="H706" s="6"/>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A707" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="B707" s="7">
+        <v>148</v>
+      </c>
+      <c r="C707" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D707" s="7">
+        <v>1</v>
+      </c>
+      <c r="E707" s="7">
+        <v>7</v>
+      </c>
+      <c r="F707" s="7">
+        <v>1</v>
+      </c>
+      <c r="G707" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="H707" s="6"/>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A708" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="B708" s="7">
+        <v>148</v>
+      </c>
+      <c r="C708" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D708" s="7">
+        <v>1</v>
+      </c>
+      <c r="E708" s="7">
+        <v>8</v>
+      </c>
+      <c r="F708" s="7">
+        <v>1</v>
+      </c>
+      <c r="G708" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="H708" s="6"/>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A709" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="B709" s="7">
+        <v>148</v>
+      </c>
+      <c r="C709" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D709" s="7">
+        <v>1</v>
+      </c>
+      <c r="E709" s="7">
+        <v>9</v>
+      </c>
+      <c r="F709" s="7">
+        <v>1</v>
+      </c>
+      <c r="G709" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="H709" s="6"/>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A710" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="B710" s="7">
+        <v>148</v>
+      </c>
+      <c r="C710" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D710" s="7">
+        <v>1</v>
+      </c>
+      <c r="E710" s="7">
+        <v>10</v>
+      </c>
+      <c r="F710" s="7">
+        <v>1</v>
+      </c>
+      <c r="G710" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H710" s="6"/>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A711" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="B711" s="7">
+        <v>148</v>
+      </c>
+      <c r="C711" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D711" s="7">
+        <v>1</v>
+      </c>
+      <c r="E711" s="7">
+        <v>11</v>
+      </c>
+      <c r="F711" s="7">
+        <v>1</v>
+      </c>
+      <c r="G711" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H711" s="6"/>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A712" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="B712" s="7">
+        <v>148</v>
+      </c>
+      <c r="C712" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D712" s="7">
+        <v>4</v>
+      </c>
+      <c r="E712" s="7">
+        <v>1</v>
+      </c>
+      <c r="F712" s="7">
+        <v>2</v>
+      </c>
+      <c r="G712" s="6"/>
+      <c r="H712" s="6"/>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A713" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="B713" s="7">
+        <v>148</v>
+      </c>
+      <c r="C713" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D713" s="7">
+        <v>4</v>
+      </c>
+      <c r="E713" s="7">
+        <v>2</v>
+      </c>
+      <c r="F713" s="7">
+        <v>1</v>
+      </c>
+      <c r="G713" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="H713" s="6"/>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A714" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="B714" s="7">
+        <v>148</v>
+      </c>
+      <c r="C714" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D714" s="7">
+        <v>4</v>
+      </c>
+      <c r="E714" s="7">
+        <v>3</v>
+      </c>
+      <c r="F714" s="7">
+        <v>2</v>
+      </c>
+      <c r="G714" s="6"/>
+      <c r="H714" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A715" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="B715" s="7">
+        <v>148</v>
+      </c>
+      <c r="C715" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D715" s="7">
+        <v>4</v>
+      </c>
+      <c r="E715" s="7">
+        <v>4</v>
+      </c>
+      <c r="F715" s="7">
+        <v>2</v>
+      </c>
+      <c r="G715" s="6"/>
+      <c r="H715" s="6"/>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A716" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="B716" s="7">
+        <v>148</v>
+      </c>
+      <c r="C716" s="8">
+        <v>42914</v>
+      </c>
+      <c r="D716" s="7">
+        <v>4</v>
+      </c>
+      <c r="E716" s="7">
+        <v>5</v>
+      </c>
+      <c r="F716" s="7">
+        <v>1</v>
+      </c>
+      <c r="G716" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H716" s="6"/>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A717" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="B717" s="7">
+        <v>148</v>
+      </c>
+      <c r="C717" s="8">
+        <v>42919</v>
+      </c>
+      <c r="D717" s="7">
+        <v>1</v>
+      </c>
+      <c r="E717" s="7">
+        <v>1</v>
+      </c>
+      <c r="F717" s="7">
+        <v>1</v>
+      </c>
+      <c r="G717" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H717" s="6"/>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A718" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="B718" s="7">
+        <v>148</v>
+      </c>
+      <c r="C718" s="8">
+        <v>42919</v>
+      </c>
+      <c r="D718" s="7">
+        <v>1</v>
+      </c>
+      <c r="E718" s="7">
+        <v>2</v>
+      </c>
+      <c r="F718" s="7">
+        <v>1</v>
+      </c>
+      <c r="G718" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H718" s="6"/>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A719" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="B719" s="7">
+        <v>148</v>
+      </c>
+      <c r="C719" s="8">
+        <v>42919</v>
+      </c>
+      <c r="D719" s="7">
+        <v>1</v>
+      </c>
+      <c r="E719" s="7">
+        <v>3</v>
+      </c>
+      <c r="F719" s="7">
+        <v>1</v>
+      </c>
+      <c r="G719" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H719" s="6"/>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A720" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="B720" s="7">
+        <v>148</v>
+      </c>
+      <c r="C720" s="8">
+        <v>42919</v>
+      </c>
+      <c r="D720" s="7">
+        <v>1</v>
+      </c>
+      <c r="E720" s="7">
+        <v>4</v>
+      </c>
+      <c r="F720" s="7">
+        <v>1</v>
+      </c>
+      <c r="G720" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H720" s="6"/>
+    </row>
+    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A721" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="B721" s="7">
+        <v>148</v>
+      </c>
+      <c r="C721" s="8">
+        <v>42919</v>
+      </c>
+      <c r="D721" s="7">
+        <v>4</v>
+      </c>
+      <c r="E721" s="7">
+        <v>1</v>
+      </c>
+      <c r="F721" s="7">
+        <v>2</v>
+      </c>
+      <c r="G721" s="6"/>
+    </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A722" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="B722" s="7">
+        <v>148</v>
+      </c>
+      <c r="C722" s="8">
+        <v>42919</v>
+      </c>
+      <c r="D722" s="7">
+        <v>4</v>
+      </c>
+      <c r="E722" s="7">
+        <v>2</v>
+      </c>
+      <c r="F722" s="7">
+        <v>1</v>
+      </c>
+      <c r="G722" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A723" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="B723" s="7">
+        <v>148</v>
+      </c>
+      <c r="C723" s="8">
+        <v>42919</v>
+      </c>
+      <c r="D723" s="7">
+        <v>4</v>
+      </c>
+      <c r="E723" s="7">
+        <v>3</v>
+      </c>
+      <c r="F723" s="7">
+        <v>1</v>
+      </c>
+      <c r="G723" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A724" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="B724" s="7">
+        <v>148</v>
+      </c>
+      <c r="C724" s="8">
+        <v>42919</v>
+      </c>
+      <c r="D724" s="7">
+        <v>4</v>
+      </c>
+      <c r="E724" s="7">
+        <v>4</v>
+      </c>
+      <c r="F724" s="7">
+        <v>1</v>
+      </c>
+      <c r="G724" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -3063,8 +3063,8 @@
   <dimension ref="A1:S724"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A684" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G691" sqref="G691"/>
+      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G573" sqref="G573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16043,7 +16043,7 @@
         <v>720</v>
       </c>
       <c r="B576" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C576" s="8">
         <v>42892</v>
@@ -16067,7 +16067,7 @@
         <v>721</v>
       </c>
       <c r="B577" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C577" s="8">
         <v>42892</v>
@@ -16091,7 +16091,7 @@
         <v>722</v>
       </c>
       <c r="B578" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C578" s="8">
         <v>42892</v>
@@ -16115,7 +16115,7 @@
         <v>723</v>
       </c>
       <c r="B579" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C579" s="8">
         <v>42892</v>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="918">
   <si>
     <t>bat</t>
   </si>
@@ -2771,6 +2771,18 @@
   </si>
   <si>
     <t>cell_num</t>
+  </si>
+  <si>
+    <t>TODO: take only the second half (unstable!)</t>
+  </si>
+  <si>
+    <t>same as unit 2</t>
+  </si>
+  <si>
+    <t>same as unit 1</t>
+  </si>
+  <si>
+    <t>same unit as unit 4???</t>
   </si>
 </sst>
 </file>
@@ -3120,8 +3132,8 @@
   <dimension ref="A1:T733"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4257,6 +4269,9 @@
       <c r="G42" s="1">
         <v>2</v>
       </c>
+      <c r="H42" s="3" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -8624,6 +8639,9 @@
       <c r="G211" s="1">
         <v>2</v>
       </c>
+      <c r="H211" s="3" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
@@ -14723,6 +14741,9 @@
       <c r="G447" s="1">
         <v>2</v>
       </c>
+      <c r="H447" s="3" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="448" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
@@ -14745,6 +14766,9 @@
       </c>
       <c r="G448" s="1">
         <v>2</v>
+      </c>
+      <c r="H448" s="3" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.2">

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="919">
   <si>
     <t>bat</t>
   </si>
@@ -2783,6 +2783,9 @@
   </si>
   <si>
     <t>same unit as unit 4???</t>
+  </si>
+  <si>
+    <t>too close to the noise; maybe can be isolated from the noise (should add spikes!!)</t>
   </si>
 </sst>
 </file>
@@ -3132,8 +3135,8 @@
   <dimension ref="A1:T733"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H155" sqref="H155"/>
+      <pane ySplit="1" topLeftCell="A613" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H639" sqref="H639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19651,8 +19654,8 @@
       <c r="G640" s="7">
         <v>1</v>
       </c>
-      <c r="H640" s="7" t="s">
-        <v>115</v>
+      <c r="H640" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="I640" s="6"/>
     </row>

--- a/inclusion_lists/cells_summary.xlsx
+++ b/inclusion_lists/cells_summary.xlsx
@@ -8881,8 +8881,8 @@
   <dimension ref="A1:T2283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2258" sqref="J2258"/>
+      <pane ySplit="1" topLeftCell="A1012" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1034" sqref="A1034"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37304,7 +37304,7 @@
         <v>1</v>
       </c>
       <c r="G1034" s="7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H1034" s="7" t="s">
         <v>1278</v>
